--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC41FFB-5A90-4DC9-B7BB-DE37C7061BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479453DE-D9F8-4147-B3EA-D5152E9F90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
+    <workbookView xWindow="7140" yWindow="1050" windowWidth="20745" windowHeight="13455" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>AAPL</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>PE</t>
+  </si>
+  <si>
+    <t>notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FCF Margin</t>
   </si>
 </sst>
 </file>
@@ -275,7 +284,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -317,15 +326,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -341,8 +350,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8515350" y="9525"/>
-          <a:ext cx="9525" cy="6115050"/>
+          <a:off x="8505825" y="9525"/>
+          <a:ext cx="9525" cy="9353550"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -685,88 +694,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B79C5-ED94-49D4-91A8-403BB18825CC}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>15115.823</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
-        <f>E3*E2</f>
+      <c r="F4" s="3">
+        <f>F3*F2</f>
         <v>2977817.1310000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <f>30299+23476</f>
         <v>53775</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>83956</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3">
-        <f>E4+E6-E5</f>
+      <c r="F7" s="3">
+        <f>F4+F6-F5</f>
         <v>3007998.1310000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8">
-        <f>E2/Sheet2!M16</f>
+      <c r="F8">
+        <f>F2/Sheet2!M16</f>
         <v>32.382389903558931</v>
       </c>
     </row>
@@ -777,13 +790,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1270A3AD-F548-451C-B2BF-0C6E206F237A}">
-  <dimension ref="A1:FK48"/>
+  <dimension ref="A1:FK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,19 +980,19 @@
         <v>156429.94755190008</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T2:T3" si="8">S3*1.01</f>
+        <f t="shared" ref="T3" si="8">S3*1.01</f>
         <v>157994.2470274191</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U2:U3" si="9">T3*1.01</f>
+        <f t="shared" ref="U3" si="9">T3*1.01</f>
         <v>159574.1894976933</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V2:V3" si="10">U3*1.01</f>
+        <f t="shared" ref="V3" si="10">U3*1.01</f>
         <v>161169.93139267023</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W2:W3" si="11">V3*1.01</f>
+        <f t="shared" ref="W3" si="11">V3*1.01</f>
         <v>162781.63070659694</v>
       </c>
     </row>
@@ -1054,11 +1067,11 @@
         <v>185233</v>
       </c>
       <c r="N5" s="3">
-        <f>N2*(1-N28)</f>
+        <f>N2*(1-N29)</f>
         <v>186531.68335000001</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" ref="O5:R5" si="18">O2*(1-O28)</f>
+        <f t="shared" ref="O5:R5" si="18">O2*(1-O29)</f>
         <v>187273.04211933498</v>
       </c>
       <c r="P5" s="3">
@@ -1074,7 +1087,7 @@
         <v>189403.61194508101</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" ref="S5:W5" si="19">S2*(1-S28)</f>
+        <f t="shared" ref="S5:W5" si="19">S2*(1-S29)</f>
         <v>190080.56253790599</v>
       </c>
       <c r="T5" s="3">
@@ -1108,11 +1121,11 @@
         <v>25119</v>
       </c>
       <c r="N6" s="3">
-        <f>N3*(1-N29)</f>
+        <f>N3*(1-N30)</f>
         <v>26849.350000000009</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:R6" si="20">O3*(1-O29)</f>
+        <f t="shared" ref="O6:R6" si="20">O3*(1-O30)</f>
         <v>28665.982950000016</v>
       </c>
       <c r="P6" s="3">
@@ -1128,7 +1141,7 @@
         <v>34617.487179365584</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:W6" si="21">S3*(1-S29)</f>
+        <f t="shared" ref="S6:W6" si="21">S3*(1-S30)</f>
         <v>33748.999196151839</v>
       </c>
       <c r="T6" s="3">
@@ -1441,43 +1454,43 @@
         <v>269</v>
       </c>
       <c r="N12" s="3">
-        <f>M39*$Z$20</f>
+        <f>M40*$Z$19</f>
         <v>-1810.86</v>
       </c>
       <c r="O12" s="3">
-        <f>N39*$Z$20</f>
+        <f>N40*$Z$19</f>
         <v>4308.2437584488198</v>
       </c>
       <c r="P12" s="3">
-        <f>O39*$Z$20</f>
+        <f>O40*$Z$19</f>
         <v>11144.297800946724</v>
       </c>
       <c r="Q12" s="3">
-        <f>P39*$Z$20</f>
+        <f>P40*$Z$19</f>
         <v>18771.940344500119</v>
       </c>
       <c r="R12" s="3">
-        <f>Q39*$Z$20</f>
+        <f>Q40*$Z$19</f>
         <v>27273.768434749774</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" ref="S12:W12" si="52">R39*$Z$20</f>
+        <f>R40*$Z$19</f>
         <v>36741.210344681531</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="52"/>
+        <f>S40*$Z$19</f>
         <v>46854.420527294707</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="52"/>
+        <f>T40*$Z$19</f>
         <v>57648.295337929034</v>
       </c>
       <c r="V12" s="3">
-        <f t="shared" si="52"/>
+        <f>U40*$Z$19</f>
         <v>69159.474656720951</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="52"/>
+        <f>V40*$Z$19</f>
         <v>81426.426362074533</v>
       </c>
     </row>
@@ -1490,51 +1503,51 @@
         <v>119103</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" ref="L13:M13" si="53">L11+L12</f>
+        <f t="shared" ref="L13:M13" si="52">L11+L12</f>
         <v>113736</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="52"/>
         <v>123485</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" ref="N13" si="54">N11+N12</f>
+        <f t="shared" ref="N13" si="53">N11+N12</f>
         <v>129095.01600102994</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" ref="O13" si="55">O11+O12</f>
+        <f t="shared" ref="O13" si="54">O11+O12</f>
         <v>144220.54941978704</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" ref="P13" si="56">P11+P12</f>
+        <f t="shared" ref="P13" si="55">P11+P12</f>
         <v>160920.72876694924</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" ref="Q13" si="57">Q11+Q12</f>
+        <f t="shared" ref="Q13" si="56">Q11+Q12</f>
         <v>179363.46181961306</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" ref="R13:W13" si="58">R11+R12</f>
+        <f t="shared" ref="R13:W13" si="57">R11+R12</f>
         <v>199735.06139096522</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>213358.86461209238</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>227718.87786148375</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>242851.88436269853</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>258796.44948003325</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="57"/>
         <v>275593.00597507169</v>
       </c>
     </row>
@@ -1556,39 +1569,39 @@
         <v>27109.953360216288</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14:R14" si="59">O13*O21</f>
+        <f t="shared" ref="O14:R14" si="58">O13*O21</f>
         <v>30286.315378155279</v>
       </c>
       <c r="P14" s="3">
+        <f t="shared" si="58"/>
+        <v>33793.353041059338</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="58"/>
+        <v>37666.326982118742</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="58"/>
+        <v>41944.362892102698</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" ref="S14:W14" si="59">S13*S21</f>
+        <v>44805.361568539396</v>
+      </c>
+      <c r="T14" s="3">
         <f t="shared" si="59"/>
-        <v>33793.353041059338</v>
-      </c>
-      <c r="Q14" s="3">
+        <v>47820.964350911585</v>
+      </c>
+      <c r="U14" s="3">
         <f t="shared" si="59"/>
-        <v>37666.326982118742</v>
-      </c>
-      <c r="R14" s="3">
+        <v>50998.895716166691</v>
+      </c>
+      <c r="V14" s="3">
         <f t="shared" si="59"/>
-        <v>41944.362892102698</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" ref="S14:W14" si="60">S13*S21</f>
-        <v>44805.361568539396</v>
-      </c>
-      <c r="T14" s="3">
-        <f t="shared" si="60"/>
-        <v>47820.964350911585</v>
-      </c>
-      <c r="U14" s="3">
-        <f t="shared" si="60"/>
-        <v>50998.895716166691</v>
-      </c>
-      <c r="V14" s="3">
-        <f t="shared" si="60"/>
         <v>54347.254390806978</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="59"/>
         <v>57874.531254765054</v>
       </c>
     </row>
@@ -1601,627 +1614,627 @@
         <v>99803</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15:N15" si="61">L13-L14</f>
+        <f t="shared" ref="L15:N15" si="60">L13-L14</f>
         <v>96995</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>93736</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="60"/>
         <v>101985.06264081366</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" ref="O15" si="62">O13-O14</f>
+        <f t="shared" ref="O15" si="61">O13-O14</f>
         <v>113934.23404163176</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" ref="P15" si="63">P13-P14</f>
+        <f t="shared" ref="P15" si="62">P13-P14</f>
         <v>127127.3757258899</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" ref="Q15" si="64">Q13-Q14</f>
+        <f t="shared" ref="Q15" si="63">Q13-Q14</f>
         <v>141697.13483749432</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" ref="R15:W15" si="65">R13-R14</f>
+        <f t="shared" ref="R15:W15" si="64">R13-R14</f>
         <v>157790.6984988625</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>168553.50304355298</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>179897.91351057217</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>191852.98864653183</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>204449.19508922627</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="64"/>
         <v>217718.47472030664</v>
       </c>
       <c r="X15" s="6">
-        <f>W15*(1+$Z$21)</f>
+        <f>W15*(1+$Z$20)</f>
         <v>219895.65946750971</v>
       </c>
       <c r="Y15" s="6">
-        <f>X15*(1+$Z$21)</f>
+        <f>X15*(1+$Z$20)</f>
         <v>222094.61606218482</v>
       </c>
       <c r="Z15" s="6">
-        <f>Y15*(1+$Z$21)</f>
+        <f>Y15*(1+$Z$20)</f>
         <v>224315.56222280668</v>
       </c>
       <c r="AA15" s="6">
-        <f>Z15*(1+$Z$21)</f>
+        <f>Z15*(1+$Z$20)</f>
         <v>226558.71784503476</v>
       </c>
       <c r="AB15" s="6">
-        <f>AA15*(1+$Z$21)</f>
+        <f>AA15*(1+$Z$20)</f>
         <v>228824.3050234851</v>
       </c>
       <c r="AC15" s="6">
-        <f>AB15*(1+$Z$21)</f>
+        <f>AB15*(1+$Z$20)</f>
         <v>231112.54807371995</v>
       </c>
       <c r="AD15" s="6">
-        <f>AC15*(1+$Z$21)</f>
+        <f>AC15*(1+$Z$20)</f>
         <v>233423.67355445714</v>
       </c>
       <c r="AE15" s="6">
-        <f>AD15*(1+$Z$21)</f>
+        <f>AD15*(1+$Z$20)</f>
         <v>235757.91029000172</v>
       </c>
       <c r="AF15" s="6">
-        <f>AE15*(1+$Z$21)</f>
+        <f>AE15*(1+$Z$20)</f>
         <v>238115.48939290174</v>
       </c>
       <c r="AG15" s="6">
-        <f>AF15*(1+$Z$21)</f>
+        <f>AF15*(1+$Z$20)</f>
         <v>240496.64428683076</v>
       </c>
       <c r="AH15" s="6">
-        <f>AG15*(1+$Z$21)</f>
+        <f>AG15*(1+$Z$20)</f>
         <v>242901.61072969908</v>
       </c>
       <c r="AI15" s="6">
-        <f>AH15*(1+$Z$21)</f>
+        <f>AH15*(1+$Z$20)</f>
         <v>245330.62683699606</v>
       </c>
       <c r="AJ15" s="6">
-        <f>AI15*(1+$Z$21)</f>
+        <f>AI15*(1+$Z$20)</f>
         <v>247783.93310536601</v>
       </c>
       <c r="AK15" s="6">
-        <f>AJ15*(1+$Z$21)</f>
+        <f>AJ15*(1+$Z$20)</f>
         <v>250261.77243641968</v>
       </c>
       <c r="AL15" s="6">
-        <f>AK15*(1+$Z$21)</f>
+        <f>AK15*(1+$Z$20)</f>
         <v>252764.39016078386</v>
       </c>
       <c r="AM15" s="6">
-        <f>AL15*(1+$Z$21)</f>
+        <f>AL15*(1+$Z$20)</f>
         <v>255292.0340623917</v>
       </c>
       <c r="AN15" s="6">
-        <f>AM15*(1+$Z$21)</f>
+        <f>AM15*(1+$Z$20)</f>
         <v>257844.95440301561</v>
       </c>
       <c r="AO15" s="6">
-        <f>AN15*(1+$Z$21)</f>
+        <f>AN15*(1+$Z$20)</f>
         <v>260423.40394704576</v>
       </c>
       <c r="AP15" s="6">
-        <f>AO15*(1+$Z$21)</f>
+        <f>AO15*(1+$Z$20)</f>
         <v>263027.63798651623</v>
       </c>
       <c r="AQ15" s="6">
-        <f>AP15*(1+$Z$21)</f>
+        <f>AP15*(1+$Z$20)</f>
         <v>265657.91436638142</v>
       </c>
       <c r="AR15" s="6">
-        <f>AQ15*(1+$Z$21)</f>
+        <f>AQ15*(1+$Z$20)</f>
         <v>268314.49351004523</v>
       </c>
       <c r="AS15" s="6">
-        <f>AR15*(1+$Z$21)</f>
+        <f>AR15*(1+$Z$20)</f>
         <v>270997.63844514568</v>
       </c>
       <c r="AT15" s="6">
-        <f>AS15*(1+$Z$21)</f>
+        <f>AS15*(1+$Z$20)</f>
         <v>273707.61482959712</v>
       </c>
       <c r="AU15" s="6">
-        <f>AT15*(1+$Z$21)</f>
+        <f>AT15*(1+$Z$20)</f>
         <v>276444.69097789307</v>
       </c>
       <c r="AV15" s="6">
-        <f>AU15*(1+$Z$21)</f>
+        <f>AU15*(1+$Z$20)</f>
         <v>279209.137887672</v>
       </c>
       <c r="AW15" s="6">
-        <f>AV15*(1+$Z$21)</f>
+        <f>AV15*(1+$Z$20)</f>
         <v>282001.2292665487</v>
       </c>
       <c r="AX15" s="6">
-        <f>AW15*(1+$Z$21)</f>
+        <f>AW15*(1+$Z$20)</f>
         <v>284821.24155921419</v>
       </c>
       <c r="AY15" s="6">
-        <f>AX15*(1+$Z$21)</f>
+        <f>AX15*(1+$Z$20)</f>
         <v>287669.45397480635</v>
       </c>
       <c r="AZ15" s="6">
-        <f>AY15*(1+$Z$21)</f>
+        <f>AY15*(1+$Z$20)</f>
         <v>290546.14851455443</v>
       </c>
       <c r="BA15" s="6">
-        <f>AZ15*(1+$Z$21)</f>
+        <f>AZ15*(1+$Z$20)</f>
         <v>293451.60999969998</v>
       </c>
       <c r="BB15" s="6">
-        <f>BA15*(1+$Z$21)</f>
+        <f>BA15*(1+$Z$20)</f>
         <v>296386.12609969696</v>
       </c>
       <c r="BC15" s="6">
-        <f>BB15*(1+$Z$21)</f>
+        <f>BB15*(1+$Z$20)</f>
         <v>299349.98736069392</v>
       </c>
       <c r="BD15" s="6">
-        <f>BC15*(1+$Z$21)</f>
+        <f>BC15*(1+$Z$20)</f>
         <v>302343.48723430088</v>
       </c>
       <c r="BE15" s="6">
-        <f>BD15*(1+$Z$21)</f>
+        <f>BD15*(1+$Z$20)</f>
         <v>305366.92210664391</v>
       </c>
       <c r="BF15" s="6">
-        <f>BE15*(1+$Z$21)</f>
+        <f>BE15*(1+$Z$20)</f>
         <v>308420.59132771037</v>
       </c>
       <c r="BG15" s="6">
-        <f>BF15*(1+$Z$21)</f>
+        <f>BF15*(1+$Z$20)</f>
         <v>311504.79724098748</v>
       </c>
       <c r="BH15" s="6">
-        <f>BG15*(1+$Z$21)</f>
+        <f>BG15*(1+$Z$20)</f>
         <v>314619.84521339735</v>
       </c>
       <c r="BI15" s="6">
-        <f>BH15*(1+$Z$21)</f>
+        <f>BH15*(1+$Z$20)</f>
         <v>317766.04366553132</v>
       </c>
       <c r="BJ15" s="6">
-        <f>BI15*(1+$Z$21)</f>
+        <f>BI15*(1+$Z$20)</f>
         <v>320943.70410218666</v>
       </c>
       <c r="BK15" s="6">
-        <f>BJ15*(1+$Z$21)</f>
+        <f>BJ15*(1+$Z$20)</f>
         <v>324153.14114320854</v>
       </c>
       <c r="BL15" s="6">
-        <f>BK15*(1+$Z$21)</f>
+        <f>BK15*(1+$Z$20)</f>
         <v>327394.67255464062</v>
       </c>
       <c r="BM15" s="6">
-        <f>BL15*(1+$Z$21)</f>
+        <f>BL15*(1+$Z$20)</f>
         <v>330668.61928018701</v>
       </c>
       <c r="BN15" s="6">
-        <f>BM15*(1+$Z$21)</f>
+        <f>BM15*(1+$Z$20)</f>
         <v>333975.30547298887</v>
       </c>
       <c r="BO15" s="6">
-        <f>BN15*(1+$Z$21)</f>
+        <f>BN15*(1+$Z$20)</f>
         <v>337315.05852771876</v>
       </c>
       <c r="BP15" s="6">
-        <f>BO15*(1+$Z$21)</f>
+        <f>BO15*(1+$Z$20)</f>
         <v>340688.20911299594</v>
       </c>
       <c r="BQ15" s="6">
-        <f>BP15*(1+$Z$21)</f>
+        <f>BP15*(1+$Z$20)</f>
         <v>344095.0912041259</v>
       </c>
       <c r="BR15" s="6">
-        <f>BQ15*(1+$Z$21)</f>
+        <f>BQ15*(1+$Z$20)</f>
         <v>347536.04211616714</v>
       </c>
       <c r="BS15" s="6">
-        <f>BR15*(1+$Z$21)</f>
+        <f>BR15*(1+$Z$20)</f>
         <v>351011.40253732883</v>
       </c>
       <c r="BT15" s="6">
-        <f>BS15*(1+$Z$21)</f>
+        <f>BS15*(1+$Z$20)</f>
         <v>354521.51656270213</v>
       </c>
       <c r="BU15" s="6">
-        <f>BT15*(1+$Z$21)</f>
+        <f>BT15*(1+$Z$20)</f>
         <v>358066.73172832915</v>
       </c>
       <c r="BV15" s="6">
-        <f>BU15*(1+$Z$21)</f>
+        <f>BU15*(1+$Z$20)</f>
         <v>361647.39904561243</v>
       </c>
       <c r="BW15" s="6">
-        <f>BV15*(1+$Z$21)</f>
+        <f>BV15*(1+$Z$20)</f>
         <v>365263.87303606857</v>
       </c>
       <c r="BX15" s="6">
-        <f>BW15*(1+$Z$21)</f>
+        <f>BW15*(1+$Z$20)</f>
         <v>368916.51176642923</v>
       </c>
       <c r="BY15" s="6">
-        <f>BX15*(1+$Z$21)</f>
+        <f>BX15*(1+$Z$20)</f>
         <v>372605.67688409355</v>
       </c>
       <c r="BZ15" s="6">
-        <f>BY15*(1+$Z$21)</f>
+        <f>BY15*(1+$Z$20)</f>
         <v>376331.73365293449</v>
       </c>
       <c r="CA15" s="6">
-        <f>BZ15*(1+$Z$21)</f>
+        <f>BZ15*(1+$Z$20)</f>
         <v>380095.05098946387</v>
       </c>
       <c r="CB15" s="6">
-        <f>CA15*(1+$Z$21)</f>
+        <f>CA15*(1+$Z$20)</f>
         <v>383896.00149935851</v>
       </c>
       <c r="CC15" s="6">
-        <f>CB15*(1+$Z$21)</f>
+        <f>CB15*(1+$Z$20)</f>
         <v>387734.96151435212</v>
       </c>
       <c r="CD15" s="6">
-        <f>CC15*(1+$Z$21)</f>
+        <f>CC15*(1+$Z$20)</f>
         <v>391612.31112949562</v>
       </c>
       <c r="CE15" s="6">
-        <f>CD15*(1+$Z$21)</f>
+        <f>CD15*(1+$Z$20)</f>
         <v>395528.43424079055</v>
       </c>
       <c r="CF15" s="6">
-        <f>CE15*(1+$Z$21)</f>
+        <f>CE15*(1+$Z$20)</f>
         <v>399483.71858319844</v>
       </c>
       <c r="CG15" s="6">
-        <f>CF15*(1+$Z$21)</f>
+        <f>CF15*(1+$Z$20)</f>
         <v>403478.55576903041</v>
       </c>
       <c r="CH15" s="6">
-        <f>CG15*(1+$Z$21)</f>
+        <f>CG15*(1+$Z$20)</f>
         <v>407513.34132672072</v>
       </c>
       <c r="CI15" s="6">
-        <f>CH15*(1+$Z$21)</f>
+        <f>CH15*(1+$Z$20)</f>
         <v>411588.47473998793</v>
       </c>
       <c r="CJ15" s="6">
-        <f>CI15*(1+$Z$21)</f>
+        <f>CI15*(1+$Z$20)</f>
         <v>415704.35948738782</v>
       </c>
       <c r="CK15" s="6">
-        <f>CJ15*(1+$Z$21)</f>
+        <f>CJ15*(1+$Z$20)</f>
         <v>419861.40308226168</v>
       </c>
       <c r="CL15" s="6">
-        <f>CK15*(1+$Z$21)</f>
+        <f>CK15*(1+$Z$20)</f>
         <v>424060.01711308432</v>
       </c>
       <c r="CM15" s="6">
-        <f>CL15*(1+$Z$21)</f>
+        <f>CL15*(1+$Z$20)</f>
         <v>428300.61728421517</v>
       </c>
       <c r="CN15" s="6">
-        <f>CM15*(1+$Z$21)</f>
+        <f>CM15*(1+$Z$20)</f>
         <v>432583.62345705734</v>
       </c>
       <c r="CO15" s="6">
-        <f>CN15*(1+$Z$21)</f>
+        <f>CN15*(1+$Z$20)</f>
         <v>436909.45969162794</v>
       </c>
       <c r="CP15" s="6">
-        <f>CO15*(1+$Z$21)</f>
+        <f>CO15*(1+$Z$20)</f>
         <v>441278.55428854423</v>
       </c>
       <c r="CQ15" s="6">
-        <f>CP15*(1+$Z$21)</f>
+        <f>CP15*(1+$Z$20)</f>
         <v>445691.33983142965</v>
       </c>
       <c r="CR15" s="6">
-        <f>CQ15*(1+$Z$21)</f>
+        <f>CQ15*(1+$Z$20)</f>
         <v>450148.25322974398</v>
       </c>
       <c r="CS15" s="6">
-        <f>CR15*(1+$Z$21)</f>
+        <f>CR15*(1+$Z$20)</f>
         <v>454649.73576204141</v>
       </c>
       <c r="CT15" s="6">
-        <f>CS15*(1+$Z$21)</f>
+        <f>CS15*(1+$Z$20)</f>
         <v>459196.2331196618</v>
       </c>
       <c r="CU15" s="6">
-        <f>CT15*(1+$Z$21)</f>
+        <f>CT15*(1+$Z$20)</f>
         <v>463788.19545085845</v>
       </c>
       <c r="CV15" s="6">
-        <f>CU15*(1+$Z$21)</f>
+        <f>CU15*(1+$Z$20)</f>
         <v>468426.07740536705</v>
       </c>
       <c r="CW15" s="6">
-        <f>CV15*(1+$Z$21)</f>
+        <f>CV15*(1+$Z$20)</f>
         <v>473110.33817942074</v>
       </c>
       <c r="CX15" s="6">
-        <f>CW15*(1+$Z$21)</f>
+        <f>CW15*(1+$Z$20)</f>
         <v>477841.44156121498</v>
       </c>
       <c r="CY15" s="6">
-        <f>CX15*(1+$Z$21)</f>
+        <f>CX15*(1+$Z$20)</f>
         <v>482619.85597682715</v>
       </c>
       <c r="CZ15" s="6">
-        <f>CY15*(1+$Z$21)</f>
+        <f>CY15*(1+$Z$20)</f>
         <v>487446.05453659542</v>
       </c>
       <c r="DA15" s="6">
-        <f>CZ15*(1+$Z$21)</f>
+        <f>CZ15*(1+$Z$20)</f>
         <v>492320.51508196135</v>
       </c>
       <c r="DB15" s="6">
-        <f>DA15*(1+$Z$21)</f>
+        <f>DA15*(1+$Z$20)</f>
         <v>497243.72023278096</v>
       </c>
       <c r="DC15" s="6">
-        <f>DB15*(1+$Z$21)</f>
+        <f>DB15*(1+$Z$20)</f>
         <v>502216.15743510879</v>
       </c>
       <c r="DD15" s="6">
-        <f>DC15*(1+$Z$21)</f>
+        <f>DC15*(1+$Z$20)</f>
         <v>507238.31900945987</v>
       </c>
       <c r="DE15" s="6">
-        <f>DD15*(1+$Z$21)</f>
+        <f>DD15*(1+$Z$20)</f>
         <v>512310.70219955448</v>
       </c>
       <c r="DF15" s="6">
-        <f>DE15*(1+$Z$21)</f>
+        <f>DE15*(1+$Z$20)</f>
         <v>517433.80922155001</v>
       </c>
       <c r="DG15" s="6">
-        <f>DF15*(1+$Z$21)</f>
+        <f>DF15*(1+$Z$20)</f>
         <v>522608.14731376548</v>
       </c>
       <c r="DH15" s="6">
-        <f>DG15*(1+$Z$21)</f>
+        <f>DG15*(1+$Z$20)</f>
         <v>527834.2287869032</v>
       </c>
       <c r="DI15" s="6">
-        <f>DH15*(1+$Z$21)</f>
+        <f>DH15*(1+$Z$20)</f>
         <v>533112.57107477228</v>
       </c>
       <c r="DJ15" s="6">
-        <f>DI15*(1+$Z$21)</f>
+        <f>DI15*(1+$Z$20)</f>
         <v>538443.69678551995</v>
       </c>
       <c r="DK15" s="6">
-        <f>DJ15*(1+$Z$21)</f>
+        <f>DJ15*(1+$Z$20)</f>
         <v>543828.13375337515</v>
       </c>
       <c r="DL15" s="6">
-        <f>DK15*(1+$Z$21)</f>
+        <f>DK15*(1+$Z$20)</f>
         <v>549266.41509090888</v>
       </c>
       <c r="DM15" s="6">
-        <f>DL15*(1+$Z$21)</f>
+        <f>DL15*(1+$Z$20)</f>
         <v>554759.07924181793</v>
       </c>
       <c r="DN15" s="6">
-        <f>DM15*(1+$Z$21)</f>
+        <f>DM15*(1+$Z$20)</f>
         <v>560306.67003423616</v>
       </c>
       <c r="DO15" s="6">
-        <f>DN15*(1+$Z$21)</f>
+        <f>DN15*(1+$Z$20)</f>
         <v>565909.7367345785</v>
       </c>
       <c r="DP15" s="6">
-        <f>DO15*(1+$Z$21)</f>
+        <f>DO15*(1+$Z$20)</f>
         <v>571568.83410192432</v>
       </c>
       <c r="DQ15" s="6">
-        <f>DP15*(1+$Z$21)</f>
+        <f>DP15*(1+$Z$20)</f>
         <v>577284.52244294353</v>
       </c>
       <c r="DR15" s="6">
-        <f>DQ15*(1+$Z$21)</f>
+        <f>DQ15*(1+$Z$20)</f>
         <v>583057.36766737292</v>
       </c>
       <c r="DS15" s="6">
-        <f>DR15*(1+$Z$21)</f>
+        <f>DR15*(1+$Z$20)</f>
         <v>588887.94134404662</v>
       </c>
       <c r="DT15" s="6">
-        <f>DS15*(1+$Z$21)</f>
+        <f>DS15*(1+$Z$20)</f>
         <v>594776.82075748709</v>
       </c>
       <c r="DU15" s="6">
-        <f>DT15*(1+$Z$21)</f>
+        <f>DT15*(1+$Z$20)</f>
         <v>600724.58896506194</v>
       </c>
       <c r="DV15" s="6">
-        <f>DU15*(1+$Z$21)</f>
+        <f>DU15*(1+$Z$20)</f>
         <v>606731.83485471259</v>
       </c>
       <c r="DW15" s="6">
-        <f>DV15*(1+$Z$21)</f>
+        <f>DV15*(1+$Z$20)</f>
         <v>612799.15320325969</v>
       </c>
       <c r="DX15" s="6">
-        <f>DW15*(1+$Z$21)</f>
+        <f>DW15*(1+$Z$20)</f>
         <v>618927.1447352923</v>
       </c>
       <c r="DY15" s="6">
-        <f>DX15*(1+$Z$21)</f>
+        <f>DX15*(1+$Z$20)</f>
         <v>625116.41618264525</v>
       </c>
       <c r="DZ15" s="6">
-        <f>DY15*(1+$Z$21)</f>
+        <f>DY15*(1+$Z$20)</f>
         <v>631367.58034447173</v>
       </c>
       <c r="EA15" s="6">
-        <f>DZ15*(1+$Z$21)</f>
+        <f>DZ15*(1+$Z$20)</f>
         <v>637681.25614791643</v>
       </c>
       <c r="EB15" s="6">
-        <f>EA15*(1+$Z$21)</f>
+        <f>EA15*(1+$Z$20)</f>
         <v>644058.06870939559</v>
       </c>
       <c r="EC15" s="6">
-        <f>EB15*(1+$Z$21)</f>
+        <f>EB15*(1+$Z$20)</f>
         <v>650498.64939648961</v>
       </c>
       <c r="ED15" s="6">
-        <f>EC15*(1+$Z$21)</f>
+        <f>EC15*(1+$Z$20)</f>
         <v>657003.63589045452</v>
       </c>
       <c r="EE15" s="6">
-        <f>ED15*(1+$Z$21)</f>
+        <f>ED15*(1+$Z$20)</f>
         <v>663573.67224935908</v>
       </c>
       <c r="EF15" s="6">
-        <f>EE15*(1+$Z$21)</f>
+        <f>EE15*(1+$Z$20)</f>
         <v>670209.40897185262</v>
       </c>
       <c r="EG15" s="6">
-        <f>EF15*(1+$Z$21)</f>
+        <f>EF15*(1+$Z$20)</f>
         <v>676911.50306157116</v>
       </c>
       <c r="EH15" s="6">
-        <f>EG15*(1+$Z$21)</f>
+        <f>EG15*(1+$Z$20)</f>
         <v>683680.61809218687</v>
       </c>
       <c r="EI15" s="6">
-        <f>EH15*(1+$Z$21)</f>
+        <f>EH15*(1+$Z$20)</f>
         <v>690517.42427310871</v>
       </c>
       <c r="EJ15" s="6">
-        <f>EI15*(1+$Z$21)</f>
+        <f>EI15*(1+$Z$20)</f>
         <v>697422.59851583978</v>
       </c>
       <c r="EK15" s="6">
-        <f>EJ15*(1+$Z$21)</f>
+        <f>EJ15*(1+$Z$20)</f>
         <v>704396.82450099813</v>
       </c>
       <c r="EL15" s="6">
-        <f>EK15*(1+$Z$21)</f>
+        <f>EK15*(1+$Z$20)</f>
         <v>711440.79274600814</v>
       </c>
       <c r="EM15" s="6">
-        <f>EL15*(1+$Z$21)</f>
+        <f>EL15*(1+$Z$20)</f>
         <v>718555.20067346818</v>
       </c>
       <c r="EN15" s="6">
-        <f>EM15*(1+$Z$21)</f>
+        <f>EM15*(1+$Z$20)</f>
         <v>725740.75268020283</v>
       </c>
       <c r="EO15" s="6">
-        <f>EN15*(1+$Z$21)</f>
+        <f>EN15*(1+$Z$20)</f>
         <v>732998.16020700487</v>
       </c>
       <c r="EP15" s="6">
-        <f>EO15*(1+$Z$21)</f>
+        <f>EO15*(1+$Z$20)</f>
         <v>740328.14180907491</v>
       </c>
       <c r="EQ15" s="6">
-        <f>EP15*(1+$Z$21)</f>
+        <f>EP15*(1+$Z$20)</f>
         <v>747731.42322716571</v>
       </c>
       <c r="ER15" s="6">
-        <f>EQ15*(1+$Z$21)</f>
+        <f>EQ15*(1+$Z$20)</f>
         <v>755208.73745943734</v>
       </c>
       <c r="ES15" s="6">
-        <f>ER15*(1+$Z$21)</f>
+        <f>ER15*(1+$Z$20)</f>
         <v>762760.82483403175</v>
       </c>
       <c r="ET15" s="6">
-        <f>ES15*(1+$Z$21)</f>
+        <f>ES15*(1+$Z$20)</f>
         <v>770388.43308237207</v>
       </c>
       <c r="EU15" s="6">
-        <f>ET15*(1+$Z$21)</f>
+        <f>ET15*(1+$Z$20)</f>
         <v>778092.31741319585</v>
       </c>
       <c r="EV15" s="6">
-        <f>EU15*(1+$Z$21)</f>
+        <f>EU15*(1+$Z$20)</f>
         <v>785873.24058732786</v>
       </c>
       <c r="EW15" s="6">
-        <f>EV15*(1+$Z$21)</f>
+        <f>EV15*(1+$Z$20)</f>
         <v>793731.97299320111</v>
       </c>
       <c r="EX15" s="6">
-        <f>EW15*(1+$Z$21)</f>
+        <f>EW15*(1+$Z$20)</f>
         <v>801669.29272313311</v>
       </c>
       <c r="EY15" s="6">
-        <f>EX15*(1+$Z$21)</f>
+        <f>EX15*(1+$Z$20)</f>
         <v>809685.98565036443</v>
       </c>
       <c r="EZ15" s="6">
-        <f>EY15*(1+$Z$21)</f>
+        <f>EY15*(1+$Z$20)</f>
         <v>817782.84550686809</v>
       </c>
       <c r="FA15" s="6">
-        <f>EZ15*(1+$Z$21)</f>
+        <f>EZ15*(1+$Z$20)</f>
         <v>825960.67396193673</v>
       </c>
       <c r="FB15" s="6">
-        <f>FA15*(1+$Z$21)</f>
+        <f>FA15*(1+$Z$20)</f>
         <v>834220.28070155613</v>
       </c>
       <c r="FC15" s="6">
-        <f>FB15*(1+$Z$21)</f>
+        <f>FB15*(1+$Z$20)</f>
         <v>842562.48350857175</v>
       </c>
       <c r="FD15" s="6">
-        <f>FC15*(1+$Z$21)</f>
+        <f>FC15*(1+$Z$20)</f>
         <v>850988.10834365746</v>
       </c>
       <c r="FE15" s="6">
-        <f>FD15*(1+$Z$21)</f>
+        <f>FD15*(1+$Z$20)</f>
         <v>859497.989427094</v>
       </c>
       <c r="FF15" s="6">
-        <f>FE15*(1+$Z$21)</f>
+        <f>FE15*(1+$Z$20)</f>
         <v>868092.969321365</v>
       </c>
       <c r="FG15" s="6">
-        <f>FF15*(1+$Z$21)</f>
+        <f>FF15*(1+$Z$20)</f>
         <v>876773.89901457867</v>
       </c>
       <c r="FH15" s="6">
-        <f>FG15*(1+$Z$21)</f>
+        <f>FG15*(1+$Z$20)</f>
         <v>885541.63800472452</v>
       </c>
       <c r="FI15" s="6">
-        <f>FH15*(1+$Z$21)</f>
+        <f>FH15*(1+$Z$20)</f>
         <v>894397.05438477173</v>
       </c>
       <c r="FJ15" s="6">
-        <f>FI15*(1+$Z$21)</f>
+        <f>FI15*(1+$Z$20)</f>
         <v>903341.0249286195</v>
       </c>
       <c r="FK15" s="6">
-        <f>FJ15*(1+$Z$21)</f>
+        <f>FJ15*(1+$Z$20)</f>
         <v>912374.43517790572</v>
       </c>
     </row>
@@ -2234,51 +2247,51 @@
         <v>6.1132073160273928</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L16:N16" si="66">L15/L17</f>
+        <f t="shared" ref="L16:N16" si="65">L15/L17</f>
         <v>6.1340711462450592</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>6.08355345564995</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>6.7468287007683028</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" ref="O16" si="67">O15/O17</f>
+        <f t="shared" ref="O16" si="66">O15/O17</f>
         <v>7.5373269410976294</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ref="P16" si="68">P15/P17</f>
+        <f t="shared" ref="P16" si="67">P15/P17</f>
         <v>8.4101201194687683</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16" si="69">Q15/Q17</f>
+        <f t="shared" ref="Q16" si="68">Q15/Q17</f>
         <v>9.3739835166376242</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16:W16" si="70">R15/R17</f>
+        <f t="shared" ref="R16:W16" si="69">R15/R17</f>
         <v>10.438654306619641</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>11.150668367527983</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>11.901158607473681</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>12.69204740979967</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>13.525350296985067</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>14.40318038636588</v>
       </c>
     </row>
@@ -2326,57 +2339,77 @@
         <v>15116</v>
       </c>
     </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
     <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" ref="L19:R19" si="71">L4/K4-1</f>
+        <f t="shared" ref="L19:R19" si="70">L4/K4-1</f>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>2.021994077514111E-2</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>3.2134105642717348E-2</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>3.3589489073057699E-2</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>3.5105168207190784E-2</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>3.6679110370727352E-2</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="71"/>
+        <f t="shared" si="70"/>
         <v>3.8308684060688103E-2</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" ref="S19" si="72">S4/R4-1</f>
+        <f t="shared" ref="S19" si="71">S4/R4-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" ref="T19" si="73">T4/S4-1</f>
+        <f t="shared" ref="T19" si="72">T4/S4-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" ref="U19" si="74">U4/T4-1</f>
+        <f t="shared" ref="U19" si="73">U4/T4-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" ref="V19" si="75">V4/U4-1</f>
+        <f t="shared" ref="V19" si="74">V4/U4-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" ref="W19" si="76">W4/V4-1</f>
+        <f t="shared" ref="W19" si="75">W4/V4-1</f>
         <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.06</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2384,10 +2417,10 @@
         <v>24</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z20" s="5">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2437,18 +2470,19 @@
         <v>0.21</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="5">
-        <v>0.01</v>
+        <v>37</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Y22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z22" s="8">
-        <v>0.08</v>
+        <v>34</v>
+      </c>
+      <c r="Z22" s="6">
+        <f>NPV(Z21,N36:FK36)+Sheet1!F5-Sheet1!F6</f>
+        <v>2704942.9967930559</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2460,59 +2494,59 @@
         <v>0.43309630561360085</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23:R23" si="77">L7/L4</f>
+        <f t="shared" ref="L23:R23" si="76">L7/L4</f>
         <v>0.44131129577207562</v>
       </c>
       <c r="M23" s="4">
+        <f t="shared" si="76"/>
+        <v>0.46206349815233932</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" si="76"/>
+        <v>0.47130639920321216</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="76"/>
+        <v>0.48235587192331281</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="76"/>
+        <v>0.49382521209080343</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="76"/>
+        <v>0.50571294987686821</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="76"/>
+        <v>0.51801472693319262</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" ref="S23:W23" si="77">S7/S4</f>
+        <v>0.52319487420252453</v>
+      </c>
+      <c r="T23" s="4">
         <f t="shared" si="77"/>
-        <v>0.46206349815233932</v>
-      </c>
-      <c r="N23" s="4">
+        <v>0.52842682294454979</v>
+      </c>
+      <c r="U23" s="4">
         <f t="shared" si="77"/>
-        <v>0.47130639920321216</v>
-      </c>
-      <c r="O23" s="4">
+        <v>0.53371109117399529</v>
+      </c>
+      <c r="V23" s="4">
         <f t="shared" si="77"/>
-        <v>0.48235587192331281</v>
-      </c>
-      <c r="P23" s="4">
+        <v>0.53904820208573534</v>
+      </c>
+      <c r="W23" s="4">
         <f t="shared" si="77"/>
-        <v>0.49382521209080343</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="77"/>
-        <v>0.50571294987686821</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" si="77"/>
-        <v>0.51801472693319262</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" ref="S23:W23" si="78">S7/S4</f>
-        <v>0.52319487420252453</v>
-      </c>
-      <c r="T23" s="4">
-        <f t="shared" si="78"/>
-        <v>0.52842682294454979</v>
-      </c>
-      <c r="U23" s="4">
-        <f t="shared" si="78"/>
-        <v>0.53371109117399529</v>
-      </c>
-      <c r="V23" s="4">
-        <f t="shared" si="78"/>
-        <v>0.53904820208573534</v>
-      </c>
-      <c r="W23" s="4">
-        <f t="shared" si="78"/>
         <v>0.54443868410659269</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z23" s="6">
-        <f>NPV(Z22,N35:FK35)+Sheet1!E5-Sheet1!E6</f>
-        <v>2704942.9967930559</v>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>Z22/Sheet1!F3</f>
+        <v>178.94778185700216</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2524,1362 +2558,1416 @@
         <v>0.30288744395528594</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" ref="L24:R24" si="79">L11/L4</f>
+        <f t="shared" ref="L24:R24" si="78">L11/L4</f>
         <v>0.29821412265024722</v>
       </c>
       <c r="M24" s="5">
+        <f t="shared" si="78"/>
+        <v>0.31510222870075566</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="78"/>
+        <v>0.32434512975162855</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="78"/>
+        <v>0.3353946024717292</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="78"/>
+        <v>0.34686394263921982</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="78"/>
+        <v>0.3587516804252846</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="78"/>
+        <v>0.37105345748160901</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" ref="S24:W24" si="79">S11/S4</f>
+        <v>0.37623360475094098</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="79"/>
-        <v>0.31510222870075566</v>
-      </c>
-      <c r="N24" s="5">
+        <v>0.38146555349296624</v>
+      </c>
+      <c r="U24" s="5">
         <f t="shared" si="79"/>
-        <v>0.32434512975162855</v>
-      </c>
-      <c r="O24" s="5">
+        <v>0.38674982172241174</v>
+      </c>
+      <c r="V24" s="5">
         <f t="shared" si="79"/>
-        <v>0.3353946024717292</v>
-      </c>
-      <c r="P24" s="5">
+        <v>0.39208693263415173</v>
+      </c>
+      <c r="W24" s="5">
         <f t="shared" si="79"/>
-        <v>0.34686394263921982</v>
-      </c>
-      <c r="Q24" s="5">
-        <f t="shared" si="79"/>
-        <v>0.3587516804252846</v>
-      </c>
-      <c r="R24" s="5">
-        <f t="shared" si="79"/>
-        <v>0.37105345748160901</v>
-      </c>
-      <c r="S24" s="5">
-        <f t="shared" ref="S24:W24" si="80">S11/S4</f>
-        <v>0.37623360475094098</v>
-      </c>
-      <c r="T24" s="5">
+        <v>0.39747741465500913</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z24" s="5">
+        <f>Z23/Sheet1!F2-1</f>
+        <v>-9.1635625091359585E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="5">
+        <f>K36/K4</f>
+        <v>0.28261498042238947</v>
+      </c>
+      <c r="L25" s="5">
+        <f>L36/L4</f>
+        <v>0.25981710737440805</v>
+      </c>
+      <c r="M25" s="5">
+        <f>M36/M4</f>
+        <v>0.27825386474356517</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" ref="N25:W25" si="80">N36/N4</f>
+        <v>0.27896767327443323</v>
+      </c>
+      <c r="O25" s="5">
         <f t="shared" si="80"/>
-        <v>0.38146555349296624</v>
-      </c>
-      <c r="U24" s="5">
+        <v>0.30152509714476239</v>
+      </c>
+      <c r="P25" s="5">
         <f t="shared" si="80"/>
-        <v>0.38674982172241174</v>
-      </c>
-      <c r="V24" s="5">
+        <v>0.32503028904409154</v>
+      </c>
+      <c r="Q25" s="5">
         <f t="shared" si="80"/>
-        <v>0.39208693263415173</v>
-      </c>
-      <c r="W24" s="5">
+        <v>0.34946321937347019</v>
+      </c>
+      <c r="R25" s="5">
         <f t="shared" si="80"/>
-        <v>0.39747741465500913</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="3">
-        <f>Z23/Sheet1!E3</f>
-        <v>178.94778185700216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="Y25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z25" s="5">
-        <f>Z24/Sheet1!E2-1</f>
-        <v>-9.1635625091359585E-2</v>
-      </c>
+        <v>0.3747963191569092</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="80"/>
+        <v>0.39639697122233963</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="80"/>
+        <v>0.4188874000440273</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="80"/>
+        <v>0.44230145290122919</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="80"/>
+        <v>0.46667423941900277</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" si="80"/>
+        <v>0.49204217840240538</v>
+      </c>
+      <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5">
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
         <f>L2/K2-1</f>
         <v>-5.7286708686618226E-2</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M27" s="5">
         <f>M2/L2-1</f>
         <v>-1.0798933190197424E-2</v>
       </c>
-      <c r="N26" s="5">
-        <f t="shared" ref="N26:R26" si="81">N2/M2-1</f>
+      <c r="N27" s="5">
+        <f t="shared" ref="N27:R27" si="81">N2/M2-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O27" s="5">
         <f t="shared" si="81"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P27" s="5">
         <f t="shared" si="81"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q27" s="5">
         <f t="shared" si="81"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R27" s="5">
         <f t="shared" si="81"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="S26" s="5">
-        <f t="shared" ref="S26:S27" si="82">S2/R2-1</f>
+      <c r="S27" s="5">
+        <f>S2/R2-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="T26" s="5">
-        <f t="shared" ref="T26:T27" si="83">T2/S2-1</f>
+      <c r="T27" s="5">
+        <f>T2/S2-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="U26" s="5">
-        <f t="shared" ref="U26:U27" si="84">U2/T2-1</f>
+      <c r="U27" s="5">
+        <f>U2/T2-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="V26" s="5">
-        <f t="shared" ref="V26:V27" si="85">V2/U2-1</f>
+      <c r="V27" s="5">
+        <f>V2/U2-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="W26" s="5">
-        <f t="shared" ref="W26:W27" si="86">W2/V2-1</f>
+      <c r="W27" s="5">
+        <f>W2/V2-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
         <f>L3/K3-1</f>
         <v>9.0504166186691215E-2</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M28" s="5">
         <f>M3/L3-1</f>
         <v>0.12874413145539898</v>
       </c>
-      <c r="N27" s="5">
-        <f t="shared" ref="N27:R27" si="87">N3/M3-1</f>
+      <c r="N28" s="5">
+        <f t="shared" ref="N28:R28" si="82">N3/M3-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O27" s="5">
-        <f t="shared" si="87"/>
+      <c r="O28" s="5">
+        <f t="shared" si="82"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P27" s="5">
-        <f t="shared" si="87"/>
+      <c r="P28" s="5">
+        <f t="shared" si="82"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q27" s="5">
-        <f t="shared" si="87"/>
+      <c r="Q28" s="5">
+        <f t="shared" si="82"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R27" s="5">
-        <f t="shared" si="87"/>
+      <c r="R28" s="5">
+        <f t="shared" si="82"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S27" s="5">
-        <f t="shared" si="82"/>
+      <c r="S28" s="5">
+        <f>S3/R3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="T27" s="5">
-        <f t="shared" si="83"/>
+      <c r="T28" s="5">
+        <f>T3/S3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="U27" s="5">
-        <f t="shared" si="84"/>
+      <c r="U28" s="5">
+        <f>U3/T3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="V27" s="5">
-        <f t="shared" si="85"/>
+      <c r="V28" s="5">
+        <f>V3/U3-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="W27" s="5">
-        <f t="shared" si="86"/>
+      <c r="W28" s="5">
+        <f>W3/V3-1</f>
         <v>1.0000000000000009E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" ref="K28:M29" si="88">(K2-K5)/K2</f>
-        <v>0.36283479707399452</v>
-      </c>
-      <c r="L28" s="5">
-        <f t="shared" si="88"/>
-        <v>0.36500662562691849</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" si="88"/>
-        <v>0.37180617636485724</v>
-      </c>
-      <c r="N28" s="5">
-        <f>M28*1.005</f>
-        <v>0.37366520724668151</v>
-      </c>
-      <c r="O28" s="5">
-        <f t="shared" ref="O28:R29" si="89">N28*1.01</f>
-        <v>0.37740185931914833</v>
-      </c>
-      <c r="P28" s="5">
-        <f t="shared" si="89"/>
-        <v>0.38117587791233981</v>
-      </c>
-      <c r="Q28" s="5">
-        <f t="shared" si="89"/>
-        <v>0.38498763669146319</v>
-      </c>
-      <c r="R28" s="5">
-        <f t="shared" si="89"/>
-        <v>0.38883751305837783</v>
-      </c>
-      <c r="S28" s="5">
-        <f t="shared" ref="S28:S29" si="90">R28*1.01</f>
-        <v>0.39272588818896159</v>
-      </c>
-      <c r="T28" s="5">
-        <f t="shared" ref="T28:T29" si="91">S28*1.01</f>
-        <v>0.3966531470708512</v>
-      </c>
-      <c r="U28" s="5">
-        <f t="shared" ref="U28:U29" si="92">T28*1.01</f>
-        <v>0.40061967854155972</v>
-      </c>
-      <c r="V28" s="5">
-        <f t="shared" ref="V28:V29" si="93">U28*1.01</f>
-        <v>0.4046258753269753</v>
-      </c>
-      <c r="W28" s="5">
-        <f t="shared" ref="W28:W29" si="94">V28*1.01</f>
-        <v>0.40867213408024505</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" si="88"/>
-        <v>0.71745446633132381</v>
+        <f>(K2-K5)/K2</f>
+        <v>0.36283479707399452</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" si="88"/>
-        <v>0.70827464788732397</v>
+        <f>(L2-L5)/L2</f>
+        <v>0.36500662562691849</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" si="88"/>
-        <v>0.7388035645582256</v>
+        <f>(M2-M5)/M2</f>
+        <v>0.37180617636485724</v>
       </c>
       <c r="N29" s="5">
-        <f>M29*1.01</f>
-        <v>0.74619160020380781</v>
+        <f>M29*1.005</f>
+        <v>0.37366520724668151</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" si="89"/>
-        <v>0.75365351620584586</v>
+        <f t="shared" ref="O29:R30" si="83">N29*1.01</f>
+        <v>0.37740185931914833</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="89"/>
-        <v>0.7611900513679043</v>
+        <f t="shared" si="83"/>
+        <v>0.38117587791233981</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="89"/>
-        <v>0.7688019518815834</v>
+        <f t="shared" si="83"/>
+        <v>0.38498763669146319</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="89"/>
-        <v>0.77648997140039921</v>
+        <f t="shared" si="83"/>
+        <v>0.38883751305837783</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="90"/>
-        <v>0.78425487111440317</v>
+        <f t="shared" ref="S29:S30" si="84">R29*1.01</f>
+        <v>0.39272588818896159</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="91"/>
-        <v>0.79209741982554727</v>
+        <f t="shared" ref="T29:T30" si="85">S29*1.01</f>
+        <v>0.3966531470708512</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="92"/>
-        <v>0.8000183940238027</v>
+        <f t="shared" ref="U29:U30" si="86">T29*1.01</f>
+        <v>0.40061967854155972</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="93"/>
-        <v>0.80801857796404075</v>
+        <f t="shared" ref="V29:V30" si="87">U29*1.01</f>
+        <v>0.4046258753269753</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" si="94"/>
-        <v>0.81609876374368118</v>
+        <f t="shared" ref="W29:W30" si="88">V29*1.01</f>
+        <v>0.40867213408024505</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="5">
+        <f>(K3-K6)/K3</f>
+        <v>0.71745446633132381</v>
+      </c>
+      <c r="L30" s="5">
+        <f>(L3-L6)/L3</f>
+        <v>0.70827464788732397</v>
+      </c>
+      <c r="M30" s="5">
+        <f>(M3-M6)/M3</f>
+        <v>0.7388035645582256</v>
+      </c>
+      <c r="N30" s="5">
+        <f>M30*1.01</f>
+        <v>0.74619160020380781</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="83"/>
+        <v>0.75365351620584586</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="83"/>
+        <v>0.7611900513679043</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="83"/>
+        <v>0.7688019518815834</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="83"/>
+        <v>0.77648997140039921</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="84"/>
+        <v>0.78425487111440317</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="85"/>
+        <v>0.79209741982554727</v>
+      </c>
+      <c r="U30" s="5">
+        <f t="shared" si="86"/>
+        <v>0.8000183940238027</v>
+      </c>
+      <c r="V30" s="5">
+        <f t="shared" si="87"/>
+        <v>0.80801857796404075</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" si="88"/>
+        <v>0.81609876374368118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K31" s="5">
         <f>K3/K4</f>
         <v>0.19813201192915542</v>
       </c>
-      <c r="L30" s="5">
-        <f t="shared" ref="L30:R30" si="95">L3/L4</f>
+      <c r="L31" s="5">
+        <f t="shared" ref="L31:R31" si="89">L3/L4</f>
         <v>0.222288897295746</v>
       </c>
-      <c r="M30" s="5">
-        <f t="shared" si="95"/>
+      <c r="M31" s="5">
+        <f t="shared" si="89"/>
         <v>0.24593450714130449</v>
       </c>
-      <c r="N30" s="5">
-        <f t="shared" si="95"/>
+      <c r="N31" s="5">
+        <f t="shared" si="89"/>
         <v>0.26210543414508647</v>
       </c>
-      <c r="O30" s="5">
-        <f t="shared" si="95"/>
+      <c r="O31" s="5">
+        <f t="shared" si="89"/>
         <v>0.27894631341323162</v>
       </c>
-      <c r="P30" s="5">
-        <f t="shared" si="95"/>
+      <c r="P31" s="5">
+        <f t="shared" si="89"/>
         <v>0.29643455967474824</v>
       </c>
-      <c r="Q30" s="5">
-        <f t="shared" si="95"/>
+      <c r="Q31" s="5">
+        <f t="shared" si="89"/>
         <v>0.31454093400764499</v>
       </c>
-      <c r="R30" s="5">
-        <f t="shared" si="95"/>
+      <c r="R31" s="5">
+        <f t="shared" si="89"/>
         <v>0.33322944584771141</v>
       </c>
-      <c r="S30" s="5">
-        <f t="shared" ref="S30:W30" si="96">S3/S4</f>
+      <c r="S31" s="5">
+        <f t="shared" ref="S31:W31" si="90">S3/S4</f>
         <v>0.33322944584771141</v>
       </c>
-      <c r="T30" s="5">
-        <f t="shared" si="96"/>
+      <c r="T31" s="5">
+        <f t="shared" si="90"/>
         <v>0.33322944584771141</v>
       </c>
-      <c r="U30" s="5">
-        <f t="shared" si="96"/>
+      <c r="U31" s="5">
+        <f t="shared" si="90"/>
         <v>0.33322944584771141</v>
       </c>
-      <c r="V30" s="5">
-        <f t="shared" si="96"/>
+      <c r="V31" s="5">
+        <f t="shared" si="90"/>
         <v>0.33322944584771141</v>
       </c>
-      <c r="W30" s="5">
-        <f t="shared" si="96"/>
+      <c r="W31" s="5">
+        <f t="shared" si="90"/>
         <v>0.33322944584771141</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K32" s="5">
         <f>K2/K4</f>
         <v>0.80186798807084458</v>
       </c>
-      <c r="L31" s="5">
-        <f t="shared" ref="L31:R31" si="97">L2/L4</f>
+      <c r="L32" s="5">
+        <f t="shared" ref="L32:R32" si="91">L2/L4</f>
         <v>0.77771110270425403</v>
       </c>
-      <c r="M31" s="5">
-        <f t="shared" si="97"/>
+      <c r="M32" s="5">
+        <f t="shared" si="91"/>
         <v>0.75406549285869551</v>
       </c>
-      <c r="N31" s="5">
-        <f t="shared" si="97"/>
+      <c r="N32" s="5">
+        <f t="shared" si="91"/>
         <v>0.73789456585491353</v>
       </c>
-      <c r="O31" s="5">
-        <f t="shared" si="97"/>
+      <c r="O32" s="5">
+        <f t="shared" si="91"/>
         <v>0.72105368658676827</v>
       </c>
-      <c r="P31" s="5">
-        <f t="shared" si="97"/>
+      <c r="P32" s="5">
+        <f t="shared" si="91"/>
         <v>0.70356544032525181</v>
       </c>
-      <c r="Q31" s="5">
-        <f t="shared" si="97"/>
+      <c r="Q32" s="5">
+        <f t="shared" si="91"/>
         <v>0.68545906599235507</v>
       </c>
-      <c r="R31" s="5">
-        <f t="shared" si="97"/>
+      <c r="R32" s="5">
+        <f t="shared" si="91"/>
         <v>0.6667705541522887</v>
       </c>
-      <c r="S31" s="5">
-        <f t="shared" ref="S31:W31" si="98">S2/S4</f>
+      <c r="S32" s="5">
+        <f t="shared" ref="S32:W32" si="92">S2/S4</f>
         <v>0.66677055415228859</v>
       </c>
-      <c r="T31" s="5">
-        <f t="shared" si="98"/>
+      <c r="T32" s="5">
+        <f t="shared" si="92"/>
         <v>0.66677055415228859</v>
       </c>
-      <c r="U31" s="5">
-        <f t="shared" si="98"/>
+      <c r="U32" s="5">
+        <f t="shared" si="92"/>
         <v>0.66677055415228847</v>
       </c>
-      <c r="V31" s="5">
-        <f t="shared" si="98"/>
+      <c r="V32" s="5">
+        <f t="shared" si="92"/>
         <v>0.66677055415228859</v>
       </c>
-      <c r="W31" s="5">
-        <f t="shared" si="98"/>
+      <c r="W32" s="5">
+        <f t="shared" si="92"/>
         <v>0.66677055415228859</v>
       </c>
     </row>
     <row r="33" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="3">
-        <v>122151</v>
-      </c>
-      <c r="L33" s="3">
-        <v>110543</v>
-      </c>
-      <c r="M33" s="3">
-        <v>118254</v>
-      </c>
-      <c r="N33" s="3">
-        <f>N15*N36</f>
-        <v>122382.07516897639</v>
-      </c>
-      <c r="O33" s="3">
-        <f t="shared" ref="O33:R33" si="99">O15*O36</f>
-        <v>136721.08084995812</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="99"/>
-        <v>152552.85087106787</v>
-      </c>
-      <c r="Q33" s="3">
-        <f t="shared" si="99"/>
-        <v>170036.56180499317</v>
-      </c>
-      <c r="R33" s="3">
-        <f t="shared" si="99"/>
-        <v>189348.838198635</v>
-      </c>
-      <c r="S33" s="3">
-        <f t="shared" ref="S33:W33" si="100">S15*S36</f>
-        <v>202264.20365226356</v>
-      </c>
-      <c r="T33" s="3">
-        <f t="shared" si="100"/>
-        <v>215877.49621268659</v>
-      </c>
-      <c r="U33" s="3">
-        <f t="shared" si="100"/>
-        <v>230223.58637583817</v>
-      </c>
-      <c r="V33" s="3">
-        <f t="shared" si="100"/>
-        <v>245339.03410707152</v>
-      </c>
-      <c r="W33" s="3">
-        <f t="shared" si="100"/>
-        <v>261262.16966436795</v>
-      </c>
+      <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="3">
+        <v>122151</v>
+      </c>
+      <c r="L34" s="3">
+        <v>110543</v>
+      </c>
+      <c r="M34" s="3">
+        <v>118254</v>
+      </c>
+      <c r="N34" s="3">
+        <f>N15*N37</f>
+        <v>122382.07516897639</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" ref="O34:R34" si="93">O15*O37</f>
+        <v>136721.08084995812</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="93"/>
+        <v>152552.85087106787</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="93"/>
+        <v>170036.56180499317</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="93"/>
+        <v>189348.838198635</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" ref="S34:W34" si="94">S15*S37</f>
+        <v>202264.20365226356</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="94"/>
+        <v>215877.49621268659</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" si="94"/>
+        <v>230223.58637583817</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" si="94"/>
+        <v>245339.03410707152</v>
+      </c>
+      <c r="W34" s="3">
+        <f t="shared" si="94"/>
+        <v>261262.16966436795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K35" s="3">
         <v>10708</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L35" s="3">
         <v>10959</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M35" s="3">
         <v>9447</v>
       </c>
-      <c r="N34" s="3">
-        <f>N33*N37</f>
+      <c r="N35" s="3">
+        <f>N34*N38</f>
         <v>9790.5660135181115</v>
       </c>
-      <c r="O34" s="3">
-        <f>O33*O37</f>
+      <c r="O35" s="3">
+        <f>O34*O38</f>
         <v>10937.686467996649</v>
       </c>
-      <c r="P34" s="3">
-        <f>P33*P37</f>
+      <c r="P35" s="3">
+        <f>P34*P38</f>
         <v>12204.22806968543</v>
       </c>
-      <c r="Q34" s="3">
-        <f>Q33*Q37</f>
+      <c r="Q35" s="3">
+        <f>Q34*Q38</f>
         <v>13602.924944399454</v>
       </c>
-      <c r="R34" s="3">
-        <f>R33*R37</f>
+      <c r="R35" s="3">
+        <f>R34*R38</f>
         <v>15147.907055890801</v>
       </c>
-      <c r="S34" s="3">
-        <f t="shared" ref="S34:W34" si="101">S33*S37</f>
+      <c r="S35" s="3">
+        <f t="shared" ref="S35:W35" si="95">S34*S38</f>
         <v>16181.136292181085</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T35" s="3">
+        <f t="shared" si="95"/>
+        <v>17270.199697014927</v>
+      </c>
+      <c r="U35" s="3">
+        <f t="shared" si="95"/>
+        <v>18417.886910067053</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="95"/>
+        <v>19627.122728565722</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="95"/>
+        <v>20900.973573149437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:163" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="6">
+        <f>K34-K35</f>
+        <v>111443</v>
+      </c>
+      <c r="L36" s="6">
+        <f t="shared" ref="L36:M36" si="96">L34-L35</f>
+        <v>99584</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="96"/>
+        <v>108807</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" ref="N36" si="97">N34-N35</f>
+        <v>112591.50915545828</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" ref="O36" si="98">O34-O35</f>
+        <v>125783.39438196147</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" ref="P36" si="99">P34-P35</f>
+        <v>140348.62280138244</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" ref="Q36" si="100">Q34-Q35</f>
+        <v>156433.63686059372</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" ref="R36:W36" si="101">R34-R35</f>
+        <v>174200.9311427442</v>
+      </c>
+      <c r="S36" s="6">
         <f t="shared" si="101"/>
-        <v>17270.199697014927</v>
-      </c>
-      <c r="U34" s="3">
+        <v>186083.06736008247</v>
+      </c>
+      <c r="T36" s="6">
         <f t="shared" si="101"/>
-        <v>18417.886910067053</v>
-      </c>
-      <c r="V34" s="3">
+        <v>198607.29651567165</v>
+      </c>
+      <c r="U36" s="6">
         <f t="shared" si="101"/>
-        <v>19627.122728565722</v>
-      </c>
-      <c r="W34" s="3">
+        <v>211805.69946577112</v>
+      </c>
+      <c r="V36" s="6">
         <f t="shared" si="101"/>
-        <v>20900.973573149437</v>
-      </c>
-    </row>
-    <row r="35" spans="1:163" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="6">
-        <f>K33-K34</f>
-        <v>111443</v>
-      </c>
-      <c r="L35" s="6">
-        <f t="shared" ref="L35:M35" si="102">L33-L34</f>
-        <v>99584</v>
-      </c>
-      <c r="M35" s="6">
-        <f t="shared" si="102"/>
-        <v>108807</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" ref="N35" si="103">N33-N34</f>
-        <v>112591.50915545828</v>
-      </c>
-      <c r="O35" s="6">
-        <f t="shared" ref="O35" si="104">O33-O34</f>
-        <v>125783.39438196147</v>
-      </c>
-      <c r="P35" s="6">
-        <f t="shared" ref="P35" si="105">P33-P34</f>
-        <v>140348.62280138244</v>
-      </c>
-      <c r="Q35" s="6">
-        <f t="shared" ref="Q35" si="106">Q33-Q34</f>
-        <v>156433.63686059372</v>
-      </c>
-      <c r="R35" s="6">
-        <f t="shared" ref="R35:W35" si="107">R33-R34</f>
-        <v>174200.9311427442</v>
-      </c>
-      <c r="S35" s="6">
-        <f t="shared" si="107"/>
-        <v>186083.06736008247</v>
-      </c>
-      <c r="T35" s="6">
-        <f t="shared" si="107"/>
-        <v>198607.29651567165</v>
-      </c>
-      <c r="U35" s="6">
-        <f t="shared" si="107"/>
-        <v>211805.69946577112</v>
-      </c>
-      <c r="V35" s="6">
-        <f t="shared" si="107"/>
         <v>225711.91137850581</v>
       </c>
-      <c r="W35" s="6">
-        <f t="shared" si="107"/>
+      <c r="W36" s="6">
+        <f t="shared" si="101"/>
         <v>240361.1960912185</v>
       </c>
-      <c r="X35" s="6">
-        <f>W35*(1+$Z$21)</f>
+      <c r="X36" s="6">
+        <f>W36*(1+$Z$20)</f>
         <v>242764.80805213068</v>
       </c>
-      <c r="Y35" s="6">
-        <f>X35*(1+$Z$21)</f>
+      <c r="Y36" s="6">
+        <f>X36*(1+$Z$20)</f>
         <v>245192.45613265201</v>
       </c>
-      <c r="Z35" s="6">
-        <f>Y35*(1+$Z$21)</f>
+      <c r="Z36" s="6">
+        <f>Y36*(1+$Z$20)</f>
         <v>247644.38069397851</v>
       </c>
-      <c r="AA35" s="6">
-        <f>Z35*(1+$Z$21)</f>
+      <c r="AA36" s="6">
+        <f>Z36*(1+$Z$20)</f>
         <v>250120.8245009183</v>
       </c>
-      <c r="AB35" s="6">
-        <f>AA35*(1+$Z$21)</f>
+      <c r="AB36" s="6">
+        <f>AA36*(1+$Z$20)</f>
         <v>252622.03274592748</v>
       </c>
-      <c r="AC35" s="6">
-        <f>AB35*(1+$Z$21)</f>
+      <c r="AC36" s="6">
+        <f>AB36*(1+$Z$20)</f>
         <v>255148.25307338676</v>
       </c>
-      <c r="AD35" s="6">
-        <f>AC35*(1+$Z$21)</f>
+      <c r="AD36" s="6">
+        <f>AC36*(1+$Z$20)</f>
         <v>257699.73560412062</v>
       </c>
-      <c r="AE35" s="6">
-        <f>AD35*(1+$Z$21)</f>
+      <c r="AE36" s="6">
+        <f>AD36*(1+$Z$20)</f>
         <v>260276.73296016184</v>
       </c>
-      <c r="AF35" s="6">
-        <f>AE35*(1+$Z$21)</f>
+      <c r="AF36" s="6">
+        <f>AE36*(1+$Z$20)</f>
         <v>262879.50028976344</v>
       </c>
-      <c r="AG35" s="6">
-        <f>AF35*(1+$Z$21)</f>
+      <c r="AG36" s="6">
+        <f>AF36*(1+$Z$20)</f>
         <v>265508.29529266106</v>
       </c>
-      <c r="AH35" s="6">
-        <f>AG35*(1+$Z$21)</f>
+      <c r="AH36" s="6">
+        <f>AG36*(1+$Z$20)</f>
         <v>268163.37824558769</v>
       </c>
-      <c r="AI35" s="6">
-        <f>AH35*(1+$Z$21)</f>
+      <c r="AI36" s="6">
+        <f>AH36*(1+$Z$20)</f>
         <v>270845.01202804357</v>
       </c>
-      <c r="AJ35" s="6">
-        <f>AI35*(1+$Z$21)</f>
+      <c r="AJ36" s="6">
+        <f>AI36*(1+$Z$20)</f>
         <v>273553.462148324</v>
       </c>
-      <c r="AK35" s="6">
-        <f>AJ35*(1+$Z$21)</f>
+      <c r="AK36" s="6">
+        <f>AJ36*(1+$Z$20)</f>
         <v>276288.99676980724</v>
       </c>
-      <c r="AL35" s="6">
-        <f>AK35*(1+$Z$21)</f>
+      <c r="AL36" s="6">
+        <f>AK36*(1+$Z$20)</f>
         <v>279051.88673750532</v>
       </c>
-      <c r="AM35" s="6">
-        <f>AL35*(1+$Z$21)</f>
+      <c r="AM36" s="6">
+        <f>AL36*(1+$Z$20)</f>
         <v>281842.40560488036</v>
       </c>
-      <c r="AN35" s="6">
-        <f>AM35*(1+$Z$21)</f>
+      <c r="AN36" s="6">
+        <f>AM36*(1+$Z$20)</f>
         <v>284660.82966092916</v>
       </c>
-      <c r="AO35" s="6">
-        <f>AN35*(1+$Z$21)</f>
+      <c r="AO36" s="6">
+        <f>AN36*(1+$Z$20)</f>
         <v>287507.43795753847</v>
       </c>
-      <c r="AP35" s="6">
-        <f>AO35*(1+$Z$21)</f>
+      <c r="AP36" s="6">
+        <f>AO36*(1+$Z$20)</f>
         <v>290382.51233711385</v>
       </c>
-      <c r="AQ35" s="6">
-        <f>AP35*(1+$Z$21)</f>
+      <c r="AQ36" s="6">
+        <f>AP36*(1+$Z$20)</f>
         <v>293286.337460485</v>
       </c>
-      <c r="AR35" s="6">
-        <f>AQ35*(1+$Z$21)</f>
+      <c r="AR36" s="6">
+        <f>AQ36*(1+$Z$20)</f>
         <v>296219.20083508984</v>
       </c>
-      <c r="AS35" s="6">
-        <f>AR35*(1+$Z$21)</f>
+      <c r="AS36" s="6">
+        <f>AR36*(1+$Z$20)</f>
         <v>299181.39284344076</v>
       </c>
-      <c r="AT35" s="6">
-        <f>AS35*(1+$Z$21)</f>
+      <c r="AT36" s="6">
+        <f>AS36*(1+$Z$20)</f>
         <v>302173.20677187515</v>
       </c>
-      <c r="AU35" s="6">
-        <f>AT35*(1+$Z$21)</f>
+      <c r="AU36" s="6">
+        <f>AT36*(1+$Z$20)</f>
         <v>305194.9388395939</v>
       </c>
-      <c r="AV35" s="6">
-        <f>AU35*(1+$Z$21)</f>
+      <c r="AV36" s="6">
+        <f>AU36*(1+$Z$20)</f>
         <v>308246.88822798984</v>
       </c>
-      <c r="AW35" s="6">
-        <f>AV35*(1+$Z$21)</f>
+      <c r="AW36" s="6">
+        <f>AV36*(1+$Z$20)</f>
         <v>311329.35711026972</v>
       </c>
-      <c r="AX35" s="6">
-        <f>AW35*(1+$Z$21)</f>
+      <c r="AX36" s="6">
+        <f>AW36*(1+$Z$20)</f>
         <v>314442.65068137244</v>
       </c>
-      <c r="AY35" s="6">
-        <f>AX35*(1+$Z$21)</f>
+      <c r="AY36" s="6">
+        <f>AX36*(1+$Z$20)</f>
         <v>317587.07718818617</v>
       </c>
-      <c r="AZ35" s="6">
-        <f>AY35*(1+$Z$21)</f>
+      <c r="AZ36" s="6">
+        <f>AY36*(1+$Z$20)</f>
         <v>320762.94796006806</v>
       </c>
-      <c r="BA35" s="6">
-        <f>AZ35*(1+$Z$21)</f>
+      <c r="BA36" s="6">
+        <f>AZ36*(1+$Z$20)</f>
         <v>323970.57743966876</v>
       </c>
-      <c r="BB35" s="6">
-        <f>BA35*(1+$Z$21)</f>
+      <c r="BB36" s="6">
+        <f>BA36*(1+$Z$20)</f>
         <v>327210.28321406548</v>
       </c>
-      <c r="BC35" s="6">
-        <f>BB35*(1+$Z$21)</f>
+      <c r="BC36" s="6">
+        <f>BB36*(1+$Z$20)</f>
         <v>330482.38604620611</v>
       </c>
-      <c r="BD35" s="6">
-        <f>BC35*(1+$Z$21)</f>
+      <c r="BD36" s="6">
+        <f>BC36*(1+$Z$20)</f>
         <v>333787.20990666817</v>
       </c>
-      <c r="BE35" s="6">
-        <f>BD35*(1+$Z$21)</f>
+      <c r="BE36" s="6">
+        <f>BD36*(1+$Z$20)</f>
         <v>337125.08200573485</v>
       </c>
-      <c r="BF35" s="6">
-        <f>BE35*(1+$Z$21)</f>
+      <c r="BF36" s="6">
+        <f>BE36*(1+$Z$20)</f>
         <v>340496.3328257922</v>
       </c>
-      <c r="BG35" s="6">
-        <f>BF35*(1+$Z$21)</f>
+      <c r="BG36" s="6">
+        <f>BF36*(1+$Z$20)</f>
         <v>343901.2961540501</v>
       </c>
-      <c r="BH35" s="6">
-        <f>BG35*(1+$Z$21)</f>
+      <c r="BH36" s="6">
+        <f>BG36*(1+$Z$20)</f>
         <v>347340.30911559059</v>
       </c>
-      <c r="BI35" s="6">
-        <f>BH35*(1+$Z$21)</f>
+      <c r="BI36" s="6">
+        <f>BH36*(1+$Z$20)</f>
         <v>350813.71220674651</v>
       </c>
-      <c r="BJ35" s="6">
-        <f>BI35*(1+$Z$21)</f>
+      <c r="BJ36" s="6">
+        <f>BI36*(1+$Z$20)</f>
         <v>354321.84932881396</v>
       </c>
-      <c r="BK35" s="6">
-        <f>BJ35*(1+$Z$21)</f>
+      <c r="BK36" s="6">
+        <f>BJ36*(1+$Z$20)</f>
         <v>357865.06782210211</v>
       </c>
-      <c r="BL35" s="6">
-        <f>BK35*(1+$Z$21)</f>
+      <c r="BL36" s="6">
+        <f>BK36*(1+$Z$20)</f>
         <v>361443.71850032313</v>
       </c>
-      <c r="BM35" s="6">
-        <f>BL35*(1+$Z$21)</f>
+      <c r="BM36" s="6">
+        <f>BL36*(1+$Z$20)</f>
         <v>365058.15568532638</v>
       </c>
-      <c r="BN35" s="6">
-        <f>BM35*(1+$Z$21)</f>
+      <c r="BN36" s="6">
+        <f>BM36*(1+$Z$20)</f>
         <v>368708.73724217963</v>
       </c>
-      <c r="BO35" s="6">
-        <f>BN35*(1+$Z$21)</f>
+      <c r="BO36" s="6">
+        <f>BN36*(1+$Z$20)</f>
         <v>372395.82461460144</v>
       </c>
-      <c r="BP35" s="6">
-        <f>BO35*(1+$Z$21)</f>
+      <c r="BP36" s="6">
+        <f>BO36*(1+$Z$20)</f>
         <v>376119.78286074748</v>
       </c>
-      <c r="BQ35" s="6">
-        <f>BP35*(1+$Z$21)</f>
+      <c r="BQ36" s="6">
+        <f>BP36*(1+$Z$20)</f>
         <v>379880.98068935494</v>
       </c>
-      <c r="BR35" s="6">
-        <f>BQ35*(1+$Z$21)</f>
+      <c r="BR36" s="6">
+        <f>BQ36*(1+$Z$20)</f>
         <v>383679.79049624852</v>
       </c>
-      <c r="BS35" s="6">
-        <f>BR35*(1+$Z$21)</f>
+      <c r="BS36" s="6">
+        <f>BR36*(1+$Z$20)</f>
         <v>387516.58840121102</v>
       </c>
-      <c r="BT35" s="6">
-        <f>BS35*(1+$Z$21)</f>
+      <c r="BT36" s="6">
+        <f>BS36*(1+$Z$20)</f>
         <v>391391.75428522314</v>
       </c>
-      <c r="BU35" s="6">
-        <f>BT35*(1+$Z$21)</f>
+      <c r="BU36" s="6">
+        <f>BT36*(1+$Z$20)</f>
         <v>395305.67182807537</v>
       </c>
-      <c r="BV35" s="6">
-        <f>BU35*(1+$Z$21)</f>
+      <c r="BV36" s="6">
+        <f>BU36*(1+$Z$20)</f>
         <v>399258.72854635614</v>
       </c>
-      <c r="BW35" s="6">
-        <f>BV35*(1+$Z$21)</f>
+      <c r="BW36" s="6">
+        <f>BV36*(1+$Z$20)</f>
         <v>403251.31583181972</v>
       </c>
-      <c r="BX35" s="6">
-        <f>BW35*(1+$Z$21)</f>
+      <c r="BX36" s="6">
+        <f>BW36*(1+$Z$20)</f>
         <v>407283.8289901379</v>
       </c>
-      <c r="BY35" s="6">
-        <f>BX35*(1+$Z$21)</f>
+      <c r="BY36" s="6">
+        <f>BX36*(1+$Z$20)</f>
         <v>411356.66728003928</v>
       </c>
-      <c r="BZ35" s="6">
-        <f>BY35*(1+$Z$21)</f>
+      <c r="BZ36" s="6">
+        <f>BY36*(1+$Z$20)</f>
         <v>415470.23395283968</v>
       </c>
-      <c r="CA35" s="6">
-        <f>BZ35*(1+$Z$21)</f>
+      <c r="CA36" s="6">
+        <f>BZ36*(1+$Z$20)</f>
         <v>419624.9362923681</v>
       </c>
-      <c r="CB35" s="6">
-        <f>CA35*(1+$Z$21)</f>
+      <c r="CB36" s="6">
+        <f>CA36*(1+$Z$20)</f>
         <v>423821.18565529177</v>
       </c>
-      <c r="CC35" s="6">
-        <f>CB35*(1+$Z$21)</f>
+      <c r="CC36" s="6">
+        <f>CB36*(1+$Z$20)</f>
         <v>428059.3975118447</v>
       </c>
-      <c r="CD35" s="6">
-        <f>CC35*(1+$Z$21)</f>
+      <c r="CD36" s="6">
+        <f>CC36*(1+$Z$20)</f>
         <v>432339.99148696318</v>
       </c>
-      <c r="CE35" s="6">
-        <f>CD35*(1+$Z$21)</f>
+      <c r="CE36" s="6">
+        <f>CD36*(1+$Z$20)</f>
         <v>436663.39140183281</v>
       </c>
-      <c r="CF35" s="6">
-        <f>CE35*(1+$Z$21)</f>
+      <c r="CF36" s="6">
+        <f>CE36*(1+$Z$20)</f>
         <v>441030.02531585115</v>
       </c>
-      <c r="CG35" s="6">
-        <f>CF35*(1+$Z$21)</f>
+      <c r="CG36" s="6">
+        <f>CF36*(1+$Z$20)</f>
         <v>445440.32556900964</v>
       </c>
-      <c r="CH35" s="6">
-        <f>CG35*(1+$Z$21)</f>
+      <c r="CH36" s="6">
+        <f>CG36*(1+$Z$20)</f>
         <v>449894.72882469976</v>
       </c>
-      <c r="CI35" s="6">
-        <f>CH35*(1+$Z$21)</f>
+      <c r="CI36" s="6">
+        <f>CH36*(1+$Z$20)</f>
         <v>454393.67611294676</v>
       </c>
-      <c r="CJ35" s="6">
-        <f>CI35*(1+$Z$21)</f>
+      <c r="CJ36" s="6">
+        <f>CI36*(1+$Z$20)</f>
         <v>458937.61287407624</v>
       </c>
-      <c r="CK35" s="6">
-        <f>CJ35*(1+$Z$21)</f>
+      <c r="CK36" s="6">
+        <f>CJ36*(1+$Z$20)</f>
         <v>463526.98900281702</v>
       </c>
-      <c r="CL35" s="6">
-        <f>CK35*(1+$Z$21)</f>
+      <c r="CL36" s="6">
+        <f>CK36*(1+$Z$20)</f>
         <v>468162.25889284519</v>
       </c>
-      <c r="CM35" s="6">
-        <f>CL35*(1+$Z$21)</f>
+      <c r="CM36" s="6">
+        <f>CL36*(1+$Z$20)</f>
         <v>472843.88148177363</v>
       </c>
-      <c r="CN35" s="6">
-        <f>CM35*(1+$Z$21)</f>
+      <c r="CN36" s="6">
+        <f>CM36*(1+$Z$20)</f>
         <v>477572.32029659138</v>
       </c>
-      <c r="CO35" s="6">
-        <f>CN35*(1+$Z$21)</f>
+      <c r="CO36" s="6">
+        <f>CN36*(1+$Z$20)</f>
         <v>482348.0434995573</v>
       </c>
-      <c r="CP35" s="6">
-        <f>CO35*(1+$Z$21)</f>
+      <c r="CP36" s="6">
+        <f>CO36*(1+$Z$20)</f>
         <v>487171.52393455285</v>
       </c>
-      <c r="CQ35" s="6">
-        <f>CP35*(1+$Z$21)</f>
+      <c r="CQ36" s="6">
+        <f>CP36*(1+$Z$20)</f>
         <v>492043.23917389842</v>
       </c>
-      <c r="CR35" s="6">
-        <f>CQ35*(1+$Z$21)</f>
+      <c r="CR36" s="6">
+        <f>CQ36*(1+$Z$20)</f>
         <v>496963.6715656374</v>
       </c>
-      <c r="CS35" s="6">
-        <f>CR35*(1+$Z$21)</f>
+      <c r="CS36" s="6">
+        <f>CR36*(1+$Z$20)</f>
         <v>501933.30828129378</v>
       </c>
-      <c r="CT35" s="6">
-        <f>CS35*(1+$Z$21)</f>
+      <c r="CT36" s="6">
+        <f>CS36*(1+$Z$20)</f>
         <v>506952.64136410673</v>
       </c>
-      <c r="CU35" s="6">
-        <f>CT35*(1+$Z$21)</f>
+      <c r="CU36" s="6">
+        <f>CT36*(1+$Z$20)</f>
         <v>512022.16777774779</v>
       </c>
-      <c r="CV35" s="6">
-        <f>CU35*(1+$Z$21)</f>
+      <c r="CV36" s="6">
+        <f>CU36*(1+$Z$20)</f>
         <v>517142.38945552526</v>
       </c>
-      <c r="CW35" s="6">
-        <f>CV35*(1+$Z$21)</f>
+      <c r="CW36" s="6">
+        <f>CV36*(1+$Z$20)</f>
         <v>522313.81335008051</v>
       </c>
-      <c r="CX35" s="6">
-        <f>CW35*(1+$Z$21)</f>
+      <c r="CX36" s="6">
+        <f>CW36*(1+$Z$20)</f>
         <v>527536.95148358133</v>
       </c>
-      <c r="CY35" s="6">
-        <f>CX35*(1+$Z$21)</f>
+      <c r="CY36" s="6">
+        <f>CX36*(1+$Z$20)</f>
         <v>532812.3209984171</v>
       </c>
-      <c r="CZ35" s="6">
-        <f>CY35*(1+$Z$21)</f>
+      <c r="CZ36" s="6">
+        <f>CY36*(1+$Z$20)</f>
         <v>538140.44420840126</v>
       </c>
-      <c r="DA35" s="6">
-        <f>CZ35*(1+$Z$21)</f>
+      <c r="DA36" s="6">
+        <f>CZ36*(1+$Z$20)</f>
         <v>543521.84865048528</v>
       </c>
-      <c r="DB35" s="6">
-        <f>DA35*(1+$Z$21)</f>
+      <c r="DB36" s="6">
+        <f>DA36*(1+$Z$20)</f>
         <v>548957.06713699014</v>
       </c>
-      <c r="DC35" s="6">
-        <f>DB35*(1+$Z$21)</f>
+      <c r="DC36" s="6">
+        <f>DB36*(1+$Z$20)</f>
         <v>554446.63780836004</v>
       </c>
-      <c r="DD35" s="6">
-        <f>DC35*(1+$Z$21)</f>
+      <c r="DD36" s="6">
+        <f>DC36*(1+$Z$20)</f>
         <v>559991.10418644361</v>
       </c>
-      <c r="DE35" s="6">
-        <f>DD35*(1+$Z$21)</f>
+      <c r="DE36" s="6">
+        <f>DD36*(1+$Z$20)</f>
         <v>565591.01522830804</v>
       </c>
-      <c r="DF35" s="6">
-        <f>DE35*(1+$Z$21)</f>
+      <c r="DF36" s="6">
+        <f>DE36*(1+$Z$20)</f>
         <v>571246.92538059107</v>
       </c>
-      <c r="DG35" s="6">
-        <f>DF35*(1+$Z$21)</f>
+      <c r="DG36" s="6">
+        <f>DF36*(1+$Z$20)</f>
         <v>576959.394634397</v>
       </c>
-      <c r="DH35" s="6">
-        <f>DG35*(1+$Z$21)</f>
+      <c r="DH36" s="6">
+        <f>DG36*(1+$Z$20)</f>
         <v>582728.98858074099</v>
       </c>
-      <c r="DI35" s="6">
-        <f>DH35*(1+$Z$21)</f>
+      <c r="DI36" s="6">
+        <f>DH36*(1+$Z$20)</f>
         <v>588556.27846654842</v>
       </c>
-      <c r="DJ35" s="6">
-        <f>DI35*(1+$Z$21)</f>
+      <c r="DJ36" s="6">
+        <f>DI36*(1+$Z$20)</f>
         <v>594441.84125121392</v>
       </c>
-      <c r="DK35" s="6">
-        <f>DJ35*(1+$Z$21)</f>
+      <c r="DK36" s="6">
+        <f>DJ36*(1+$Z$20)</f>
         <v>600386.25966372609</v>
       </c>
-      <c r="DL35" s="6">
-        <f>DK35*(1+$Z$21)</f>
+      <c r="DL36" s="6">
+        <f>DK36*(1+$Z$20)</f>
         <v>606390.12226036331</v>
       </c>
-      <c r="DM35" s="6">
-        <f>DL35*(1+$Z$21)</f>
+      <c r="DM36" s="6">
+        <f>DL36*(1+$Z$20)</f>
         <v>612454.02348296694</v>
       </c>
-      <c r="DN35" s="6">
-        <f>DM35*(1+$Z$21)</f>
+      <c r="DN36" s="6">
+        <f>DM36*(1+$Z$20)</f>
         <v>618578.56371779658</v>
       </c>
-      <c r="DO35" s="6">
-        <f>DN35*(1+$Z$21)</f>
+      <c r="DO36" s="6">
+        <f>DN36*(1+$Z$20)</f>
         <v>624764.34935497458</v>
       </c>
-      <c r="DP35" s="6">
-        <f>DO35*(1+$Z$21)</f>
+      <c r="DP36" s="6">
+        <f>DO36*(1+$Z$20)</f>
         <v>631011.99284852436</v>
       </c>
-      <c r="DQ35" s="6">
-        <f>DP35*(1+$Z$21)</f>
+      <c r="DQ36" s="6">
+        <f>DP36*(1+$Z$20)</f>
         <v>637322.11277700961</v>
       </c>
-      <c r="DR35" s="6">
-        <f>DQ35*(1+$Z$21)</f>
+      <c r="DR36" s="6">
+        <f>DQ36*(1+$Z$20)</f>
         <v>643695.33390477975</v>
       </c>
-      <c r="DS35" s="6">
-        <f>DR35*(1+$Z$21)</f>
+      <c r="DS36" s="6">
+        <f>DR36*(1+$Z$20)</f>
         <v>650132.2872438276</v>
       </c>
-      <c r="DT35" s="6">
-        <f>DS35*(1+$Z$21)</f>
+      <c r="DT36" s="6">
+        <f>DS36*(1+$Z$20)</f>
         <v>656633.61011626583</v>
       </c>
-      <c r="DU35" s="6">
-        <f>DT35*(1+$Z$21)</f>
+      <c r="DU36" s="6">
+        <f>DT36*(1+$Z$20)</f>
         <v>663199.94621742854</v>
       </c>
-      <c r="DV35" s="6">
-        <f>DU35*(1+$Z$21)</f>
+      <c r="DV36" s="6">
+        <f>DU36*(1+$Z$20)</f>
         <v>669831.9456796028</v>
       </c>
-      <c r="DW35" s="6">
-        <f>DV35*(1+$Z$21)</f>
+      <c r="DW36" s="6">
+        <f>DV36*(1+$Z$20)</f>
         <v>676530.26513639884</v>
       </c>
-      <c r="DX35" s="6">
-        <f>DW35*(1+$Z$21)</f>
+      <c r="DX36" s="6">
+        <f>DW36*(1+$Z$20)</f>
         <v>683295.56778776285</v>
       </c>
-      <c r="DY35" s="6">
-        <f>DX35*(1+$Z$21)</f>
+      <c r="DY36" s="6">
+        <f>DX36*(1+$Z$20)</f>
         <v>690128.52346564049</v>
       </c>
-      <c r="DZ35" s="6">
-        <f>DY35*(1+$Z$21)</f>
+      <c r="DZ36" s="6">
+        <f>DY36*(1+$Z$20)</f>
         <v>697029.80870029691</v>
       </c>
-      <c r="EA35" s="6">
-        <f>DZ35*(1+$Z$21)</f>
+      <c r="EA36" s="6">
+        <f>DZ36*(1+$Z$20)</f>
         <v>704000.10678729985</v>
       </c>
-      <c r="EB35" s="6">
-        <f>EA35*(1+$Z$21)</f>
+      <c r="EB36" s="6">
+        <f>EA36*(1+$Z$20)</f>
         <v>711040.10785517283</v>
       </c>
-      <c r="EC35" s="6">
-        <f>EB35*(1+$Z$21)</f>
+      <c r="EC36" s="6">
+        <f>EB36*(1+$Z$20)</f>
         <v>718150.5089337246</v>
       </c>
-      <c r="ED35" s="6">
-        <f>EC35*(1+$Z$21)</f>
+      <c r="ED36" s="6">
+        <f>EC36*(1+$Z$20)</f>
         <v>725332.01402306184</v>
       </c>
-      <c r="EE35" s="6">
-        <f>ED35*(1+$Z$21)</f>
+      <c r="EE36" s="6">
+        <f>ED36*(1+$Z$20)</f>
         <v>732585.33416329243</v>
       </c>
-      <c r="EF35" s="6">
-        <f>EE35*(1+$Z$21)</f>
+      <c r="EF36" s="6">
+        <f>EE36*(1+$Z$20)</f>
         <v>739911.18750492542</v>
       </c>
-      <c r="EG35" s="6">
-        <f>EF35*(1+$Z$21)</f>
+      <c r="EG36" s="6">
+        <f>EF36*(1+$Z$20)</f>
         <v>747310.29937997472</v>
       </c>
-      <c r="EH35" s="6">
-        <f>EG35*(1+$Z$21)</f>
+      <c r="EH36" s="6">
+        <f>EG36*(1+$Z$20)</f>
         <v>754783.40237377444</v>
       </c>
-      <c r="EI35" s="6">
-        <f>EH35*(1+$Z$21)</f>
+      <c r="EI36" s="6">
+        <f>EH36*(1+$Z$20)</f>
         <v>762331.23639751214</v>
       </c>
-      <c r="EJ35" s="6">
-        <f>EI35*(1+$Z$21)</f>
+      <c r="EJ36" s="6">
+        <f>EI36*(1+$Z$20)</f>
         <v>769954.54876148724</v>
       </c>
-      <c r="EK35" s="6">
-        <f>EJ35*(1+$Z$21)</f>
+      <c r="EK36" s="6">
+        <f>EJ36*(1+$Z$20)</f>
         <v>777654.09424910217</v>
       </c>
-      <c r="EL35" s="6">
-        <f>EK35*(1+$Z$21)</f>
+      <c r="EL36" s="6">
+        <f>EK36*(1+$Z$20)</f>
         <v>785430.6351915932</v>
       </c>
-      <c r="EM35" s="6">
-        <f>EL35*(1+$Z$21)</f>
+      <c r="EM36" s="6">
+        <f>EL36*(1+$Z$20)</f>
         <v>793284.94154350914</v>
       </c>
-      <c r="EN35" s="6">
-        <f>EM35*(1+$Z$21)</f>
+      <c r="EN36" s="6">
+        <f>EM36*(1+$Z$20)</f>
         <v>801217.79095894424</v>
       </c>
-      <c r="EO35" s="6">
-        <f>EN35*(1+$Z$21)</f>
+      <c r="EO36" s="6">
+        <f>EN36*(1+$Z$20)</f>
         <v>809229.96886853373</v>
       </c>
-      <c r="EP35" s="6">
-        <f>EO35*(1+$Z$21)</f>
+      <c r="EP36" s="6">
+        <f>EO36*(1+$Z$20)</f>
         <v>817322.26855721907</v>
       </c>
-      <c r="EQ35" s="6">
-        <f>EP35*(1+$Z$21)</f>
+      <c r="EQ36" s="6">
+        <f>EP36*(1+$Z$20)</f>
         <v>825495.49124279129</v>
       </c>
-      <c r="ER35" s="6">
-        <f>EQ35*(1+$Z$21)</f>
+      <c r="ER36" s="6">
+        <f>EQ36*(1+$Z$20)</f>
         <v>833750.44615521922</v>
       </c>
-      <c r="ES35" s="6">
-        <f>ER35*(1+$Z$21)</f>
+      <c r="ES36" s="6">
+        <f>ER36*(1+$Z$20)</f>
         <v>842087.95061677147</v>
       </c>
-      <c r="ET35" s="6">
-        <f>ES35*(1+$Z$21)</f>
+      <c r="ET36" s="6">
+        <f>ES36*(1+$Z$20)</f>
         <v>850508.83012293919</v>
       </c>
-      <c r="EU35" s="6">
-        <f>ET35*(1+$Z$21)</f>
+      <c r="EU36" s="6">
+        <f>ET36*(1+$Z$20)</f>
         <v>859013.9184241686</v>
       </c>
-      <c r="EV35" s="6">
-        <f>EU35*(1+$Z$21)</f>
+      <c r="EV36" s="6">
+        <f>EU36*(1+$Z$20)</f>
         <v>867604.05760841025</v>
       </c>
-      <c r="EW35" s="6">
-        <f>EV35*(1+$Z$21)</f>
+      <c r="EW36" s="6">
+        <f>EV36*(1+$Z$20)</f>
         <v>876280.09818449442</v>
       </c>
-      <c r="EX35" s="6">
-        <f>EW35*(1+$Z$21)</f>
+      <c r="EX36" s="6">
+        <f>EW36*(1+$Z$20)</f>
         <v>885042.89916633943</v>
       </c>
-      <c r="EY35" s="6">
-        <f>EX35*(1+$Z$21)</f>
+      <c r="EY36" s="6">
+        <f>EX36*(1+$Z$20)</f>
         <v>893893.32815800281</v>
       </c>
-      <c r="EZ35" s="6">
-        <f>EY35*(1+$Z$21)</f>
+      <c r="EZ36" s="6">
+        <f>EY36*(1+$Z$20)</f>
         <v>902832.2614395828</v>
       </c>
-      <c r="FA35" s="6">
-        <f>EZ35*(1+$Z$21)</f>
+      <c r="FA36" s="6">
+        <f>EZ36*(1+$Z$20)</f>
         <v>911860.58405397867</v>
       </c>
-      <c r="FB35" s="6">
-        <f>FA35*(1+$Z$21)</f>
+      <c r="FB36" s="6">
+        <f>FA36*(1+$Z$20)</f>
         <v>920979.18989451847</v>
       </c>
-      <c r="FC35" s="6">
-        <f>FB35*(1+$Z$21)</f>
+      <c r="FC36" s="6">
+        <f>FB36*(1+$Z$20)</f>
         <v>930188.9817934637</v>
       </c>
-      <c r="FD35" s="6">
-        <f>FC35*(1+$Z$21)</f>
+      <c r="FD36" s="6">
+        <f>FC36*(1+$Z$20)</f>
         <v>939490.8716113983</v>
       </c>
-      <c r="FE35" s="6">
-        <f>FD35*(1+$Z$21)</f>
+      <c r="FE36" s="6">
+        <f>FD36*(1+$Z$20)</f>
         <v>948885.7803275123</v>
       </c>
-      <c r="FF35" s="6">
-        <f>FE35*(1+$Z$21)</f>
+      <c r="FF36" s="6">
+        <f>FE36*(1+$Z$20)</f>
         <v>958374.63813078741</v>
       </c>
-      <c r="FG35" s="6">
-        <f>FF35*(1+$Z$21)</f>
+      <c r="FG36" s="6">
+        <f>FF36*(1+$Z$20)</f>
         <v>967958.38451209525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="K36" s="5">
-        <f>K33/K15</f>
-        <v>1.2239211246154926</v>
-      </c>
-      <c r="L36" s="5">
-        <f>L33/L15</f>
-        <v>1.1396773029537606</v>
-      </c>
-      <c r="M36" s="5">
-        <f>M33/M15</f>
-        <v>1.2615643936161134</v>
-      </c>
-      <c r="N36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="O36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="P36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="R36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="S36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="T36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="U36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="V36" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="W36" s="5">
-        <v>1.2</v>
       </c>
     </row>
     <row r="37" spans="1:163" x14ac:dyDescent="0.25">
       <c r="K37" s="5">
-        <f>K34/K33</f>
+        <f>K34/K15</f>
+        <v>1.2239211246154926</v>
+      </c>
+      <c r="L37" s="5">
+        <f>L34/L15</f>
+        <v>1.1396773029537606</v>
+      </c>
+      <c r="M37" s="5">
+        <f>M34/M15</f>
+        <v>1.2615643936161134</v>
+      </c>
+      <c r="N37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="O37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="P37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="S37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="T37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="U37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="V37" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="W37" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="K38" s="5">
+        <f>K35/K34</f>
         <v>8.7661992124501639E-2</v>
       </c>
-      <c r="L37" s="5">
-        <f>L34/L33</f>
+      <c r="L38" s="5">
+        <f>L35/L34</f>
         <v>9.9137892042010803E-2</v>
       </c>
-      <c r="M37" s="5">
-        <f>M34/M33</f>
+      <c r="M38" s="5">
+        <f>M35/M34</f>
         <v>7.9887361104064136E-2</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N38" s="5">
         <v>0.08</v>
       </c>
-      <c r="O37" s="5">
+      <c r="O38" s="5">
         <v>0.08</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P38" s="5">
         <v>0.08</v>
       </c>
-      <c r="Q37" s="5">
+      <c r="Q38" s="5">
         <v>0.08</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R38" s="5">
         <v>0.08</v>
       </c>
-      <c r="S37" s="5">
+      <c r="S38" s="5">
         <v>0.08</v>
       </c>
-      <c r="T37" s="5">
+      <c r="T38" s="5">
         <v>0.08</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U38" s="5">
         <v>0.08</v>
       </c>
-      <c r="V37" s="5">
+      <c r="V38" s="5">
         <v>0.08</v>
       </c>
-      <c r="W37" s="5">
+      <c r="W38" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-    </row>
     <row r="39" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+    </row>
+    <row r="40" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="3">
-        <f>M44-M48</f>
+      <c r="M40" s="3">
+        <f>M45-M49</f>
         <v>-30181</v>
       </c>
-      <c r="N39" s="3">
-        <f>M39+N15</f>
+      <c r="N40" s="3">
+        <f>M40+N15</f>
         <v>71804.06264081366</v>
       </c>
-      <c r="O39" s="3">
-        <f t="shared" ref="O39:R39" si="108">N39+O15</f>
+      <c r="O40" s="3">
+        <f t="shared" ref="O40:R40" si="102">N40+O15</f>
         <v>185738.29668244542</v>
       </c>
-      <c r="P39" s="3">
-        <f t="shared" si="108"/>
+      <c r="P40" s="3">
+        <f t="shared" si="102"/>
         <v>312865.67240833532</v>
       </c>
-      <c r="Q39" s="3">
-        <f t="shared" si="108"/>
+      <c r="Q40" s="3">
+        <f t="shared" si="102"/>
         <v>454562.80724582961</v>
       </c>
-      <c r="R39" s="3">
-        <f t="shared" si="108"/>
+      <c r="R40" s="3">
+        <f t="shared" si="102"/>
         <v>612353.50574469217</v>
       </c>
-      <c r="S39" s="3">
-        <f t="shared" ref="S39" si="109">R39+S15</f>
+      <c r="S40" s="3">
+        <f t="shared" ref="S40" si="103">R40+S15</f>
         <v>780907.00878824515</v>
       </c>
-      <c r="T39" s="3">
-        <f t="shared" ref="T39" si="110">S39+T15</f>
+      <c r="T40" s="3">
+        <f t="shared" ref="T40" si="104">S40+T15</f>
         <v>960804.92229881731</v>
       </c>
-      <c r="U39" s="3">
-        <f t="shared" ref="U39" si="111">T39+U15</f>
+      <c r="U40" s="3">
+        <f t="shared" ref="U40" si="105">T40+U15</f>
         <v>1152657.9109453491</v>
       </c>
-      <c r="V39" s="3">
-        <f t="shared" ref="V39" si="112">U39+V15</f>
+      <c r="V40" s="3">
+        <f t="shared" ref="V40" si="106">U40+V15</f>
         <v>1357107.1060345755</v>
       </c>
-      <c r="W39" s="3">
-        <f t="shared" ref="W39" si="113">V39+W15</f>
+      <c r="W40" s="3">
+        <f t="shared" ref="W40" si="107">V40+W15</f>
         <v>1574825.5807548822</v>
       </c>
     </row>
-    <row r="41" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K42" s="3">
         <f>K15</f>
         <v>99803</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L42" s="3">
         <f>L15</f>
         <v>96995</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M42" s="3">
         <f>M15</f>
         <v>93736</v>
       </c>
-      <c r="N41" s="3">
-        <f t="shared" ref="N41:R41" si="114">N15</f>
+      <c r="N42" s="3">
+        <f t="shared" ref="N42:R42" si="108">N15</f>
         <v>101985.06264081366</v>
       </c>
-      <c r="O41" s="3">
-        <f t="shared" si="114"/>
+      <c r="O42" s="3">
+        <f t="shared" si="108"/>
         <v>113934.23404163176</v>
       </c>
-      <c r="P41" s="3">
-        <f t="shared" si="114"/>
+      <c r="P42" s="3">
+        <f t="shared" si="108"/>
         <v>127127.3757258899</v>
       </c>
-      <c r="Q41" s="3">
-        <f t="shared" si="114"/>
+      <c r="Q42" s="3">
+        <f t="shared" si="108"/>
         <v>141697.13483749432</v>
       </c>
-      <c r="R41" s="3">
-        <f t="shared" si="114"/>
+      <c r="R42" s="3">
+        <f t="shared" si="108"/>
         <v>157790.6984988625</v>
       </c>
     </row>
-    <row r="42" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M45" s="3">
         <f>30299+23476</f>
         <v>53775</v>
       </c>
     </row>
-    <row r="45" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:163" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:163" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M49" s="3">
         <v>83956</v>
       </c>
     </row>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479453DE-D9F8-4147-B3EA-D5152E9F90A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27842006-5D8A-419D-9189-D617B2425868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1050" windowWidth="20745" windowHeight="13455" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,10 +793,10 @@
   <dimension ref="A1:FK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,24 +976,24 @@
         <v>154881.13619000008</v>
       </c>
       <c r="S3" s="3">
-        <f>R3*1.01</f>
-        <v>156429.94755190008</v>
+        <f>R3*1.02</f>
+        <v>157978.75891380009</v>
       </c>
       <c r="T3" s="3">
-        <f t="shared" ref="T3" si="8">S3*1.01</f>
-        <v>157994.2470274191</v>
+        <f t="shared" ref="T3:W3" si="8">S3*1.02</f>
+        <v>161138.33409207608</v>
       </c>
       <c r="U3" s="3">
-        <f t="shared" ref="U3" si="9">T3*1.01</f>
-        <v>159574.1894976933</v>
+        <f t="shared" si="8"/>
+        <v>164361.1007739176</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3" si="10">U3*1.01</f>
-        <v>161169.93139267023</v>
+        <f t="shared" si="8"/>
+        <v>167648.32278939596</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3" si="11">V3*1.01</f>
-        <v>162781.63070659694</v>
+        <f t="shared" si="8"/>
+        <v>171001.28924518387</v>
       </c>
     </row>
     <row r="4" spans="1:167" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1005,52 +1005,52 @@
         <v>394328</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:M4" si="12">SUM(L2:L3)</f>
+        <f t="shared" ref="L4:M4" si="9">SUM(L2:L3)</f>
         <v>383285</v>
       </c>
       <c r="M4" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>391035</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4" si="13">SUM(N2:N3)</f>
+        <f t="shared" ref="N4" si="10">SUM(N2:N3)</f>
         <v>403600.56</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" ref="O4" si="14">SUM(O2:O3)</f>
+        <f t="shared" ref="O4" si="11">SUM(O2:O3)</f>
         <v>417157.2966</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" ref="P4" si="15">SUM(P2:P3)</f>
+        <f t="shared" ref="P4" si="12">SUM(P2:P3)</f>
         <v>431801.67366599996</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" ref="Q4" si="16">SUM(Q2:Q3)</f>
+        <f t="shared" ref="Q4" si="13">SUM(Q2:Q3)</f>
         <v>447639.77491266001</v>
       </c>
       <c r="R4" s="6">
-        <f t="shared" ref="R4:W4" si="17">SUM(R2:R3)</f>
+        <f t="shared" ref="R4:W4" si="14">SUM(R2:R3)</f>
         <v>464788.2656227866</v>
       </c>
       <c r="S4" s="6">
-        <f t="shared" si="17"/>
-        <v>469436.14827901451</v>
+        <f t="shared" si="14"/>
+        <v>470984.95964091446</v>
       </c>
       <c r="T4" s="6">
-        <f t="shared" si="17"/>
-        <v>474130.50976180466</v>
+        <f t="shared" si="14"/>
+        <v>477274.59682646161</v>
       </c>
       <c r="U4" s="6">
-        <f t="shared" si="17"/>
-        <v>478871.81485942274</v>
+        <f t="shared" si="14"/>
+        <v>483658.72613564704</v>
       </c>
       <c r="V4" s="6">
-        <f t="shared" si="17"/>
-        <v>483660.533008017</v>
+        <f t="shared" si="14"/>
+        <v>490138.92440474266</v>
       </c>
       <c r="W4" s="6">
-        <f t="shared" si="17"/>
-        <v>488497.13833809714</v>
+        <f t="shared" si="14"/>
+        <v>496716.79687668406</v>
       </c>
     </row>
     <row r="5" spans="1:167" x14ac:dyDescent="0.25">
@@ -1071,40 +1071,40 @@
         <v>186531.68335000001</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" ref="O5:R5" si="18">O2*(1-O29)</f>
-        <v>187273.04211933498</v>
+        <f t="shared" ref="O5:R5" si="15">O2*(1-O29)</f>
+        <v>187835.02115141752</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="18"/>
-        <v>187999.22291927363</v>
+        <f t="shared" si="15"/>
+        <v>189142.93454641633</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="18"/>
-        <v>188709.61987982443</v>
+        <f t="shared" si="15"/>
+        <v>190455.34200127661</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="18"/>
-        <v>189403.61194508101</v>
+        <f t="shared" si="15"/>
+        <v>191772.1592512319</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" ref="S5:W5" si="19">S2*(1-S29)</f>
-        <v>190080.56253790599</v>
+        <f t="shared" ref="S5:W5" si="16">S2*(1-S29)</f>
+        <v>193093.29924432738</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" si="19"/>
-        <v>190739.81921757406</v>
+        <f t="shared" si="16"/>
+        <v>194418.67208428259</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" si="19"/>
-        <v>191380.71333023004</v>
+        <f t="shared" si="16"/>
+        <v>195748.18497234242</v>
       </c>
       <c r="V5" s="3">
-        <f t="shared" si="19"/>
-        <v>192002.55965201417</v>
+        <f t="shared" si="16"/>
+        <v>197081.7421480995</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="19"/>
-        <v>192604.65602470466</v>
+        <f t="shared" si="16"/>
+        <v>198419.2448292709</v>
       </c>
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.25">
@@ -1125,40 +1125,40 @@
         <v>26849.350000000009</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" ref="O6:R6" si="20">O3*(1-O30)</f>
+        <f t="shared" ref="O6:R6" si="17">O3*(1-O30)</f>
         <v>28665.982950000016</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>30567.897667450023</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>32552.923979536969</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>34617.487179365584</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" ref="S6:W6" si="21">S3*(1-S30)</f>
-        <v>33748.999196151839</v>
+        <f t="shared" ref="S6:W6" si="18">S3*(1-S30)</f>
+        <v>34083.147703044429</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="21"/>
-        <v>32847.411609720293</v>
+        <f t="shared" si="18"/>
+        <v>33501.075422755595</v>
       </c>
       <c r="U6" s="3">
-        <f t="shared" si="21"/>
-        <v>31911.90268809874</v>
+        <f t="shared" si="18"/>
+        <v>32869.196892783642</v>
       </c>
       <c r="V6" s="3">
-        <f t="shared" si="21"/>
-        <v>30941.632618202821</v>
+        <f t="shared" si="18"/>
+        <v>32185.363411051749</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="21"/>
-        <v>29935.743126762729</v>
+        <f t="shared" si="18"/>
+        <v>31447.34849361367</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.25">
@@ -1170,52 +1170,52 @@
         <v>170782</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" ref="L7:M7" si="22">L4-SUM(L5:L6)</f>
+        <f t="shared" ref="L7:M7" si="19">L4-SUM(L5:L6)</f>
         <v>169148</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>180683</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" ref="N7" si="23">N4-SUM(N5:N6)</f>
+        <f t="shared" ref="N7" si="20">N4-SUM(N5:N6)</f>
         <v>190219.52664999999</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" ref="O7" si="24">O4-SUM(O5:O6)</f>
-        <v>201218.27153066502</v>
+        <f t="shared" ref="O7" si="21">O4-SUM(O5:O6)</f>
+        <v>200656.29249858248</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" ref="P7" si="25">P4-SUM(P5:P6)</f>
-        <v>213234.55307927632</v>
+        <f t="shared" ref="P7" si="22">P4-SUM(P5:P6)</f>
+        <v>212090.84145213361</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" ref="Q7" si="26">Q4-SUM(Q5:Q6)</f>
-        <v>226377.2310532986</v>
+        <f t="shared" ref="Q7" si="23">Q4-SUM(Q5:Q6)</f>
+        <v>224631.50893184642</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" ref="R7:W7" si="27">R4-SUM(R5:R6)</f>
-        <v>240767.16649834</v>
+        <f t="shared" ref="R7:W7" si="24">R4-SUM(R5:R6)</f>
+        <v>238398.6191921891</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="27"/>
-        <v>245606.58654495666</v>
+        <f t="shared" si="24"/>
+        <v>243808.51269354264</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="27"/>
-        <v>250543.27893451031</v>
+        <f t="shared" si="24"/>
+        <v>249354.84931942343</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="27"/>
-        <v>255579.19884109395</v>
+        <f t="shared" si="24"/>
+        <v>255041.34427052096</v>
       </c>
       <c r="V7" s="3">
-        <f t="shared" si="27"/>
-        <v>260716.3407378</v>
+        <f t="shared" si="24"/>
+        <v>260871.81884559142</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="27"/>
-        <v>265956.73918662977</v>
+        <f t="shared" si="24"/>
+        <v>266850.20355379948</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.25">
@@ -1236,40 +1236,40 @@
         <v>32378.046894012045</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" ref="O8:R8" si="28">N8*(1+O19)</f>
+        <f t="shared" ref="O8:R8" si="25">N8*(1+O19)</f>
         <v>33465.608946365413</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>34640.424777583641</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>35911.004741289507</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>37286.708076225441</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" ref="S8" si="29">R8*(1+S19)</f>
-        <v>37659.575156987696</v>
+        <f t="shared" ref="S8" si="26">R8*(1+S19)</f>
+        <v>37783.825447684954</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" ref="T8" si="30">S8*(1+T19)</f>
-        <v>38036.170908557571</v>
+        <f t="shared" ref="T8" si="27">S8*(1+T19)</f>
+        <v>38288.398998673016</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" ref="U8" si="31">T8*(1+U19)</f>
-        <v>38416.532617643148</v>
+        <f t="shared" ref="U8" si="28">T8*(1+U19)</f>
+        <v>38800.552991101184</v>
       </c>
       <c r="V8" s="3">
-        <f t="shared" ref="V8" si="32">U8*(1+V19)</f>
-        <v>38800.697943819578</v>
+        <f t="shared" ref="V8" si="29">U8*(1+V19)</f>
+        <v>39320.413923502456</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" ref="W8" si="33">V8*(1+W19)</f>
-        <v>39188.70492325777</v>
+        <f t="shared" ref="W8" si="30">V8*(1+W19)</f>
+        <v>39848.11057327754</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.25">
@@ -1290,40 +1290,40 @@
         <v>26935.603754957996</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" ref="O9:R9" si="34">N9*(1+O19)</f>
+        <f t="shared" ref="O9:R9" si="31">N9*(1+O19)</f>
         <v>27840.356922961371</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>28817.697335690158</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>29874.704836896151</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>31019.165465899117</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" ref="S9" si="35">R9*(1+S19)</f>
-        <v>31329.35712055811</v>
+        <f t="shared" ref="S9" si="32">R9*(1+S19)</f>
+        <v>31432.722113746706</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" ref="T9" si="36">S9*(1+T19)</f>
-        <v>31642.650691763691</v>
+        <f t="shared" ref="T9" si="33">S9*(1+T19)</f>
+        <v>31852.481627936548</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" ref="U9" si="37">T9*(1+U19)</f>
-        <v>31959.077198681327</v>
+        <f t="shared" ref="U9" si="34">T9*(1+U19)</f>
+        <v>32278.547383129338</v>
       </c>
       <c r="V9" s="3">
-        <f t="shared" ref="V9" si="38">U9*(1+V19)</f>
-        <v>32278.667970668139</v>
+        <f t="shared" ref="V9" si="35">U9*(1+V19)</f>
+        <v>32711.02461465232</v>
       </c>
       <c r="W9" s="3">
-        <f t="shared" ref="W9" si="39">V9*(1+W19)</f>
-        <v>32601.454650374821</v>
+        <f t="shared" ref="W9" si="36">V9*(1+W19)</f>
+        <v>33150.020453644363</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.25">
@@ -1335,52 +1335,52 @@
         <v>51345</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" ref="L10:M10" si="40">SUM(L8:L9)</f>
+        <f t="shared" ref="L10:M10" si="37">SUM(L8:L9)</f>
         <v>54847</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>57467</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" ref="N10" si="41">SUM(N8:N9)</f>
+        <f t="shared" ref="N10" si="38">SUM(N8:N9)</f>
         <v>59313.65064897004</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" ref="O10" si="42">SUM(O8:O9)</f>
+        <f t="shared" ref="O10" si="39">SUM(O8:O9)</f>
         <v>61305.965869326785</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" ref="P10" si="43">SUM(P8:P9)</f>
+        <f t="shared" ref="P10" si="40">SUM(P8:P9)</f>
         <v>63458.122113273799</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" ref="Q10" si="44">SUM(Q8:Q9)</f>
+        <f t="shared" ref="Q10" si="41">SUM(Q8:Q9)</f>
         <v>65785.709578185662</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" ref="R10:W10" si="45">SUM(R8:R9)</f>
+        <f t="shared" ref="R10:W10" si="42">SUM(R8:R9)</f>
         <v>68305.873542124551</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="45"/>
-        <v>68988.932277545799</v>
+        <f t="shared" si="42"/>
+        <v>69216.547561431653</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="45"/>
-        <v>69678.821600321258</v>
+        <f t="shared" si="42"/>
+        <v>70140.880626609563</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="45"/>
-        <v>70375.609816324475</v>
+        <f t="shared" si="42"/>
+        <v>71079.100374230518</v>
       </c>
       <c r="V10" s="3">
-        <f t="shared" si="45"/>
-        <v>71079.365914487717</v>
+        <f t="shared" si="42"/>
+        <v>72031.438538154776</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="45"/>
-        <v>71790.159573632583</v>
+        <f t="shared" si="42"/>
+        <v>72998.13102692191</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.25">
@@ -1392,52 +1392,52 @@
         <v>119437</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" ref="L11:M11" si="46">L7-L10</f>
+        <f t="shared" ref="L11:M11" si="43">L7-L10</f>
         <v>114301</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>123216</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" ref="N11" si="47">N7-N10</f>
+        <f t="shared" ref="N11" si="44">N7-N10</f>
         <v>130905.87600102994</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" ref="O11" si="48">O7-O10</f>
-        <v>139912.30566133824</v>
+        <f t="shared" ref="O11" si="45">O7-O10</f>
+        <v>139350.32662925569</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" ref="P11" si="49">P7-P10</f>
-        <v>149776.43096600252</v>
+        <f t="shared" ref="P11" si="46">P7-P10</f>
+        <v>148632.71933885981</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" ref="Q11" si="50">Q7-Q10</f>
-        <v>160591.52147511294</v>
+        <f t="shared" ref="Q11" si="47">Q7-Q10</f>
+        <v>158845.79935366075</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" ref="R11:W11" si="51">R7-R10</f>
-        <v>172461.29295621545</v>
+        <f t="shared" ref="R11:W11" si="48">R7-R10</f>
+        <v>170092.74565006455</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="51"/>
-        <v>176617.65426741086</v>
+        <f t="shared" si="48"/>
+        <v>174591.96513211098</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="51"/>
-        <v>180864.45733418904</v>
+        <f t="shared" si="48"/>
+        <v>179213.96869281388</v>
       </c>
       <c r="U11" s="3">
-        <f t="shared" si="51"/>
-        <v>185203.58902476949</v>
+        <f t="shared" si="48"/>
+        <v>183962.24389629043</v>
       </c>
       <c r="V11" s="3">
-        <f t="shared" si="51"/>
-        <v>189636.97482331228</v>
+        <f t="shared" si="48"/>
+        <v>188840.38030743663</v>
       </c>
       <c r="W11" s="3">
-        <f t="shared" si="51"/>
-        <v>194166.57961299719</v>
+        <f t="shared" si="48"/>
+        <v>193852.07252687757</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.25">
@@ -1454,44 +1454,44 @@
         <v>269</v>
       </c>
       <c r="N12" s="3">
-        <f>M40*$Z$19</f>
+        <f t="shared" ref="N12:W12" si="49">M40*$Z$19</f>
         <v>-1810.86</v>
       </c>
       <c r="O12" s="3">
-        <f>N40*$Z$19</f>
+        <f t="shared" si="49"/>
         <v>4308.2437584488198</v>
       </c>
       <c r="P12" s="3">
-        <f>O40*$Z$19</f>
-        <v>11144.297800946724</v>
+        <f t="shared" si="49"/>
+        <v>11117.659994826014</v>
       </c>
       <c r="Q12" s="3">
-        <f>P40*$Z$19</f>
-        <v>18771.940344500119</v>
+        <f t="shared" si="49"/>
+        <v>18689.827975242719</v>
       </c>
       <c r="R12" s="3">
-        <f>Q40*$Z$19</f>
-        <v>27273.768434749774</v>
+        <f t="shared" si="49"/>
+        <v>27105.016710632743</v>
       </c>
       <c r="S12" s="3">
-        <f>R40*$Z$19</f>
-        <v>36741.210344681531</v>
+        <f t="shared" si="49"/>
+        <v>36452.190646529794</v>
       </c>
       <c r="T12" s="3">
-        <f>S40*$Z$19</f>
-        <v>46854.420527294707</v>
+        <f t="shared" si="49"/>
+        <v>46455.683630437372</v>
       </c>
       <c r="U12" s="3">
-        <f>T40*$Z$19</f>
-        <v>57648.295337929034</v>
+        <f t="shared" si="49"/>
+        <v>57152.42515055948</v>
       </c>
       <c r="V12" s="3">
-        <f>U40*$Z$19</f>
-        <v>69159.474656720951</v>
+        <f t="shared" si="49"/>
+        <v>68581.260463380153</v>
       </c>
       <c r="W12" s="3">
-        <f>V40*$Z$19</f>
-        <v>81426.426362074533</v>
+        <f t="shared" si="49"/>
+        <v>80783.046235916889</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.25">
@@ -1503,52 +1503,52 @@
         <v>119103</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" ref="L13:M13" si="52">L11+L12</f>
+        <f t="shared" ref="L13:M13" si="50">L11+L12</f>
         <v>113736</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="50"/>
         <v>123485</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" ref="N13" si="53">N11+N12</f>
+        <f t="shared" ref="N13" si="51">N11+N12</f>
         <v>129095.01600102994</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" ref="O13" si="54">O11+O12</f>
-        <v>144220.54941978704</v>
+        <f t="shared" ref="O13" si="52">O11+O12</f>
+        <v>143658.5703877045</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" ref="P13" si="55">P11+P12</f>
-        <v>160920.72876694924</v>
+        <f t="shared" ref="P13" si="53">P11+P12</f>
+        <v>159750.37933368582</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" ref="Q13" si="56">Q11+Q12</f>
-        <v>179363.46181961306</v>
+        <f t="shared" ref="Q13" si="54">Q11+Q12</f>
+        <v>177535.62732890347</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" ref="R13:W13" si="57">R11+R12</f>
-        <v>199735.06139096522</v>
+        <f t="shared" ref="R13:W13" si="55">R11+R12</f>
+        <v>197197.76236069729</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="57"/>
-        <v>213358.86461209238</v>
+        <f t="shared" si="55"/>
+        <v>211044.15577864076</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="57"/>
-        <v>227718.87786148375</v>
+        <f t="shared" si="55"/>
+        <v>225669.65232325124</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="57"/>
-        <v>242851.88436269853</v>
+        <f t="shared" si="55"/>
+        <v>241114.66904684991</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="57"/>
-        <v>258796.44948003325</v>
+        <f t="shared" si="55"/>
+        <v>257421.64077081677</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="57"/>
-        <v>275593.00597507169</v>
+        <f t="shared" si="55"/>
+        <v>274635.11876279447</v>
       </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.25">
@@ -1569,40 +1569,40 @@
         <v>27109.953360216288</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14:R14" si="58">O13*O21</f>
-        <v>30286.315378155279</v>
+        <f t="shared" ref="O14:R14" si="56">O13*O21</f>
+        <v>30168.299781417943</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="58"/>
-        <v>33793.353041059338</v>
+        <f t="shared" si="56"/>
+        <v>33547.579660074021</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="58"/>
-        <v>37666.326982118742</v>
+        <f t="shared" si="56"/>
+        <v>37282.481739069728</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="58"/>
-        <v>41944.362892102698</v>
+        <f t="shared" si="56"/>
+        <v>41411.530095746428</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" ref="S14:W14" si="59">S13*S21</f>
-        <v>44805.361568539396</v>
+        <f t="shared" ref="S14:W14" si="57">S13*S21</f>
+        <v>44319.272713514561</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="59"/>
-        <v>47820.964350911585</v>
+        <f t="shared" si="57"/>
+        <v>47390.626987882759</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="59"/>
-        <v>50998.895716166691</v>
+        <f t="shared" si="57"/>
+        <v>50634.080499838477</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="59"/>
-        <v>54347.254390806978</v>
+        <f t="shared" si="57"/>
+        <v>54058.544561871517</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="59"/>
-        <v>57874.531254765054</v>
+        <f t="shared" si="57"/>
+        <v>57673.374940186841</v>
       </c>
     </row>
     <row r="15" spans="1:167" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1614,628 +1614,628 @@
         <v>99803</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" ref="L15:N15" si="60">L13-L14</f>
+        <f t="shared" ref="L15:N15" si="58">L13-L14</f>
         <v>96995</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>93736</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="58"/>
         <v>101985.06264081366</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" ref="O15" si="61">O13-O14</f>
-        <v>113934.23404163176</v>
+        <f t="shared" ref="O15" si="59">O13-O14</f>
+        <v>113490.27060628656</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" ref="P15" si="62">P13-P14</f>
-        <v>127127.3757258899</v>
+        <f t="shared" ref="P15" si="60">P13-P14</f>
+        <v>126202.79967361179</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" ref="Q15" si="63">Q13-Q14</f>
-        <v>141697.13483749432</v>
+        <f t="shared" ref="Q15" si="61">Q13-Q14</f>
+        <v>140253.14558983373</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" ref="R15:W15" si="64">R13-R14</f>
-        <v>157790.6984988625</v>
+        <f t="shared" ref="R15:W15" si="62">R13-R14</f>
+        <v>155786.23226495087</v>
       </c>
       <c r="S15" s="6">
+        <f t="shared" si="62"/>
+        <v>166724.8830651262</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="62"/>
+        <v>178279.02533536847</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="62"/>
+        <v>190480.58854701143</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="62"/>
+        <v>203363.09620894527</v>
+      </c>
+      <c r="W15" s="6">
+        <f t="shared" si="62"/>
+        <v>216961.74382260762</v>
+      </c>
+      <c r="X15" s="6">
+        <f t="shared" ref="X15:BC15" si="63">W15*(1+$Z$20)</f>
+        <v>219131.36126083368</v>
+      </c>
+      <c r="Y15" s="6">
+        <f t="shared" si="63"/>
+        <v>221322.67487344201</v>
+      </c>
+      <c r="Z15" s="6">
+        <f t="shared" si="63"/>
+        <v>223535.90162217643</v>
+      </c>
+      <c r="AA15" s="6">
+        <f t="shared" si="63"/>
+        <v>225771.26063839821</v>
+      </c>
+      <c r="AB15" s="6">
+        <f t="shared" si="63"/>
+        <v>228028.97324478219</v>
+      </c>
+      <c r="AC15" s="6">
+        <f t="shared" si="63"/>
+        <v>230309.26297723001</v>
+      </c>
+      <c r="AD15" s="6">
+        <f t="shared" si="63"/>
+        <v>232612.3556070023</v>
+      </c>
+      <c r="AE15" s="6">
+        <f t="shared" si="63"/>
+        <v>234938.47916307233</v>
+      </c>
+      <c r="AF15" s="6">
+        <f t="shared" si="63"/>
+        <v>237287.86395470306</v>
+      </c>
+      <c r="AG15" s="6">
+        <f t="shared" si="63"/>
+        <v>239660.7425942501</v>
+      </c>
+      <c r="AH15" s="6">
+        <f t="shared" si="63"/>
+        <v>242057.35002019259</v>
+      </c>
+      <c r="AI15" s="6">
+        <f t="shared" si="63"/>
+        <v>244477.92352039451</v>
+      </c>
+      <c r="AJ15" s="6">
+        <f t="shared" si="63"/>
+        <v>246922.70275559847</v>
+      </c>
+      <c r="AK15" s="6">
+        <f t="shared" si="63"/>
+        <v>249391.92978315445</v>
+      </c>
+      <c r="AL15" s="6">
+        <f t="shared" si="63"/>
+        <v>251885.84908098599</v>
+      </c>
+      <c r="AM15" s="6">
+        <f t="shared" si="63"/>
+        <v>254404.70757179585</v>
+      </c>
+      <c r="AN15" s="6">
+        <f t="shared" si="63"/>
+        <v>256948.75464751382</v>
+      </c>
+      <c r="AO15" s="6">
+        <f t="shared" si="63"/>
+        <v>259518.24219398896</v>
+      </c>
+      <c r="AP15" s="6">
+        <f t="shared" si="63"/>
+        <v>262113.42461592885</v>
+      </c>
+      <c r="AQ15" s="6">
+        <f t="shared" si="63"/>
+        <v>264734.55886208813</v>
+      </c>
+      <c r="AR15" s="6">
+        <f t="shared" si="63"/>
+        <v>267381.904450709</v>
+      </c>
+      <c r="AS15" s="6">
+        <f t="shared" si="63"/>
+        <v>270055.72349521611</v>
+      </c>
+      <c r="AT15" s="6">
+        <f t="shared" si="63"/>
+        <v>272756.28073016828</v>
+      </c>
+      <c r="AU15" s="6">
+        <f t="shared" si="63"/>
+        <v>275483.84353746998</v>
+      </c>
+      <c r="AV15" s="6">
+        <f t="shared" si="63"/>
+        <v>278238.6819728447</v>
+      </c>
+      <c r="AW15" s="6">
+        <f t="shared" si="63"/>
+        <v>281021.06879257318</v>
+      </c>
+      <c r="AX15" s="6">
+        <f t="shared" si="63"/>
+        <v>283831.27948049892</v>
+      </c>
+      <c r="AY15" s="6">
+        <f t="shared" si="63"/>
+        <v>286669.5922753039</v>
+      </c>
+      <c r="AZ15" s="6">
+        <f t="shared" si="63"/>
+        <v>289536.28819805692</v>
+      </c>
+      <c r="BA15" s="6">
+        <f t="shared" si="63"/>
+        <v>292431.65108003747</v>
+      </c>
+      <c r="BB15" s="6">
+        <f t="shared" si="63"/>
+        <v>295355.96759083786</v>
+      </c>
+      <c r="BC15" s="6">
+        <f t="shared" si="63"/>
+        <v>298309.52726674621</v>
+      </c>
+      <c r="BD15" s="6">
+        <f t="shared" ref="BD15:CI15" si="64">BC15*(1+$Z$20)</f>
+        <v>301292.62253941369</v>
+      </c>
+      <c r="BE15" s="6">
         <f t="shared" si="64"/>
-        <v>168553.50304355298</v>
-      </c>
-      <c r="T15" s="6">
+        <v>304305.54876480781</v>
+      </c>
+      <c r="BF15" s="6">
         <f t="shared" si="64"/>
-        <v>179897.91351057217</v>
-      </c>
-      <c r="U15" s="6">
+        <v>307348.60425245587</v>
+      </c>
+      <c r="BG15" s="6">
         <f t="shared" si="64"/>
-        <v>191852.98864653183</v>
-      </c>
-      <c r="V15" s="6">
+        <v>310422.09029498044</v>
+      </c>
+      <c r="BH15" s="6">
         <f t="shared" si="64"/>
-        <v>204449.19508922627</v>
-      </c>
-      <c r="W15" s="6">
+        <v>313526.31119793025</v>
+      </c>
+      <c r="BI15" s="6">
         <f t="shared" si="64"/>
-        <v>217718.47472030664</v>
-      </c>
-      <c r="X15" s="6">
-        <f>W15*(1+$Z$20)</f>
-        <v>219895.65946750971</v>
-      </c>
-      <c r="Y15" s="6">
-        <f>X15*(1+$Z$20)</f>
-        <v>222094.61606218482</v>
-      </c>
-      <c r="Z15" s="6">
-        <f>Y15*(1+$Z$20)</f>
-        <v>224315.56222280668</v>
-      </c>
-      <c r="AA15" s="6">
-        <f>Z15*(1+$Z$20)</f>
-        <v>226558.71784503476</v>
-      </c>
-      <c r="AB15" s="6">
-        <f>AA15*(1+$Z$20)</f>
-        <v>228824.3050234851</v>
-      </c>
-      <c r="AC15" s="6">
-        <f>AB15*(1+$Z$20)</f>
-        <v>231112.54807371995</v>
-      </c>
-      <c r="AD15" s="6">
-        <f>AC15*(1+$Z$20)</f>
-        <v>233423.67355445714</v>
-      </c>
-      <c r="AE15" s="6">
-        <f>AD15*(1+$Z$20)</f>
-        <v>235757.91029000172</v>
-      </c>
-      <c r="AF15" s="6">
-        <f>AE15*(1+$Z$20)</f>
-        <v>238115.48939290174</v>
-      </c>
-      <c r="AG15" s="6">
-        <f>AF15*(1+$Z$20)</f>
-        <v>240496.64428683076</v>
-      </c>
-      <c r="AH15" s="6">
-        <f>AG15*(1+$Z$20)</f>
-        <v>242901.61072969908</v>
-      </c>
-      <c r="AI15" s="6">
-        <f>AH15*(1+$Z$20)</f>
-        <v>245330.62683699606</v>
-      </c>
-      <c r="AJ15" s="6">
-        <f>AI15*(1+$Z$20)</f>
-        <v>247783.93310536601</v>
-      </c>
-      <c r="AK15" s="6">
-        <f>AJ15*(1+$Z$20)</f>
-        <v>250261.77243641968</v>
-      </c>
-      <c r="AL15" s="6">
-        <f>AK15*(1+$Z$20)</f>
-        <v>252764.39016078386</v>
-      </c>
-      <c r="AM15" s="6">
-        <f>AL15*(1+$Z$20)</f>
-        <v>255292.0340623917</v>
-      </c>
-      <c r="AN15" s="6">
-        <f>AM15*(1+$Z$20)</f>
-        <v>257844.95440301561</v>
-      </c>
-      <c r="AO15" s="6">
-        <f>AN15*(1+$Z$20)</f>
-        <v>260423.40394704576</v>
-      </c>
-      <c r="AP15" s="6">
-        <f>AO15*(1+$Z$20)</f>
-        <v>263027.63798651623</v>
-      </c>
-      <c r="AQ15" s="6">
-        <f>AP15*(1+$Z$20)</f>
-        <v>265657.91436638142</v>
-      </c>
-      <c r="AR15" s="6">
-        <f>AQ15*(1+$Z$20)</f>
-        <v>268314.49351004523</v>
-      </c>
-      <c r="AS15" s="6">
-        <f>AR15*(1+$Z$20)</f>
-        <v>270997.63844514568</v>
-      </c>
-      <c r="AT15" s="6">
-        <f>AS15*(1+$Z$20)</f>
-        <v>273707.61482959712</v>
-      </c>
-      <c r="AU15" s="6">
-        <f>AT15*(1+$Z$20)</f>
-        <v>276444.69097789307</v>
-      </c>
-      <c r="AV15" s="6">
-        <f>AU15*(1+$Z$20)</f>
-        <v>279209.137887672</v>
-      </c>
-      <c r="AW15" s="6">
-        <f>AV15*(1+$Z$20)</f>
-        <v>282001.2292665487</v>
-      </c>
-      <c r="AX15" s="6">
-        <f>AW15*(1+$Z$20)</f>
-        <v>284821.24155921419</v>
-      </c>
-      <c r="AY15" s="6">
-        <f>AX15*(1+$Z$20)</f>
-        <v>287669.45397480635</v>
-      </c>
-      <c r="AZ15" s="6">
-        <f>AY15*(1+$Z$20)</f>
-        <v>290546.14851455443</v>
-      </c>
-      <c r="BA15" s="6">
-        <f>AZ15*(1+$Z$20)</f>
-        <v>293451.60999969998</v>
-      </c>
-      <c r="BB15" s="6">
-        <f>BA15*(1+$Z$20)</f>
-        <v>296386.12609969696</v>
-      </c>
-      <c r="BC15" s="6">
-        <f>BB15*(1+$Z$20)</f>
-        <v>299349.98736069392</v>
-      </c>
-      <c r="BD15" s="6">
-        <f>BC15*(1+$Z$20)</f>
-        <v>302343.48723430088</v>
-      </c>
-      <c r="BE15" s="6">
-        <f>BD15*(1+$Z$20)</f>
-        <v>305366.92210664391</v>
-      </c>
-      <c r="BF15" s="6">
-        <f>BE15*(1+$Z$20)</f>
-        <v>308420.59132771037</v>
-      </c>
-      <c r="BG15" s="6">
-        <f>BF15*(1+$Z$20)</f>
-        <v>311504.79724098748</v>
-      </c>
-      <c r="BH15" s="6">
-        <f>BG15*(1+$Z$20)</f>
-        <v>314619.84521339735</v>
-      </c>
-      <c r="BI15" s="6">
-        <f>BH15*(1+$Z$20)</f>
-        <v>317766.04366553132</v>
+        <v>316661.57430990954</v>
       </c>
       <c r="BJ15" s="6">
-        <f>BI15*(1+$Z$20)</f>
-        <v>320943.70410218666</v>
+        <f t="shared" si="64"/>
+        <v>319828.19005300861</v>
       </c>
       <c r="BK15" s="6">
-        <f>BJ15*(1+$Z$20)</f>
-        <v>324153.14114320854</v>
+        <f t="shared" si="64"/>
+        <v>323026.47195353871</v>
       </c>
       <c r="BL15" s="6">
-        <f>BK15*(1+$Z$20)</f>
-        <v>327394.67255464062</v>
+        <f t="shared" si="64"/>
+        <v>326256.73667307408</v>
       </c>
       <c r="BM15" s="6">
-        <f>BL15*(1+$Z$20)</f>
-        <v>330668.61928018701</v>
+        <f t="shared" si="64"/>
+        <v>329519.30403980485</v>
       </c>
       <c r="BN15" s="6">
-        <f>BM15*(1+$Z$20)</f>
-        <v>333975.30547298887</v>
+        <f t="shared" si="64"/>
+        <v>332814.49708020291</v>
       </c>
       <c r="BO15" s="6">
-        <f>BN15*(1+$Z$20)</f>
-        <v>337315.05852771876</v>
+        <f t="shared" si="64"/>
+        <v>336142.64205100492</v>
       </c>
       <c r="BP15" s="6">
-        <f>BO15*(1+$Z$20)</f>
-        <v>340688.20911299594</v>
+        <f t="shared" si="64"/>
+        <v>339504.06847151497</v>
       </c>
       <c r="BQ15" s="6">
-        <f>BP15*(1+$Z$20)</f>
-        <v>344095.0912041259</v>
+        <f t="shared" si="64"/>
+        <v>342899.10915623012</v>
       </c>
       <c r="BR15" s="6">
-        <f>BQ15*(1+$Z$20)</f>
-        <v>347536.04211616714</v>
+        <f t="shared" si="64"/>
+        <v>346328.10024779243</v>
       </c>
       <c r="BS15" s="6">
-        <f>BR15*(1+$Z$20)</f>
-        <v>351011.40253732883</v>
+        <f t="shared" si="64"/>
+        <v>349791.38125027035</v>
       </c>
       <c r="BT15" s="6">
-        <f>BS15*(1+$Z$20)</f>
-        <v>354521.51656270213</v>
+        <f t="shared" si="64"/>
+        <v>353289.29506277305</v>
       </c>
       <c r="BU15" s="6">
-        <f>BT15*(1+$Z$20)</f>
-        <v>358066.73172832915</v>
+        <f t="shared" si="64"/>
+        <v>356822.18801340077</v>
       </c>
       <c r="BV15" s="6">
-        <f>BU15*(1+$Z$20)</f>
-        <v>361647.39904561243</v>
+        <f t="shared" si="64"/>
+        <v>360390.40989353479</v>
       </c>
       <c r="BW15" s="6">
-        <f>BV15*(1+$Z$20)</f>
-        <v>365263.87303606857</v>
+        <f t="shared" si="64"/>
+        <v>363994.31399247015</v>
       </c>
       <c r="BX15" s="6">
-        <f>BW15*(1+$Z$20)</f>
-        <v>368916.51176642923</v>
+        <f t="shared" si="64"/>
+        <v>367634.25713239488</v>
       </c>
       <c r="BY15" s="6">
-        <f>BX15*(1+$Z$20)</f>
-        <v>372605.67688409355</v>
+        <f t="shared" si="64"/>
+        <v>371310.59970371885</v>
       </c>
       <c r="BZ15" s="6">
-        <f>BY15*(1+$Z$20)</f>
-        <v>376331.73365293449</v>
+        <f t="shared" si="64"/>
+        <v>375023.70570075605</v>
       </c>
       <c r="CA15" s="6">
-        <f>BZ15*(1+$Z$20)</f>
-        <v>380095.05098946387</v>
+        <f t="shared" si="64"/>
+        <v>378773.94275776361</v>
       </c>
       <c r="CB15" s="6">
-        <f>CA15*(1+$Z$20)</f>
-        <v>383896.00149935851</v>
+        <f t="shared" si="64"/>
+        <v>382561.68218534125</v>
       </c>
       <c r="CC15" s="6">
-        <f>CB15*(1+$Z$20)</f>
-        <v>387734.96151435212</v>
+        <f t="shared" si="64"/>
+        <v>386387.2990071947</v>
       </c>
       <c r="CD15" s="6">
-        <f>CC15*(1+$Z$20)</f>
-        <v>391612.31112949562</v>
+        <f t="shared" si="64"/>
+        <v>390251.17199726665</v>
       </c>
       <c r="CE15" s="6">
-        <f>CD15*(1+$Z$20)</f>
-        <v>395528.43424079055</v>
+        <f t="shared" si="64"/>
+        <v>394153.6837172393</v>
       </c>
       <c r="CF15" s="6">
-        <f>CE15*(1+$Z$20)</f>
-        <v>399483.71858319844</v>
+        <f t="shared" si="64"/>
+        <v>398095.2205544117</v>
       </c>
       <c r="CG15" s="6">
-        <f>CF15*(1+$Z$20)</f>
-        <v>403478.55576903041</v>
+        <f t="shared" si="64"/>
+        <v>402076.17275995581</v>
       </c>
       <c r="CH15" s="6">
-        <f>CG15*(1+$Z$20)</f>
-        <v>407513.34132672072</v>
+        <f t="shared" si="64"/>
+        <v>406096.93448755535</v>
       </c>
       <c r="CI15" s="6">
-        <f>CH15*(1+$Z$20)</f>
-        <v>411588.47473998793</v>
+        <f t="shared" si="64"/>
+        <v>410157.90383243089</v>
       </c>
       <c r="CJ15" s="6">
-        <f>CI15*(1+$Z$20)</f>
-        <v>415704.35948738782</v>
+        <f t="shared" ref="CJ15:DO15" si="65">CI15*(1+$Z$20)</f>
+        <v>414259.48287075519</v>
       </c>
       <c r="CK15" s="6">
-        <f>CJ15*(1+$Z$20)</f>
-        <v>419861.40308226168</v>
+        <f t="shared" si="65"/>
+        <v>418402.07769946277</v>
       </c>
       <c r="CL15" s="6">
-        <f>CK15*(1+$Z$20)</f>
-        <v>424060.01711308432</v>
+        <f t="shared" si="65"/>
+        <v>422586.09847645741</v>
       </c>
       <c r="CM15" s="6">
-        <f>CL15*(1+$Z$20)</f>
-        <v>428300.61728421517</v>
+        <f t="shared" si="65"/>
+        <v>426811.959461222</v>
       </c>
       <c r="CN15" s="6">
-        <f>CM15*(1+$Z$20)</f>
-        <v>432583.62345705734</v>
+        <f t="shared" si="65"/>
+        <v>431080.07905583421</v>
       </c>
       <c r="CO15" s="6">
-        <f>CN15*(1+$Z$20)</f>
-        <v>436909.45969162794</v>
+        <f t="shared" si="65"/>
+        <v>435390.87984639255</v>
       </c>
       <c r="CP15" s="6">
-        <f>CO15*(1+$Z$20)</f>
-        <v>441278.55428854423</v>
+        <f t="shared" si="65"/>
+        <v>439744.78864485648</v>
       </c>
       <c r="CQ15" s="6">
-        <f>CP15*(1+$Z$20)</f>
-        <v>445691.33983142965</v>
+        <f t="shared" si="65"/>
+        <v>444142.23653130507</v>
       </c>
       <c r="CR15" s="6">
-        <f>CQ15*(1+$Z$20)</f>
-        <v>450148.25322974398</v>
+        <f t="shared" si="65"/>
+        <v>448583.65889661812</v>
       </c>
       <c r="CS15" s="6">
-        <f>CR15*(1+$Z$20)</f>
-        <v>454649.73576204141</v>
+        <f t="shared" si="65"/>
+        <v>453069.49548558431</v>
       </c>
       <c r="CT15" s="6">
-        <f>CS15*(1+$Z$20)</f>
-        <v>459196.2331196618</v>
+        <f t="shared" si="65"/>
+        <v>457600.19044044014</v>
       </c>
       <c r="CU15" s="6">
-        <f>CT15*(1+$Z$20)</f>
-        <v>463788.19545085845</v>
+        <f t="shared" si="65"/>
+        <v>462176.19234484457</v>
       </c>
       <c r="CV15" s="6">
-        <f>CU15*(1+$Z$20)</f>
-        <v>468426.07740536705</v>
+        <f t="shared" si="65"/>
+        <v>466797.95426829305</v>
       </c>
       <c r="CW15" s="6">
-        <f>CV15*(1+$Z$20)</f>
-        <v>473110.33817942074</v>
+        <f t="shared" si="65"/>
+        <v>471465.93381097598</v>
       </c>
       <c r="CX15" s="6">
-        <f>CW15*(1+$Z$20)</f>
-        <v>477841.44156121498</v>
+        <f t="shared" si="65"/>
+        <v>476180.59314908576</v>
       </c>
       <c r="CY15" s="6">
-        <f>CX15*(1+$Z$20)</f>
-        <v>482619.85597682715</v>
+        <f t="shared" si="65"/>
+        <v>480942.39908057661</v>
       </c>
       <c r="CZ15" s="6">
-        <f>CY15*(1+$Z$20)</f>
-        <v>487446.05453659542</v>
+        <f t="shared" si="65"/>
+        <v>485751.82307138236</v>
       </c>
       <c r="DA15" s="6">
-        <f>CZ15*(1+$Z$20)</f>
-        <v>492320.51508196135</v>
+        <f t="shared" si="65"/>
+        <v>490609.3413020962</v>
       </c>
       <c r="DB15" s="6">
-        <f>DA15*(1+$Z$20)</f>
-        <v>497243.72023278096</v>
+        <f t="shared" si="65"/>
+        <v>495515.43471511715</v>
       </c>
       <c r="DC15" s="6">
-        <f>DB15*(1+$Z$20)</f>
-        <v>502216.15743510879</v>
+        <f t="shared" si="65"/>
+        <v>500470.58906226832</v>
       </c>
       <c r="DD15" s="6">
-        <f>DC15*(1+$Z$20)</f>
-        <v>507238.31900945987</v>
+        <f t="shared" si="65"/>
+        <v>505475.29495289101</v>
       </c>
       <c r="DE15" s="6">
-        <f>DD15*(1+$Z$20)</f>
-        <v>512310.70219955448</v>
+        <f t="shared" si="65"/>
+        <v>510530.04790241993</v>
       </c>
       <c r="DF15" s="6">
-        <f>DE15*(1+$Z$20)</f>
-        <v>517433.80922155001</v>
+        <f t="shared" si="65"/>
+        <v>515635.34838144411</v>
       </c>
       <c r="DG15" s="6">
-        <f>DF15*(1+$Z$20)</f>
-        <v>522608.14731376548</v>
+        <f t="shared" si="65"/>
+        <v>520791.70186525857</v>
       </c>
       <c r="DH15" s="6">
-        <f>DG15*(1+$Z$20)</f>
-        <v>527834.2287869032</v>
+        <f t="shared" si="65"/>
+        <v>525999.61888391117</v>
       </c>
       <c r="DI15" s="6">
-        <f>DH15*(1+$Z$20)</f>
-        <v>533112.57107477228</v>
+        <f t="shared" si="65"/>
+        <v>531259.61507275025</v>
       </c>
       <c r="DJ15" s="6">
-        <f>DI15*(1+$Z$20)</f>
-        <v>538443.69678551995</v>
+        <f t="shared" si="65"/>
+        <v>536572.21122347773</v>
       </c>
       <c r="DK15" s="6">
-        <f>DJ15*(1+$Z$20)</f>
-        <v>543828.13375337515</v>
+        <f t="shared" si="65"/>
+        <v>541937.93333571253</v>
       </c>
       <c r="DL15" s="6">
-        <f>DK15*(1+$Z$20)</f>
-        <v>549266.41509090888</v>
+        <f t="shared" si="65"/>
+        <v>547357.31266906962</v>
       </c>
       <c r="DM15" s="6">
-        <f>DL15*(1+$Z$20)</f>
-        <v>554759.07924181793</v>
+        <f t="shared" si="65"/>
+        <v>552830.88579576032</v>
       </c>
       <c r="DN15" s="6">
-        <f>DM15*(1+$Z$20)</f>
-        <v>560306.67003423616</v>
+        <f t="shared" si="65"/>
+        <v>558359.19465371792</v>
       </c>
       <c r="DO15" s="6">
-        <f>DN15*(1+$Z$20)</f>
-        <v>565909.7367345785</v>
+        <f t="shared" si="65"/>
+        <v>563942.78660025506</v>
       </c>
       <c r="DP15" s="6">
-        <f>DO15*(1+$Z$20)</f>
-        <v>571568.83410192432</v>
+        <f t="shared" ref="DP15:EU15" si="66">DO15*(1+$Z$20)</f>
+        <v>569582.2144662576</v>
       </c>
       <c r="DQ15" s="6">
-        <f>DP15*(1+$Z$20)</f>
-        <v>577284.52244294353</v>
+        <f t="shared" si="66"/>
+        <v>575278.03661092022</v>
       </c>
       <c r="DR15" s="6">
-        <f>DQ15*(1+$Z$20)</f>
-        <v>583057.36766737292</v>
+        <f t="shared" si="66"/>
+        <v>581030.81697702943</v>
       </c>
       <c r="DS15" s="6">
-        <f>DR15*(1+$Z$20)</f>
-        <v>588887.94134404662</v>
+        <f t="shared" si="66"/>
+        <v>586841.12514679972</v>
       </c>
       <c r="DT15" s="6">
-        <f>DS15*(1+$Z$20)</f>
-        <v>594776.82075748709</v>
+        <f t="shared" si="66"/>
+        <v>592709.53639826772</v>
       </c>
       <c r="DU15" s="6">
-        <f>DT15*(1+$Z$20)</f>
-        <v>600724.58896506194</v>
+        <f t="shared" si="66"/>
+        <v>598636.63176225044</v>
       </c>
       <c r="DV15" s="6">
-        <f>DU15*(1+$Z$20)</f>
-        <v>606731.83485471259</v>
+        <f t="shared" si="66"/>
+        <v>604622.99807987292</v>
       </c>
       <c r="DW15" s="6">
-        <f>DV15*(1+$Z$20)</f>
-        <v>612799.15320325969</v>
+        <f t="shared" si="66"/>
+        <v>610669.22806067171</v>
       </c>
       <c r="DX15" s="6">
-        <f>DW15*(1+$Z$20)</f>
-        <v>618927.1447352923</v>
+        <f t="shared" si="66"/>
+        <v>616775.92034127843</v>
       </c>
       <c r="DY15" s="6">
-        <f>DX15*(1+$Z$20)</f>
-        <v>625116.41618264525</v>
+        <f t="shared" si="66"/>
+        <v>622943.67954469123</v>
       </c>
       <c r="DZ15" s="6">
-        <f>DY15*(1+$Z$20)</f>
-        <v>631367.58034447173</v>
+        <f t="shared" si="66"/>
+        <v>629173.11634013813</v>
       </c>
       <c r="EA15" s="6">
-        <f>DZ15*(1+$Z$20)</f>
-        <v>637681.25614791643</v>
+        <f t="shared" si="66"/>
+        <v>635464.84750353952</v>
       </c>
       <c r="EB15" s="6">
-        <f>EA15*(1+$Z$20)</f>
-        <v>644058.06870939559</v>
+        <f t="shared" si="66"/>
+        <v>641819.49597857497</v>
       </c>
       <c r="EC15" s="6">
-        <f>EB15*(1+$Z$20)</f>
-        <v>650498.64939648961</v>
+        <f t="shared" si="66"/>
+        <v>648237.69093836076</v>
       </c>
       <c r="ED15" s="6">
-        <f>EC15*(1+$Z$20)</f>
-        <v>657003.63589045452</v>
+        <f t="shared" si="66"/>
+        <v>654720.06784774433</v>
       </c>
       <c r="EE15" s="6">
-        <f>ED15*(1+$Z$20)</f>
-        <v>663573.67224935908</v>
+        <f t="shared" si="66"/>
+        <v>661267.26852622174</v>
       </c>
       <c r="EF15" s="6">
-        <f>EE15*(1+$Z$20)</f>
-        <v>670209.40897185262</v>
+        <f t="shared" si="66"/>
+        <v>667879.94121148402</v>
       </c>
       <c r="EG15" s="6">
-        <f>EF15*(1+$Z$20)</f>
-        <v>676911.50306157116</v>
+        <f t="shared" si="66"/>
+        <v>674558.74062359892</v>
       </c>
       <c r="EH15" s="6">
-        <f>EG15*(1+$Z$20)</f>
-        <v>683680.61809218687</v>
+        <f t="shared" si="66"/>
+        <v>681304.3280298349</v>
       </c>
       <c r="EI15" s="6">
-        <f>EH15*(1+$Z$20)</f>
-        <v>690517.42427310871</v>
+        <f t="shared" si="66"/>
+        <v>688117.37131013325</v>
       </c>
       <c r="EJ15" s="6">
-        <f>EI15*(1+$Z$20)</f>
-        <v>697422.59851583978</v>
+        <f t="shared" si="66"/>
+        <v>694998.54502323456</v>
       </c>
       <c r="EK15" s="6">
-        <f>EJ15*(1+$Z$20)</f>
-        <v>704396.82450099813</v>
+        <f t="shared" si="66"/>
+        <v>701948.53047346696</v>
       </c>
       <c r="EL15" s="6">
-        <f>EK15*(1+$Z$20)</f>
-        <v>711440.79274600814</v>
+        <f t="shared" si="66"/>
+        <v>708968.01577820163</v>
       </c>
       <c r="EM15" s="6">
-        <f>EL15*(1+$Z$20)</f>
-        <v>718555.20067346818</v>
+        <f t="shared" si="66"/>
+        <v>716057.69593598368</v>
       </c>
       <c r="EN15" s="6">
-        <f>EM15*(1+$Z$20)</f>
-        <v>725740.75268020283</v>
+        <f t="shared" si="66"/>
+        <v>723218.27289534349</v>
       </c>
       <c r="EO15" s="6">
-        <f>EN15*(1+$Z$20)</f>
-        <v>732998.16020700487</v>
+        <f t="shared" si="66"/>
+        <v>730450.45562429691</v>
       </c>
       <c r="EP15" s="6">
-        <f>EO15*(1+$Z$20)</f>
-        <v>740328.14180907491</v>
+        <f t="shared" si="66"/>
+        <v>737754.96018053987</v>
       </c>
       <c r="EQ15" s="6">
-        <f>EP15*(1+$Z$20)</f>
-        <v>747731.42322716571</v>
+        <f t="shared" si="66"/>
+        <v>745132.50978234527</v>
       </c>
       <c r="ER15" s="6">
-        <f>EQ15*(1+$Z$20)</f>
-        <v>755208.73745943734</v>
+        <f t="shared" si="66"/>
+        <v>752583.83488016878</v>
       </c>
       <c r="ES15" s="6">
-        <f>ER15*(1+$Z$20)</f>
-        <v>762760.82483403175</v>
+        <f t="shared" si="66"/>
+        <v>760109.6732289705</v>
       </c>
       <c r="ET15" s="6">
-        <f>ES15*(1+$Z$20)</f>
-        <v>770388.43308237207</v>
+        <f t="shared" si="66"/>
+        <v>767710.76996126026</v>
       </c>
       <c r="EU15" s="6">
-        <f>ET15*(1+$Z$20)</f>
-        <v>778092.31741319585</v>
+        <f t="shared" si="66"/>
+        <v>775387.87766087288</v>
       </c>
       <c r="EV15" s="6">
-        <f>EU15*(1+$Z$20)</f>
-        <v>785873.24058732786</v>
+        <f t="shared" ref="EV15:FK15" si="67">EU15*(1+$Z$20)</f>
+        <v>783141.75643748161</v>
       </c>
       <c r="EW15" s="6">
-        <f>EV15*(1+$Z$20)</f>
-        <v>793731.97299320111</v>
+        <f t="shared" si="67"/>
+        <v>790973.17400185647</v>
       </c>
       <c r="EX15" s="6">
-        <f>EW15*(1+$Z$20)</f>
-        <v>801669.29272313311</v>
+        <f t="shared" si="67"/>
+        <v>798882.90574187506</v>
       </c>
       <c r="EY15" s="6">
-        <f>EX15*(1+$Z$20)</f>
-        <v>809685.98565036443</v>
+        <f t="shared" si="67"/>
+        <v>806871.7347992938</v>
       </c>
       <c r="EZ15" s="6">
-        <f>EY15*(1+$Z$20)</f>
-        <v>817782.84550686809</v>
+        <f t="shared" si="67"/>
+        <v>814940.45214728673</v>
       </c>
       <c r="FA15" s="6">
-        <f>EZ15*(1+$Z$20)</f>
-        <v>825960.67396193673</v>
+        <f t="shared" si="67"/>
+        <v>823089.8566687596</v>
       </c>
       <c r="FB15" s="6">
-        <f>FA15*(1+$Z$20)</f>
-        <v>834220.28070155613</v>
+        <f t="shared" si="67"/>
+        <v>831320.7552354472</v>
       </c>
       <c r="FC15" s="6">
-        <f>FB15*(1+$Z$20)</f>
-        <v>842562.48350857175</v>
+        <f t="shared" si="67"/>
+        <v>839633.96278780163</v>
       </c>
       <c r="FD15" s="6">
-        <f>FC15*(1+$Z$20)</f>
-        <v>850988.10834365746</v>
+        <f t="shared" si="67"/>
+        <v>848030.30241567967</v>
       </c>
       <c r="FE15" s="6">
-        <f>FD15*(1+$Z$20)</f>
-        <v>859497.989427094</v>
+        <f t="shared" si="67"/>
+        <v>856510.60543983651</v>
       </c>
       <c r="FF15" s="6">
-        <f>FE15*(1+$Z$20)</f>
-        <v>868092.969321365</v>
+        <f t="shared" si="67"/>
+        <v>865075.71149423486</v>
       </c>
       <c r="FG15" s="6">
-        <f>FF15*(1+$Z$20)</f>
-        <v>876773.89901457867</v>
+        <f t="shared" si="67"/>
+        <v>873726.46860917716</v>
       </c>
       <c r="FH15" s="6">
-        <f>FG15*(1+$Z$20)</f>
-        <v>885541.63800472452</v>
+        <f t="shared" si="67"/>
+        <v>882463.73329526896</v>
       </c>
       <c r="FI15" s="6">
-        <f>FH15*(1+$Z$20)</f>
-        <v>894397.05438477173</v>
+        <f t="shared" si="67"/>
+        <v>891288.37062822166</v>
       </c>
       <c r="FJ15" s="6">
-        <f>FI15*(1+$Z$20)</f>
-        <v>903341.0249286195</v>
+        <f t="shared" si="67"/>
+        <v>900201.2543345039</v>
       </c>
       <c r="FK15" s="6">
-        <f>FJ15*(1+$Z$20)</f>
-        <v>912374.43517790572</v>
+        <f t="shared" si="67"/>
+        <v>909203.266877849</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.25">
@@ -2247,52 +2247,52 @@
         <v>6.1132073160273928</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" ref="L16:N16" si="65">L15/L17</f>
+        <f t="shared" ref="L16:N16" si="68">L15/L17</f>
         <v>6.1340711462450592</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6.08355345564995</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>6.7468287007683028</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" ref="O16" si="66">O15/O17</f>
-        <v>7.5373269410976294</v>
+        <f t="shared" ref="O16" si="69">O15/O17</f>
+        <v>7.5079565100745276</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ref="P16" si="67">P15/P17</f>
-        <v>8.4101201194687683</v>
+        <f t="shared" ref="P16" si="70">P15/P17</f>
+        <v>8.3489547283416119</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16" si="68">Q15/Q17</f>
-        <v>9.3739835166376242</v>
+        <f t="shared" ref="Q16" si="71">Q15/Q17</f>
+        <v>9.2784563105208875</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16:W16" si="69">R15/R17</f>
-        <v>10.438654306619641</v>
+        <f t="shared" ref="R16:W16" si="72">R15/R17</f>
+        <v>10.306048707657506</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="69"/>
-        <v>11.150668367527983</v>
+        <f t="shared" si="72"/>
+        <v>11.02969588946323</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="69"/>
-        <v>11.901158607473681</v>
+        <f t="shared" si="72"/>
+        <v>11.794060951003472</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="69"/>
-        <v>12.69204740979967</v>
+        <f t="shared" si="72"/>
+        <v>12.601256188608854</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="69"/>
-        <v>13.525350296985067</v>
+        <f t="shared" si="72"/>
+        <v>13.453499352272113</v>
       </c>
       <c r="W16" s="2">
-        <f t="shared" si="69"/>
-        <v>14.40318038636588</v>
+        <f t="shared" si="72"/>
+        <v>14.353118802765787</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2358,52 +2358,52 @@
         <v>23</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" ref="L19:R19" si="70">L4/K4-1</f>
+        <f t="shared" ref="L19:R19" si="73">L4/K4-1</f>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="M19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2.021994077514111E-2</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>3.2134105642717348E-2</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>3.3589489073057699E-2</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>3.5105168207190784E-2</v>
       </c>
       <c r="Q19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>3.6679110370727352E-2</v>
       </c>
       <c r="R19" s="4">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>3.8308684060688103E-2</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" ref="S19" si="71">S4/R4-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="S19" si="74">S4/R4-1</f>
+        <v>1.3332294458477056E-2</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" ref="T19" si="72">T4/S4-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="T19" si="75">T4/S4-1</f>
+        <v>1.3354220887101143E-2</v>
       </c>
       <c r="U19" s="4">
-        <f t="shared" ref="U19" si="73">U4/T4-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="U19" si="76">U4/T4-1</f>
+        <v>1.3376218536740536E-2</v>
       </c>
       <c r="V19" s="4">
-        <f t="shared" ref="V19" si="74">V4/U4-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="V19" si="77">V4/U4-1</f>
+        <v>1.3398286682164029E-2</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" ref="W19" si="75">W4/V4-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="W19" si="78">W4/V4-1</f>
+        <v>1.342042458662096E-2</v>
       </c>
       <c r="Y19" s="3" t="s">
         <v>35</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z22" s="6">
         <f>NPV(Z21,N36:FK36)+Sheet1!F5-Sheet1!F6</f>
-        <v>2704942.9967930559</v>
+        <v>2661749.7008524858</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2494,59 +2494,59 @@
         <v>0.43309630561360085</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23:R23" si="76">L7/L4</f>
+        <f t="shared" ref="L23:R23" si="79">L7/L4</f>
         <v>0.44131129577207562</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.46206349815233932</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>0.47130639920321216</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="76"/>
-        <v>0.48235587192331281</v>
+        <f t="shared" si="79"/>
+        <v>0.48100870854714056</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="76"/>
-        <v>0.49382521209080343</v>
+        <f t="shared" si="79"/>
+        <v>0.49117651548564073</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="76"/>
-        <v>0.50571294987686821</v>
+        <f t="shared" si="79"/>
+        <v>0.50181311295600295</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="76"/>
-        <v>0.51801472693319262</v>
+        <f t="shared" si="79"/>
+        <v>0.51291875639921802</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" ref="S23:W23" si="77">S7/S4</f>
-        <v>0.52319487420252453</v>
+        <f t="shared" ref="S23:W23" si="80">S7/S4</f>
+        <v>0.51765668457741343</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="77"/>
-        <v>0.52842682294454979</v>
+        <f t="shared" si="80"/>
+        <v>0.5224557329836047</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="77"/>
-        <v>0.53371109117399529</v>
+        <f t="shared" si="80"/>
+        <v>0.52731674316776822</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="77"/>
-        <v>0.53904820208573534</v>
+        <f t="shared" si="80"/>
+        <v>0.53224056661570296</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="77"/>
-        <v>0.54443868410659269</v>
+        <f t="shared" si="80"/>
+        <v>0.53722806482835384</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="Z23" s="3">
         <f>Z22/Sheet1!F3</f>
-        <v>178.94778185700216</v>
+        <v>176.09029298983495</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2558,59 +2558,59 @@
         <v>0.30288744395528594</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" ref="L24:R24" si="78">L11/L4</f>
+        <f t="shared" ref="L24:R24" si="81">L11/L4</f>
         <v>0.29821412265024722</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.31510222870075566</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>0.32434512975162855</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="78"/>
-        <v>0.3353946024717292</v>
+        <f t="shared" si="81"/>
+        <v>0.33404743909555695</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="78"/>
-        <v>0.34686394263921982</v>
+        <f t="shared" si="81"/>
+        <v>0.34421524603405712</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="78"/>
-        <v>0.3587516804252846</v>
+        <f t="shared" si="81"/>
+        <v>0.3548518435044194</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="78"/>
-        <v>0.37105345748160901</v>
+        <f t="shared" si="81"/>
+        <v>0.36595748694763436</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" ref="S24:W24" si="79">S11/S4</f>
-        <v>0.37623360475094098</v>
+        <f t="shared" ref="S24:W24" si="82">S11/S4</f>
+        <v>0.37069541512582982</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="79"/>
-        <v>0.38146555349296624</v>
+        <f t="shared" si="82"/>
+        <v>0.37549446353202115</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" si="79"/>
-        <v>0.38674982172241174</v>
+        <f t="shared" si="82"/>
+        <v>0.38035547371618461</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="79"/>
-        <v>0.39208693263415173</v>
+        <f t="shared" si="82"/>
+        <v>0.38527929716411924</v>
       </c>
       <c r="W24" s="5">
-        <f t="shared" si="79"/>
-        <v>0.39747741465500913</v>
+        <f t="shared" si="82"/>
+        <v>0.39026679537677017</v>
       </c>
       <c r="Y24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="Z24" s="5">
         <f>Z23/Sheet1!F2-1</f>
-        <v>-9.1635625091359585E-2</v>
+        <v>-0.10614064472164997</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2630,44 +2630,44 @@
         <v>0.27825386474356517</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" ref="N25:W25" si="80">N36/N4</f>
-        <v>0.27896767327443323</v>
+        <f t="shared" ref="N25:W25" si="83">N36/N4</f>
+        <v>0.27593541595623283</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.30152509714476239</v>
+        <f t="shared" si="83"/>
+        <v>0.29708547953531089</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.32503028904409154</v>
+        <f t="shared" si="83"/>
+        <v>0.31915915488132923</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.34946321937347019</v>
+        <f t="shared" si="83"/>
+        <v>0.34214214993290332</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.3747963191569092</v>
+        <f t="shared" si="83"/>
+        <v>0.36601303908862309</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.39639697122233963</v>
+        <f t="shared" si="83"/>
+        <v>0.38655920657408177</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.4188874000440273</v>
+        <f t="shared" si="83"/>
+        <v>0.40790081215449397</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.44230145290122919</v>
+        <f t="shared" si="83"/>
+        <v>0.43006523288695797</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.46667423941900277</v>
+        <f t="shared" si="83"/>
+        <v>0.45308072875433808</v>
       </c>
       <c r="W25" s="5">
-        <f t="shared" si="80"/>
-        <v>0.49204217840240538</v>
+        <f t="shared" si="83"/>
+        <v>0.47697646977922981</v>
       </c>
       <c r="Z25" s="5"/>
     </row>
@@ -2700,43 +2700,43 @@
         <v>-1.0798933190197424E-2</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" ref="N27:R27" si="81">N2/M2-1</f>
+        <f t="shared" ref="N27:R27" si="84">N2/M2-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q27" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="S27" s="5">
-        <f>S2/R2-1</f>
+        <f t="shared" ref="S27:W28" si="85">S2/R2-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="T27" s="5">
-        <f>T2/S2-1</f>
+        <f t="shared" si="85"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="U27" s="5">
-        <f>U2/T2-1</f>
+        <f t="shared" si="85"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="V27" s="5">
-        <f>V2/U2-1</f>
+        <f t="shared" si="85"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="W27" s="5">
-        <f>W2/V2-1</f>
+        <f t="shared" si="85"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -2754,44 +2754,44 @@
         <v>0.12874413145539898</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" ref="N28:R28" si="82">N3/M3-1</f>
+        <f t="shared" ref="N28:R28" si="86">N3/M3-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="O28" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q28" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="86"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S28" s="5">
-        <f>S3/R3-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" si="85"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="T28" s="5">
-        <f>T3/S3-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" si="85"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="U28" s="5">
-        <f>U3/T3-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" si="85"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V28" s="5">
-        <f>V3/U3-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" si="85"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="W28" s="5">
-        <f>W3/V3-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" si="85"/>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -2799,15 +2799,15 @@
         <v>46</v>
       </c>
       <c r="K29" s="5">
-        <f>(K2-K5)/K2</f>
+        <f t="shared" ref="K29:M30" si="87">(K2-K5)/K2</f>
         <v>0.36283479707399452</v>
       </c>
       <c r="L29" s="5">
-        <f>(L2-L5)/L2</f>
+        <f t="shared" si="87"/>
         <v>0.36500662562691849</v>
       </c>
       <c r="M29" s="5">
-        <f>(M2-M5)/M2</f>
+        <f t="shared" si="87"/>
         <v>0.37180617636485724</v>
       </c>
       <c r="N29" s="5">
@@ -2815,40 +2815,40 @@
         <v>0.37366520724668151</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" ref="O29:R30" si="83">N29*1.01</f>
-        <v>0.37740185931914833</v>
+        <f t="shared" ref="O29:W29" si="88">N29*1.005</f>
+        <v>0.37553353328291489</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" si="83"/>
-        <v>0.38117587791233981</v>
+        <f t="shared" si="88"/>
+        <v>0.37741120094932945</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="83"/>
-        <v>0.38498763669146319</v>
+        <f t="shared" si="88"/>
+        <v>0.37929825695407604</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="83"/>
-        <v>0.38883751305837783</v>
+        <f t="shared" si="88"/>
+        <v>0.38119474823884636</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" ref="S29:S30" si="84">R29*1.01</f>
-        <v>0.39272588818896159</v>
+        <f t="shared" si="88"/>
+        <v>0.38310072198004053</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" ref="T29:T30" si="85">S29*1.01</f>
-        <v>0.3966531470708512</v>
+        <f t="shared" si="88"/>
+        <v>0.3850162255899407</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" ref="U29:U30" si="86">T29*1.01</f>
-        <v>0.40061967854155972</v>
+        <f t="shared" si="88"/>
+        <v>0.38694130671789034</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" ref="V29:V30" si="87">U29*1.01</f>
-        <v>0.4046258753269753</v>
+        <f t="shared" si="88"/>
+        <v>0.38887601325147975</v>
       </c>
       <c r="W29" s="5">
-        <f t="shared" ref="W29:W30" si="88">V29*1.01</f>
-        <v>0.40867213408024505</v>
+        <f t="shared" si="88"/>
+        <v>0.3908203933177371</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -2856,15 +2856,15 @@
         <v>47</v>
       </c>
       <c r="K30" s="5">
-        <f>(K3-K6)/K3</f>
+        <f t="shared" si="87"/>
         <v>0.71745446633132381</v>
       </c>
       <c r="L30" s="5">
-        <f>(L3-L6)/L3</f>
+        <f t="shared" si="87"/>
         <v>0.70827464788732397</v>
       </c>
       <c r="M30" s="5">
-        <f>(M3-M6)/M3</f>
+        <f t="shared" si="87"/>
         <v>0.7388035645582256</v>
       </c>
       <c r="N30" s="5">
@@ -2872,39 +2872,39 @@
         <v>0.74619160020380781</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="O29:R30" si="89">N30*1.01</f>
         <v>0.75365351620584586</v>
       </c>
       <c r="P30" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0.7611900513679043</v>
       </c>
       <c r="Q30" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0.7688019518815834</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>0.77648997140039921</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="S29:S30" si="90">R30*1.01</f>
         <v>0.78425487111440317</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="T29:T30" si="91">S30*1.01</f>
         <v>0.79209741982554727</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="U29:U30" si="92">T30*1.01</f>
         <v>0.8000183940238027</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="V29:V30" si="93">U30*1.01</f>
         <v>0.80801857796404075</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="W29:W30" si="94">V30*1.01</f>
         <v>0.81609876374368118</v>
       </c>
     </row>
@@ -2917,52 +2917,52 @@
         <v>0.19813201192915542</v>
       </c>
       <c r="L31" s="5">
-        <f t="shared" ref="L31:R31" si="89">L3/L4</f>
+        <f t="shared" ref="L31:R31" si="95">L3/L4</f>
         <v>0.222288897295746</v>
       </c>
       <c r="M31" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.24593450714130449</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.26210543414508647</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.27894631341323162</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.29643455967474824</v>
       </c>
       <c r="Q31" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.31454093400764499</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>0.33322944584771141</v>
       </c>
       <c r="S31" s="5">
-        <f t="shared" ref="S31:W31" si="90">S3/S4</f>
-        <v>0.33322944584771141</v>
+        <f t="shared" ref="S31:W31" si="96">S3/S4</f>
+        <v>0.33542208871010515</v>
       </c>
       <c r="T31" s="5">
-        <f t="shared" si="90"/>
-        <v>0.33322944584771141</v>
+        <f t="shared" si="96"/>
+        <v>0.33762185367403169</v>
       </c>
       <c r="U31" s="5">
-        <f t="shared" si="90"/>
-        <v>0.33322944584771141</v>
+        <f t="shared" si="96"/>
+        <v>0.33982866821640029</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="90"/>
-        <v>0.33322944584771141</v>
+        <f t="shared" si="96"/>
+        <v>0.34204245866210126</v>
       </c>
       <c r="W31" s="5">
-        <f t="shared" si="90"/>
-        <v>0.33322944584771141</v>
+        <f t="shared" si="96"/>
+        <v>0.34426315019026227</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -2974,52 +2974,52 @@
         <v>0.80186798807084458</v>
       </c>
       <c r="L32" s="5">
-        <f t="shared" ref="L32:R32" si="91">L2/L4</f>
+        <f t="shared" ref="L32:R32" si="97">L2/L4</f>
         <v>0.77771110270425403</v>
       </c>
       <c r="M32" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0.75406549285869551</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0.73789456585491353</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0.72105368658676827</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0.70356544032525181</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0.68545906599235507</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0.6667705541522887</v>
       </c>
       <c r="S32" s="5">
-        <f t="shared" ref="S32:W32" si="92">S2/S4</f>
-        <v>0.66677055415228859</v>
+        <f t="shared" ref="S32:W32" si="98">S2/S4</f>
+        <v>0.66457791128989496</v>
       </c>
       <c r="T32" s="5">
-        <f t="shared" si="92"/>
-        <v>0.66677055415228859</v>
+        <f t="shared" si="98"/>
+        <v>0.66237814632596836</v>
       </c>
       <c r="U32" s="5">
-        <f t="shared" si="92"/>
-        <v>0.66677055415228847</v>
+        <f t="shared" si="98"/>
+        <v>0.66017133178359966</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="92"/>
-        <v>0.66677055415228859</v>
+        <f t="shared" si="98"/>
+        <v>0.65795754133789885</v>
       </c>
       <c r="W32" s="5">
-        <f t="shared" si="92"/>
-        <v>0.66677055415228859</v>
+        <f t="shared" si="98"/>
+        <v>0.65573684980973779</v>
       </c>
     </row>
     <row r="33" spans="1:163" x14ac:dyDescent="0.25">
@@ -3043,40 +3043,40 @@
         <v>122382.07516897639</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" ref="O34:R34" si="93">O15*O37</f>
-        <v>136721.08084995812</v>
+        <f t="shared" ref="O34:R34" si="99">O15*O37</f>
+        <v>136188.32472754386</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="93"/>
-        <v>152552.85087106787</v>
+        <f t="shared" si="99"/>
+        <v>151443.35960833414</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="93"/>
-        <v>170036.56180499317</v>
+        <f t="shared" si="99"/>
+        <v>168303.77470780048</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" si="93"/>
-        <v>189348.838198635</v>
+        <f t="shared" si="99"/>
+        <v>186943.47871794103</v>
       </c>
       <c r="S34" s="3">
-        <f t="shared" ref="S34:W34" si="94">S15*S37</f>
-        <v>202264.20365226356</v>
+        <f t="shared" ref="S34:W34" si="100">S15*S37</f>
+        <v>200069.85967815144</v>
       </c>
       <c r="T34" s="3">
-        <f t="shared" si="94"/>
-        <v>215877.49621268659</v>
+        <f t="shared" si="100"/>
+        <v>213934.83040244217</v>
       </c>
       <c r="U34" s="3">
-        <f t="shared" si="94"/>
-        <v>230223.58637583817</v>
+        <f t="shared" si="100"/>
+        <v>228576.70625641372</v>
       </c>
       <c r="V34" s="3">
-        <f t="shared" si="94"/>
-        <v>245339.03410707152</v>
+        <f t="shared" si="100"/>
+        <v>244035.71545073431</v>
       </c>
       <c r="W34" s="3">
-        <f t="shared" si="94"/>
-        <v>261262.16966436795</v>
+        <f t="shared" si="100"/>
+        <v>260354.09258712913</v>
       </c>
     </row>
     <row r="35" spans="1:163" x14ac:dyDescent="0.25">
@@ -3094,43 +3094,43 @@
       </c>
       <c r="N35" s="3">
         <f>N34*N38</f>
-        <v>9790.5660135181115</v>
+        <v>11014.386765207873</v>
       </c>
       <c r="O35" s="3">
         <f>O34*O38</f>
-        <v>10937.686467996649</v>
+        <v>12256.949225478947</v>
       </c>
       <c r="P35" s="3">
         <f>P34*P38</f>
-        <v>12204.22806968543</v>
+        <v>13629.902364750073</v>
       </c>
       <c r="Q35" s="3">
         <f>Q34*Q38</f>
-        <v>13602.924944399454</v>
+        <v>15147.339723702042</v>
       </c>
       <c r="R35" s="3">
         <f>R34*R38</f>
-        <v>15147.907055890801</v>
+        <v>16824.913084614691</v>
       </c>
       <c r="S35" s="3">
-        <f t="shared" ref="S35:W35" si="95">S34*S38</f>
-        <v>16181.136292181085</v>
+        <f t="shared" ref="S35:W35" si="101">S34*S38</f>
+        <v>18006.287371033628</v>
       </c>
       <c r="T35" s="3">
-        <f t="shared" si="95"/>
-        <v>17270.199697014927</v>
+        <f t="shared" si="101"/>
+        <v>19254.134736219796</v>
       </c>
       <c r="U35" s="3">
-        <f t="shared" si="95"/>
-        <v>18417.886910067053</v>
+        <f t="shared" si="101"/>
+        <v>20571.903563077234</v>
       </c>
       <c r="V35" s="3">
-        <f t="shared" si="95"/>
-        <v>19627.122728565722</v>
+        <f t="shared" si="101"/>
+        <v>21963.214390566085</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" si="95"/>
-        <v>20900.973573149437</v>
+        <f t="shared" si="101"/>
+        <v>23431.868332841619</v>
       </c>
     </row>
     <row r="36" spans="1:163" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3142,612 +3142,612 @@
         <v>111443</v>
       </c>
       <c r="L36" s="6">
-        <f t="shared" ref="L36:M36" si="96">L34-L35</f>
+        <f t="shared" ref="L36:M36" si="102">L34-L35</f>
         <v>99584</v>
       </c>
       <c r="M36" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>108807</v>
       </c>
       <c r="N36" s="6">
-        <f t="shared" ref="N36" si="97">N34-N35</f>
-        <v>112591.50915545828</v>
+        <f t="shared" ref="N36" si="103">N34-N35</f>
+        <v>111367.68840376851</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" ref="O36" si="98">O34-O35</f>
-        <v>125783.39438196147</v>
+        <f t="shared" ref="O36" si="104">O34-O35</f>
+        <v>123931.37550206491</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" ref="P36" si="99">P34-P35</f>
-        <v>140348.62280138244</v>
+        <f t="shared" ref="P36" si="105">P34-P35</f>
+        <v>137813.45724358407</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" ref="Q36" si="100">Q34-Q35</f>
-        <v>156433.63686059372</v>
+        <f t="shared" ref="Q36" si="106">Q34-Q35</f>
+        <v>153156.43498409842</v>
       </c>
       <c r="R36" s="6">
-        <f t="shared" ref="R36:W36" si="101">R34-R35</f>
-        <v>174200.9311427442</v>
+        <f t="shared" ref="R36:W36" si="107">R34-R35</f>
+        <v>170118.56563332633</v>
       </c>
       <c r="S36" s="6">
-        <f t="shared" si="101"/>
-        <v>186083.06736008247</v>
+        <f t="shared" si="107"/>
+        <v>182063.57230711781</v>
       </c>
       <c r="T36" s="6">
-        <f t="shared" si="101"/>
-        <v>198607.29651567165</v>
+        <f t="shared" si="107"/>
+        <v>194680.69566622237</v>
       </c>
       <c r="U36" s="6">
-        <f t="shared" si="101"/>
-        <v>211805.69946577112</v>
+        <f t="shared" si="107"/>
+        <v>208004.80269333647</v>
       </c>
       <c r="V36" s="6">
-        <f t="shared" si="101"/>
-        <v>225711.91137850581</v>
+        <f t="shared" si="107"/>
+        <v>222072.50106016823</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="101"/>
-        <v>240361.1960912185</v>
+        <f t="shared" si="107"/>
+        <v>236922.22425428752</v>
       </c>
       <c r="X36" s="6">
-        <f>W36*(1+$Z$20)</f>
-        <v>242764.80805213068</v>
+        <f t="shared" ref="X36:BC36" si="108">W36*(1+$Z$20)</f>
+        <v>239291.44649683041</v>
       </c>
       <c r="Y36" s="6">
-        <f>X36*(1+$Z$20)</f>
-        <v>245192.45613265201</v>
+        <f t="shared" si="108"/>
+        <v>241684.36096179872</v>
       </c>
       <c r="Z36" s="6">
-        <f>Y36*(1+$Z$20)</f>
-        <v>247644.38069397851</v>
+        <f t="shared" si="108"/>
+        <v>244101.20457141672</v>
       </c>
       <c r="AA36" s="6">
-        <f>Z36*(1+$Z$20)</f>
-        <v>250120.8245009183</v>
+        <f t="shared" si="108"/>
+        <v>246542.21661713088</v>
       </c>
       <c r="AB36" s="6">
-        <f>AA36*(1+$Z$20)</f>
-        <v>252622.03274592748</v>
+        <f t="shared" si="108"/>
+        <v>249007.63878330219</v>
       </c>
       <c r="AC36" s="6">
-        <f>AB36*(1+$Z$20)</f>
-        <v>255148.25307338676</v>
+        <f t="shared" si="108"/>
+        <v>251497.71517113521</v>
       </c>
       <c r="AD36" s="6">
-        <f>AC36*(1+$Z$20)</f>
-        <v>257699.73560412062</v>
+        <f t="shared" si="108"/>
+        <v>254012.69232284656</v>
       </c>
       <c r="AE36" s="6">
-        <f>AD36*(1+$Z$20)</f>
-        <v>260276.73296016184</v>
+        <f t="shared" si="108"/>
+        <v>256552.81924607503</v>
       </c>
       <c r="AF36" s="6">
-        <f>AE36*(1+$Z$20)</f>
-        <v>262879.50028976344</v>
+        <f t="shared" si="108"/>
+        <v>259118.34743853577</v>
       </c>
       <c r="AG36" s="6">
-        <f>AF36*(1+$Z$20)</f>
-        <v>265508.29529266106</v>
+        <f t="shared" si="108"/>
+        <v>261709.53091292112</v>
       </c>
       <c r="AH36" s="6">
-        <f>AG36*(1+$Z$20)</f>
-        <v>268163.37824558769</v>
+        <f t="shared" si="108"/>
+        <v>264326.62622205034</v>
       </c>
       <c r="AI36" s="6">
-        <f>AH36*(1+$Z$20)</f>
-        <v>270845.01202804357</v>
+        <f t="shared" si="108"/>
+        <v>266969.89248427085</v>
       </c>
       <c r="AJ36" s="6">
-        <f>AI36*(1+$Z$20)</f>
-        <v>273553.462148324</v>
+        <f t="shared" si="108"/>
+        <v>269639.59140911355</v>
       </c>
       <c r="AK36" s="6">
-        <f>AJ36*(1+$Z$20)</f>
-        <v>276288.99676980724</v>
+        <f t="shared" si="108"/>
+        <v>272335.9873232047</v>
       </c>
       <c r="AL36" s="6">
-        <f>AK36*(1+$Z$20)</f>
-        <v>279051.88673750532</v>
+        <f t="shared" si="108"/>
+        <v>275059.34719643672</v>
       </c>
       <c r="AM36" s="6">
-        <f>AL36*(1+$Z$20)</f>
-        <v>281842.40560488036</v>
+        <f t="shared" si="108"/>
+        <v>277809.94066840108</v>
       </c>
       <c r="AN36" s="6">
-        <f>AM36*(1+$Z$20)</f>
-        <v>284660.82966092916</v>
+        <f t="shared" si="108"/>
+        <v>280588.04007508507</v>
       </c>
       <c r="AO36" s="6">
-        <f>AN36*(1+$Z$20)</f>
-        <v>287507.43795753847</v>
+        <f t="shared" si="108"/>
+        <v>283393.92047583591</v>
       </c>
       <c r="AP36" s="6">
-        <f>AO36*(1+$Z$20)</f>
-        <v>290382.51233711385</v>
+        <f t="shared" si="108"/>
+        <v>286227.85968059429</v>
       </c>
       <c r="AQ36" s="6">
-        <f>AP36*(1+$Z$20)</f>
-        <v>293286.337460485</v>
+        <f t="shared" si="108"/>
+        <v>289090.13827740023</v>
       </c>
       <c r="AR36" s="6">
-        <f>AQ36*(1+$Z$20)</f>
-        <v>296219.20083508984</v>
+        <f t="shared" si="108"/>
+        <v>291981.03966017422</v>
       </c>
       <c r="AS36" s="6">
-        <f>AR36*(1+$Z$20)</f>
-        <v>299181.39284344076</v>
+        <f t="shared" si="108"/>
+        <v>294900.85005677596</v>
       </c>
       <c r="AT36" s="6">
-        <f>AS36*(1+$Z$20)</f>
-        <v>302173.20677187515</v>
+        <f t="shared" si="108"/>
+        <v>297849.85855734372</v>
       </c>
       <c r="AU36" s="6">
-        <f>AT36*(1+$Z$20)</f>
-        <v>305194.9388395939</v>
+        <f t="shared" si="108"/>
+        <v>300828.35714291717</v>
       </c>
       <c r="AV36" s="6">
-        <f>AU36*(1+$Z$20)</f>
-        <v>308246.88822798984</v>
+        <f t="shared" si="108"/>
+        <v>303836.64071434637</v>
       </c>
       <c r="AW36" s="6">
-        <f>AV36*(1+$Z$20)</f>
-        <v>311329.35711026972</v>
+        <f t="shared" si="108"/>
+        <v>306875.00712148985</v>
       </c>
       <c r="AX36" s="6">
-        <f>AW36*(1+$Z$20)</f>
-        <v>314442.65068137244</v>
+        <f t="shared" si="108"/>
+        <v>309943.75719270477</v>
       </c>
       <c r="AY36" s="6">
-        <f>AX36*(1+$Z$20)</f>
-        <v>317587.07718818617</v>
+        <f t="shared" si="108"/>
+        <v>313043.1947646318</v>
       </c>
       <c r="AZ36" s="6">
-        <f>AY36*(1+$Z$20)</f>
-        <v>320762.94796006806</v>
+        <f t="shared" si="108"/>
+        <v>316173.62671227811</v>
       </c>
       <c r="BA36" s="6">
-        <f>AZ36*(1+$Z$20)</f>
-        <v>323970.57743966876</v>
+        <f t="shared" si="108"/>
+        <v>319335.3629794009</v>
       </c>
       <c r="BB36" s="6">
-        <f>BA36*(1+$Z$20)</f>
-        <v>327210.28321406548</v>
+        <f t="shared" si="108"/>
+        <v>322528.71660919493</v>
       </c>
       <c r="BC36" s="6">
-        <f>BB36*(1+$Z$20)</f>
-        <v>330482.38604620611</v>
+        <f t="shared" si="108"/>
+        <v>325754.0037752869</v>
       </c>
       <c r="BD36" s="6">
-        <f>BC36*(1+$Z$20)</f>
-        <v>333787.20990666817</v>
+        <f t="shared" ref="BD36:CI36" si="109">BC36*(1+$Z$20)</f>
+        <v>329011.54381303978</v>
       </c>
       <c r="BE36" s="6">
-        <f>BD36*(1+$Z$20)</f>
-        <v>337125.08200573485</v>
+        <f t="shared" si="109"/>
+        <v>332301.65925117017</v>
       </c>
       <c r="BF36" s="6">
-        <f>BE36*(1+$Z$20)</f>
-        <v>340496.3328257922</v>
+        <f t="shared" si="109"/>
+        <v>335624.67584368191</v>
       </c>
       <c r="BG36" s="6">
-        <f>BF36*(1+$Z$20)</f>
-        <v>343901.2961540501</v>
+        <f t="shared" si="109"/>
+        <v>338980.92260211875</v>
       </c>
       <c r="BH36" s="6">
-        <f>BG36*(1+$Z$20)</f>
-        <v>347340.30911559059</v>
+        <f t="shared" si="109"/>
+        <v>342370.73182813992</v>
       </c>
       <c r="BI36" s="6">
-        <f>BH36*(1+$Z$20)</f>
-        <v>350813.71220674651</v>
+        <f t="shared" si="109"/>
+        <v>345794.43914642133</v>
       </c>
       <c r="BJ36" s="6">
-        <f>BI36*(1+$Z$20)</f>
-        <v>354321.84932881396</v>
+        <f t="shared" si="109"/>
+        <v>349252.38353788556</v>
       </c>
       <c r="BK36" s="6">
-        <f>BJ36*(1+$Z$20)</f>
-        <v>357865.06782210211</v>
+        <f t="shared" si="109"/>
+        <v>352744.90737326443</v>
       </c>
       <c r="BL36" s="6">
-        <f>BK36*(1+$Z$20)</f>
-        <v>361443.71850032313</v>
+        <f t="shared" si="109"/>
+        <v>356272.35644699709</v>
       </c>
       <c r="BM36" s="6">
-        <f>BL36*(1+$Z$20)</f>
-        <v>365058.15568532638</v>
+        <f t="shared" si="109"/>
+        <v>359835.08001146704</v>
       </c>
       <c r="BN36" s="6">
-        <f>BM36*(1+$Z$20)</f>
-        <v>368708.73724217963</v>
+        <f t="shared" si="109"/>
+        <v>363433.43081158173</v>
       </c>
       <c r="BO36" s="6">
-        <f>BN36*(1+$Z$20)</f>
-        <v>372395.82461460144</v>
+        <f t="shared" si="109"/>
+        <v>367067.76511969755</v>
       </c>
       <c r="BP36" s="6">
-        <f>BO36*(1+$Z$20)</f>
-        <v>376119.78286074748</v>
+        <f t="shared" si="109"/>
+        <v>370738.4427708945</v>
       </c>
       <c r="BQ36" s="6">
-        <f>BP36*(1+$Z$20)</f>
-        <v>379880.98068935494</v>
+        <f t="shared" si="109"/>
+        <v>374445.82719860342</v>
       </c>
       <c r="BR36" s="6">
-        <f>BQ36*(1+$Z$20)</f>
-        <v>383679.79049624852</v>
+        <f t="shared" si="109"/>
+        <v>378190.28547058947</v>
       </c>
       <c r="BS36" s="6">
-        <f>BR36*(1+$Z$20)</f>
-        <v>387516.58840121102</v>
+        <f t="shared" si="109"/>
+        <v>381972.18832529534</v>
       </c>
       <c r="BT36" s="6">
-        <f>BS36*(1+$Z$20)</f>
-        <v>391391.75428522314</v>
+        <f t="shared" si="109"/>
+        <v>385791.9102085483</v>
       </c>
       <c r="BU36" s="6">
-        <f>BT36*(1+$Z$20)</f>
-        <v>395305.67182807537</v>
+        <f t="shared" si="109"/>
+        <v>389649.82931063377</v>
       </c>
       <c r="BV36" s="6">
-        <f>BU36*(1+$Z$20)</f>
-        <v>399258.72854635614</v>
+        <f t="shared" si="109"/>
+        <v>393546.32760374009</v>
       </c>
       <c r="BW36" s="6">
-        <f>BV36*(1+$Z$20)</f>
-        <v>403251.31583181972</v>
+        <f t="shared" si="109"/>
+        <v>397481.79087977752</v>
       </c>
       <c r="BX36" s="6">
-        <f>BW36*(1+$Z$20)</f>
-        <v>407283.8289901379</v>
+        <f t="shared" si="109"/>
+        <v>401456.60878857528</v>
       </c>
       <c r="BY36" s="6">
-        <f>BX36*(1+$Z$20)</f>
-        <v>411356.66728003928</v>
+        <f t="shared" si="109"/>
+        <v>405471.17487646104</v>
       </c>
       <c r="BZ36" s="6">
-        <f>BY36*(1+$Z$20)</f>
-        <v>415470.23395283968</v>
+        <f t="shared" si="109"/>
+        <v>409525.88662522566</v>
       </c>
       <c r="CA36" s="6">
-        <f>BZ36*(1+$Z$20)</f>
-        <v>419624.9362923681</v>
+        <f t="shared" si="109"/>
+        <v>413621.14549147792</v>
       </c>
       <c r="CB36" s="6">
-        <f>CA36*(1+$Z$20)</f>
-        <v>423821.18565529177</v>
+        <f t="shared" si="109"/>
+        <v>417757.35694639268</v>
       </c>
       <c r="CC36" s="6">
-        <f>CB36*(1+$Z$20)</f>
-        <v>428059.3975118447</v>
+        <f t="shared" si="109"/>
+        <v>421934.9305158566</v>
       </c>
       <c r="CD36" s="6">
-        <f>CC36*(1+$Z$20)</f>
-        <v>432339.99148696318</v>
+        <f t="shared" si="109"/>
+        <v>426154.2798210152</v>
       </c>
       <c r="CE36" s="6">
-        <f>CD36*(1+$Z$20)</f>
-        <v>436663.39140183281</v>
+        <f t="shared" si="109"/>
+        <v>430415.82261922536</v>
       </c>
       <c r="CF36" s="6">
-        <f>CE36*(1+$Z$20)</f>
-        <v>441030.02531585115</v>
+        <f t="shared" si="109"/>
+        <v>434719.98084541759</v>
       </c>
       <c r="CG36" s="6">
-        <f>CF36*(1+$Z$20)</f>
-        <v>445440.32556900964</v>
+        <f t="shared" si="109"/>
+        <v>439067.18065387179</v>
       </c>
       <c r="CH36" s="6">
-        <f>CG36*(1+$Z$20)</f>
-        <v>449894.72882469976</v>
+        <f t="shared" si="109"/>
+        <v>443457.8524604105</v>
       </c>
       <c r="CI36" s="6">
-        <f>CH36*(1+$Z$20)</f>
-        <v>454393.67611294676</v>
+        <f t="shared" si="109"/>
+        <v>447892.43098501459</v>
       </c>
       <c r="CJ36" s="6">
-        <f>CI36*(1+$Z$20)</f>
-        <v>458937.61287407624</v>
+        <f t="shared" ref="CJ36:DO36" si="110">CI36*(1+$Z$20)</f>
+        <v>452371.35529486474</v>
       </c>
       <c r="CK36" s="6">
-        <f>CJ36*(1+$Z$20)</f>
-        <v>463526.98900281702</v>
+        <f t="shared" si="110"/>
+        <v>456895.06884781341</v>
       </c>
       <c r="CL36" s="6">
-        <f>CK36*(1+$Z$20)</f>
-        <v>468162.25889284519</v>
+        <f t="shared" si="110"/>
+        <v>461464.01953629154</v>
       </c>
       <c r="CM36" s="6">
-        <f>CL36*(1+$Z$20)</f>
-        <v>472843.88148177363</v>
+        <f t="shared" si="110"/>
+        <v>466078.65973165445</v>
       </c>
       <c r="CN36" s="6">
-        <f>CM36*(1+$Z$20)</f>
-        <v>477572.32029659138</v>
+        <f t="shared" si="110"/>
+        <v>470739.44632897101</v>
       </c>
       <c r="CO36" s="6">
-        <f>CN36*(1+$Z$20)</f>
-        <v>482348.0434995573</v>
+        <f t="shared" si="110"/>
+        <v>475446.84079226071</v>
       </c>
       <c r="CP36" s="6">
-        <f>CO36*(1+$Z$20)</f>
-        <v>487171.52393455285</v>
+        <f t="shared" si="110"/>
+        <v>480201.30920018331</v>
       </c>
       <c r="CQ36" s="6">
-        <f>CP36*(1+$Z$20)</f>
-        <v>492043.23917389842</v>
+        <f t="shared" si="110"/>
+        <v>485003.32229218516</v>
       </c>
       <c r="CR36" s="6">
-        <f>CQ36*(1+$Z$20)</f>
-        <v>496963.6715656374</v>
+        <f t="shared" si="110"/>
+        <v>489853.35551510699</v>
       </c>
       <c r="CS36" s="6">
-        <f>CR36*(1+$Z$20)</f>
-        <v>501933.30828129378</v>
+        <f t="shared" si="110"/>
+        <v>494751.88907025807</v>
       </c>
       <c r="CT36" s="6">
-        <f>CS36*(1+$Z$20)</f>
-        <v>506952.64136410673</v>
+        <f t="shared" si="110"/>
+        <v>499699.40796096064</v>
       </c>
       <c r="CU36" s="6">
-        <f>CT36*(1+$Z$20)</f>
-        <v>512022.16777774779</v>
+        <f t="shared" si="110"/>
+        <v>504696.40204057028</v>
       </c>
       <c r="CV36" s="6">
-        <f>CU36*(1+$Z$20)</f>
-        <v>517142.38945552526</v>
+        <f t="shared" si="110"/>
+        <v>509743.366060976</v>
       </c>
       <c r="CW36" s="6">
-        <f>CV36*(1+$Z$20)</f>
-        <v>522313.81335008051</v>
+        <f t="shared" si="110"/>
+        <v>514840.79972158576</v>
       </c>
       <c r="CX36" s="6">
-        <f>CW36*(1+$Z$20)</f>
-        <v>527536.95148358133</v>
+        <f t="shared" si="110"/>
+        <v>519989.20771880163</v>
       </c>
       <c r="CY36" s="6">
-        <f>CX36*(1+$Z$20)</f>
-        <v>532812.3209984171</v>
+        <f t="shared" si="110"/>
+        <v>525189.09979598969</v>
       </c>
       <c r="CZ36" s="6">
-        <f>CY36*(1+$Z$20)</f>
-        <v>538140.44420840126</v>
+        <f t="shared" si="110"/>
+        <v>530440.99079394958</v>
       </c>
       <c r="DA36" s="6">
-        <f>CZ36*(1+$Z$20)</f>
-        <v>543521.84865048528</v>
+        <f t="shared" si="110"/>
+        <v>535745.40070188907</v>
       </c>
       <c r="DB36" s="6">
-        <f>DA36*(1+$Z$20)</f>
-        <v>548957.06713699014</v>
+        <f t="shared" si="110"/>
+        <v>541102.85470890801</v>
       </c>
       <c r="DC36" s="6">
-        <f>DB36*(1+$Z$20)</f>
-        <v>554446.63780836004</v>
+        <f t="shared" si="110"/>
+        <v>546513.88325599709</v>
       </c>
       <c r="DD36" s="6">
-        <f>DC36*(1+$Z$20)</f>
-        <v>559991.10418644361</v>
+        <f t="shared" si="110"/>
+        <v>551979.02208855702</v>
       </c>
       <c r="DE36" s="6">
-        <f>DD36*(1+$Z$20)</f>
-        <v>565591.01522830804</v>
+        <f t="shared" si="110"/>
+        <v>557498.81230944255</v>
       </c>
       <c r="DF36" s="6">
-        <f>DE36*(1+$Z$20)</f>
-        <v>571246.92538059107</v>
+        <f t="shared" si="110"/>
+        <v>563073.80043253698</v>
       </c>
       <c r="DG36" s="6">
-        <f>DF36*(1+$Z$20)</f>
-        <v>576959.394634397</v>
+        <f t="shared" si="110"/>
+        <v>568704.53843686241</v>
       </c>
       <c r="DH36" s="6">
-        <f>DG36*(1+$Z$20)</f>
-        <v>582728.98858074099</v>
+        <f t="shared" si="110"/>
+        <v>574391.58382123103</v>
       </c>
       <c r="DI36" s="6">
-        <f>DH36*(1+$Z$20)</f>
-        <v>588556.27846654842</v>
+        <f t="shared" si="110"/>
+        <v>580135.49965944339</v>
       </c>
       <c r="DJ36" s="6">
-        <f>DI36*(1+$Z$20)</f>
-        <v>594441.84125121392</v>
+        <f t="shared" si="110"/>
+        <v>585936.85465603787</v>
       </c>
       <c r="DK36" s="6">
-        <f>DJ36*(1+$Z$20)</f>
-        <v>600386.25966372609</v>
+        <f t="shared" si="110"/>
+        <v>591796.22320259828</v>
       </c>
       <c r="DL36" s="6">
-        <f>DK36*(1+$Z$20)</f>
-        <v>606390.12226036331</v>
+        <f t="shared" si="110"/>
+        <v>597714.18543462432</v>
       </c>
       <c r="DM36" s="6">
-        <f>DL36*(1+$Z$20)</f>
-        <v>612454.02348296694</v>
+        <f t="shared" si="110"/>
+        <v>603691.32728897058</v>
       </c>
       <c r="DN36" s="6">
-        <f>DM36*(1+$Z$20)</f>
-        <v>618578.56371779658</v>
+        <f t="shared" si="110"/>
+        <v>609728.24056186026</v>
       </c>
       <c r="DO36" s="6">
-        <f>DN36*(1+$Z$20)</f>
-        <v>624764.34935497458</v>
+        <f t="shared" si="110"/>
+        <v>615825.52296747884</v>
       </c>
       <c r="DP36" s="6">
-        <f>DO36*(1+$Z$20)</f>
-        <v>631011.99284852436</v>
+        <f t="shared" ref="DP36:EU36" si="111">DO36*(1+$Z$20)</f>
+        <v>621983.77819715359</v>
       </c>
       <c r="DQ36" s="6">
-        <f>DP36*(1+$Z$20)</f>
-        <v>637322.11277700961</v>
+        <f t="shared" si="111"/>
+        <v>628203.61597912514</v>
       </c>
       <c r="DR36" s="6">
-        <f>DQ36*(1+$Z$20)</f>
-        <v>643695.33390477975</v>
+        <f t="shared" si="111"/>
+        <v>634485.65213891643</v>
       </c>
       <c r="DS36" s="6">
-        <f>DR36*(1+$Z$20)</f>
-        <v>650132.2872438276</v>
+        <f t="shared" si="111"/>
+        <v>640830.50866030564</v>
       </c>
       <c r="DT36" s="6">
-        <f>DS36*(1+$Z$20)</f>
-        <v>656633.61011626583</v>
+        <f t="shared" si="111"/>
+        <v>647238.81374690868</v>
       </c>
       <c r="DU36" s="6">
-        <f>DT36*(1+$Z$20)</f>
-        <v>663199.94621742854</v>
+        <f t="shared" si="111"/>
+        <v>653711.20188437775</v>
       </c>
       <c r="DV36" s="6">
-        <f>DU36*(1+$Z$20)</f>
-        <v>669831.9456796028</v>
+        <f t="shared" si="111"/>
+        <v>660248.31390322151</v>
       </c>
       <c r="DW36" s="6">
-        <f>DV36*(1+$Z$20)</f>
-        <v>676530.26513639884</v>
+        <f t="shared" si="111"/>
+        <v>666850.79704225378</v>
       </c>
       <c r="DX36" s="6">
-        <f>DW36*(1+$Z$20)</f>
-        <v>683295.56778776285</v>
+        <f t="shared" si="111"/>
+        <v>673519.30501267628</v>
       </c>
       <c r="DY36" s="6">
-        <f>DX36*(1+$Z$20)</f>
-        <v>690128.52346564049</v>
+        <f t="shared" si="111"/>
+        <v>680254.49806280306</v>
       </c>
       <c r="DZ36" s="6">
-        <f>DY36*(1+$Z$20)</f>
-        <v>697029.80870029691</v>
+        <f t="shared" si="111"/>
+        <v>687057.04304343113</v>
       </c>
       <c r="EA36" s="6">
-        <f>DZ36*(1+$Z$20)</f>
-        <v>704000.10678729985</v>
+        <f t="shared" si="111"/>
+        <v>693927.61347386544</v>
       </c>
       <c r="EB36" s="6">
-        <f>EA36*(1+$Z$20)</f>
-        <v>711040.10785517283</v>
+        <f t="shared" si="111"/>
+        <v>700866.88960860413</v>
       </c>
       <c r="EC36" s="6">
-        <f>EB36*(1+$Z$20)</f>
-        <v>718150.5089337246</v>
+        <f t="shared" si="111"/>
+        <v>707875.55850469018</v>
       </c>
       <c r="ED36" s="6">
-        <f>EC36*(1+$Z$20)</f>
-        <v>725332.01402306184</v>
+        <f t="shared" si="111"/>
+        <v>714954.31408973713</v>
       </c>
       <c r="EE36" s="6">
-        <f>ED36*(1+$Z$20)</f>
-        <v>732585.33416329243</v>
+        <f t="shared" si="111"/>
+        <v>722103.85723063454</v>
       </c>
       <c r="EF36" s="6">
-        <f>EE36*(1+$Z$20)</f>
-        <v>739911.18750492542</v>
+        <f t="shared" si="111"/>
+        <v>729324.89580294094</v>
       </c>
       <c r="EG36" s="6">
-        <f>EF36*(1+$Z$20)</f>
-        <v>747310.29937997472</v>
+        <f t="shared" si="111"/>
+        <v>736618.14476097038</v>
       </c>
       <c r="EH36" s="6">
-        <f>EG36*(1+$Z$20)</f>
-        <v>754783.40237377444</v>
+        <f t="shared" si="111"/>
+        <v>743984.32620858005</v>
       </c>
       <c r="EI36" s="6">
-        <f>EH36*(1+$Z$20)</f>
-        <v>762331.23639751214</v>
+        <f t="shared" si="111"/>
+        <v>751424.16947066586</v>
       </c>
       <c r="EJ36" s="6">
-        <f>EI36*(1+$Z$20)</f>
-        <v>769954.54876148724</v>
+        <f t="shared" si="111"/>
+        <v>758938.41116537247</v>
       </c>
       <c r="EK36" s="6">
-        <f>EJ36*(1+$Z$20)</f>
-        <v>777654.09424910217</v>
+        <f t="shared" si="111"/>
+        <v>766527.79527702625</v>
       </c>
       <c r="EL36" s="6">
-        <f>EK36*(1+$Z$20)</f>
-        <v>785430.6351915932</v>
+        <f t="shared" si="111"/>
+        <v>774193.07322979649</v>
       </c>
       <c r="EM36" s="6">
-        <f>EL36*(1+$Z$20)</f>
-        <v>793284.94154350914</v>
+        <f t="shared" si="111"/>
+        <v>781935.00396209443</v>
       </c>
       <c r="EN36" s="6">
-        <f>EM36*(1+$Z$20)</f>
-        <v>801217.79095894424</v>
+        <f t="shared" si="111"/>
+        <v>789754.35400171543</v>
       </c>
       <c r="EO36" s="6">
-        <f>EN36*(1+$Z$20)</f>
-        <v>809229.96886853373</v>
+        <f t="shared" si="111"/>
+        <v>797651.89754173264</v>
       </c>
       <c r="EP36" s="6">
-        <f>EO36*(1+$Z$20)</f>
-        <v>817322.26855721907</v>
+        <f t="shared" si="111"/>
+        <v>805628.41651715001</v>
       </c>
       <c r="EQ36" s="6">
-        <f>EP36*(1+$Z$20)</f>
-        <v>825495.49124279129</v>
+        <f t="shared" si="111"/>
+        <v>813684.70068232156</v>
       </c>
       <c r="ER36" s="6">
-        <f>EQ36*(1+$Z$20)</f>
-        <v>833750.44615521922</v>
+        <f t="shared" si="111"/>
+        <v>821821.54768914473</v>
       </c>
       <c r="ES36" s="6">
-        <f>ER36*(1+$Z$20)</f>
-        <v>842087.95061677147</v>
+        <f t="shared" si="111"/>
+        <v>830039.76316603622</v>
       </c>
       <c r="ET36" s="6">
-        <f>ES36*(1+$Z$20)</f>
-        <v>850508.83012293919</v>
+        <f t="shared" si="111"/>
+        <v>838340.16079769656</v>
       </c>
       <c r="EU36" s="6">
-        <f>ET36*(1+$Z$20)</f>
-        <v>859013.9184241686</v>
+        <f t="shared" si="111"/>
+        <v>846723.56240567355</v>
       </c>
       <c r="EV36" s="6">
-        <f>EU36*(1+$Z$20)</f>
-        <v>867604.05760841025</v>
+        <f t="shared" ref="EV36:FG36" si="112">EU36*(1+$Z$20)</f>
+        <v>855190.79802973033</v>
       </c>
       <c r="EW36" s="6">
-        <f>EV36*(1+$Z$20)</f>
-        <v>876280.09818449442</v>
+        <f t="shared" si="112"/>
+        <v>863742.70601002767</v>
       </c>
       <c r="EX36" s="6">
-        <f>EW36*(1+$Z$20)</f>
-        <v>885042.89916633943</v>
+        <f t="shared" si="112"/>
+        <v>872380.13307012792</v>
       </c>
       <c r="EY36" s="6">
-        <f>EX36*(1+$Z$20)</f>
-        <v>893893.32815800281</v>
+        <f t="shared" si="112"/>
+        <v>881103.93440082925</v>
       </c>
       <c r="EZ36" s="6">
-        <f>EY36*(1+$Z$20)</f>
-        <v>902832.2614395828</v>
+        <f t="shared" si="112"/>
+        <v>889914.97374483757</v>
       </c>
       <c r="FA36" s="6">
-        <f>EZ36*(1+$Z$20)</f>
-        <v>911860.58405397867</v>
+        <f t="shared" si="112"/>
+        <v>898814.123482286</v>
       </c>
       <c r="FB36" s="6">
-        <f>FA36*(1+$Z$20)</f>
-        <v>920979.18989451847</v>
+        <f t="shared" si="112"/>
+        <v>907802.26471710892</v>
       </c>
       <c r="FC36" s="6">
-        <f>FB36*(1+$Z$20)</f>
-        <v>930188.9817934637</v>
+        <f t="shared" si="112"/>
+        <v>916880.28736427997</v>
       </c>
       <c r="FD36" s="6">
-        <f>FC36*(1+$Z$20)</f>
-        <v>939490.8716113983</v>
+        <f t="shared" si="112"/>
+        <v>926049.09023792273</v>
       </c>
       <c r="FE36" s="6">
-        <f>FD36*(1+$Z$20)</f>
-        <v>948885.7803275123</v>
+        <f t="shared" si="112"/>
+        <v>935309.58114030201</v>
       </c>
       <c r="FF36" s="6">
-        <f>FE36*(1+$Z$20)</f>
-        <v>958374.63813078741</v>
+        <f t="shared" si="112"/>
+        <v>944662.67695170501</v>
       </c>
       <c r="FG36" s="6">
-        <f>FF36*(1+$Z$20)</f>
-        <v>967958.38451209525</v>
+        <f t="shared" si="112"/>
+        <v>954109.3037212221</v>
       </c>
     </row>
     <row r="37" spans="1:163" x14ac:dyDescent="0.25">
@@ -3808,34 +3808,34 @@
         <v>7.9887361104064136E-2</v>
       </c>
       <c r="N38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="O38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="P38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="R38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="S38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="T38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="U38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="V38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="W38" s="5">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="39" spans="1:163" x14ac:dyDescent="0.25">
@@ -3866,40 +3866,40 @@
         <v>71804.06264081366</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" ref="O40:R40" si="102">N40+O15</f>
-        <v>185738.29668244542</v>
+        <f t="shared" ref="O40:R40" si="113">N40+O15</f>
+        <v>185294.33324710024</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="102"/>
-        <v>312865.67240833532</v>
+        <f t="shared" si="113"/>
+        <v>311497.132920712</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="102"/>
-        <v>454562.80724582961</v>
+        <f t="shared" si="113"/>
+        <v>451750.27851054573</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" si="102"/>
-        <v>612353.50574469217</v>
+        <f t="shared" si="113"/>
+        <v>607536.5107754966</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" ref="S40" si="103">R40+S15</f>
-        <v>780907.00878824515</v>
+        <f t="shared" ref="S40" si="114">R40+S15</f>
+        <v>774261.39384062286</v>
       </c>
       <c r="T40" s="3">
-        <f t="shared" ref="T40" si="104">S40+T15</f>
-        <v>960804.92229881731</v>
+        <f t="shared" ref="T40" si="115">S40+T15</f>
+        <v>952540.41917599132</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" ref="U40" si="105">T40+U15</f>
-        <v>1152657.9109453491</v>
+        <f t="shared" ref="U40" si="116">T40+U15</f>
+        <v>1143021.0077230027</v>
       </c>
       <c r="V40" s="3">
-        <f t="shared" ref="V40" si="106">U40+V15</f>
-        <v>1357107.1060345755</v>
+        <f t="shared" ref="V40" si="117">U40+V15</f>
+        <v>1346384.1039319481</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" ref="W40" si="107">V40+W15</f>
-        <v>1574825.5807548822</v>
+        <f t="shared" ref="W40" si="118">V40+W15</f>
+        <v>1563345.8477545558</v>
       </c>
     </row>
     <row r="42" spans="1:163" x14ac:dyDescent="0.25">
@@ -3919,24 +3919,24 @@
         <v>93736</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" ref="N42:R42" si="108">N15</f>
+        <f t="shared" ref="N42:R42" si="119">N15</f>
         <v>101985.06264081366</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="108"/>
-        <v>113934.23404163176</v>
+        <f t="shared" si="119"/>
+        <v>113490.27060628656</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="108"/>
-        <v>127127.3757258899</v>
+        <f t="shared" si="119"/>
+        <v>126202.79967361179</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="108"/>
-        <v>141697.13483749432</v>
+        <f t="shared" si="119"/>
+        <v>140253.14558983373</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="108"/>
-        <v>157790.6984988625</v>
+        <f t="shared" si="119"/>
+        <v>155786.23226495087</v>
       </c>
     </row>
     <row r="43" spans="1:163" x14ac:dyDescent="0.25">

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27842006-5D8A-419D-9189-D617B2425868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91222CA-CEF3-416B-8835-A9E5C09DFF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
+    <workbookView xWindow="2655" yWindow="1635" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -793,10 +793,10 @@
   <dimension ref="A1:FK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W3" sqref="W3"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="Z22" s="6">
         <f>NPV(Z21,N36:FK36)+Sheet1!F5-Sheet1!F6</f>
-        <v>2661749.7008524858</v>
+        <v>2706615.2125333613</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="Z23" s="3">
         <f>Z22/Sheet1!F3</f>
-        <v>176.09029298983495</v>
+        <v>179.05840869751924</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="Z24" s="5">
         <f>Z23/Sheet1!F2-1</f>
-        <v>-0.10614064472164997</v>
+        <v>-9.107406752528302E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2631,43 +2631,43 @@
       </c>
       <c r="N25" s="5">
         <f t="shared" ref="N25:W25" si="83">N36/N4</f>
-        <v>0.27593541595623283</v>
+        <v>0.28053433955550339</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="83"/>
-        <v>0.29708547953531089</v>
+        <v>0.30203690419423274</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="83"/>
-        <v>0.31915915488132923</v>
+        <v>0.32447847412935144</v>
       </c>
       <c r="Q25" s="5">
         <f t="shared" si="83"/>
-        <v>0.34214214993290332</v>
+        <v>0.34784451909845177</v>
       </c>
       <c r="R25" s="5">
         <f t="shared" si="83"/>
-        <v>0.36601303908862309</v>
+        <v>0.37211325640676685</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="83"/>
-        <v>0.38655920657408177</v>
+        <v>0.39300186001698306</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" si="83"/>
-        <v>0.40790081215449397</v>
+        <v>0.41469915902373555</v>
       </c>
       <c r="U25" s="5">
         <f t="shared" si="83"/>
-        <v>0.43006523288695797</v>
+        <v>0.43723298676840727</v>
       </c>
       <c r="V25" s="5">
         <f t="shared" si="83"/>
-        <v>0.45308072875433808</v>
+        <v>0.46063207423357705</v>
       </c>
       <c r="W25" s="5">
         <f t="shared" si="83"/>
-        <v>0.47697646977922981</v>
+        <v>0.48492607760888362</v>
       </c>
       <c r="Z25" s="5"/>
     </row>
@@ -2872,7 +2872,7 @@
         <v>0.74619160020380781</v>
       </c>
       <c r="O30" s="5">
-        <f t="shared" ref="O29:R30" si="89">N30*1.01</f>
+        <f t="shared" ref="O30:R30" si="89">N30*1.01</f>
         <v>0.75365351620584586</v>
       </c>
       <c r="P30" s="5">
@@ -2888,23 +2888,23 @@
         <v>0.77648997140039921</v>
       </c>
       <c r="S30" s="5">
-        <f t="shared" ref="S29:S30" si="90">R30*1.01</f>
+        <f t="shared" ref="S30" si="90">R30*1.01</f>
         <v>0.78425487111440317</v>
       </c>
       <c r="T30" s="5">
-        <f t="shared" ref="T29:T30" si="91">S30*1.01</f>
+        <f t="shared" ref="T30" si="91">S30*1.01</f>
         <v>0.79209741982554727</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" ref="U29:U30" si="92">T30*1.01</f>
+        <f t="shared" ref="U30" si="92">T30*1.01</f>
         <v>0.8000183940238027</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" ref="V29:V30" si="93">U30*1.01</f>
+        <f t="shared" ref="V30" si="93">U30*1.01</f>
         <v>0.80801857796404075</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" ref="W29:W30" si="94">V30*1.01</f>
+        <f t="shared" ref="W30" si="94">V30*1.01</f>
         <v>0.81609876374368118</v>
       </c>
     </row>
@@ -3040,43 +3040,43 @@
       </c>
       <c r="N34" s="3">
         <f>N15*N37</f>
-        <v>122382.07516897639</v>
+        <v>124421.77642179266</v>
       </c>
       <c r="O34" s="3">
         <f t="shared" ref="O34:R34" si="99">O15*O37</f>
-        <v>136188.32472754386</v>
+        <v>138458.13013966961</v>
       </c>
       <c r="P34" s="3">
         <f t="shared" si="99"/>
-        <v>151443.35960833414</v>
+        <v>153967.41560180639</v>
       </c>
       <c r="Q34" s="3">
         <f t="shared" si="99"/>
-        <v>168303.77470780048</v>
+        <v>171108.83761959715</v>
       </c>
       <c r="R34" s="3">
         <f t="shared" si="99"/>
-        <v>186943.47871794103</v>
+        <v>190059.20336324006</v>
       </c>
       <c r="S34" s="3">
         <f t="shared" ref="S34:W34" si="100">S15*S37</f>
-        <v>200069.85967815144</v>
+        <v>203404.35733945394</v>
       </c>
       <c r="T34" s="3">
         <f t="shared" si="100"/>
-        <v>213934.83040244217</v>
+        <v>217500.41090914953</v>
       </c>
       <c r="U34" s="3">
         <f t="shared" si="100"/>
-        <v>228576.70625641372</v>
+        <v>232386.31802735393</v>
       </c>
       <c r="V34" s="3">
         <f t="shared" si="100"/>
-        <v>244035.71545073431</v>
+        <v>248102.97737491323</v>
       </c>
       <c r="W34" s="3">
         <f t="shared" si="100"/>
-        <v>260354.09258712913</v>
+        <v>264693.32746358128</v>
       </c>
     </row>
     <row r="35" spans="1:163" x14ac:dyDescent="0.25">
@@ -3094,43 +3094,43 @@
       </c>
       <c r="N35" s="3">
         <f>N34*N38</f>
-        <v>11014.386765207873</v>
+        <v>11197.959877961339</v>
       </c>
       <c r="O35" s="3">
         <f>O34*O38</f>
-        <v>12256.949225478947</v>
+        <v>12461.231712570265</v>
       </c>
       <c r="P35" s="3">
         <f>P34*P38</f>
-        <v>13629.902364750073</v>
+        <v>13857.067404162575</v>
       </c>
       <c r="Q35" s="3">
         <f>Q34*Q38</f>
-        <v>15147.339723702042</v>
+        <v>15399.795385763742</v>
       </c>
       <c r="R35" s="3">
         <f>R34*R38</f>
-        <v>16824.913084614691</v>
+        <v>17105.328302691603</v>
       </c>
       <c r="S35" s="3">
         <f t="shared" ref="S35:W35" si="101">S34*S38</f>
-        <v>18006.287371033628</v>
+        <v>18306.392160550855</v>
       </c>
       <c r="T35" s="3">
         <f t="shared" si="101"/>
-        <v>19254.134736219796</v>
+        <v>19575.036981823458</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="101"/>
-        <v>20571.903563077234</v>
+        <v>20914.768622461852</v>
       </c>
       <c r="V35" s="3">
         <f t="shared" si="101"/>
-        <v>21963.214390566085</v>
+        <v>22329.26796374219</v>
       </c>
       <c r="W35" s="3">
         <f t="shared" si="101"/>
-        <v>23431.868332841619</v>
+        <v>23822.399471722314</v>
       </c>
     </row>
     <row r="36" spans="1:163" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3151,603 +3151,603 @@
       </c>
       <c r="N36" s="6">
         <f t="shared" ref="N36" si="103">N34-N35</f>
-        <v>111367.68840376851</v>
+        <v>113223.81654383132</v>
       </c>
       <c r="O36" s="6">
         <f t="shared" ref="O36" si="104">O34-O35</f>
-        <v>123931.37550206491</v>
+        <v>125996.89842709934</v>
       </c>
       <c r="P36" s="6">
         <f t="shared" ref="P36" si="105">P34-P35</f>
-        <v>137813.45724358407</v>
+        <v>140110.34819764382</v>
       </c>
       <c r="Q36" s="6">
         <f t="shared" ref="Q36" si="106">Q34-Q35</f>
-        <v>153156.43498409842</v>
+        <v>155709.0422338334</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" ref="R36:W36" si="107">R34-R35</f>
-        <v>170118.56563332633</v>
+        <v>172953.87506054845</v>
       </c>
       <c r="S36" s="6">
         <f t="shared" si="107"/>
-        <v>182063.57230711781</v>
+        <v>185097.96517890308</v>
       </c>
       <c r="T36" s="6">
         <f t="shared" si="107"/>
-        <v>194680.69566622237</v>
+        <v>197925.37392732609</v>
       </c>
       <c r="U36" s="6">
         <f t="shared" si="107"/>
-        <v>208004.80269333647</v>
+        <v>211471.54940489208</v>
       </c>
       <c r="V36" s="6">
         <f t="shared" si="107"/>
-        <v>222072.50106016823</v>
+        <v>225773.70941117103</v>
       </c>
       <c r="W36" s="6">
         <f t="shared" si="107"/>
-        <v>236922.22425428752</v>
+        <v>240870.92799185897</v>
       </c>
       <c r="X36" s="6">
         <f t="shared" ref="X36:BC36" si="108">W36*(1+$Z$20)</f>
-        <v>239291.44649683041</v>
+        <v>243279.63727177755</v>
       </c>
       <c r="Y36" s="6">
         <f t="shared" si="108"/>
-        <v>241684.36096179872</v>
+        <v>245712.43364449532</v>
       </c>
       <c r="Z36" s="6">
         <f t="shared" si="108"/>
-        <v>244101.20457141672</v>
+        <v>248169.55798094027</v>
       </c>
       <c r="AA36" s="6">
         <f t="shared" si="108"/>
-        <v>246542.21661713088</v>
+        <v>250651.25356074967</v>
       </c>
       <c r="AB36" s="6">
         <f t="shared" si="108"/>
-        <v>249007.63878330219</v>
+        <v>253157.76609635717</v>
       </c>
       <c r="AC36" s="6">
         <f t="shared" si="108"/>
-        <v>251497.71517113521</v>
+        <v>255689.34375732075</v>
       </c>
       <c r="AD36" s="6">
         <f t="shared" si="108"/>
-        <v>254012.69232284656</v>
+        <v>258246.23719489397</v>
       </c>
       <c r="AE36" s="6">
         <f t="shared" si="108"/>
-        <v>256552.81924607503</v>
+        <v>260828.6995668429</v>
       </c>
       <c r="AF36" s="6">
         <f t="shared" si="108"/>
-        <v>259118.34743853577</v>
+        <v>263436.98656251136</v>
       </c>
       <c r="AG36" s="6">
         <f t="shared" si="108"/>
-        <v>261709.53091292112</v>
+        <v>266071.35642813647</v>
       </c>
       <c r="AH36" s="6">
         <f t="shared" si="108"/>
-        <v>264326.62622205034</v>
+        <v>268732.06999241782</v>
       </c>
       <c r="AI36" s="6">
         <f t="shared" si="108"/>
-        <v>266969.89248427085</v>
+        <v>271419.39069234201</v>
       </c>
       <c r="AJ36" s="6">
         <f t="shared" si="108"/>
-        <v>269639.59140911355</v>
+        <v>274133.58459926542</v>
       </c>
       <c r="AK36" s="6">
         <f t="shared" si="108"/>
-        <v>272335.9873232047</v>
+        <v>276874.92044525809</v>
       </c>
       <c r="AL36" s="6">
         <f t="shared" si="108"/>
-        <v>275059.34719643672</v>
+        <v>279643.66964971065</v>
       </c>
       <c r="AM36" s="6">
         <f t="shared" si="108"/>
-        <v>277809.94066840108</v>
+        <v>282440.10634620773</v>
       </c>
       <c r="AN36" s="6">
         <f t="shared" si="108"/>
-        <v>280588.04007508507</v>
+        <v>285264.50740966981</v>
       </c>
       <c r="AO36" s="6">
         <f t="shared" si="108"/>
-        <v>283393.92047583591</v>
+        <v>288117.15248376649</v>
       </c>
       <c r="AP36" s="6">
         <f t="shared" si="108"/>
-        <v>286227.85968059429</v>
+        <v>290998.32400860416</v>
       </c>
       <c r="AQ36" s="6">
         <f t="shared" si="108"/>
-        <v>289090.13827740023</v>
+        <v>293908.30724869022</v>
       </c>
       <c r="AR36" s="6">
         <f t="shared" si="108"/>
-        <v>291981.03966017422</v>
+        <v>296847.39032117714</v>
       </c>
       <c r="AS36" s="6">
         <f t="shared" si="108"/>
-        <v>294900.85005677596</v>
+        <v>299815.8642243889</v>
       </c>
       <c r="AT36" s="6">
         <f t="shared" si="108"/>
-        <v>297849.85855734372</v>
+        <v>302814.02286663279</v>
       </c>
       <c r="AU36" s="6">
         <f t="shared" si="108"/>
-        <v>300828.35714291717</v>
+        <v>305842.1630952991</v>
       </c>
       <c r="AV36" s="6">
         <f t="shared" si="108"/>
-        <v>303836.64071434637</v>
+        <v>308900.58472625207</v>
       </c>
       <c r="AW36" s="6">
         <f t="shared" si="108"/>
-        <v>306875.00712148985</v>
+        <v>311989.59057351458</v>
       </c>
       <c r="AX36" s="6">
         <f t="shared" si="108"/>
-        <v>309943.75719270477</v>
+        <v>315109.48647924972</v>
       </c>
       <c r="AY36" s="6">
         <f t="shared" si="108"/>
-        <v>313043.1947646318</v>
+        <v>318260.58134404221</v>
       </c>
       <c r="AZ36" s="6">
         <f t="shared" si="108"/>
-        <v>316173.62671227811</v>
+        <v>321443.18715748261</v>
       </c>
       <c r="BA36" s="6">
         <f t="shared" si="108"/>
-        <v>319335.3629794009</v>
+        <v>324657.61902905745</v>
       </c>
       <c r="BB36" s="6">
         <f t="shared" si="108"/>
-        <v>322528.71660919493</v>
+        <v>327904.19521934801</v>
       </c>
       <c r="BC36" s="6">
         <f t="shared" si="108"/>
-        <v>325754.0037752869</v>
+        <v>331183.23717154149</v>
       </c>
       <c r="BD36" s="6">
         <f t="shared" ref="BD36:CI36" si="109">BC36*(1+$Z$20)</f>
-        <v>329011.54381303978</v>
+        <v>334495.06954325689</v>
       </c>
       <c r="BE36" s="6">
         <f t="shared" si="109"/>
-        <v>332301.65925117017</v>
+        <v>337840.02023868944</v>
       </c>
       <c r="BF36" s="6">
         <f t="shared" si="109"/>
-        <v>335624.67584368191</v>
+        <v>341218.42044107633</v>
       </c>
       <c r="BG36" s="6">
         <f t="shared" si="109"/>
-        <v>338980.92260211875</v>
+        <v>344630.6046454871</v>
       </c>
       <c r="BH36" s="6">
         <f t="shared" si="109"/>
-        <v>342370.73182813992</v>
+        <v>348076.91069194197</v>
       </c>
       <c r="BI36" s="6">
         <f t="shared" si="109"/>
-        <v>345794.43914642133</v>
+        <v>351557.67979886138</v>
       </c>
       <c r="BJ36" s="6">
         <f t="shared" si="109"/>
-        <v>349252.38353788556</v>
+        <v>355073.25659685</v>
       </c>
       <c r="BK36" s="6">
         <f t="shared" si="109"/>
-        <v>352744.90737326443</v>
+        <v>358623.98916281853</v>
       </c>
       <c r="BL36" s="6">
         <f t="shared" si="109"/>
-        <v>356272.35644699709</v>
+        <v>362210.22905444674</v>
       </c>
       <c r="BM36" s="6">
         <f t="shared" si="109"/>
-        <v>359835.08001146704</v>
+        <v>365832.33134499122</v>
       </c>
       <c r="BN36" s="6">
         <f t="shared" si="109"/>
-        <v>363433.43081158173</v>
+        <v>369490.65465844114</v>
       </c>
       <c r="BO36" s="6">
         <f t="shared" si="109"/>
-        <v>367067.76511969755</v>
+        <v>373185.56120502553</v>
       </c>
       <c r="BP36" s="6">
         <f t="shared" si="109"/>
-        <v>370738.4427708945</v>
+        <v>376917.41681707581</v>
       </c>
       <c r="BQ36" s="6">
         <f t="shared" si="109"/>
-        <v>374445.82719860342</v>
+        <v>380686.59098524658</v>
       </c>
       <c r="BR36" s="6">
         <f t="shared" si="109"/>
-        <v>378190.28547058947</v>
+        <v>384493.45689509908</v>
       </c>
       <c r="BS36" s="6">
         <f t="shared" si="109"/>
-        <v>381972.18832529534</v>
+        <v>388338.3914640501</v>
       </c>
       <c r="BT36" s="6">
         <f t="shared" si="109"/>
-        <v>385791.9102085483</v>
+        <v>392221.77537869063</v>
       </c>
       <c r="BU36" s="6">
         <f t="shared" si="109"/>
-        <v>389649.82931063377</v>
+        <v>396143.99313247751</v>
       </c>
       <c r="BV36" s="6">
         <f t="shared" si="109"/>
-        <v>393546.32760374009</v>
+        <v>400105.43306380231</v>
       </c>
       <c r="BW36" s="6">
         <f t="shared" si="109"/>
-        <v>397481.79087977752</v>
+        <v>404106.48739444034</v>
       </c>
       <c r="BX36" s="6">
         <f t="shared" si="109"/>
-        <v>401456.60878857528</v>
+        <v>408147.55226838472</v>
       </c>
       <c r="BY36" s="6">
         <f t="shared" si="109"/>
-        <v>405471.17487646104</v>
+        <v>412229.0277910686</v>
       </c>
       <c r="BZ36" s="6">
         <f t="shared" si="109"/>
-        <v>409525.88662522566</v>
+        <v>416351.31806897931</v>
       </c>
       <c r="CA36" s="6">
         <f t="shared" si="109"/>
-        <v>413621.14549147792</v>
+        <v>420514.83124966908</v>
       </c>
       <c r="CB36" s="6">
         <f t="shared" si="109"/>
-        <v>417757.35694639268</v>
+        <v>424719.9795621658</v>
       </c>
       <c r="CC36" s="6">
         <f t="shared" si="109"/>
-        <v>421934.9305158566</v>
+        <v>428967.17935778748</v>
       </c>
       <c r="CD36" s="6">
         <f t="shared" si="109"/>
-        <v>426154.2798210152</v>
+        <v>433256.85115136538</v>
       </c>
       <c r="CE36" s="6">
         <f t="shared" si="109"/>
-        <v>430415.82261922536</v>
+        <v>437589.41966287902</v>
       </c>
       <c r="CF36" s="6">
         <f t="shared" si="109"/>
-        <v>434719.98084541759</v>
+        <v>441965.31385950779</v>
       </c>
       <c r="CG36" s="6">
         <f t="shared" si="109"/>
-        <v>439067.18065387179</v>
+        <v>446384.9669981029</v>
       </c>
       <c r="CH36" s="6">
         <f t="shared" si="109"/>
-        <v>443457.8524604105</v>
+        <v>450848.81666808395</v>
       </c>
       <c r="CI36" s="6">
         <f t="shared" si="109"/>
-        <v>447892.43098501459</v>
+        <v>455357.3048347648</v>
       </c>
       <c r="CJ36" s="6">
         <f t="shared" ref="CJ36:DO36" si="110">CI36*(1+$Z$20)</f>
-        <v>452371.35529486474</v>
+        <v>459910.87788311247</v>
       </c>
       <c r="CK36" s="6">
         <f t="shared" si="110"/>
-        <v>456895.06884781341</v>
+        <v>464509.98666194361</v>
       </c>
       <c r="CL36" s="6">
         <f t="shared" si="110"/>
-        <v>461464.01953629154</v>
+        <v>469155.08652856306</v>
       </c>
       <c r="CM36" s="6">
         <f t="shared" si="110"/>
-        <v>466078.65973165445</v>
+        <v>473846.63739384868</v>
       </c>
       <c r="CN36" s="6">
         <f t="shared" si="110"/>
-        <v>470739.44632897101</v>
+        <v>478585.10376778716</v>
       </c>
       <c r="CO36" s="6">
         <f t="shared" si="110"/>
-        <v>475446.84079226071</v>
+        <v>483370.95480546507</v>
       </c>
       <c r="CP36" s="6">
         <f t="shared" si="110"/>
-        <v>480201.30920018331</v>
+        <v>488204.66435351974</v>
       </c>
       <c r="CQ36" s="6">
         <f t="shared" si="110"/>
-        <v>485003.32229218516</v>
+        <v>493086.71099705494</v>
       </c>
       <c r="CR36" s="6">
         <f t="shared" si="110"/>
-        <v>489853.35551510699</v>
+        <v>498017.57810702547</v>
       </c>
       <c r="CS36" s="6">
         <f t="shared" si="110"/>
-        <v>494751.88907025807</v>
+        <v>502997.75388809573</v>
       </c>
       <c r="CT36" s="6">
         <f t="shared" si="110"/>
-        <v>499699.40796096064</v>
+        <v>508027.73142697668</v>
       </c>
       <c r="CU36" s="6">
         <f t="shared" si="110"/>
-        <v>504696.40204057028</v>
+        <v>513108.00874124648</v>
       </c>
       <c r="CV36" s="6">
         <f t="shared" si="110"/>
-        <v>509743.366060976</v>
+        <v>518239.08882865898</v>
       </c>
       <c r="CW36" s="6">
         <f t="shared" si="110"/>
-        <v>514840.79972158576</v>
+        <v>523421.47971694556</v>
       </c>
       <c r="CX36" s="6">
         <f t="shared" si="110"/>
-        <v>519989.20771880163</v>
+        <v>528655.69451411499</v>
       </c>
       <c r="CY36" s="6">
         <f t="shared" si="110"/>
-        <v>525189.09979598969</v>
+        <v>533942.25145925616</v>
       </c>
       <c r="CZ36" s="6">
         <f t="shared" si="110"/>
-        <v>530440.99079394958</v>
+        <v>539281.67397384869</v>
       </c>
       <c r="DA36" s="6">
         <f t="shared" si="110"/>
-        <v>535745.40070188907</v>
+        <v>544674.49071358715</v>
       </c>
       <c r="DB36" s="6">
         <f t="shared" si="110"/>
-        <v>541102.85470890801</v>
+        <v>550121.23562072299</v>
       </c>
       <c r="DC36" s="6">
         <f t="shared" si="110"/>
-        <v>546513.88325599709</v>
+        <v>555622.44797693018</v>
       </c>
       <c r="DD36" s="6">
         <f t="shared" si="110"/>
-        <v>551979.02208855702</v>
+        <v>561178.67245669954</v>
       </c>
       <c r="DE36" s="6">
         <f t="shared" si="110"/>
-        <v>557498.81230944255</v>
+        <v>566790.45918126649</v>
       </c>
       <c r="DF36" s="6">
         <f t="shared" si="110"/>
-        <v>563073.80043253698</v>
+        <v>572458.36377307912</v>
       </c>
       <c r="DG36" s="6">
         <f t="shared" si="110"/>
-        <v>568704.53843686241</v>
+        <v>578182.94741080992</v>
       </c>
       <c r="DH36" s="6">
         <f t="shared" si="110"/>
-        <v>574391.58382123103</v>
+        <v>583964.77688491798</v>
       </c>
       <c r="DI36" s="6">
         <f t="shared" si="110"/>
-        <v>580135.49965944339</v>
+        <v>589804.42465376714</v>
       </c>
       <c r="DJ36" s="6">
         <f t="shared" si="110"/>
-        <v>585936.85465603787</v>
+        <v>595702.46890030487</v>
       </c>
       <c r="DK36" s="6">
         <f t="shared" si="110"/>
-        <v>591796.22320259828</v>
+        <v>601659.49358930788</v>
       </c>
       <c r="DL36" s="6">
         <f t="shared" si="110"/>
-        <v>597714.18543462432</v>
+        <v>607676.08852520096</v>
       </c>
       <c r="DM36" s="6">
         <f t="shared" si="110"/>
-        <v>603691.32728897058</v>
+        <v>613752.849410453</v>
       </c>
       <c r="DN36" s="6">
         <f t="shared" si="110"/>
-        <v>609728.24056186026</v>
+        <v>619890.37790455751</v>
       </c>
       <c r="DO36" s="6">
         <f t="shared" si="110"/>
-        <v>615825.52296747884</v>
+        <v>626089.28168360307</v>
       </c>
       <c r="DP36" s="6">
         <f t="shared" ref="DP36:EU36" si="111">DO36*(1+$Z$20)</f>
-        <v>621983.77819715359</v>
+        <v>632350.17450043908</v>
       </c>
       <c r="DQ36" s="6">
         <f t="shared" si="111"/>
-        <v>628203.61597912514</v>
+        <v>638673.67624544352</v>
       </c>
       <c r="DR36" s="6">
         <f t="shared" si="111"/>
-        <v>634485.65213891643</v>
+        <v>645060.41300789791</v>
       </c>
       <c r="DS36" s="6">
         <f t="shared" si="111"/>
-        <v>640830.50866030564</v>
+        <v>651511.01713797695</v>
       </c>
       <c r="DT36" s="6">
         <f t="shared" si="111"/>
-        <v>647238.81374690868</v>
+        <v>658026.1273093567</v>
       </c>
       <c r="DU36" s="6">
         <f t="shared" si="111"/>
-        <v>653711.20188437775</v>
+        <v>664606.38858245022</v>
       </c>
       <c r="DV36" s="6">
         <f t="shared" si="111"/>
-        <v>660248.31390322151</v>
+        <v>671252.45246827474</v>
       </c>
       <c r="DW36" s="6">
         <f t="shared" si="111"/>
-        <v>666850.79704225378</v>
+        <v>677964.97699295753</v>
       </c>
       <c r="DX36" s="6">
         <f t="shared" si="111"/>
-        <v>673519.30501267628</v>
+        <v>684744.62676288711</v>
       </c>
       <c r="DY36" s="6">
         <f t="shared" si="111"/>
-        <v>680254.49806280306</v>
+        <v>691592.07303051604</v>
       </c>
       <c r="DZ36" s="6">
         <f t="shared" si="111"/>
-        <v>687057.04304343113</v>
+        <v>698507.99376082118</v>
       </c>
       <c r="EA36" s="6">
         <f t="shared" si="111"/>
-        <v>693927.61347386544</v>
+        <v>705493.07369842939</v>
       </c>
       <c r="EB36" s="6">
         <f t="shared" si="111"/>
-        <v>700866.88960860413</v>
+        <v>712548.00443541363</v>
       </c>
       <c r="EC36" s="6">
         <f t="shared" si="111"/>
-        <v>707875.55850469018</v>
+        <v>719673.48447976774</v>
       </c>
       <c r="ED36" s="6">
         <f t="shared" si="111"/>
-        <v>714954.31408973713</v>
+        <v>726870.21932456538</v>
       </c>
       <c r="EE36" s="6">
         <f t="shared" si="111"/>
-        <v>722103.85723063454</v>
+        <v>734138.92151781102</v>
       </c>
       <c r="EF36" s="6">
         <f t="shared" si="111"/>
-        <v>729324.89580294094</v>
+        <v>741480.31073298911</v>
       </c>
       <c r="EG36" s="6">
         <f t="shared" si="111"/>
-        <v>736618.14476097038</v>
+        <v>748895.11384031898</v>
       </c>
       <c r="EH36" s="6">
         <f t="shared" si="111"/>
-        <v>743984.32620858005</v>
+        <v>756384.06497872213</v>
       </c>
       <c r="EI36" s="6">
         <f t="shared" si="111"/>
-        <v>751424.16947066586</v>
+        <v>763947.90562850935</v>
       </c>
       <c r="EJ36" s="6">
         <f t="shared" si="111"/>
-        <v>758938.41116537247</v>
+        <v>771587.38468479447</v>
       </c>
       <c r="EK36" s="6">
         <f t="shared" si="111"/>
-        <v>766527.79527702625</v>
+        <v>779303.25853164238</v>
       </c>
       <c r="EL36" s="6">
         <f t="shared" si="111"/>
-        <v>774193.07322979649</v>
+        <v>787096.29111695883</v>
       </c>
       <c r="EM36" s="6">
         <f t="shared" si="111"/>
-        <v>781935.00396209443</v>
+        <v>794967.25402812846</v>
       </c>
       <c r="EN36" s="6">
         <f t="shared" si="111"/>
-        <v>789754.35400171543</v>
+        <v>802916.92656840978</v>
       </c>
       <c r="EO36" s="6">
         <f t="shared" si="111"/>
-        <v>797651.89754173264</v>
+        <v>810946.09583409387</v>
       </c>
       <c r="EP36" s="6">
         <f t="shared" si="111"/>
-        <v>805628.41651715001</v>
+        <v>819055.55679243477</v>
       </c>
       <c r="EQ36" s="6">
         <f t="shared" si="111"/>
-        <v>813684.70068232156</v>
+        <v>827246.11236035917</v>
       </c>
       <c r="ER36" s="6">
         <f t="shared" si="111"/>
-        <v>821821.54768914473</v>
+        <v>835518.5734839628</v>
       </c>
       <c r="ES36" s="6">
         <f t="shared" si="111"/>
-        <v>830039.76316603622</v>
+        <v>843873.75921880244</v>
       </c>
       <c r="ET36" s="6">
         <f t="shared" si="111"/>
-        <v>838340.16079769656</v>
+        <v>852312.4968109905</v>
       </c>
       <c r="EU36" s="6">
         <f t="shared" si="111"/>
-        <v>846723.56240567355</v>
+        <v>860835.62177910039</v>
       </c>
       <c r="EV36" s="6">
         <f t="shared" ref="EV36:FG36" si="112">EU36*(1+$Z$20)</f>
-        <v>855190.79802973033</v>
+        <v>869443.97799689136</v>
       </c>
       <c r="EW36" s="6">
         <f t="shared" si="112"/>
-        <v>863742.70601002767</v>
+        <v>878138.4177768603</v>
       </c>
       <c r="EX36" s="6">
         <f t="shared" si="112"/>
-        <v>872380.13307012792</v>
+        <v>886919.8019546289</v>
       </c>
       <c r="EY36" s="6">
         <f t="shared" si="112"/>
-        <v>881103.93440082925</v>
+        <v>895788.99997417524</v>
       </c>
       <c r="EZ36" s="6">
         <f t="shared" si="112"/>
-        <v>889914.97374483757</v>
+        <v>904746.88997391704</v>
       </c>
       <c r="FA36" s="6">
         <f t="shared" si="112"/>
-        <v>898814.123482286</v>
+        <v>913794.35887365625</v>
       </c>
       <c r="FB36" s="6">
         <f t="shared" si="112"/>
-        <v>907802.26471710892</v>
+        <v>922932.30246239284</v>
       </c>
       <c r="FC36" s="6">
         <f t="shared" si="112"/>
-        <v>916880.28736427997</v>
+        <v>932161.62548701675</v>
       </c>
       <c r="FD36" s="6">
         <f t="shared" si="112"/>
-        <v>926049.09023792273</v>
+        <v>941483.24174188694</v>
       </c>
       <c r="FE36" s="6">
         <f t="shared" si="112"/>
-        <v>935309.58114030201</v>
+        <v>950898.07415930578</v>
       </c>
       <c r="FF36" s="6">
         <f t="shared" si="112"/>
-        <v>944662.67695170501</v>
+        <v>960407.05490089883</v>
       </c>
       <c r="FG36" s="6">
         <f t="shared" si="112"/>
-        <v>954109.3037212221</v>
+        <v>970011.12544990785</v>
       </c>
     </row>
     <row r="37" spans="1:163" x14ac:dyDescent="0.25">
@@ -3764,34 +3764,34 @@
         <v>1.2615643936161134</v>
       </c>
       <c r="N37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="O37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="R37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="T37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W37" s="5">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="38" spans="1:163" x14ac:dyDescent="0.25">

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91222CA-CEF3-416B-8835-A9E5C09DFF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3949EF28-CF85-4DC9-A948-DF26E254FACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="1635" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,12 +217,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,16 +250,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,91 +702,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B79C5-ED94-49D4-91A8-403BB18825CC}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="9"/>
+    <col min="5" max="5" width="9.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+      <c r="F2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>15115.823</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <f>F3*F2</f>
-        <v>2977817.1310000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+        <v>3023164.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <f>30299+23476</f>
         <v>53775</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>83956</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <f>F4+F6-F5</f>
-        <v>3007998.1310000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+        <v>3053345.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="9">
         <f>F2/Sheet2!M16</f>
-        <v>32.382389903558931</v>
+        <v>32.875522744729885</v>
       </c>
     </row>
   </sheetData>
@@ -793,1557 +801,1562 @@
   <dimension ref="A1:FK49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="18" width="9.140625" style="3"/>
-    <col min="19" max="19" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="3"/>
-    <col min="21" max="22" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="1"/>
+    <col min="9" max="18" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="167" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="168" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="2">
         <v>2020</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="2">
         <f>I1+1</f>
         <v>2021</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="2">
         <f t="shared" ref="K1:R1" si="0">J1+1</f>
         <v>2022</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="S1" s="7">
+      <c r="S1" s="2">
         <f t="shared" ref="S1" si="1">R1+1</f>
         <v>2030</v>
       </c>
-      <c r="T1" s="7">
+      <c r="T1" s="2">
         <f t="shared" ref="T1" si="2">S1+1</f>
         <v>2031</v>
       </c>
-      <c r="U1" s="7">
+      <c r="U1" s="2">
         <f t="shared" ref="U1" si="3">T1+1</f>
         <v>2032</v>
       </c>
-      <c r="V1" s="7">
+      <c r="V1" s="2">
         <f t="shared" ref="V1" si="4">U1+1</f>
         <v>2033</v>
       </c>
-      <c r="W1" s="7">
+      <c r="W1" s="2">
         <f t="shared" ref="W1" si="5">V1+1</f>
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>316199</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>298085</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>294866</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="1">
         <f>M2*1.01</f>
         <v>297814.65999999997</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <f t="shared" ref="O2:W2" si="6">N2*1.01</f>
         <v>300792.80659999995</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="1">
         <f t="shared" si="6"/>
         <v>303800.73466599995</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="1">
         <f t="shared" si="6"/>
         <v>306838.74201265996</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="1">
         <f t="shared" si="6"/>
         <v>309907.12943278655</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="1">
         <f t="shared" si="6"/>
         <v>313006.2007271144</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="1">
         <f t="shared" si="6"/>
         <v>316136.26273438556</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="1">
         <f t="shared" si="6"/>
         <v>319297.62536172941</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="1">
         <f t="shared" si="6"/>
         <v>322490.60161534674</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="1">
         <f t="shared" si="6"/>
         <v>325715.50763150019</v>
       </c>
     </row>
-    <row r="3" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>78129</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>85200</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>96169</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="1">
         <f t="shared" ref="N3:R3" si="7">M3*1.1</f>
         <v>105785.90000000001</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
         <f t="shared" si="7"/>
         <v>116364.49000000002</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="1">
         <f t="shared" si="7"/>
         <v>128000.93900000003</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="1">
         <f t="shared" si="7"/>
         <v>140801.03290000005</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="1">
         <f t="shared" si="7"/>
         <v>154881.13619000008</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="1">
         <f>R3*1.02</f>
         <v>157978.75891380009</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="1">
         <f t="shared" ref="T3:W3" si="8">S3*1.02</f>
         <v>161138.33409207608</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="1">
         <f t="shared" si="8"/>
         <v>164361.1007739176</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="1">
         <f t="shared" si="8"/>
         <v>167648.32278939596</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="1">
         <f t="shared" si="8"/>
         <v>171001.28924518387</v>
       </c>
     </row>
-    <row r="4" spans="1:167" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:167" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <f>SUM(K2:K3)</f>
         <v>394328</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <f t="shared" ref="L4:M4" si="9">SUM(L2:L3)</f>
         <v>383285</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <f t="shared" si="9"/>
         <v>391035</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <f t="shared" ref="N4" si="10">SUM(N2:N3)</f>
         <v>403600.56</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="3">
         <f t="shared" ref="O4" si="11">SUM(O2:O3)</f>
         <v>417157.2966</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="3">
         <f t="shared" ref="P4" si="12">SUM(P2:P3)</f>
         <v>431801.67366599996</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="3">
         <f t="shared" ref="Q4" si="13">SUM(Q2:Q3)</f>
         <v>447639.77491266001</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="3">
         <f t="shared" ref="R4:W4" si="14">SUM(R2:R3)</f>
         <v>464788.2656227866</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="3">
         <f t="shared" si="14"/>
         <v>470984.95964091446</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="3">
         <f t="shared" si="14"/>
         <v>477274.59682646161</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="3">
         <f t="shared" si="14"/>
         <v>483658.72613564704</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="3">
         <f t="shared" si="14"/>
         <v>490138.92440474266</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="3">
         <f t="shared" si="14"/>
         <v>496716.79687668406</v>
       </c>
     </row>
-    <row r="5" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>201471</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>189282</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>185233</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <f>N2*(1-N29)</f>
         <v>186531.68335000001</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f t="shared" ref="O5:R5" si="15">O2*(1-O29)</f>
         <v>187835.02115141752</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="1">
         <f t="shared" si="15"/>
         <v>189142.93454641633</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f t="shared" si="15"/>
         <v>190455.34200127661</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="1">
         <f t="shared" si="15"/>
         <v>191772.1592512319</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="1">
         <f t="shared" ref="S5:W5" si="16">S2*(1-S29)</f>
         <v>193093.29924432738</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="1">
         <f t="shared" si="16"/>
         <v>194418.67208428259</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="1">
         <f t="shared" si="16"/>
         <v>195748.18497234242</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="1">
         <f t="shared" si="16"/>
         <v>197081.7421480995</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="1">
         <f t="shared" si="16"/>
         <v>198419.2448292709</v>
       </c>
     </row>
-    <row r="6" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>22075</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>24855</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>25119</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <f>N3*(1-N30)</f>
         <v>26849.350000000009</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <f t="shared" ref="O6:R6" si="17">O3*(1-O30)</f>
         <v>28665.982950000016</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <f t="shared" si="17"/>
         <v>30567.897667450023</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <f t="shared" si="17"/>
         <v>32552.923979536969</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="1">
         <f t="shared" si="17"/>
         <v>34617.487179365584</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="1">
         <f t="shared" ref="S6:W6" si="18">S3*(1-S30)</f>
         <v>34083.147703044429</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="1">
         <f t="shared" si="18"/>
         <v>33501.075422755595</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="1">
         <f t="shared" si="18"/>
         <v>32869.196892783642</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="1">
         <f t="shared" si="18"/>
         <v>32185.363411051749</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="1">
         <f t="shared" si="18"/>
         <v>31447.34849361367</v>
       </c>
     </row>
-    <row r="7" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <f>K4-SUM(K5:K6)</f>
         <v>170782</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <f t="shared" ref="L7:M7" si="19">L4-SUM(L5:L6)</f>
         <v>169148</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <f t="shared" si="19"/>
         <v>180683</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <f t="shared" ref="N7" si="20">N4-SUM(N5:N6)</f>
         <v>190219.52664999999</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="1">
         <f t="shared" ref="O7" si="21">O4-SUM(O5:O6)</f>
         <v>200656.29249858248</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="1">
         <f t="shared" ref="P7" si="22">P4-SUM(P5:P6)</f>
         <v>212090.84145213361</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="1">
         <f t="shared" ref="Q7" si="23">Q4-SUM(Q5:Q6)</f>
         <v>224631.50893184642</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="1">
         <f t="shared" ref="R7:W7" si="24">R4-SUM(R5:R6)</f>
         <v>238398.6191921891</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="1">
         <f t="shared" si="24"/>
         <v>243808.51269354264</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="1">
         <f t="shared" si="24"/>
         <v>249354.84931942343</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="1">
         <f t="shared" si="24"/>
         <v>255041.34427052096</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="1">
         <f t="shared" si="24"/>
         <v>260871.81884559142</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="1">
         <f t="shared" si="24"/>
         <v>266850.20355379948</v>
       </c>
     </row>
-    <row r="8" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>26251</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="1">
         <v>29915</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>31370</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <f>M8*(1+N19)</f>
         <v>32378.046894012045</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="1">
         <f t="shared" ref="O8:R8" si="25">N8*(1+O19)</f>
         <v>33465.608946365413</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="1">
         <f t="shared" si="25"/>
         <v>34640.424777583641</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="1">
         <f t="shared" si="25"/>
         <v>35911.004741289507</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="1">
         <f t="shared" si="25"/>
         <v>37286.708076225441</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="1">
         <f t="shared" ref="S8" si="26">R8*(1+S19)</f>
         <v>37783.825447684954</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="1">
         <f t="shared" ref="T8" si="27">S8*(1+T19)</f>
         <v>38288.398998673016</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="1">
         <f t="shared" ref="U8" si="28">T8*(1+U19)</f>
         <v>38800.552991101184</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="1">
         <f t="shared" ref="V8" si="29">U8*(1+V19)</f>
         <v>39320.413923502456</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="1">
         <f t="shared" ref="W8" si="30">V8*(1+W19)</f>
         <v>39848.11057327754</v>
       </c>
     </row>
-    <row r="9" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>25094</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="1">
         <v>24932</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>26097</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="1">
         <f>M9*(1+N19)</f>
         <v>26935.603754957996</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="1">
         <f t="shared" ref="O9:R9" si="31">N9*(1+O19)</f>
         <v>27840.356922961371</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="1">
         <f t="shared" si="31"/>
         <v>28817.697335690158</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="1">
         <f t="shared" si="31"/>
         <v>29874.704836896151</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="1">
         <f t="shared" si="31"/>
         <v>31019.165465899117</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="1">
         <f t="shared" ref="S9" si="32">R9*(1+S19)</f>
         <v>31432.722113746706</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="1">
         <f t="shared" ref="T9" si="33">S9*(1+T19)</f>
         <v>31852.481627936548</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="1">
         <f t="shared" ref="U9" si="34">T9*(1+U19)</f>
         <v>32278.547383129338</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="1">
         <f t="shared" ref="V9" si="35">U9*(1+V19)</f>
         <v>32711.02461465232</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="1">
         <f t="shared" ref="W9" si="36">V9*(1+W19)</f>
         <v>33150.020453644363</v>
       </c>
     </row>
-    <row r="10" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <f>SUM(K8:K9)</f>
         <v>51345</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <f t="shared" ref="L10:M10" si="37">SUM(L8:L9)</f>
         <v>54847</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <f t="shared" si="37"/>
         <v>57467</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <f t="shared" ref="N10" si="38">SUM(N8:N9)</f>
         <v>59313.65064897004</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="1">
         <f t="shared" ref="O10" si="39">SUM(O8:O9)</f>
         <v>61305.965869326785</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="1">
         <f t="shared" ref="P10" si="40">SUM(P8:P9)</f>
         <v>63458.122113273799</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="1">
         <f t="shared" ref="Q10" si="41">SUM(Q8:Q9)</f>
         <v>65785.709578185662</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="1">
         <f t="shared" ref="R10:W10" si="42">SUM(R8:R9)</f>
         <v>68305.873542124551</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="1">
         <f t="shared" si="42"/>
         <v>69216.547561431653</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="1">
         <f t="shared" si="42"/>
         <v>70140.880626609563</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="1">
         <f t="shared" si="42"/>
         <v>71079.100374230518</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="1">
         <f t="shared" si="42"/>
         <v>72031.438538154776</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="1">
         <f t="shared" si="42"/>
         <v>72998.13102692191</v>
       </c>
     </row>
-    <row r="11" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <f>K7-K10</f>
         <v>119437</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="1">
         <f t="shared" ref="L11:M11" si="43">L7-L10</f>
         <v>114301</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <f t="shared" si="43"/>
         <v>123216</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="1">
         <f t="shared" ref="N11" si="44">N7-N10</f>
         <v>130905.87600102994</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="1">
         <f t="shared" ref="O11" si="45">O7-O10</f>
         <v>139350.32662925569</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="1">
         <f t="shared" ref="P11" si="46">P7-P10</f>
         <v>148632.71933885981</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="1">
         <f t="shared" ref="Q11" si="47">Q7-Q10</f>
         <v>158845.79935366075</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="1">
         <f t="shared" ref="R11:W11" si="48">R7-R10</f>
         <v>170092.74565006455</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="1">
         <f t="shared" si="48"/>
         <v>174591.96513211098</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="1">
         <f t="shared" si="48"/>
         <v>179213.96869281388</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="1">
         <f t="shared" si="48"/>
         <v>183962.24389629043</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="1">
         <f t="shared" si="48"/>
         <v>188840.38030743663</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="1">
         <f t="shared" si="48"/>
         <v>193852.07252687757</v>
       </c>
     </row>
-    <row r="12" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>-334</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>-565</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>269</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="1">
         <f t="shared" ref="N12:W12" si="49">M40*$Z$19</f>
         <v>-1810.86</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="1">
         <f t="shared" si="49"/>
         <v>4308.2437584488198</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="1">
         <f t="shared" si="49"/>
         <v>11117.659994826014</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="1">
         <f t="shared" si="49"/>
         <v>18689.827975242719</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="1">
         <f t="shared" si="49"/>
         <v>27105.016710632743</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="1">
         <f t="shared" si="49"/>
         <v>36452.190646529794</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="1">
         <f t="shared" si="49"/>
         <v>46455.683630437372</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="1">
         <f t="shared" si="49"/>
         <v>57152.42515055948</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="1">
         <f t="shared" si="49"/>
         <v>68581.260463380153</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="1">
         <f t="shared" si="49"/>
         <v>80783.046235916889</v>
       </c>
     </row>
-    <row r="13" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <f>K11+K12</f>
         <v>119103</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="1">
         <f t="shared" ref="L13:M13" si="50">L11+L12</f>
         <v>113736</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <f t="shared" si="50"/>
         <v>123485</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="1">
         <f t="shared" ref="N13" si="51">N11+N12</f>
         <v>129095.01600102994</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="1">
         <f t="shared" ref="O13" si="52">O11+O12</f>
         <v>143658.5703877045</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="1">
         <f t="shared" ref="P13" si="53">P11+P12</f>
         <v>159750.37933368582</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="1">
         <f t="shared" ref="Q13" si="54">Q11+Q12</f>
         <v>177535.62732890347</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="1">
         <f t="shared" ref="R13:W13" si="55">R11+R12</f>
         <v>197197.76236069729</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="1">
         <f t="shared" si="55"/>
         <v>211044.15577864076</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="1">
         <f t="shared" si="55"/>
         <v>225669.65232325124</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="1">
         <f t="shared" si="55"/>
         <v>241114.66904684991</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="1">
         <f t="shared" si="55"/>
         <v>257421.64077081677</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="1">
         <f t="shared" si="55"/>
         <v>274635.11876279447</v>
       </c>
     </row>
-    <row r="14" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>19300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="1">
         <v>16741</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>29749</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="1">
         <f>N13*N21</f>
         <v>27109.953360216288</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="1">
         <f t="shared" ref="O14:R14" si="56">O13*O21</f>
         <v>30168.299781417943</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="1">
         <f t="shared" si="56"/>
         <v>33547.579660074021</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="1">
         <f t="shared" si="56"/>
         <v>37282.481739069728</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="1">
         <f t="shared" si="56"/>
         <v>41411.530095746428</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="1">
         <f t="shared" ref="S14:W14" si="57">S13*S21</f>
         <v>44319.272713514561</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="1">
         <f t="shared" si="57"/>
         <v>47390.626987882759</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="1">
         <f t="shared" si="57"/>
         <v>50634.080499838477</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="1">
         <f t="shared" si="57"/>
         <v>54058.544561871517</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="1">
         <f t="shared" si="57"/>
         <v>57673.374940186841</v>
       </c>
     </row>
-    <row r="15" spans="1:167" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:167" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="3">
         <f>K13-K14</f>
         <v>99803</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="3">
         <f t="shared" ref="L15:N15" si="58">L13-L14</f>
         <v>96995</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="3">
         <f t="shared" si="58"/>
         <v>93736</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="3">
         <f t="shared" si="58"/>
         <v>101985.06264081366</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="3">
         <f t="shared" ref="O15" si="59">O13-O14</f>
         <v>113490.27060628656</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="3">
         <f t="shared" ref="P15" si="60">P13-P14</f>
         <v>126202.79967361179</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="3">
         <f t="shared" ref="Q15" si="61">Q13-Q14</f>
         <v>140253.14558983373</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="3">
         <f t="shared" ref="R15:W15" si="62">R13-R14</f>
         <v>155786.23226495087</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="3">
         <f t="shared" si="62"/>
         <v>166724.8830651262</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="3">
         <f t="shared" si="62"/>
         <v>178279.02533536847</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="3">
         <f t="shared" si="62"/>
         <v>190480.58854701143</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="3">
         <f t="shared" si="62"/>
         <v>203363.09620894527</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="3">
         <f t="shared" si="62"/>
         <v>216961.74382260762</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="3">
         <f t="shared" ref="X15:BC15" si="63">W15*(1+$Z$20)</f>
         <v>219131.36126083368</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="3">
         <f t="shared" si="63"/>
         <v>221322.67487344201</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="3">
         <f t="shared" si="63"/>
         <v>223535.90162217643</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="3">
         <f t="shared" si="63"/>
         <v>225771.26063839821</v>
       </c>
-      <c r="AB15" s="6">
+      <c r="AB15" s="3">
         <f t="shared" si="63"/>
         <v>228028.97324478219</v>
       </c>
-      <c r="AC15" s="6">
+      <c r="AC15" s="3">
         <f t="shared" si="63"/>
         <v>230309.26297723001</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD15" s="3">
         <f t="shared" si="63"/>
         <v>232612.3556070023</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AE15" s="3">
         <f t="shared" si="63"/>
         <v>234938.47916307233</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AF15" s="3">
         <f t="shared" si="63"/>
         <v>237287.86395470306</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG15" s="3">
         <f t="shared" si="63"/>
         <v>239660.7425942501</v>
       </c>
-      <c r="AH15" s="6">
+      <c r="AH15" s="3">
         <f t="shared" si="63"/>
         <v>242057.35002019259</v>
       </c>
-      <c r="AI15" s="6">
+      <c r="AI15" s="3">
         <f t="shared" si="63"/>
         <v>244477.92352039451</v>
       </c>
-      <c r="AJ15" s="6">
+      <c r="AJ15" s="3">
         <f t="shared" si="63"/>
         <v>246922.70275559847</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AK15" s="3">
         <f t="shared" si="63"/>
         <v>249391.92978315445</v>
       </c>
-      <c r="AL15" s="6">
+      <c r="AL15" s="3">
         <f t="shared" si="63"/>
         <v>251885.84908098599</v>
       </c>
-      <c r="AM15" s="6">
+      <c r="AM15" s="3">
         <f t="shared" si="63"/>
         <v>254404.70757179585</v>
       </c>
-      <c r="AN15" s="6">
+      <c r="AN15" s="3">
         <f t="shared" si="63"/>
         <v>256948.75464751382</v>
       </c>
-      <c r="AO15" s="6">
+      <c r="AO15" s="3">
         <f t="shared" si="63"/>
         <v>259518.24219398896</v>
       </c>
-      <c r="AP15" s="6">
+      <c r="AP15" s="3">
         <f t="shared" si="63"/>
         <v>262113.42461592885</v>
       </c>
-      <c r="AQ15" s="6">
+      <c r="AQ15" s="3">
         <f t="shared" si="63"/>
         <v>264734.55886208813</v>
       </c>
-      <c r="AR15" s="6">
+      <c r="AR15" s="3">
         <f t="shared" si="63"/>
         <v>267381.904450709</v>
       </c>
-      <c r="AS15" s="6">
+      <c r="AS15" s="3">
         <f t="shared" si="63"/>
         <v>270055.72349521611</v>
       </c>
-      <c r="AT15" s="6">
+      <c r="AT15" s="3">
         <f t="shared" si="63"/>
         <v>272756.28073016828</v>
       </c>
-      <c r="AU15" s="6">
+      <c r="AU15" s="3">
         <f t="shared" si="63"/>
         <v>275483.84353746998</v>
       </c>
-      <c r="AV15" s="6">
+      <c r="AV15" s="3">
         <f t="shared" si="63"/>
         <v>278238.6819728447</v>
       </c>
-      <c r="AW15" s="6">
+      <c r="AW15" s="3">
         <f t="shared" si="63"/>
         <v>281021.06879257318</v>
       </c>
-      <c r="AX15" s="6">
+      <c r="AX15" s="3">
         <f t="shared" si="63"/>
         <v>283831.27948049892</v>
       </c>
-      <c r="AY15" s="6">
+      <c r="AY15" s="3">
         <f t="shared" si="63"/>
         <v>286669.5922753039</v>
       </c>
-      <c r="AZ15" s="6">
+      <c r="AZ15" s="3">
         <f t="shared" si="63"/>
         <v>289536.28819805692</v>
       </c>
-      <c r="BA15" s="6">
+      <c r="BA15" s="3">
         <f t="shared" si="63"/>
         <v>292431.65108003747</v>
       </c>
-      <c r="BB15" s="6">
+      <c r="BB15" s="3">
         <f t="shared" si="63"/>
         <v>295355.96759083786</v>
       </c>
-      <c r="BC15" s="6">
+      <c r="BC15" s="3">
         <f t="shared" si="63"/>
         <v>298309.52726674621</v>
       </c>
-      <c r="BD15" s="6">
+      <c r="BD15" s="3">
         <f t="shared" ref="BD15:CI15" si="64">BC15*(1+$Z$20)</f>
         <v>301292.62253941369</v>
       </c>
-      <c r="BE15" s="6">
+      <c r="BE15" s="3">
         <f t="shared" si="64"/>
         <v>304305.54876480781</v>
       </c>
-      <c r="BF15" s="6">
+      <c r="BF15" s="3">
         <f t="shared" si="64"/>
         <v>307348.60425245587</v>
       </c>
-      <c r="BG15" s="6">
+      <c r="BG15" s="3">
         <f t="shared" si="64"/>
         <v>310422.09029498044</v>
       </c>
-      <c r="BH15" s="6">
+      <c r="BH15" s="3">
         <f t="shared" si="64"/>
         <v>313526.31119793025</v>
       </c>
-      <c r="BI15" s="6">
+      <c r="BI15" s="3">
         <f t="shared" si="64"/>
         <v>316661.57430990954</v>
       </c>
-      <c r="BJ15" s="6">
+      <c r="BJ15" s="3">
         <f t="shared" si="64"/>
         <v>319828.19005300861</v>
       </c>
-      <c r="BK15" s="6">
+      <c r="BK15" s="3">
         <f t="shared" si="64"/>
         <v>323026.47195353871</v>
       </c>
-      <c r="BL15" s="6">
+      <c r="BL15" s="3">
         <f t="shared" si="64"/>
         <v>326256.73667307408</v>
       </c>
-      <c r="BM15" s="6">
+      <c r="BM15" s="3">
         <f t="shared" si="64"/>
         <v>329519.30403980485</v>
       </c>
-      <c r="BN15" s="6">
+      <c r="BN15" s="3">
         <f t="shared" si="64"/>
         <v>332814.49708020291</v>
       </c>
-      <c r="BO15" s="6">
+      <c r="BO15" s="3">
         <f t="shared" si="64"/>
         <v>336142.64205100492</v>
       </c>
-      <c r="BP15" s="6">
+      <c r="BP15" s="3">
         <f t="shared" si="64"/>
         <v>339504.06847151497</v>
       </c>
-      <c r="BQ15" s="6">
+      <c r="BQ15" s="3">
         <f t="shared" si="64"/>
         <v>342899.10915623012</v>
       </c>
-      <c r="BR15" s="6">
+      <c r="BR15" s="3">
         <f t="shared" si="64"/>
         <v>346328.10024779243</v>
       </c>
-      <c r="BS15" s="6">
+      <c r="BS15" s="3">
         <f t="shared" si="64"/>
         <v>349791.38125027035</v>
       </c>
-      <c r="BT15" s="6">
+      <c r="BT15" s="3">
         <f t="shared" si="64"/>
         <v>353289.29506277305</v>
       </c>
-      <c r="BU15" s="6">
+      <c r="BU15" s="3">
         <f t="shared" si="64"/>
         <v>356822.18801340077</v>
       </c>
-      <c r="BV15" s="6">
+      <c r="BV15" s="3">
         <f t="shared" si="64"/>
         <v>360390.40989353479</v>
       </c>
-      <c r="BW15" s="6">
+      <c r="BW15" s="3">
         <f t="shared" si="64"/>
         <v>363994.31399247015</v>
       </c>
-      <c r="BX15" s="6">
+      <c r="BX15" s="3">
         <f t="shared" si="64"/>
         <v>367634.25713239488</v>
       </c>
-      <c r="BY15" s="6">
+      <c r="BY15" s="3">
         <f t="shared" si="64"/>
         <v>371310.59970371885</v>
       </c>
-      <c r="BZ15" s="6">
+      <c r="BZ15" s="3">
         <f t="shared" si="64"/>
         <v>375023.70570075605</v>
       </c>
-      <c r="CA15" s="6">
+      <c r="CA15" s="3">
         <f t="shared" si="64"/>
         <v>378773.94275776361</v>
       </c>
-      <c r="CB15" s="6">
+      <c r="CB15" s="3">
         <f t="shared" si="64"/>
         <v>382561.68218534125</v>
       </c>
-      <c r="CC15" s="6">
+      <c r="CC15" s="3">
         <f t="shared" si="64"/>
         <v>386387.2990071947</v>
       </c>
-      <c r="CD15" s="6">
+      <c r="CD15" s="3">
         <f t="shared" si="64"/>
         <v>390251.17199726665</v>
       </c>
-      <c r="CE15" s="6">
+      <c r="CE15" s="3">
         <f t="shared" si="64"/>
         <v>394153.6837172393</v>
       </c>
-      <c r="CF15" s="6">
+      <c r="CF15" s="3">
         <f t="shared" si="64"/>
         <v>398095.2205544117</v>
       </c>
-      <c r="CG15" s="6">
+      <c r="CG15" s="3">
         <f t="shared" si="64"/>
         <v>402076.17275995581</v>
       </c>
-      <c r="CH15" s="6">
+      <c r="CH15" s="3">
         <f t="shared" si="64"/>
         <v>406096.93448755535</v>
       </c>
-      <c r="CI15" s="6">
+      <c r="CI15" s="3">
         <f t="shared" si="64"/>
         <v>410157.90383243089</v>
       </c>
-      <c r="CJ15" s="6">
+      <c r="CJ15" s="3">
         <f t="shared" ref="CJ15:DO15" si="65">CI15*(1+$Z$20)</f>
         <v>414259.48287075519</v>
       </c>
-      <c r="CK15" s="6">
+      <c r="CK15" s="3">
         <f t="shared" si="65"/>
         <v>418402.07769946277</v>
       </c>
-      <c r="CL15" s="6">
+      <c r="CL15" s="3">
         <f t="shared" si="65"/>
         <v>422586.09847645741</v>
       </c>
-      <c r="CM15" s="6">
+      <c r="CM15" s="3">
         <f t="shared" si="65"/>
         <v>426811.959461222</v>
       </c>
-      <c r="CN15" s="6">
+      <c r="CN15" s="3">
         <f t="shared" si="65"/>
         <v>431080.07905583421</v>
       </c>
-      <c r="CO15" s="6">
+      <c r="CO15" s="3">
         <f t="shared" si="65"/>
         <v>435390.87984639255</v>
       </c>
-      <c r="CP15" s="6">
+      <c r="CP15" s="3">
         <f t="shared" si="65"/>
         <v>439744.78864485648</v>
       </c>
-      <c r="CQ15" s="6">
+      <c r="CQ15" s="3">
         <f t="shared" si="65"/>
         <v>444142.23653130507</v>
       </c>
-      <c r="CR15" s="6">
+      <c r="CR15" s="3">
         <f t="shared" si="65"/>
         <v>448583.65889661812</v>
       </c>
-      <c r="CS15" s="6">
+      <c r="CS15" s="3">
         <f t="shared" si="65"/>
         <v>453069.49548558431</v>
       </c>
-      <c r="CT15" s="6">
+      <c r="CT15" s="3">
         <f t="shared" si="65"/>
         <v>457600.19044044014</v>
       </c>
-      <c r="CU15" s="6">
+      <c r="CU15" s="3">
         <f t="shared" si="65"/>
         <v>462176.19234484457</v>
       </c>
-      <c r="CV15" s="6">
+      <c r="CV15" s="3">
         <f t="shared" si="65"/>
         <v>466797.95426829305</v>
       </c>
-      <c r="CW15" s="6">
+      <c r="CW15" s="3">
         <f t="shared" si="65"/>
         <v>471465.93381097598</v>
       </c>
-      <c r="CX15" s="6">
+      <c r="CX15" s="3">
         <f t="shared" si="65"/>
         <v>476180.59314908576</v>
       </c>
-      <c r="CY15" s="6">
+      <c r="CY15" s="3">
         <f t="shared" si="65"/>
         <v>480942.39908057661</v>
       </c>
-      <c r="CZ15" s="6">
+      <c r="CZ15" s="3">
         <f t="shared" si="65"/>
         <v>485751.82307138236</v>
       </c>
-      <c r="DA15" s="6">
+      <c r="DA15" s="3">
         <f t="shared" si="65"/>
         <v>490609.3413020962</v>
       </c>
-      <c r="DB15" s="6">
+      <c r="DB15" s="3">
         <f t="shared" si="65"/>
         <v>495515.43471511715</v>
       </c>
-      <c r="DC15" s="6">
+      <c r="DC15" s="3">
         <f t="shared" si="65"/>
         <v>500470.58906226832</v>
       </c>
-      <c r="DD15" s="6">
+      <c r="DD15" s="3">
         <f t="shared" si="65"/>
         <v>505475.29495289101</v>
       </c>
-      <c r="DE15" s="6">
+      <c r="DE15" s="3">
         <f t="shared" si="65"/>
         <v>510530.04790241993</v>
       </c>
-      <c r="DF15" s="6">
+      <c r="DF15" s="3">
         <f t="shared" si="65"/>
         <v>515635.34838144411</v>
       </c>
-      <c r="DG15" s="6">
+      <c r="DG15" s="3">
         <f t="shared" si="65"/>
         <v>520791.70186525857</v>
       </c>
-      <c r="DH15" s="6">
+      <c r="DH15" s="3">
         <f t="shared" si="65"/>
         <v>525999.61888391117</v>
       </c>
-      <c r="DI15" s="6">
+      <c r="DI15" s="3">
         <f t="shared" si="65"/>
         <v>531259.61507275025</v>
       </c>
-      <c r="DJ15" s="6">
+      <c r="DJ15" s="3">
         <f t="shared" si="65"/>
         <v>536572.21122347773</v>
       </c>
-      <c r="DK15" s="6">
+      <c r="DK15" s="3">
         <f t="shared" si="65"/>
         <v>541937.93333571253</v>
       </c>
-      <c r="DL15" s="6">
+      <c r="DL15" s="3">
         <f t="shared" si="65"/>
         <v>547357.31266906962</v>
       </c>
-      <c r="DM15" s="6">
+      <c r="DM15" s="3">
         <f t="shared" si="65"/>
         <v>552830.88579576032</v>
       </c>
-      <c r="DN15" s="6">
+      <c r="DN15" s="3">
         <f t="shared" si="65"/>
         <v>558359.19465371792</v>
       </c>
-      <c r="DO15" s="6">
+      <c r="DO15" s="3">
         <f t="shared" si="65"/>
         <v>563942.78660025506</v>
       </c>
-      <c r="DP15" s="6">
+      <c r="DP15" s="3">
         <f t="shared" ref="DP15:EU15" si="66">DO15*(1+$Z$20)</f>
         <v>569582.2144662576</v>
       </c>
-      <c r="DQ15" s="6">
+      <c r="DQ15" s="3">
         <f t="shared" si="66"/>
         <v>575278.03661092022</v>
       </c>
-      <c r="DR15" s="6">
+      <c r="DR15" s="3">
         <f t="shared" si="66"/>
         <v>581030.81697702943</v>
       </c>
-      <c r="DS15" s="6">
+      <c r="DS15" s="3">
         <f t="shared" si="66"/>
         <v>586841.12514679972</v>
       </c>
-      <c r="DT15" s="6">
+      <c r="DT15" s="3">
         <f t="shared" si="66"/>
         <v>592709.53639826772</v>
       </c>
-      <c r="DU15" s="6">
+      <c r="DU15" s="3">
         <f t="shared" si="66"/>
         <v>598636.63176225044</v>
       </c>
-      <c r="DV15" s="6">
+      <c r="DV15" s="3">
         <f t="shared" si="66"/>
         <v>604622.99807987292</v>
       </c>
-      <c r="DW15" s="6">
+      <c r="DW15" s="3">
         <f t="shared" si="66"/>
         <v>610669.22806067171</v>
       </c>
-      <c r="DX15" s="6">
+      <c r="DX15" s="3">
         <f t="shared" si="66"/>
         <v>616775.92034127843</v>
       </c>
-      <c r="DY15" s="6">
+      <c r="DY15" s="3">
         <f t="shared" si="66"/>
         <v>622943.67954469123</v>
       </c>
-      <c r="DZ15" s="6">
+      <c r="DZ15" s="3">
         <f t="shared" si="66"/>
         <v>629173.11634013813</v>
       </c>
-      <c r="EA15" s="6">
+      <c r="EA15" s="3">
         <f t="shared" si="66"/>
         <v>635464.84750353952</v>
       </c>
-      <c r="EB15" s="6">
+      <c r="EB15" s="3">
         <f t="shared" si="66"/>
         <v>641819.49597857497</v>
       </c>
-      <c r="EC15" s="6">
+      <c r="EC15" s="3">
         <f t="shared" si="66"/>
         <v>648237.69093836076</v>
       </c>
-      <c r="ED15" s="6">
+      <c r="ED15" s="3">
         <f t="shared" si="66"/>
         <v>654720.06784774433</v>
       </c>
-      <c r="EE15" s="6">
+      <c r="EE15" s="3">
         <f t="shared" si="66"/>
         <v>661267.26852622174</v>
       </c>
-      <c r="EF15" s="6">
+      <c r="EF15" s="3">
         <f t="shared" si="66"/>
         <v>667879.94121148402</v>
       </c>
-      <c r="EG15" s="6">
+      <c r="EG15" s="3">
         <f t="shared" si="66"/>
         <v>674558.74062359892</v>
       </c>
-      <c r="EH15" s="6">
+      <c r="EH15" s="3">
         <f t="shared" si="66"/>
         <v>681304.3280298349</v>
       </c>
-      <c r="EI15" s="6">
+      <c r="EI15" s="3">
         <f t="shared" si="66"/>
         <v>688117.37131013325</v>
       </c>
-      <c r="EJ15" s="6">
+      <c r="EJ15" s="3">
         <f t="shared" si="66"/>
         <v>694998.54502323456</v>
       </c>
-      <c r="EK15" s="6">
+      <c r="EK15" s="3">
         <f t="shared" si="66"/>
         <v>701948.53047346696</v>
       </c>
-      <c r="EL15" s="6">
+      <c r="EL15" s="3">
         <f t="shared" si="66"/>
         <v>708968.01577820163</v>
       </c>
-      <c r="EM15" s="6">
+      <c r="EM15" s="3">
         <f t="shared" si="66"/>
         <v>716057.69593598368</v>
       </c>
-      <c r="EN15" s="6">
+      <c r="EN15" s="3">
         <f t="shared" si="66"/>
         <v>723218.27289534349</v>
       </c>
-      <c r="EO15" s="6">
+      <c r="EO15" s="3">
         <f t="shared" si="66"/>
         <v>730450.45562429691</v>
       </c>
-      <c r="EP15" s="6">
+      <c r="EP15" s="3">
         <f t="shared" si="66"/>
         <v>737754.96018053987</v>
       </c>
-      <c r="EQ15" s="6">
+      <c r="EQ15" s="3">
         <f t="shared" si="66"/>
         <v>745132.50978234527</v>
       </c>
-      <c r="ER15" s="6">
+      <c r="ER15" s="3">
         <f t="shared" si="66"/>
         <v>752583.83488016878</v>
       </c>
-      <c r="ES15" s="6">
+      <c r="ES15" s="3">
         <f t="shared" si="66"/>
         <v>760109.6732289705</v>
       </c>
-      <c r="ET15" s="6">
+      <c r="ET15" s="3">
         <f t="shared" si="66"/>
         <v>767710.76996126026</v>
       </c>
-      <c r="EU15" s="6">
+      <c r="EU15" s="3">
         <f t="shared" si="66"/>
         <v>775387.87766087288</v>
       </c>
-      <c r="EV15" s="6">
+      <c r="EV15" s="3">
         <f t="shared" ref="EV15:FK15" si="67">EU15*(1+$Z$20)</f>
         <v>783141.75643748161</v>
       </c>
-      <c r="EW15" s="6">
+      <c r="EW15" s="3">
         <f t="shared" si="67"/>
         <v>790973.17400185647</v>
       </c>
-      <c r="EX15" s="6">
+      <c r="EX15" s="3">
         <f t="shared" si="67"/>
         <v>798882.90574187506</v>
       </c>
-      <c r="EY15" s="6">
+      <c r="EY15" s="3">
         <f t="shared" si="67"/>
         <v>806871.7347992938</v>
       </c>
-      <c r="EZ15" s="6">
+      <c r="EZ15" s="3">
         <f t="shared" si="67"/>
         <v>814940.45214728673</v>
       </c>
-      <c r="FA15" s="6">
+      <c r="FA15" s="3">
         <f t="shared" si="67"/>
         <v>823089.8566687596</v>
       </c>
-      <c r="FB15" s="6">
+      <c r="FB15" s="3">
         <f t="shared" si="67"/>
         <v>831320.7552354472</v>
       </c>
-      <c r="FC15" s="6">
+      <c r="FC15" s="3">
         <f t="shared" si="67"/>
         <v>839633.96278780163</v>
       </c>
-      <c r="FD15" s="6">
+      <c r="FD15" s="3">
         <f t="shared" si="67"/>
         <v>848030.30241567967</v>
       </c>
-      <c r="FE15" s="6">
+      <c r="FE15" s="3">
         <f t="shared" si="67"/>
         <v>856510.60543983651</v>
       </c>
-      <c r="FF15" s="6">
+      <c r="FF15" s="3">
         <f t="shared" si="67"/>
         <v>865075.71149423486</v>
       </c>
-      <c r="FG15" s="6">
+      <c r="FG15" s="3">
         <f t="shared" si="67"/>
         <v>873726.46860917716</v>
       </c>
-      <c r="FH15" s="6">
+      <c r="FH15" s="3">
         <f t="shared" si="67"/>
         <v>882463.73329526896</v>
       </c>
-      <c r="FI15" s="6">
+      <c r="FI15" s="3">
         <f t="shared" si="67"/>
         <v>891288.37062822166</v>
       </c>
-      <c r="FJ15" s="6">
+      <c r="FJ15" s="3">
         <f t="shared" si="67"/>
         <v>900201.2543345039</v>
       </c>
-      <c r="FK15" s="6">
+      <c r="FK15" s="3">
         <f t="shared" si="67"/>
         <v>909203.266877849</v>
       </c>
     </row>
-    <row r="16" spans="1:167" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:167" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="4">
         <f>K15/K17</f>
         <v>6.1132073160273928</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="4">
         <f t="shared" ref="L16:N16" si="68">L15/L17</f>
         <v>6.1340711462450592</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <f t="shared" si="68"/>
         <v>6.08355345564995</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="4">
         <f t="shared" si="68"/>
         <v>6.7468287007683028</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="4">
         <f t="shared" ref="O16" si="69">O15/O17</f>
         <v>7.5079565100745276</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="4">
         <f t="shared" ref="P16" si="70">P15/P17</f>
         <v>8.3489547283416119</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="4">
         <f t="shared" ref="Q16" si="71">Q15/Q17</f>
         <v>9.2784563105208875</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="4">
         <f t="shared" ref="R16:W16" si="72">R15/R17</f>
         <v>10.306048707657506</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="4">
         <f t="shared" si="72"/>
         <v>11.02969588946323</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="4">
         <f t="shared" si="72"/>
         <v>11.794060951003472</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="4">
         <f t="shared" si="72"/>
         <v>12.601256188608854</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V16" s="4">
         <f t="shared" si="72"/>
         <v>13.453499352272113</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="4">
         <f t="shared" si="72"/>
         <v>14.353118802765787</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <v>16325.8</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="1">
         <v>15812.5</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="1">
         <v>15408.1</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="1">
         <v>15116</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="1">
         <v>15116</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="1">
         <v>15116</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="1">
         <v>15116</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="1">
         <v>15116</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="1">
         <v>15116</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="1">
         <v>15116</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="1">
         <v>15116</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="1">
         <v>15116</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="1">
         <v>15116</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -2353,78 +2366,78 @@
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="6">
         <f t="shared" ref="L19:R19" si="73">L4/K4-1</f>
         <v>-2.800460530319937E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="6">
         <f t="shared" si="73"/>
         <v>2.021994077514111E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="6">
         <f t="shared" si="73"/>
         <v>3.2134105642717348E-2</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="6">
         <f t="shared" si="73"/>
         <v>3.3589489073057699E-2</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="6">
         <f t="shared" si="73"/>
         <v>3.5105168207190784E-2</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="6">
         <f t="shared" si="73"/>
         <v>3.6679110370727352E-2</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="6">
         <f t="shared" si="73"/>
         <v>3.8308684060688103E-2</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="6">
         <f t="shared" ref="S19" si="74">S4/R4-1</f>
         <v>1.3332294458477056E-2</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="6">
         <f t="shared" ref="T19" si="75">T4/S4-1</f>
         <v>1.3354220887101143E-2</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="6">
         <f t="shared" ref="U19" si="76">U4/T4-1</f>
         <v>1.3376218536740536E-2</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="6">
         <f t="shared" ref="V19" si="77">V4/U4-1</f>
         <v>1.3398286682164029E-2</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="6">
         <f t="shared" ref="W19" si="78">W4/V4-1</f>
         <v>1.342042458662096E-2</v>
       </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Y19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="7">
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y20" s="3" t="s">
+      <c r="Y20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="7">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K21" s="5">
@@ -2469,88 +2482,88 @@
       <c r="W21" s="5">
         <v>0.21</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z21" s="8">
+      <c r="Z21" s="7">
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y22" s="3" t="s">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="3">
         <f>NPV(Z21,N36:FK36)+Sheet1!F5-Sheet1!F6</f>
         <v>2706615.2125333613</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="6">
         <f>K7/K4</f>
         <v>0.43309630561360085</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="6">
         <f t="shared" ref="L23:R23" si="79">L7/L4</f>
         <v>0.44131129577207562</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="6">
         <f t="shared" si="79"/>
         <v>0.46206349815233932</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="6">
         <f t="shared" si="79"/>
         <v>0.47130639920321216</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="6">
         <f t="shared" si="79"/>
         <v>0.48100870854714056</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="6">
         <f t="shared" si="79"/>
         <v>0.49117651548564073</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="6">
         <f t="shared" si="79"/>
         <v>0.50181311295600295</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="6">
         <f t="shared" si="79"/>
         <v>0.51291875639921802</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="6">
         <f t="shared" ref="S23:W23" si="80">S7/S4</f>
         <v>0.51765668457741343</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="6">
         <f t="shared" si="80"/>
         <v>0.5224557329836047</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="6">
         <f t="shared" si="80"/>
         <v>0.52731674316776822</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="6">
         <f t="shared" si="80"/>
         <v>0.53224056661570296</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="6">
         <f t="shared" si="80"/>
         <v>0.53722806482835384</v>
       </c>
-      <c r="Y23" s="3" t="s">
+      <c r="Y23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="4">
         <f>Z22/Sheet1!F3</f>
         <v>179.05840869751924</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K24" s="5">
@@ -2605,16 +2618,16 @@
         <f t="shared" si="82"/>
         <v>0.39026679537677017</v>
       </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z24" s="5">
         <f>Z23/Sheet1!F2-1</f>
-        <v>-9.107406752528302E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+        <v>-0.10470795651240383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K25" s="5">
@@ -2671,7 +2684,7 @@
       </c>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2686,8 +2699,8 @@
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K27" s="5"/>
@@ -2740,8 +2753,8 @@
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K28" s="5"/>
@@ -2794,8 +2807,8 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K29" s="5">
@@ -2851,8 +2864,8 @@
         <v>0.3908203933177371</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K30" s="5">
@@ -2908,8 +2921,8 @@
         <v>0.81609876374368118</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K31" s="5">
@@ -2965,8 +2978,8 @@
         <v>0.34426315019026227</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K32" s="5">
@@ -3022,735 +3035,735 @@
         <v>0.65573684980973779</v>
       </c>
     </row>
-    <row r="33" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:163" x14ac:dyDescent="0.2">
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <v>122151</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="1">
         <v>110543</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="1">
         <v>118254</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="1">
         <f>N15*N37</f>
         <v>124421.77642179266</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="1">
         <f t="shared" ref="O34:R34" si="99">O15*O37</f>
         <v>138458.13013966961</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="1">
         <f t="shared" si="99"/>
         <v>153967.41560180639</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="1">
         <f t="shared" si="99"/>
         <v>171108.83761959715</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="1">
         <f t="shared" si="99"/>
         <v>190059.20336324006</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="1">
         <f t="shared" ref="S34:W34" si="100">S15*S37</f>
         <v>203404.35733945394</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="1">
         <f t="shared" si="100"/>
         <v>217500.41090914953</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34" s="1">
         <f t="shared" si="100"/>
         <v>232386.31802735393</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34" s="1">
         <f t="shared" si="100"/>
         <v>248102.97737491323</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="1">
         <f t="shared" si="100"/>
         <v>264693.32746358128</v>
       </c>
     </row>
-    <row r="35" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <v>10708</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="1">
         <v>10959</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="1">
         <v>9447</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="1">
         <f>N34*N38</f>
         <v>11197.959877961339</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="1">
         <f>O34*O38</f>
         <v>12461.231712570265</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="1">
         <f>P34*P38</f>
         <v>13857.067404162575</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="1">
         <f>Q34*Q38</f>
         <v>15399.795385763742</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="1">
         <f>R34*R38</f>
         <v>17105.328302691603</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="1">
         <f t="shared" ref="S35:W35" si="101">S34*S38</f>
         <v>18306.392160550855</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="1">
         <f t="shared" si="101"/>
         <v>19575.036981823458</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="1">
         <f t="shared" si="101"/>
         <v>20914.768622461852</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="1">
         <f t="shared" si="101"/>
         <v>22329.26796374219</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="1">
         <f t="shared" si="101"/>
         <v>23822.399471722314</v>
       </c>
     </row>
-    <row r="36" spans="1:163" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:163" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="3">
         <f>K34-K35</f>
         <v>111443</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="3">
         <f t="shared" ref="L36:M36" si="102">L34-L35</f>
         <v>99584</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="3">
         <f t="shared" si="102"/>
         <v>108807</v>
       </c>
-      <c r="N36" s="6">
+      <c r="N36" s="3">
         <f t="shared" ref="N36" si="103">N34-N35</f>
         <v>113223.81654383132</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="3">
         <f t="shared" ref="O36" si="104">O34-O35</f>
         <v>125996.89842709934</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="3">
         <f t="shared" ref="P36" si="105">P34-P35</f>
         <v>140110.34819764382</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q36" s="3">
         <f t="shared" ref="Q36" si="106">Q34-Q35</f>
         <v>155709.0422338334</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R36" s="3">
         <f t="shared" ref="R36:W36" si="107">R34-R35</f>
         <v>172953.87506054845</v>
       </c>
-      <c r="S36" s="6">
+      <c r="S36" s="3">
         <f t="shared" si="107"/>
         <v>185097.96517890308</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="3">
         <f t="shared" si="107"/>
         <v>197925.37392732609</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="3">
         <f t="shared" si="107"/>
         <v>211471.54940489208</v>
       </c>
-      <c r="V36" s="6">
+      <c r="V36" s="3">
         <f t="shared" si="107"/>
         <v>225773.70941117103</v>
       </c>
-      <c r="W36" s="6">
+      <c r="W36" s="3">
         <f t="shared" si="107"/>
         <v>240870.92799185897</v>
       </c>
-      <c r="X36" s="6">
+      <c r="X36" s="3">
         <f t="shared" ref="X36:BC36" si="108">W36*(1+$Z$20)</f>
         <v>243279.63727177755</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="Y36" s="3">
         <f t="shared" si="108"/>
         <v>245712.43364449532</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="Z36" s="3">
         <f t="shared" si="108"/>
         <v>248169.55798094027</v>
       </c>
-      <c r="AA36" s="6">
+      <c r="AA36" s="3">
         <f t="shared" si="108"/>
         <v>250651.25356074967</v>
       </c>
-      <c r="AB36" s="6">
+      <c r="AB36" s="3">
         <f t="shared" si="108"/>
         <v>253157.76609635717</v>
       </c>
-      <c r="AC36" s="6">
+      <c r="AC36" s="3">
         <f t="shared" si="108"/>
         <v>255689.34375732075</v>
       </c>
-      <c r="AD36" s="6">
+      <c r="AD36" s="3">
         <f t="shared" si="108"/>
         <v>258246.23719489397</v>
       </c>
-      <c r="AE36" s="6">
+      <c r="AE36" s="3">
         <f t="shared" si="108"/>
         <v>260828.6995668429</v>
       </c>
-      <c r="AF36" s="6">
+      <c r="AF36" s="3">
         <f t="shared" si="108"/>
         <v>263436.98656251136</v>
       </c>
-      <c r="AG36" s="6">
+      <c r="AG36" s="3">
         <f t="shared" si="108"/>
         <v>266071.35642813647</v>
       </c>
-      <c r="AH36" s="6">
+      <c r="AH36" s="3">
         <f t="shared" si="108"/>
         <v>268732.06999241782</v>
       </c>
-      <c r="AI36" s="6">
+      <c r="AI36" s="3">
         <f t="shared" si="108"/>
         <v>271419.39069234201</v>
       </c>
-      <c r="AJ36" s="6">
+      <c r="AJ36" s="3">
         <f t="shared" si="108"/>
         <v>274133.58459926542</v>
       </c>
-      <c r="AK36" s="6">
+      <c r="AK36" s="3">
         <f t="shared" si="108"/>
         <v>276874.92044525809</v>
       </c>
-      <c r="AL36" s="6">
+      <c r="AL36" s="3">
         <f t="shared" si="108"/>
         <v>279643.66964971065</v>
       </c>
-      <c r="AM36" s="6">
+      <c r="AM36" s="3">
         <f t="shared" si="108"/>
         <v>282440.10634620773</v>
       </c>
-      <c r="AN36" s="6">
+      <c r="AN36" s="3">
         <f t="shared" si="108"/>
         <v>285264.50740966981</v>
       </c>
-      <c r="AO36" s="6">
+      <c r="AO36" s="3">
         <f t="shared" si="108"/>
         <v>288117.15248376649</v>
       </c>
-      <c r="AP36" s="6">
+      <c r="AP36" s="3">
         <f t="shared" si="108"/>
         <v>290998.32400860416</v>
       </c>
-      <c r="AQ36" s="6">
+      <c r="AQ36" s="3">
         <f t="shared" si="108"/>
         <v>293908.30724869022</v>
       </c>
-      <c r="AR36" s="6">
+      <c r="AR36" s="3">
         <f t="shared" si="108"/>
         <v>296847.39032117714</v>
       </c>
-      <c r="AS36" s="6">
+      <c r="AS36" s="3">
         <f t="shared" si="108"/>
         <v>299815.8642243889</v>
       </c>
-      <c r="AT36" s="6">
+      <c r="AT36" s="3">
         <f t="shared" si="108"/>
         <v>302814.02286663279</v>
       </c>
-      <c r="AU36" s="6">
+      <c r="AU36" s="3">
         <f t="shared" si="108"/>
         <v>305842.1630952991</v>
       </c>
-      <c r="AV36" s="6">
+      <c r="AV36" s="3">
         <f t="shared" si="108"/>
         <v>308900.58472625207</v>
       </c>
-      <c r="AW36" s="6">
+      <c r="AW36" s="3">
         <f t="shared" si="108"/>
         <v>311989.59057351458</v>
       </c>
-      <c r="AX36" s="6">
+      <c r="AX36" s="3">
         <f t="shared" si="108"/>
         <v>315109.48647924972</v>
       </c>
-      <c r="AY36" s="6">
+      <c r="AY36" s="3">
         <f t="shared" si="108"/>
         <v>318260.58134404221</v>
       </c>
-      <c r="AZ36" s="6">
+      <c r="AZ36" s="3">
         <f t="shared" si="108"/>
         <v>321443.18715748261</v>
       </c>
-      <c r="BA36" s="6">
+      <c r="BA36" s="3">
         <f t="shared" si="108"/>
         <v>324657.61902905745</v>
       </c>
-      <c r="BB36" s="6">
+      <c r="BB36" s="3">
         <f t="shared" si="108"/>
         <v>327904.19521934801</v>
       </c>
-      <c r="BC36" s="6">
+      <c r="BC36" s="3">
         <f t="shared" si="108"/>
         <v>331183.23717154149</v>
       </c>
-      <c r="BD36" s="6">
+      <c r="BD36" s="3">
         <f t="shared" ref="BD36:CI36" si="109">BC36*(1+$Z$20)</f>
         <v>334495.06954325689</v>
       </c>
-      <c r="BE36" s="6">
+      <c r="BE36" s="3">
         <f t="shared" si="109"/>
         <v>337840.02023868944</v>
       </c>
-      <c r="BF36" s="6">
+      <c r="BF36" s="3">
         <f t="shared" si="109"/>
         <v>341218.42044107633</v>
       </c>
-      <c r="BG36" s="6">
+      <c r="BG36" s="3">
         <f t="shared" si="109"/>
         <v>344630.6046454871</v>
       </c>
-      <c r="BH36" s="6">
+      <c r="BH36" s="3">
         <f t="shared" si="109"/>
         <v>348076.91069194197</v>
       </c>
-      <c r="BI36" s="6">
+      <c r="BI36" s="3">
         <f t="shared" si="109"/>
         <v>351557.67979886138</v>
       </c>
-      <c r="BJ36" s="6">
+      <c r="BJ36" s="3">
         <f t="shared" si="109"/>
         <v>355073.25659685</v>
       </c>
-      <c r="BK36" s="6">
+      <c r="BK36" s="3">
         <f t="shared" si="109"/>
         <v>358623.98916281853</v>
       </c>
-      <c r="BL36" s="6">
+      <c r="BL36" s="3">
         <f t="shared" si="109"/>
         <v>362210.22905444674</v>
       </c>
-      <c r="BM36" s="6">
+      <c r="BM36" s="3">
         <f t="shared" si="109"/>
         <v>365832.33134499122</v>
       </c>
-      <c r="BN36" s="6">
+      <c r="BN36" s="3">
         <f t="shared" si="109"/>
         <v>369490.65465844114</v>
       </c>
-      <c r="BO36" s="6">
+      <c r="BO36" s="3">
         <f t="shared" si="109"/>
         <v>373185.56120502553</v>
       </c>
-      <c r="BP36" s="6">
+      <c r="BP36" s="3">
         <f t="shared" si="109"/>
         <v>376917.41681707581</v>
       </c>
-      <c r="BQ36" s="6">
+      <c r="BQ36" s="3">
         <f t="shared" si="109"/>
         <v>380686.59098524658</v>
       </c>
-      <c r="BR36" s="6">
+      <c r="BR36" s="3">
         <f t="shared" si="109"/>
         <v>384493.45689509908</v>
       </c>
-      <c r="BS36" s="6">
+      <c r="BS36" s="3">
         <f t="shared" si="109"/>
         <v>388338.3914640501</v>
       </c>
-      <c r="BT36" s="6">
+      <c r="BT36" s="3">
         <f t="shared" si="109"/>
         <v>392221.77537869063</v>
       </c>
-      <c r="BU36" s="6">
+      <c r="BU36" s="3">
         <f t="shared" si="109"/>
         <v>396143.99313247751</v>
       </c>
-      <c r="BV36" s="6">
+      <c r="BV36" s="3">
         <f t="shared" si="109"/>
         <v>400105.43306380231</v>
       </c>
-      <c r="BW36" s="6">
+      <c r="BW36" s="3">
         <f t="shared" si="109"/>
         <v>404106.48739444034</v>
       </c>
-      <c r="BX36" s="6">
+      <c r="BX36" s="3">
         <f t="shared" si="109"/>
         <v>408147.55226838472</v>
       </c>
-      <c r="BY36" s="6">
+      <c r="BY36" s="3">
         <f t="shared" si="109"/>
         <v>412229.0277910686</v>
       </c>
-      <c r="BZ36" s="6">
+      <c r="BZ36" s="3">
         <f t="shared" si="109"/>
         <v>416351.31806897931</v>
       </c>
-      <c r="CA36" s="6">
+      <c r="CA36" s="3">
         <f t="shared" si="109"/>
         <v>420514.83124966908</v>
       </c>
-      <c r="CB36" s="6">
+      <c r="CB36" s="3">
         <f t="shared" si="109"/>
         <v>424719.9795621658</v>
       </c>
-      <c r="CC36" s="6">
+      <c r="CC36" s="3">
         <f t="shared" si="109"/>
         <v>428967.17935778748</v>
       </c>
-      <c r="CD36" s="6">
+      <c r="CD36" s="3">
         <f t="shared" si="109"/>
         <v>433256.85115136538</v>
       </c>
-      <c r="CE36" s="6">
+      <c r="CE36" s="3">
         <f t="shared" si="109"/>
         <v>437589.41966287902</v>
       </c>
-      <c r="CF36" s="6">
+      <c r="CF36" s="3">
         <f t="shared" si="109"/>
         <v>441965.31385950779</v>
       </c>
-      <c r="CG36" s="6">
+      <c r="CG36" s="3">
         <f t="shared" si="109"/>
         <v>446384.9669981029</v>
       </c>
-      <c r="CH36" s="6">
+      <c r="CH36" s="3">
         <f t="shared" si="109"/>
         <v>450848.81666808395</v>
       </c>
-      <c r="CI36" s="6">
+      <c r="CI36" s="3">
         <f t="shared" si="109"/>
         <v>455357.3048347648</v>
       </c>
-      <c r="CJ36" s="6">
+      <c r="CJ36" s="3">
         <f t="shared" ref="CJ36:DO36" si="110">CI36*(1+$Z$20)</f>
         <v>459910.87788311247</v>
       </c>
-      <c r="CK36" s="6">
+      <c r="CK36" s="3">
         <f t="shared" si="110"/>
         <v>464509.98666194361</v>
       </c>
-      <c r="CL36" s="6">
+      <c r="CL36" s="3">
         <f t="shared" si="110"/>
         <v>469155.08652856306</v>
       </c>
-      <c r="CM36" s="6">
+      <c r="CM36" s="3">
         <f t="shared" si="110"/>
         <v>473846.63739384868</v>
       </c>
-      <c r="CN36" s="6">
+      <c r="CN36" s="3">
         <f t="shared" si="110"/>
         <v>478585.10376778716</v>
       </c>
-      <c r="CO36" s="6">
+      <c r="CO36" s="3">
         <f t="shared" si="110"/>
         <v>483370.95480546507</v>
       </c>
-      <c r="CP36" s="6">
+      <c r="CP36" s="3">
         <f t="shared" si="110"/>
         <v>488204.66435351974</v>
       </c>
-      <c r="CQ36" s="6">
+      <c r="CQ36" s="3">
         <f t="shared" si="110"/>
         <v>493086.71099705494</v>
       </c>
-      <c r="CR36" s="6">
+      <c r="CR36" s="3">
         <f t="shared" si="110"/>
         <v>498017.57810702547</v>
       </c>
-      <c r="CS36" s="6">
+      <c r="CS36" s="3">
         <f t="shared" si="110"/>
         <v>502997.75388809573</v>
       </c>
-      <c r="CT36" s="6">
+      <c r="CT36" s="3">
         <f t="shared" si="110"/>
         <v>508027.73142697668</v>
       </c>
-      <c r="CU36" s="6">
+      <c r="CU36" s="3">
         <f t="shared" si="110"/>
         <v>513108.00874124648</v>
       </c>
-      <c r="CV36" s="6">
+      <c r="CV36" s="3">
         <f t="shared" si="110"/>
         <v>518239.08882865898</v>
       </c>
-      <c r="CW36" s="6">
+      <c r="CW36" s="3">
         <f t="shared" si="110"/>
         <v>523421.47971694556</v>
       </c>
-      <c r="CX36" s="6">
+      <c r="CX36" s="3">
         <f t="shared" si="110"/>
         <v>528655.69451411499</v>
       </c>
-      <c r="CY36" s="6">
+      <c r="CY36" s="3">
         <f t="shared" si="110"/>
         <v>533942.25145925616</v>
       </c>
-      <c r="CZ36" s="6">
+      <c r="CZ36" s="3">
         <f t="shared" si="110"/>
         <v>539281.67397384869</v>
       </c>
-      <c r="DA36" s="6">
+      <c r="DA36" s="3">
         <f t="shared" si="110"/>
         <v>544674.49071358715</v>
       </c>
-      <c r="DB36" s="6">
+      <c r="DB36" s="3">
         <f t="shared" si="110"/>
         <v>550121.23562072299</v>
       </c>
-      <c r="DC36" s="6">
+      <c r="DC36" s="3">
         <f t="shared" si="110"/>
         <v>555622.44797693018</v>
       </c>
-      <c r="DD36" s="6">
+      <c r="DD36" s="3">
         <f t="shared" si="110"/>
         <v>561178.67245669954</v>
       </c>
-      <c r="DE36" s="6">
+      <c r="DE36" s="3">
         <f t="shared" si="110"/>
         <v>566790.45918126649</v>
       </c>
-      <c r="DF36" s="6">
+      <c r="DF36" s="3">
         <f t="shared" si="110"/>
         <v>572458.36377307912</v>
       </c>
-      <c r="DG36" s="6">
+      <c r="DG36" s="3">
         <f t="shared" si="110"/>
         <v>578182.94741080992</v>
       </c>
-      <c r="DH36" s="6">
+      <c r="DH36" s="3">
         <f t="shared" si="110"/>
         <v>583964.77688491798</v>
       </c>
-      <c r="DI36" s="6">
+      <c r="DI36" s="3">
         <f t="shared" si="110"/>
         <v>589804.42465376714</v>
       </c>
-      <c r="DJ36" s="6">
+      <c r="DJ36" s="3">
         <f t="shared" si="110"/>
         <v>595702.46890030487</v>
       </c>
-      <c r="DK36" s="6">
+      <c r="DK36" s="3">
         <f t="shared" si="110"/>
         <v>601659.49358930788</v>
       </c>
-      <c r="DL36" s="6">
+      <c r="DL36" s="3">
         <f t="shared" si="110"/>
         <v>607676.08852520096</v>
       </c>
-      <c r="DM36" s="6">
+      <c r="DM36" s="3">
         <f t="shared" si="110"/>
         <v>613752.849410453</v>
       </c>
-      <c r="DN36" s="6">
+      <c r="DN36" s="3">
         <f t="shared" si="110"/>
         <v>619890.37790455751</v>
       </c>
-      <c r="DO36" s="6">
+      <c r="DO36" s="3">
         <f t="shared" si="110"/>
         <v>626089.28168360307</v>
       </c>
-      <c r="DP36" s="6">
+      <c r="DP36" s="3">
         <f t="shared" ref="DP36:EU36" si="111">DO36*(1+$Z$20)</f>
         <v>632350.17450043908</v>
       </c>
-      <c r="DQ36" s="6">
+      <c r="DQ36" s="3">
         <f t="shared" si="111"/>
         <v>638673.67624544352</v>
       </c>
-      <c r="DR36" s="6">
+      <c r="DR36" s="3">
         <f t="shared" si="111"/>
         <v>645060.41300789791</v>
       </c>
-      <c r="DS36" s="6">
+      <c r="DS36" s="3">
         <f t="shared" si="111"/>
         <v>651511.01713797695</v>
       </c>
-      <c r="DT36" s="6">
+      <c r="DT36" s="3">
         <f t="shared" si="111"/>
         <v>658026.1273093567</v>
       </c>
-      <c r="DU36" s="6">
+      <c r="DU36" s="3">
         <f t="shared" si="111"/>
         <v>664606.38858245022</v>
       </c>
-      <c r="DV36" s="6">
+      <c r="DV36" s="3">
         <f t="shared" si="111"/>
         <v>671252.45246827474</v>
       </c>
-      <c r="DW36" s="6">
+      <c r="DW36" s="3">
         <f t="shared" si="111"/>
         <v>677964.97699295753</v>
       </c>
-      <c r="DX36" s="6">
+      <c r="DX36" s="3">
         <f t="shared" si="111"/>
         <v>684744.62676288711</v>
       </c>
-      <c r="DY36" s="6">
+      <c r="DY36" s="3">
         <f t="shared" si="111"/>
         <v>691592.07303051604</v>
       </c>
-      <c r="DZ36" s="6">
+      <c r="DZ36" s="3">
         <f t="shared" si="111"/>
         <v>698507.99376082118</v>
       </c>
-      <c r="EA36" s="6">
+      <c r="EA36" s="3">
         <f t="shared" si="111"/>
         <v>705493.07369842939</v>
       </c>
-      <c r="EB36" s="6">
+      <c r="EB36" s="3">
         <f t="shared" si="111"/>
         <v>712548.00443541363</v>
       </c>
-      <c r="EC36" s="6">
+      <c r="EC36" s="3">
         <f t="shared" si="111"/>
         <v>719673.48447976774</v>
       </c>
-      <c r="ED36" s="6">
+      <c r="ED36" s="3">
         <f t="shared" si="111"/>
         <v>726870.21932456538</v>
       </c>
-      <c r="EE36" s="6">
+      <c r="EE36" s="3">
         <f t="shared" si="111"/>
         <v>734138.92151781102</v>
       </c>
-      <c r="EF36" s="6">
+      <c r="EF36" s="3">
         <f t="shared" si="111"/>
         <v>741480.31073298911</v>
       </c>
-      <c r="EG36" s="6">
+      <c r="EG36" s="3">
         <f t="shared" si="111"/>
         <v>748895.11384031898</v>
       </c>
-      <c r="EH36" s="6">
+      <c r="EH36" s="3">
         <f t="shared" si="111"/>
         <v>756384.06497872213</v>
       </c>
-      <c r="EI36" s="6">
+      <c r="EI36" s="3">
         <f t="shared" si="111"/>
         <v>763947.90562850935</v>
       </c>
-      <c r="EJ36" s="6">
+      <c r="EJ36" s="3">
         <f t="shared" si="111"/>
         <v>771587.38468479447</v>
       </c>
-      <c r="EK36" s="6">
+      <c r="EK36" s="3">
         <f t="shared" si="111"/>
         <v>779303.25853164238</v>
       </c>
-      <c r="EL36" s="6">
+      <c r="EL36" s="3">
         <f t="shared" si="111"/>
         <v>787096.29111695883</v>
       </c>
-      <c r="EM36" s="6">
+      <c r="EM36" s="3">
         <f t="shared" si="111"/>
         <v>794967.25402812846</v>
       </c>
-      <c r="EN36" s="6">
+      <c r="EN36" s="3">
         <f t="shared" si="111"/>
         <v>802916.92656840978</v>
       </c>
-      <c r="EO36" s="6">
+      <c r="EO36" s="3">
         <f t="shared" si="111"/>
         <v>810946.09583409387</v>
       </c>
-      <c r="EP36" s="6">
+      <c r="EP36" s="3">
         <f t="shared" si="111"/>
         <v>819055.55679243477</v>
       </c>
-      <c r="EQ36" s="6">
+      <c r="EQ36" s="3">
         <f t="shared" si="111"/>
         <v>827246.11236035917</v>
       </c>
-      <c r="ER36" s="6">
+      <c r="ER36" s="3">
         <f t="shared" si="111"/>
         <v>835518.5734839628</v>
       </c>
-      <c r="ES36" s="6">
+      <c r="ES36" s="3">
         <f t="shared" si="111"/>
         <v>843873.75921880244</v>
       </c>
-      <c r="ET36" s="6">
+      <c r="ET36" s="3">
         <f t="shared" si="111"/>
         <v>852312.4968109905</v>
       </c>
-      <c r="EU36" s="6">
+      <c r="EU36" s="3">
         <f t="shared" si="111"/>
         <v>860835.62177910039</v>
       </c>
-      <c r="EV36" s="6">
+      <c r="EV36" s="3">
         <f t="shared" ref="EV36:FG36" si="112">EU36*(1+$Z$20)</f>
         <v>869443.97799689136</v>
       </c>
-      <c r="EW36" s="6">
+      <c r="EW36" s="3">
         <f t="shared" si="112"/>
         <v>878138.4177768603</v>
       </c>
-      <c r="EX36" s="6">
+      <c r="EX36" s="3">
         <f t="shared" si="112"/>
         <v>886919.8019546289</v>
       </c>
-      <c r="EY36" s="6">
+      <c r="EY36" s="3">
         <f t="shared" si="112"/>
         <v>895788.99997417524</v>
       </c>
-      <c r="EZ36" s="6">
+      <c r="EZ36" s="3">
         <f t="shared" si="112"/>
         <v>904746.88997391704</v>
       </c>
-      <c r="FA36" s="6">
+      <c r="FA36" s="3">
         <f t="shared" si="112"/>
         <v>913794.35887365625</v>
       </c>
-      <c r="FB36" s="6">
+      <c r="FB36" s="3">
         <f t="shared" si="112"/>
         <v>922932.30246239284</v>
       </c>
-      <c r="FC36" s="6">
+      <c r="FC36" s="3">
         <f t="shared" si="112"/>
         <v>932161.62548701675</v>
       </c>
-      <c r="FD36" s="6">
+      <c r="FD36" s="3">
         <f t="shared" si="112"/>
         <v>941483.24174188694</v>
       </c>
-      <c r="FE36" s="6">
+      <c r="FE36" s="3">
         <f t="shared" si="112"/>
         <v>950898.07415930578</v>
       </c>
-      <c r="FF36" s="6">
+      <c r="FF36" s="3">
         <f t="shared" si="112"/>
         <v>960407.05490089883</v>
       </c>
-      <c r="FG36" s="6">
+      <c r="FG36" s="3">
         <f t="shared" si="112"/>
         <v>970011.12544990785</v>
       </c>
     </row>
-    <row r="37" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:163" x14ac:dyDescent="0.2">
       <c r="K37" s="5">
         <f>K34/K15</f>
         <v>1.2239211246154926</v>
@@ -3794,7 +3807,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="38" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:163" x14ac:dyDescent="0.2">
       <c r="K38" s="5">
         <f>K35/K34</f>
         <v>8.7661992124501639E-2</v>
@@ -3838,7 +3851,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="39" spans="1:163" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:163" x14ac:dyDescent="0.2">
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -3853,121 +3866,121 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="1">
         <f>M45-M49</f>
         <v>-30181</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="1">
         <f>M40+N15</f>
         <v>71804.06264081366</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="1">
         <f t="shared" ref="O40:R40" si="113">N40+O15</f>
         <v>185294.33324710024</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="1">
         <f t="shared" si="113"/>
         <v>311497.132920712</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="1">
         <f t="shared" si="113"/>
         <v>451750.27851054573</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="1">
         <f t="shared" si="113"/>
         <v>607536.5107754966</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="1">
         <f t="shared" ref="S40" si="114">R40+S15</f>
         <v>774261.39384062286</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40" s="1">
         <f t="shared" ref="T40" si="115">S40+T15</f>
         <v>952540.41917599132</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U40" s="1">
         <f t="shared" ref="U40" si="116">T40+U15</f>
         <v>1143021.0077230027</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40" s="1">
         <f t="shared" ref="V40" si="117">U40+V15</f>
         <v>1346384.1039319481</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="1">
         <f t="shared" ref="W40" si="118">V40+W15</f>
         <v>1563345.8477545558</v>
       </c>
     </row>
-    <row r="42" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="1">
         <f>K15</f>
         <v>99803</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="1">
         <f>L15</f>
         <v>96995</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="1">
         <f>M15</f>
         <v>93736</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="1">
         <f t="shared" ref="N42:R42" si="119">N15</f>
         <v>101985.06264081366</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="1">
         <f t="shared" si="119"/>
         <v>113490.27060628656</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="1">
         <f t="shared" si="119"/>
         <v>126202.79967361179</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="1">
         <f t="shared" si="119"/>
         <v>140253.14558983373</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="1">
         <f t="shared" si="119"/>
         <v>155786.23226495087</v>
       </c>
     </row>
-    <row r="43" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="1">
         <f>30299+23476</f>
         <v>53775</v>
       </c>
     </row>
-    <row r="46" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:163" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="1">
         <v>83956</v>
       </c>
     </row>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3949EF28-CF85-4DC9-A948-DF26E254FACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F373D-D26A-4DB3-9506-D7F807B061DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
+    <workbookView xWindow="2580" yWindow="1890" windowWidth="22620" windowHeight="13140" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
-  <si>
-    <t>AAPL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Price</t>
   </si>
@@ -190,9 +187,6 @@
   </si>
   <si>
     <t>PE</t>
-  </si>
-  <si>
-    <t>notes:</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -700,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B79C5-ED94-49D4-91A8-403BB18825CC}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -714,80 +708,75 @@
     <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O2" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="P2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E3" s="9" t="s">
+      <c r="P3" s="1">
+        <v>15115.823</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
-        <v>15115.823</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E4" s="9" t="s">
+      <c r="P4" s="1">
+        <f>P3*P2</f>
+        <v>3023164.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
-        <f>F3*F2</f>
-        <v>3023164.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="P5" s="1">
         <f>30299+23476</f>
         <v>53775</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E6" s="9" t="s">
+      <c r="Q5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>83956</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
-        <v>83956</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <f>F4+F6-F5</f>
+      <c r="P7" s="1">
+        <f>P4+P6-P5</f>
         <v>3053345.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="9">
-        <f>F2/Sheet2!M16</f>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="9">
+        <f>P2/Model!M16</f>
         <v>32.875522744729885</v>
       </c>
     </row>
@@ -800,11 +789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1270A3AD-F548-451C-B2BF-0C6E206F237A}">
   <dimension ref="A1:FK49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z23" sqref="Z23"/>
+      <selection pane="bottomRight" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -817,29 +806,29 @@
     <col min="21" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" style="1" customWidth="1"/>
     <col min="27" max="167" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="168" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:167" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I1" s="2">
         <v>2020</v>
@@ -903,7 +892,7 @@
     </row>
     <row r="2" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1">
         <v>316199</v>
@@ -957,7 +946,7 @@
     </row>
     <row r="3" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1">
         <v>78129</v>
@@ -1011,7 +1000,7 @@
     </row>
     <row r="4" spans="1:167" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="3">
         <f>SUM(K2:K3)</f>
@@ -1068,7 +1057,7 @@
     </row>
     <row r="5" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1">
         <v>201471</v>
@@ -1122,7 +1111,7 @@
     </row>
     <row r="6" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1">
         <v>22075</v>
@@ -1176,7 +1165,7 @@
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1">
         <f>K4-SUM(K5:K6)</f>
@@ -1233,7 +1222,7 @@
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" s="1">
         <v>26251</v>
@@ -1287,7 +1276,7 @@
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1">
         <v>25094</v>
@@ -1341,7 +1330,7 @@
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1">
         <f>SUM(K8:K9)</f>
@@ -1398,7 +1387,7 @@
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="1">
         <f>K7-K10</f>
@@ -1455,7 +1444,7 @@
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1">
         <v>-334</v>
@@ -1509,7 +1498,7 @@
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" s="1">
         <f>K11+K12</f>
@@ -1566,7 +1555,7 @@
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" s="1">
         <v>19300</v>
@@ -1620,7 +1609,7 @@
     </row>
     <row r="15" spans="1:167" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="3">
         <f>K13-K14</f>
@@ -2253,7 +2242,7 @@
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="4">
         <f>K15/K17</f>
@@ -2310,7 +2299,7 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
         <v>16325.8</v>
@@ -2354,7 +2343,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="M18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
@@ -2368,7 +2357,7 @@
     </row>
     <row r="19" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" ref="L19:R19" si="73">L4/K4-1</f>
@@ -2419,7 +2408,7 @@
         <v>1.342042458662096E-2</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z19" s="7">
         <v>0.06</v>
@@ -2427,10 +2416,10 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z20" s="7">
         <v>0.01</v>
@@ -2438,7 +2427,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21" s="5">
         <f>K7/K4</f>
@@ -2483,7 +2472,7 @@
         <v>0.21</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Z21" s="7">
         <v>0.08</v>
@@ -2491,16 +2480,16 @@
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="Y22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Z22" s="3">
-        <f>NPV(Z21,N36:FK36)+Sheet1!F5-Sheet1!F6</f>
+        <f>NPV(Z21,N36:FK36)+Main!P5-Main!P6</f>
         <v>2706615.2125333613</v>
       </c>
     </row>
     <row r="23" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K23" s="6">
         <f>K7/K4</f>
@@ -2555,16 +2544,16 @@
         <v>0.53722806482835384</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="4">
-        <f>Z22/Sheet1!F3</f>
+        <f>Z22/Main!P3</f>
         <v>179.05840869751924</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" s="5">
         <f>K11/K4</f>
@@ -2619,16 +2608,16 @@
         <v>0.39026679537677017</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z24" s="5">
-        <f>Z23/Sheet1!F2-1</f>
+        <f>Z23/Main!P2-1</f>
         <v>-0.10470795651240383</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K25" s="5">
         <f>K36/K4</f>
@@ -2701,7 +2690,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5">
@@ -2755,7 +2744,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5">
@@ -2809,7 +2798,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" ref="K29:M30" si="87">(K2-K5)/K2</f>
@@ -2866,7 +2855,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="87"/>
@@ -2923,7 +2912,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K31" s="5">
         <f>K3/K4</f>
@@ -2980,7 +2969,7 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K32" s="5">
         <f>K2/K4</f>
@@ -3040,7 +3029,7 @@
     </row>
     <row r="34" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K34" s="1">
         <v>122151</v>
@@ -3094,7 +3083,7 @@
     </row>
     <row r="35" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35" s="1">
         <v>10708</v>
@@ -3148,7 +3137,7 @@
     </row>
     <row r="36" spans="1:163" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K36" s="3">
         <f>K34-K35</f>
@@ -3868,7 +3857,7 @@
     </row>
     <row r="40" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M40" s="1">
         <f>M45-M49</f>
@@ -3917,7 +3906,7 @@
     </row>
     <row r="42" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42" s="1">
         <f>K15</f>
@@ -3954,12 +3943,12 @@
     </row>
     <row r="43" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M45" s="1">
         <f>30299+23476</f>
@@ -3968,17 +3957,17 @@
     </row>
     <row r="46" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" s="1">
         <v>83956</v>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AC2A9B-200A-40F4-BE38-7BDDDC11E3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CE09A-3825-4A77-8A54-97A9115E3BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
+    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634B79C5-ED94-49D4-91A8-403BB18825CC}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
       </c>
       <c r="P4" s="4">
         <f>P3*P2</f>
-        <v>3023164.6</v>
+        <v>3476639.29</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
       </c>
       <c r="P7" s="4">
         <f>P4+P6-P5</f>
-        <v>3053345.6</v>
+        <v>3506820.29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
       </c>
       <c r="P8" s="2">
         <f>P2/Model!M16</f>
-        <v>32.875522744729885</v>
+        <v>37.806851156439365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -827,11 +827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1270A3AD-F548-451C-B2BF-0C6E206F237A}">
   <dimension ref="A1:FK46"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z24" sqref="Z24"/>
+      <selection pane="bottomRight" activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1020,20 +1020,20 @@
         <v>170369.24980900009</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" ref="T3" si="9">S3*1.1</f>
-        <v>187406.17478990011</v>
+        <f>S3*1.05</f>
+        <v>178887.7122994501</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3" si="10">T3*1.1</f>
-        <v>206146.79226889013</v>
+        <f t="shared" ref="U3:W3" si="9">T3*1.05</f>
+        <v>187832.0979144226</v>
       </c>
       <c r="V3" s="4">
-        <f t="shared" ref="V3" si="11">U3*1.1</f>
-        <v>226761.47149577917</v>
+        <f t="shared" si="9"/>
+        <v>197223.70281014373</v>
       </c>
       <c r="W3" s="4">
-        <f t="shared" ref="W3" si="12">V3*1.1</f>
-        <v>249437.61864535711</v>
+        <f t="shared" si="9"/>
+        <v>207084.88795065094</v>
       </c>
     </row>
     <row r="4" spans="1:167" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1045,52 +1045,52 @@
         <v>394328</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" ref="L4:M4" si="13">SUM(L2:L3)</f>
+        <f t="shared" ref="L4:M4" si="10">SUM(L2:L3)</f>
         <v>383285</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>391035</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4" si="14">SUM(N2:N3)</f>
+        <f t="shared" ref="N4" si="11">SUM(N2:N3)</f>
         <v>403600.56</v>
       </c>
       <c r="O4" s="7">
-        <f t="shared" ref="O4" si="15">SUM(O2:O3)</f>
+        <f t="shared" ref="O4" si="12">SUM(O2:O3)</f>
         <v>417157.2966</v>
       </c>
       <c r="P4" s="7">
-        <f t="shared" ref="P4" si="16">SUM(P2:P3)</f>
+        <f t="shared" ref="P4" si="13">SUM(P2:P3)</f>
         <v>431801.67366599996</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" ref="Q4" si="17">SUM(Q2:Q3)</f>
+        <f t="shared" ref="Q4" si="14">SUM(Q2:Q3)</f>
         <v>447639.77491266001</v>
       </c>
       <c r="R4" s="7">
-        <f t="shared" ref="R4:W4" si="18">SUM(R2:R3)</f>
+        <f t="shared" ref="R4:W4" si="15">SUM(R2:R3)</f>
         <v>464788.2656227866</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>483375.45053611451</v>
       </c>
       <c r="T4" s="7">
-        <f t="shared" si="18"/>
-        <v>503542.43752428563</v>
+        <f t="shared" si="15"/>
+        <v>495023.97503383562</v>
       </c>
       <c r="U4" s="7">
-        <f t="shared" si="18"/>
-        <v>525444.4176306196</v>
+        <f t="shared" si="15"/>
+        <v>507129.72327615204</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" si="18"/>
-        <v>549252.07311112597</v>
+        <f t="shared" si="15"/>
+        <v>519714.30442549044</v>
       </c>
       <c r="W4" s="7">
-        <f t="shared" si="18"/>
-        <v>575153.12627685734</v>
+        <f t="shared" si="15"/>
+        <v>532800.39558215113</v>
       </c>
     </row>
     <row r="5" spans="1:167" x14ac:dyDescent="0.2">
@@ -1107,43 +1107,43 @@
         <v>185233</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" ref="N5:W5" si="19">N2*(1-N28)</f>
+        <f t="shared" ref="N5:W5" si="16">N2*(1-N28)</f>
         <v>186531.68335000001</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>187835.02115141752</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>189142.93454641633</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>190455.34200127661</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>191772.1592512319</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>193093.29924432738</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>194418.67208428259</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>195748.18497234242</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>197081.7421480995</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>198419.2448292709</v>
       </c>
     </row>
@@ -1161,44 +1161,44 @@
         <v>25119</v>
       </c>
       <c r="N6" s="4">
-        <f t="shared" ref="N6:W6" si="20">N3*(1-N29)</f>
+        <f t="shared" ref="N6:W6" si="17">N3*(1-N29)</f>
         <v>26849.350000000009</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>28665.982950000016</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>30567.897667450023</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>32552.923979536969</v>
       </c>
       <c r="R6" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>34617.487179365584</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>36756.335758185167</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="20"/>
-        <v>38962.227279444713</v>
+        <f t="shared" si="17"/>
+        <v>37191.216948560861</v>
       </c>
       <c r="U6" s="4">
-        <f t="shared" si="20"/>
-        <v>41225.566584774184</v>
+        <f t="shared" si="17"/>
+        <v>37562.964594804573</v>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="20"/>
-        <v>43533.989760726326</v>
+        <f t="shared" si="17"/>
+        <v>37863.286924688808</v>
       </c>
       <c r="W6" s="4">
-        <f t="shared" si="20"/>
-        <v>45871.886437713372</v>
+        <f t="shared" si="17"/>
+        <v>38083.166904125967</v>
       </c>
     </row>
     <row r="7" spans="1:167" x14ac:dyDescent="0.2">
@@ -1210,52 +1210,52 @@
         <v>170782</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" ref="L7:M7" si="21">L4-SUM(L5:L6)</f>
+        <f t="shared" ref="L7:M7" si="18">L4-SUM(L5:L6)</f>
         <v>169148</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>180683</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7" si="22">N4-SUM(N5:N6)</f>
+        <f t="shared" ref="N7" si="19">N4-SUM(N5:N6)</f>
         <v>190219.52664999999</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" ref="O7" si="23">O4-SUM(O5:O6)</f>
+        <f t="shared" ref="O7" si="20">O4-SUM(O5:O6)</f>
         <v>200656.29249858248</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" ref="P7" si="24">P4-SUM(P5:P6)</f>
+        <f t="shared" ref="P7" si="21">P4-SUM(P5:P6)</f>
         <v>212090.84145213361</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" ref="Q7" si="25">Q4-SUM(Q5:Q6)</f>
+        <f t="shared" ref="Q7" si="22">Q4-SUM(Q5:Q6)</f>
         <v>224631.50893184642</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" ref="R7:W7" si="26">R4-SUM(R5:R6)</f>
+        <f t="shared" ref="R7:W7" si="23">R4-SUM(R5:R6)</f>
         <v>238398.6191921891</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>253525.81553360197</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="26"/>
-        <v>270161.53816055832</v>
+        <f t="shared" si="23"/>
+        <v>263414.08600099216</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="26"/>
-        <v>288470.66607350297</v>
+        <f t="shared" si="23"/>
+        <v>273818.57370900502</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" si="26"/>
-        <v>308636.34120230016</v>
+        <f t="shared" si="23"/>
+        <v>284769.27535270213</v>
       </c>
       <c r="W7" s="4">
-        <f t="shared" si="26"/>
-        <v>330861.99500987306</v>
+        <f t="shared" si="23"/>
+        <v>296297.98384875426</v>
       </c>
     </row>
     <row r="8" spans="1:167" x14ac:dyDescent="0.2">
@@ -1276,40 +1276,40 @@
         <v>32378.046894012045</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" ref="O8:R8" si="27">N8*(1+O19)</f>
+        <f t="shared" ref="O8:R8" si="24">N8*(1+O19)</f>
         <v>33465.608946365413</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>34640.424777583641</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>35911.004741289507</v>
       </c>
       <c r="R8" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>37286.708076225441</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" ref="S8" si="28">R8*(1+S19)</f>
+        <f t="shared" ref="S8" si="25">R8*(1+S19)</f>
         <v>38777.827773263038</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" ref="T8" si="29">S8*(1+T19)</f>
-        <v>40395.683928898536</v>
+        <f t="shared" ref="T8" si="26">S8*(1+T19)</f>
+        <v>39712.30733006361</v>
       </c>
       <c r="U8" s="4">
-        <f t="shared" ref="U8" si="30">T8*(1+U19)</f>
-        <v>42152.726433880693</v>
+        <f t="shared" ref="U8" si="27">T8*(1+U19)</f>
+        <v>40683.466746385595</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" ref="V8" si="31">U8*(1+V19)</f>
-        <v>44062.647930481988</v>
+        <f t="shared" ref="V8" si="28">U8*(1+V19)</f>
+        <v>41693.039574021859</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" ref="W8" si="32">V8*(1+W19)</f>
-        <v>46140.508065275535</v>
+        <f t="shared" ref="W8" si="29">V8*(1+W19)</f>
+        <v>42742.845037943116</v>
       </c>
     </row>
     <row r="9" spans="1:167" x14ac:dyDescent="0.2">
@@ -1330,40 +1330,40 @@
         <v>26935.603754957996</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" ref="O9:R9" si="33">N9*(1+O19)</f>
+        <f t="shared" ref="O9:R9" si="30">N9*(1+O19)</f>
         <v>27840.356922961371</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>28817.697335690158</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>29874.704836896151</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>31019.165465899117</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" ref="S9" si="34">R9*(1+S19)</f>
+        <f t="shared" ref="S9" si="31">R9*(1+S19)</f>
         <v>32259.642059255515</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" ref="T9" si="35">S9*(1+T19)</f>
-        <v>33605.551912415212</v>
+        <f t="shared" ref="T9" si="32">S9*(1+T19)</f>
+        <v>33037.044449877911</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" ref="U9" si="36">T9*(1+U19)</f>
-        <v>35067.252207363228</v>
+        <f t="shared" ref="U9" si="33">T9*(1+U19)</f>
+        <v>33844.961162908032</v>
       </c>
       <c r="V9" s="4">
-        <f t="shared" ref="V9" si="37">U9*(1+V19)</f>
-        <v>36656.133982843108</v>
+        <f t="shared" ref="V9" si="34">U9*(1+V19)</f>
+        <v>34684.834356495012</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" ref="W9" si="38">V9*(1+W19)</f>
-        <v>38384.725501418405</v>
+        <f t="shared" ref="W9" si="35">V9*(1+W19)</f>
+        <v>35558.177461115767</v>
       </c>
     </row>
     <row r="10" spans="1:167" x14ac:dyDescent="0.2">
@@ -1375,52 +1375,52 @@
         <v>51345</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" ref="L10:M10" si="39">SUM(L8:L9)</f>
+        <f t="shared" ref="L10:M10" si="36">SUM(L8:L9)</f>
         <v>54847</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>57467</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" ref="N10" si="40">SUM(N8:N9)</f>
+        <f t="shared" ref="N10" si="37">SUM(N8:N9)</f>
         <v>59313.65064897004</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" ref="O10" si="41">SUM(O8:O9)</f>
+        <f t="shared" ref="O10" si="38">SUM(O8:O9)</f>
         <v>61305.965869326785</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" ref="P10" si="42">SUM(P8:P9)</f>
+        <f t="shared" ref="P10" si="39">SUM(P8:P9)</f>
         <v>63458.122113273799</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" ref="Q10" si="43">SUM(Q8:Q9)</f>
+        <f t="shared" ref="Q10" si="40">SUM(Q8:Q9)</f>
         <v>65785.709578185662</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" ref="R10:W10" si="44">SUM(R8:R9)</f>
+        <f t="shared" ref="R10:W10" si="41">SUM(R8:R9)</f>
         <v>68305.873542124551</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>71037.469832518545</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="44"/>
-        <v>74001.235841313755</v>
+        <f t="shared" si="41"/>
+        <v>72749.351779941528</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="44"/>
-        <v>77219.978641243913</v>
+        <f t="shared" si="41"/>
+        <v>74528.427909293619</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="44"/>
-        <v>80718.781913325103</v>
+        <f t="shared" si="41"/>
+        <v>76377.873930516871</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="44"/>
-        <v>84525.233566693933</v>
+        <f t="shared" si="41"/>
+        <v>78301.02249905889</v>
       </c>
     </row>
     <row r="11" spans="1:167" x14ac:dyDescent="0.2">
@@ -1432,52 +1432,52 @@
         <v>119437</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" ref="L11:M11" si="45">L7-L10</f>
+        <f t="shared" ref="L11:M11" si="42">L7-L10</f>
         <v>114301</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>123216</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" ref="N11" si="46">N7-N10</f>
+        <f t="shared" ref="N11" si="43">N7-N10</f>
         <v>130905.87600102994</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" ref="O11" si="47">O7-O10</f>
+        <f t="shared" ref="O11" si="44">O7-O10</f>
         <v>139350.32662925569</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" ref="P11" si="48">P7-P10</f>
+        <f t="shared" ref="P11" si="45">P7-P10</f>
         <v>148632.71933885981</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" ref="Q11" si="49">Q7-Q10</f>
+        <f t="shared" ref="Q11" si="46">Q7-Q10</f>
         <v>158845.79935366075</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" ref="R11:W11" si="50">R7-R10</f>
+        <f t="shared" ref="R11:W11" si="47">R7-R10</f>
         <v>170092.74565006455</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>182488.34570108342</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="50"/>
-        <v>196160.30231924457</v>
+        <f t="shared" si="47"/>
+        <v>190664.73422105063</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="50"/>
-        <v>211250.68743225906</v>
+        <f t="shared" si="47"/>
+        <v>199290.1457997114</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="50"/>
-        <v>227917.55928897506</v>
+        <f t="shared" si="47"/>
+        <v>208391.40142218524</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="50"/>
-        <v>246336.76144317913</v>
+        <f t="shared" si="47"/>
+        <v>217996.96134969537</v>
       </c>
     </row>
     <row r="12" spans="1:167" x14ac:dyDescent="0.2">
@@ -1494,44 +1494,44 @@
         <v>269</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" ref="N12:W12" si="51">M37*$Z$18</f>
+        <f t="shared" ref="N12:W12" si="48">M37*$Z$18</f>
         <v>-603.62</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>1481.2160960164792</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>3734.5207796208342</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>6172.3966215165237</v>
       </c>
       <c r="R12" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>8812.68775711936</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>11675.174691634304</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>14781.791017917789</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="51"/>
-        <v>18156.864511312386</v>
+        <f t="shared" si="48"/>
+        <v>18068.935421741284</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="51"/>
-        <v>21827.385342409529</v>
+        <f t="shared" si="48"/>
+        <v>21546.680721284527</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="51"/>
-        <v>25823.30445651168</v>
+        <f t="shared" si="48"/>
+        <v>25225.690035580043</v>
       </c>
     </row>
     <row r="13" spans="1:167" x14ac:dyDescent="0.2">
@@ -1543,52 +1543,52 @@
         <v>119103</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" ref="L13:M13" si="52">L11+L12</f>
+        <f t="shared" ref="L13:M13" si="49">L11+L12</f>
         <v>113736</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>123485</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" ref="N13" si="53">N11+N12</f>
+        <f t="shared" ref="N13" si="50">N11+N12</f>
         <v>130302.25600102995</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" ref="O13" si="54">O11+O12</f>
+        <f t="shared" ref="O13" si="51">O11+O12</f>
         <v>140831.54272527219</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" ref="P13" si="55">P11+P12</f>
+        <f t="shared" ref="P13" si="52">P11+P12</f>
         <v>152367.24011848064</v>
       </c>
       <c r="Q13" s="4">
-        <f t="shared" ref="Q13" si="56">Q11+Q12</f>
+        <f t="shared" ref="Q13" si="53">Q11+Q12</f>
         <v>165018.19597517728</v>
       </c>
       <c r="R13" s="4">
-        <f t="shared" ref="R13:W13" si="57">R11+R12</f>
+        <f t="shared" ref="R13:W13" si="54">R11+R12</f>
         <v>178905.43340718391</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>194163.52039271774</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="57"/>
-        <v>210942.09333716237</v>
+        <f t="shared" si="54"/>
+        <v>205446.52523896843</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="57"/>
-        <v>229407.55194357145</v>
+        <f t="shared" si="54"/>
+        <v>217359.08122145268</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="57"/>
-        <v>249744.94463138457</v>
+        <f t="shared" si="54"/>
+        <v>229938.08214346977</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="57"/>
-        <v>272160.06589969079</v>
+        <f t="shared" si="54"/>
+        <v>243222.65138527541</v>
       </c>
     </row>
     <row r="14" spans="1:167" x14ac:dyDescent="0.2">
@@ -1609,40 +1609,40 @@
         <v>26060.451200205993</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" ref="O14:W14" si="58">O13*0.2</f>
+        <f t="shared" ref="O14:W14" si="55">O13*0.2</f>
         <v>28166.308545054439</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>30473.448023696128</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>33003.639195035459</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>35781.086681436784</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>38832.704078543546</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="58"/>
-        <v>42188.418667432474</v>
+        <f t="shared" si="55"/>
+        <v>41089.305047793692</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="58"/>
-        <v>45881.51038871429</v>
+        <f t="shared" si="55"/>
+        <v>43471.816244290538</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="58"/>
-        <v>49948.988926276914</v>
+        <f t="shared" si="55"/>
+        <v>45987.61642869396</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="58"/>
-        <v>54432.013179938163</v>
+        <f t="shared" si="55"/>
+        <v>48644.530277055084</v>
       </c>
     </row>
     <row r="15" spans="1:167" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1654,628 +1654,628 @@
         <v>99803</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" ref="L15:N15" si="59">L13-L14</f>
+        <f t="shared" ref="L15:N15" si="56">L13-L14</f>
         <v>96995</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>93736</v>
       </c>
       <c r="N15" s="7">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>104241.80480082396</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" ref="O15" si="60">O13-O14</f>
+        <f t="shared" ref="O15" si="57">O13-O14</f>
         <v>112665.23418021775</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" ref="P15" si="61">P13-P14</f>
+        <f t="shared" ref="P15" si="58">P13-P14</f>
         <v>121893.79209478451</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" ref="Q15" si="62">Q13-Q14</f>
+        <f t="shared" ref="Q15" si="59">Q13-Q14</f>
         <v>132014.55678014184</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" ref="R15:W15" si="63">R13-R14</f>
+        <f t="shared" ref="R15:W15" si="60">R13-R14</f>
         <v>143124.34672574713</v>
       </c>
       <c r="S15" s="7">
+        <f t="shared" si="60"/>
+        <v>155330.81631417418</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="60"/>
+        <v>164357.22019117474</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="60"/>
+        <v>173887.26497716215</v>
+      </c>
+      <c r="V15" s="7">
+        <f t="shared" si="60"/>
+        <v>183950.46571477581</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="60"/>
+        <v>194578.12110822034</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" ref="X15:BC15" si="61">W15*(1+$Z$19)</f>
+        <v>196523.90231930255</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="61"/>
+        <v>198489.14134249557</v>
+      </c>
+      <c r="Z15" s="7">
+        <f t="shared" si="61"/>
+        <v>200474.03275592052</v>
+      </c>
+      <c r="AA15" s="7">
+        <f t="shared" si="61"/>
+        <v>202478.77308347973</v>
+      </c>
+      <c r="AB15" s="7">
+        <f t="shared" si="61"/>
+        <v>204503.56081431452</v>
+      </c>
+      <c r="AC15" s="7">
+        <f t="shared" si="61"/>
+        <v>206548.59642245766</v>
+      </c>
+      <c r="AD15" s="7">
+        <f t="shared" si="61"/>
+        <v>208614.08238668225</v>
+      </c>
+      <c r="AE15" s="7">
+        <f t="shared" si="61"/>
+        <v>210700.22321054907</v>
+      </c>
+      <c r="AF15" s="7">
+        <f t="shared" si="61"/>
+        <v>212807.22544265457</v>
+      </c>
+      <c r="AG15" s="7">
+        <f t="shared" si="61"/>
+        <v>214935.29769708111</v>
+      </c>
+      <c r="AH15" s="7">
+        <f t="shared" si="61"/>
+        <v>217084.65067405193</v>
+      </c>
+      <c r="AI15" s="7">
+        <f t="shared" si="61"/>
+        <v>219255.49718079244</v>
+      </c>
+      <c r="AJ15" s="7">
+        <f t="shared" si="61"/>
+        <v>221448.05215260037</v>
+      </c>
+      <c r="AK15" s="7">
+        <f t="shared" si="61"/>
+        <v>223662.53267412639</v>
+      </c>
+      <c r="AL15" s="7">
+        <f t="shared" si="61"/>
+        <v>225899.15800086764</v>
+      </c>
+      <c r="AM15" s="7">
+        <f t="shared" si="61"/>
+        <v>228158.14958087631</v>
+      </c>
+      <c r="AN15" s="7">
+        <f t="shared" si="61"/>
+        <v>230439.73107668507</v>
+      </c>
+      <c r="AO15" s="7">
+        <f t="shared" si="61"/>
+        <v>232744.12838745193</v>
+      </c>
+      <c r="AP15" s="7">
+        <f t="shared" si="61"/>
+        <v>235071.56967132646</v>
+      </c>
+      <c r="AQ15" s="7">
+        <f t="shared" si="61"/>
+        <v>237422.28536803974</v>
+      </c>
+      <c r="AR15" s="7">
+        <f t="shared" si="61"/>
+        <v>239796.50822172014</v>
+      </c>
+      <c r="AS15" s="7">
+        <f t="shared" si="61"/>
+        <v>242194.47330393735</v>
+      </c>
+      <c r="AT15" s="7">
+        <f t="shared" si="61"/>
+        <v>244616.41803697674</v>
+      </c>
+      <c r="AU15" s="7">
+        <f t="shared" si="61"/>
+        <v>247062.5822173465</v>
+      </c>
+      <c r="AV15" s="7">
+        <f t="shared" si="61"/>
+        <v>249533.20803951996</v>
+      </c>
+      <c r="AW15" s="7">
+        <f t="shared" si="61"/>
+        <v>252028.54011991515</v>
+      </c>
+      <c r="AX15" s="7">
+        <f t="shared" si="61"/>
+        <v>254548.82552111431</v>
+      </c>
+      <c r="AY15" s="7">
+        <f t="shared" si="61"/>
+        <v>257094.31377632546</v>
+      </c>
+      <c r="AZ15" s="7">
+        <f t="shared" si="61"/>
+        <v>259665.25691408871</v>
+      </c>
+      <c r="BA15" s="7">
+        <f t="shared" si="61"/>
+        <v>262261.90948322957</v>
+      </c>
+      <c r="BB15" s="7">
+        <f t="shared" si="61"/>
+        <v>264884.52857806184</v>
+      </c>
+      <c r="BC15" s="7">
+        <f t="shared" si="61"/>
+        <v>267533.37386384245</v>
+      </c>
+      <c r="BD15" s="7">
+        <f t="shared" ref="BD15:CI15" si="62">BC15*(1+$Z$19)</f>
+        <v>270208.70760248089</v>
+      </c>
+      <c r="BE15" s="7">
+        <f t="shared" si="62"/>
+        <v>272910.79467850568</v>
+      </c>
+      <c r="BF15" s="7">
+        <f t="shared" si="62"/>
+        <v>275639.90262529074</v>
+      </c>
+      <c r="BG15" s="7">
+        <f t="shared" si="62"/>
+        <v>278396.30165154365</v>
+      </c>
+      <c r="BH15" s="7">
+        <f t="shared" si="62"/>
+        <v>281180.26466805907</v>
+      </c>
+      <c r="BI15" s="7">
+        <f t="shared" si="62"/>
+        <v>283992.06731473969</v>
+      </c>
+      <c r="BJ15" s="7">
+        <f t="shared" si="62"/>
+        <v>286831.98798788711</v>
+      </c>
+      <c r="BK15" s="7">
+        <f t="shared" si="62"/>
+        <v>289700.30786776601</v>
+      </c>
+      <c r="BL15" s="7">
+        <f t="shared" si="62"/>
+        <v>292597.3109464437</v>
+      </c>
+      <c r="BM15" s="7">
+        <f t="shared" si="62"/>
+        <v>295523.28405590815</v>
+      </c>
+      <c r="BN15" s="7">
+        <f t="shared" si="62"/>
+        <v>298478.51689646725</v>
+      </c>
+      <c r="BO15" s="7">
+        <f t="shared" si="62"/>
+        <v>301463.3020654319</v>
+      </c>
+      <c r="BP15" s="7">
+        <f t="shared" si="62"/>
+        <v>304477.93508608622</v>
+      </c>
+      <c r="BQ15" s="7">
+        <f t="shared" si="62"/>
+        <v>307522.71443694708</v>
+      </c>
+      <c r="BR15" s="7">
+        <f t="shared" si="62"/>
+        <v>310597.94158131653</v>
+      </c>
+      <c r="BS15" s="7">
+        <f t="shared" si="62"/>
+        <v>313703.9209971297</v>
+      </c>
+      <c r="BT15" s="7">
+        <f t="shared" si="62"/>
+        <v>316840.96020710102</v>
+      </c>
+      <c r="BU15" s="7">
+        <f t="shared" si="62"/>
+        <v>320009.369809172</v>
+      </c>
+      <c r="BV15" s="7">
+        <f t="shared" si="62"/>
+        <v>323209.46350726375</v>
+      </c>
+      <c r="BW15" s="7">
+        <f t="shared" si="62"/>
+        <v>326441.55814233638</v>
+      </c>
+      <c r="BX15" s="7">
+        <f t="shared" si="62"/>
+        <v>329705.97372375976</v>
+      </c>
+      <c r="BY15" s="7">
+        <f t="shared" si="62"/>
+        <v>333003.03346099734</v>
+      </c>
+      <c r="BZ15" s="7">
+        <f t="shared" si="62"/>
+        <v>336333.0637956073</v>
+      </c>
+      <c r="CA15" s="7">
+        <f t="shared" si="62"/>
+        <v>339696.3944335634</v>
+      </c>
+      <c r="CB15" s="7">
+        <f t="shared" si="62"/>
+        <v>343093.35837789904</v>
+      </c>
+      <c r="CC15" s="7">
+        <f t="shared" si="62"/>
+        <v>346524.29196167801</v>
+      </c>
+      <c r="CD15" s="7">
+        <f t="shared" si="62"/>
+        <v>349989.53488129482</v>
+      </c>
+      <c r="CE15" s="7">
+        <f t="shared" si="62"/>
+        <v>353489.4302301078</v>
+      </c>
+      <c r="CF15" s="7">
+        <f t="shared" si="62"/>
+        <v>357024.32453240891</v>
+      </c>
+      <c r="CG15" s="7">
+        <f t="shared" si="62"/>
+        <v>360594.56777773303</v>
+      </c>
+      <c r="CH15" s="7">
+        <f t="shared" si="62"/>
+        <v>364200.51345551037</v>
+      </c>
+      <c r="CI15" s="7">
+        <f t="shared" si="62"/>
+        <v>367842.51859006548</v>
+      </c>
+      <c r="CJ15" s="7">
+        <f t="shared" ref="CJ15:DO15" si="63">CI15*(1+$Z$19)</f>
+        <v>371520.94377596612</v>
+      </c>
+      <c r="CK15" s="7">
         <f t="shared" si="63"/>
-        <v>155330.81631417418</v>
-      </c>
-      <c r="T15" s="7">
+        <v>375236.15321372577</v>
+      </c>
+      <c r="CL15" s="7">
         <f t="shared" si="63"/>
-        <v>168753.67466972989</v>
-      </c>
-      <c r="U15" s="7">
+        <v>378988.51474586304</v>
+      </c>
+      <c r="CM15" s="7">
         <f t="shared" si="63"/>
-        <v>183526.04155485716</v>
-      </c>
-      <c r="V15" s="7">
+        <v>382778.39989332168</v>
+      </c>
+      <c r="CN15" s="7">
         <f t="shared" si="63"/>
-        <v>199795.95570510766</v>
-      </c>
-      <c r="W15" s="7">
+        <v>386606.18389225489</v>
+      </c>
+      <c r="CO15" s="7">
         <f t="shared" si="63"/>
-        <v>217728.05271975262</v>
-      </c>
-      <c r="X15" s="7">
-        <f t="shared" ref="X15:BC15" si="64">W15*(1+$Z$19)</f>
-        <v>219905.33324695015</v>
-      </c>
-      <c r="Y15" s="7">
+        <v>390472.24573117745</v>
+      </c>
+      <c r="CP15" s="7">
+        <f t="shared" si="63"/>
+        <v>394376.96818848921</v>
+      </c>
+      <c r="CQ15" s="7">
+        <f t="shared" si="63"/>
+        <v>398320.73787037411</v>
+      </c>
+      <c r="CR15" s="7">
+        <f t="shared" si="63"/>
+        <v>402303.94524907786</v>
+      </c>
+      <c r="CS15" s="7">
+        <f t="shared" si="63"/>
+        <v>406326.98470156867</v>
+      </c>
+      <c r="CT15" s="7">
+        <f t="shared" si="63"/>
+        <v>410390.25454858434</v>
+      </c>
+      <c r="CU15" s="7">
+        <f t="shared" si="63"/>
+        <v>414494.15709407016</v>
+      </c>
+      <c r="CV15" s="7">
+        <f t="shared" si="63"/>
+        <v>418639.09866501088</v>
+      </c>
+      <c r="CW15" s="7">
+        <f t="shared" si="63"/>
+        <v>422825.48965166102</v>
+      </c>
+      <c r="CX15" s="7">
+        <f t="shared" si="63"/>
+        <v>427053.74454817764</v>
+      </c>
+      <c r="CY15" s="7">
+        <f t="shared" si="63"/>
+        <v>431324.28199365945</v>
+      </c>
+      <c r="CZ15" s="7">
+        <f t="shared" si="63"/>
+        <v>435637.52481359604</v>
+      </c>
+      <c r="DA15" s="7">
+        <f t="shared" si="63"/>
+        <v>439993.90006173198</v>
+      </c>
+      <c r="DB15" s="7">
+        <f t="shared" si="63"/>
+        <v>444393.83906234929</v>
+      </c>
+      <c r="DC15" s="7">
+        <f t="shared" si="63"/>
+        <v>448837.77745297278</v>
+      </c>
+      <c r="DD15" s="7">
+        <f t="shared" si="63"/>
+        <v>453326.15522750252</v>
+      </c>
+      <c r="DE15" s="7">
+        <f t="shared" si="63"/>
+        <v>457859.41677977756</v>
+      </c>
+      <c r="DF15" s="7">
+        <f t="shared" si="63"/>
+        <v>462438.01094757533</v>
+      </c>
+      <c r="DG15" s="7">
+        <f t="shared" si="63"/>
+        <v>467062.39105705108</v>
+      </c>
+      <c r="DH15" s="7">
+        <f t="shared" si="63"/>
+        <v>471733.0149676216</v>
+      </c>
+      <c r="DI15" s="7">
+        <f t="shared" si="63"/>
+        <v>476450.34511729784</v>
+      </c>
+      <c r="DJ15" s="7">
+        <f t="shared" si="63"/>
+        <v>481214.8485684708</v>
+      </c>
+      <c r="DK15" s="7">
+        <f t="shared" si="63"/>
+        <v>486026.99705415551</v>
+      </c>
+      <c r="DL15" s="7">
+        <f t="shared" si="63"/>
+        <v>490887.2670246971</v>
+      </c>
+      <c r="DM15" s="7">
+        <f t="shared" si="63"/>
+        <v>495796.13969494408</v>
+      </c>
+      <c r="DN15" s="7">
+        <f t="shared" si="63"/>
+        <v>500754.10109189351</v>
+      </c>
+      <c r="DO15" s="7">
+        <f t="shared" si="63"/>
+        <v>505761.64210281242</v>
+      </c>
+      <c r="DP15" s="7">
+        <f t="shared" ref="DP15:EU15" si="64">DO15*(1+$Z$19)</f>
+        <v>510819.25852384057</v>
+      </c>
+      <c r="DQ15" s="7">
         <f t="shared" si="64"/>
-        <v>222104.38657941966</v>
-      </c>
-      <c r="Z15" s="7">
+        <v>515927.451109079</v>
+      </c>
+      <c r="DR15" s="7">
         <f t="shared" si="64"/>
-        <v>224325.43044521386</v>
-      </c>
-      <c r="AA15" s="7">
+        <v>521086.72562016977</v>
+      </c>
+      <c r="DS15" s="7">
         <f t="shared" si="64"/>
-        <v>226568.68474966599</v>
-      </c>
-      <c r="AB15" s="7">
+        <v>526297.59287637146</v>
+      </c>
+      <c r="DT15" s="7">
         <f t="shared" si="64"/>
-        <v>228834.37159716265</v>
-      </c>
-      <c r="AC15" s="7">
+        <v>531560.5688051352</v>
+      </c>
+      <c r="DU15" s="7">
         <f t="shared" si="64"/>
-        <v>231122.71531313428</v>
-      </c>
-      <c r="AD15" s="7">
+        <v>536876.17449318653</v>
+      </c>
+      <c r="DV15" s="7">
         <f t="shared" si="64"/>
-        <v>233433.94246626561</v>
-      </c>
-      <c r="AE15" s="7">
+        <v>542244.93623811845</v>
+      </c>
+      <c r="DW15" s="7">
         <f t="shared" si="64"/>
-        <v>235768.28189092828</v>
-      </c>
-      <c r="AF15" s="7">
+        <v>547667.38560049969</v>
+      </c>
+      <c r="DX15" s="7">
         <f t="shared" si="64"/>
-        <v>238125.96470983757</v>
-      </c>
-      <c r="AG15" s="7">
+        <v>553144.05945650465</v>
+      </c>
+      <c r="DY15" s="7">
         <f t="shared" si="64"/>
-        <v>240507.22435693594</v>
-      </c>
-      <c r="AH15" s="7">
+        <v>558675.50005106966</v>
+      </c>
+      <c r="DZ15" s="7">
         <f t="shared" si="64"/>
-        <v>242912.2966005053</v>
-      </c>
-      <c r="AI15" s="7">
+        <v>564262.25505158037</v>
+      </c>
+      <c r="EA15" s="7">
         <f t="shared" si="64"/>
-        <v>245341.41956651036</v>
-      </c>
-      <c r="AJ15" s="7">
+        <v>569904.87760209618</v>
+      </c>
+      <c r="EB15" s="7">
         <f t="shared" si="64"/>
-        <v>247794.83376217546</v>
-      </c>
-      <c r="AK15" s="7">
+        <v>575603.92637811718</v>
+      </c>
+      <c r="EC15" s="7">
         <f t="shared" si="64"/>
-        <v>250272.78209979722</v>
-      </c>
-      <c r="AL15" s="7">
+        <v>581359.96564189834</v>
+      </c>
+      <c r="ED15" s="7">
         <f t="shared" si="64"/>
-        <v>252775.50992079519</v>
-      </c>
-      <c r="AM15" s="7">
+        <v>587173.56529831735</v>
+      </c>
+      <c r="EE15" s="7">
         <f t="shared" si="64"/>
-        <v>255303.26502000313</v>
-      </c>
-      <c r="AN15" s="7">
+        <v>593045.30095130054</v>
+      </c>
+      <c r="EF15" s="7">
         <f t="shared" si="64"/>
-        <v>257856.29767020317</v>
-      </c>
-      <c r="AO15" s="7">
+        <v>598975.75396081351</v>
+      </c>
+      <c r="EG15" s="7">
         <f t="shared" si="64"/>
-        <v>260434.8606469052</v>
-      </c>
-      <c r="AP15" s="7">
+        <v>604965.51150042168</v>
+      </c>
+      <c r="EH15" s="7">
         <f t="shared" si="64"/>
-        <v>263039.20925337425</v>
-      </c>
-      <c r="AQ15" s="7">
+        <v>611015.16661542596</v>
+      </c>
+      <c r="EI15" s="7">
         <f t="shared" si="64"/>
-        <v>265669.60134590801</v>
-      </c>
-      <c r="AR15" s="7">
+        <v>617125.31828158023</v>
+      </c>
+      <c r="EJ15" s="7">
         <f t="shared" si="64"/>
-        <v>268326.29735936708</v>
-      </c>
-      <c r="AS15" s="7">
+        <v>623296.57146439608</v>
+      </c>
+      <c r="EK15" s="7">
         <f t="shared" si="64"/>
-        <v>271009.56033296074</v>
-      </c>
-      <c r="AT15" s="7">
+        <v>629529.53717904002</v>
+      </c>
+      <c r="EL15" s="7">
         <f t="shared" si="64"/>
-        <v>273719.65593629034</v>
-      </c>
-      <c r="AU15" s="7">
+        <v>635824.83255083044</v>
+      </c>
+      <c r="EM15" s="7">
         <f t="shared" si="64"/>
-        <v>276456.85249565326</v>
-      </c>
-      <c r="AV15" s="7">
+        <v>642183.08087633876</v>
+      </c>
+      <c r="EN15" s="7">
         <f t="shared" si="64"/>
-        <v>279221.42102060979</v>
-      </c>
-      <c r="AW15" s="7">
+        <v>648604.91168510215</v>
+      </c>
+      <c r="EO15" s="7">
         <f t="shared" si="64"/>
-        <v>282013.63523081591</v>
-      </c>
-      <c r="AX15" s="7">
+        <v>655090.96080195322</v>
+      </c>
+      <c r="EP15" s="7">
         <f t="shared" si="64"/>
-        <v>284833.77158312406</v>
-      </c>
-      <c r="AY15" s="7">
+        <v>661641.87040997273</v>
+      </c>
+      <c r="EQ15" s="7">
         <f t="shared" si="64"/>
-        <v>287682.1092989553</v>
-      </c>
-      <c r="AZ15" s="7">
+        <v>668258.28911407245</v>
+      </c>
+      <c r="ER15" s="7">
         <f t="shared" si="64"/>
-        <v>290558.93039194483</v>
-      </c>
-      <c r="BA15" s="7">
+        <v>674940.87200521317</v>
+      </c>
+      <c r="ES15" s="7">
         <f t="shared" si="64"/>
-        <v>293464.51969586429</v>
-      </c>
-      <c r="BB15" s="7">
+        <v>681690.28072526527</v>
+      </c>
+      <c r="ET15" s="7">
         <f t="shared" si="64"/>
-        <v>296399.16489282291</v>
-      </c>
-      <c r="BC15" s="7">
+        <v>688507.18353251799</v>
+      </c>
+      <c r="EU15" s="7">
         <f t="shared" si="64"/>
-        <v>299363.15654175112</v>
-      </c>
-      <c r="BD15" s="7">
-        <f t="shared" ref="BD15:CI15" si="65">BC15*(1+$Z$19)</f>
-        <v>302356.78810716863</v>
-      </c>
-      <c r="BE15" s="7">
+        <v>695392.2553678432</v>
+      </c>
+      <c r="EV15" s="7">
+        <f t="shared" ref="EV15:FK15" si="65">EU15*(1+$Z$19)</f>
+        <v>702346.17792152159</v>
+      </c>
+      <c r="EW15" s="7">
         <f t="shared" si="65"/>
-        <v>305380.35598824034</v>
-      </c>
-      <c r="BF15" s="7">
+        <v>709369.63970073685</v>
+      </c>
+      <c r="EX15" s="7">
         <f t="shared" si="65"/>
-        <v>308434.15954812273</v>
-      </c>
-      <c r="BG15" s="7">
+        <v>716463.33609774418</v>
+      </c>
+      <c r="EY15" s="7">
         <f t="shared" si="65"/>
-        <v>311518.50114360393</v>
-      </c>
-      <c r="BH15" s="7">
+        <v>723627.96945872158</v>
+      </c>
+      <c r="EZ15" s="7">
         <f t="shared" si="65"/>
-        <v>314633.68615503999</v>
-      </c>
-      <c r="BI15" s="7">
+        <v>730864.2491533088</v>
+      </c>
+      <c r="FA15" s="7">
         <f t="shared" si="65"/>
-        <v>317780.02301659039</v>
-      </c>
-      <c r="BJ15" s="7">
+        <v>738172.89164484187</v>
+      </c>
+      <c r="FB15" s="7">
         <f t="shared" si="65"/>
-        <v>320957.82324675628</v>
-      </c>
-      <c r="BK15" s="7">
+        <v>745554.6205612903</v>
+      </c>
+      <c r="FC15" s="7">
         <f t="shared" si="65"/>
-        <v>324167.40147922386</v>
-      </c>
-      <c r="BL15" s="7">
+        <v>753010.16676690325</v>
+      </c>
+      <c r="FD15" s="7">
         <f t="shared" si="65"/>
-        <v>327409.07549401611</v>
-      </c>
-      <c r="BM15" s="7">
+        <v>760540.26843457227</v>
+      </c>
+      <c r="FE15" s="7">
         <f t="shared" si="65"/>
-        <v>330683.16624895629</v>
-      </c>
-      <c r="BN15" s="7">
+        <v>768145.67111891799</v>
+      </c>
+      <c r="FF15" s="7">
         <f t="shared" si="65"/>
-        <v>333989.99791144585</v>
-      </c>
-      <c r="BO15" s="7">
+        <v>775827.12783010723</v>
+      </c>
+      <c r="FG15" s="7">
         <f t="shared" si="65"/>
-        <v>337329.89789056033</v>
-      </c>
-      <c r="BP15" s="7">
+        <v>783585.39910840825</v>
+      </c>
+      <c r="FH15" s="7">
         <f t="shared" si="65"/>
-        <v>340703.19686946593</v>
-      </c>
-      <c r="BQ15" s="7">
+        <v>791421.25309949229</v>
+      </c>
+      <c r="FI15" s="7">
         <f t="shared" si="65"/>
-        <v>344110.22883816058</v>
-      </c>
-      <c r="BR15" s="7">
+        <v>799335.46563048719</v>
+      </c>
+      <c r="FJ15" s="7">
         <f t="shared" si="65"/>
-        <v>347551.33112654218</v>
-      </c>
-      <c r="BS15" s="7">
+        <v>807328.82028679212</v>
+      </c>
+      <c r="FK15" s="7">
         <f t="shared" si="65"/>
-        <v>351026.84443780762</v>
-      </c>
-      <c r="BT15" s="7">
-        <f t="shared" si="65"/>
-        <v>354537.11288218573</v>
-      </c>
-      <c r="BU15" s="7">
-        <f t="shared" si="65"/>
-        <v>358082.48401100759</v>
-      </c>
-      <c r="BV15" s="7">
-        <f t="shared" si="65"/>
-        <v>361663.30885111768</v>
-      </c>
-      <c r="BW15" s="7">
-        <f t="shared" si="65"/>
-        <v>365279.94193962886</v>
-      </c>
-      <c r="BX15" s="7">
-        <f t="shared" si="65"/>
-        <v>368932.74135902512</v>
-      </c>
-      <c r="BY15" s="7">
-        <f t="shared" si="65"/>
-        <v>372622.0687726154</v>
-      </c>
-      <c r="BZ15" s="7">
-        <f t="shared" si="65"/>
-        <v>376348.28946034156</v>
-      </c>
-      <c r="CA15" s="7">
-        <f t="shared" si="65"/>
-        <v>380111.77235494496</v>
-      </c>
-      <c r="CB15" s="7">
-        <f t="shared" si="65"/>
-        <v>383912.89007849438</v>
-      </c>
-      <c r="CC15" s="7">
-        <f t="shared" si="65"/>
-        <v>387752.01897927932</v>
-      </c>
-      <c r="CD15" s="7">
-        <f t="shared" si="65"/>
-        <v>391629.53916907212</v>
-      </c>
-      <c r="CE15" s="7">
-        <f t="shared" si="65"/>
-        <v>395545.83456076286</v>
-      </c>
-      <c r="CF15" s="7">
-        <f t="shared" si="65"/>
-        <v>399501.29290637048</v>
-      </c>
-      <c r="CG15" s="7">
-        <f t="shared" si="65"/>
-        <v>403496.30583543418</v>
-      </c>
-      <c r="CH15" s="7">
-        <f t="shared" si="65"/>
-        <v>407531.26889378851</v>
-      </c>
-      <c r="CI15" s="7">
-        <f t="shared" si="65"/>
-        <v>411606.58158272639</v>
-      </c>
-      <c r="CJ15" s="7">
-        <f t="shared" ref="CJ15:DO15" si="66">CI15*(1+$Z$19)</f>
-        <v>415722.64739855367</v>
-      </c>
-      <c r="CK15" s="7">
-        <f t="shared" si="66"/>
-        <v>419879.8738725392</v>
-      </c>
-      <c r="CL15" s="7">
-        <f t="shared" si="66"/>
-        <v>424078.67261126457</v>
-      </c>
-      <c r="CM15" s="7">
-        <f t="shared" si="66"/>
-        <v>428319.45933737722</v>
-      </c>
-      <c r="CN15" s="7">
-        <f t="shared" si="66"/>
-        <v>432602.65393075102</v>
-      </c>
-      <c r="CO15" s="7">
-        <f t="shared" si="66"/>
-        <v>436928.68047005852</v>
-      </c>
-      <c r="CP15" s="7">
-        <f t="shared" si="66"/>
-        <v>441297.96727475908</v>
-      </c>
-      <c r="CQ15" s="7">
-        <f t="shared" si="66"/>
-        <v>445710.94694750669</v>
-      </c>
-      <c r="CR15" s="7">
-        <f t="shared" si="66"/>
-        <v>450168.05641698174</v>
-      </c>
-      <c r="CS15" s="7">
-        <f t="shared" si="66"/>
-        <v>454669.73698115157</v>
-      </c>
-      <c r="CT15" s="7">
-        <f t="shared" si="66"/>
-        <v>459216.4343509631</v>
-      </c>
-      <c r="CU15" s="7">
-        <f t="shared" si="66"/>
-        <v>463808.59869447275</v>
-      </c>
-      <c r="CV15" s="7">
-        <f t="shared" si="66"/>
-        <v>468446.68468141748</v>
-      </c>
-      <c r="CW15" s="7">
-        <f t="shared" si="66"/>
-        <v>473131.15152823168</v>
-      </c>
-      <c r="CX15" s="7">
-        <f t="shared" si="66"/>
-        <v>477862.463043514</v>
-      </c>
-      <c r="CY15" s="7">
-        <f t="shared" si="66"/>
-        <v>482641.08767394914</v>
-      </c>
-      <c r="CZ15" s="7">
-        <f t="shared" si="66"/>
-        <v>487467.49855068862</v>
-      </c>
-      <c r="DA15" s="7">
-        <f t="shared" si="66"/>
-        <v>492342.17353619548</v>
-      </c>
-      <c r="DB15" s="7">
-        <f t="shared" si="66"/>
-        <v>497265.59527155745</v>
-      </c>
-      <c r="DC15" s="7">
-        <f t="shared" si="66"/>
-        <v>502238.25122427306</v>
-      </c>
-      <c r="DD15" s="7">
-        <f t="shared" si="66"/>
-        <v>507260.63373651577</v>
-      </c>
-      <c r="DE15" s="7">
-        <f t="shared" si="66"/>
-        <v>512333.24007388094</v>
-      </c>
-      <c r="DF15" s="7">
-        <f t="shared" si="66"/>
-        <v>517456.57247461972</v>
-      </c>
-      <c r="DG15" s="7">
-        <f t="shared" si="66"/>
-        <v>522631.13819936593</v>
-      </c>
-      <c r="DH15" s="7">
-        <f t="shared" si="66"/>
-        <v>527857.44958135963</v>
-      </c>
-      <c r="DI15" s="7">
-        <f t="shared" si="66"/>
-        <v>533136.02407717321</v>
-      </c>
-      <c r="DJ15" s="7">
-        <f t="shared" si="66"/>
-        <v>538467.38431794499</v>
-      </c>
-      <c r="DK15" s="7">
-        <f t="shared" si="66"/>
-        <v>543852.05816112447</v>
-      </c>
-      <c r="DL15" s="7">
-        <f t="shared" si="66"/>
-        <v>549290.57874273567</v>
-      </c>
-      <c r="DM15" s="7">
-        <f t="shared" si="66"/>
-        <v>554783.484530163</v>
-      </c>
-      <c r="DN15" s="7">
-        <f t="shared" si="66"/>
-        <v>560331.31937546458</v>
-      </c>
-      <c r="DO15" s="7">
-        <f t="shared" si="66"/>
-        <v>565934.63256921922</v>
-      </c>
-      <c r="DP15" s="7">
-        <f t="shared" ref="DP15:EU15" si="67">DO15*(1+$Z$19)</f>
-        <v>571593.97889491147</v>
-      </c>
-      <c r="DQ15" s="7">
-        <f t="shared" si="67"/>
-        <v>577309.91868386057</v>
-      </c>
-      <c r="DR15" s="7">
-        <f t="shared" si="67"/>
-        <v>583083.01787069917</v>
-      </c>
-      <c r="DS15" s="7">
-        <f t="shared" si="67"/>
-        <v>588913.8480494062</v>
-      </c>
-      <c r="DT15" s="7">
-        <f t="shared" si="67"/>
-        <v>594802.98652990023</v>
-      </c>
-      <c r="DU15" s="7">
-        <f t="shared" si="67"/>
-        <v>600751.01639519923</v>
-      </c>
-      <c r="DV15" s="7">
-        <f t="shared" si="67"/>
-        <v>606758.52655915124</v>
-      </c>
-      <c r="DW15" s="7">
-        <f t="shared" si="67"/>
-        <v>612826.11182474275</v>
-      </c>
-      <c r="DX15" s="7">
-        <f t="shared" si="67"/>
-        <v>618954.37294299016</v>
-      </c>
-      <c r="DY15" s="7">
-        <f t="shared" si="67"/>
-        <v>625143.91667242011</v>
-      </c>
-      <c r="DZ15" s="7">
-        <f t="shared" si="67"/>
-        <v>631395.35583914432</v>
-      </c>
-      <c r="EA15" s="7">
-        <f t="shared" si="67"/>
-        <v>637709.30939753575</v>
-      </c>
-      <c r="EB15" s="7">
-        <f t="shared" si="67"/>
-        <v>644086.40249151108</v>
-      </c>
-      <c r="EC15" s="7">
-        <f t="shared" si="67"/>
-        <v>650527.26651642623</v>
-      </c>
-      <c r="ED15" s="7">
-        <f t="shared" si="67"/>
-        <v>657032.53918159055</v>
-      </c>
-      <c r="EE15" s="7">
-        <f t="shared" si="67"/>
-        <v>663602.8645734064</v>
-      </c>
-      <c r="EF15" s="7">
-        <f t="shared" si="67"/>
-        <v>670238.89321914047</v>
-      </c>
-      <c r="EG15" s="7">
-        <f t="shared" si="67"/>
-        <v>676941.28215133189</v>
-      </c>
-      <c r="EH15" s="7">
-        <f t="shared" si="67"/>
-        <v>683710.69497284526</v>
-      </c>
-      <c r="EI15" s="7">
-        <f t="shared" si="67"/>
-        <v>690547.80192257371</v>
-      </c>
-      <c r="EJ15" s="7">
-        <f t="shared" si="67"/>
-        <v>697453.27994179947</v>
-      </c>
-      <c r="EK15" s="7">
-        <f t="shared" si="67"/>
-        <v>704427.81274121744</v>
-      </c>
-      <c r="EL15" s="7">
-        <f t="shared" si="67"/>
-        <v>711472.09086862963</v>
-      </c>
-      <c r="EM15" s="7">
-        <f t="shared" si="67"/>
-        <v>718586.81177731592</v>
-      </c>
-      <c r="EN15" s="7">
-        <f t="shared" si="67"/>
-        <v>725772.67989508912</v>
-      </c>
-      <c r="EO15" s="7">
-        <f t="shared" si="67"/>
-        <v>733030.40669404005</v>
-      </c>
-      <c r="EP15" s="7">
-        <f t="shared" si="67"/>
-        <v>740360.7107609805</v>
-      </c>
-      <c r="EQ15" s="7">
-        <f t="shared" si="67"/>
-        <v>747764.31786859035</v>
-      </c>
-      <c r="ER15" s="7">
-        <f t="shared" si="67"/>
-        <v>755241.96104727627</v>
-      </c>
-      <c r="ES15" s="7">
-        <f t="shared" si="67"/>
-        <v>762794.38065774902</v>
-      </c>
-      <c r="ET15" s="7">
-        <f t="shared" si="67"/>
-        <v>770422.32446432649</v>
-      </c>
-      <c r="EU15" s="7">
-        <f t="shared" si="67"/>
-        <v>778126.5477089698</v>
-      </c>
-      <c r="EV15" s="7">
-        <f t="shared" ref="EV15:FK15" si="68">EU15*(1+$Z$19)</f>
-        <v>785907.81318605947</v>
-      </c>
-      <c r="EW15" s="7">
-        <f t="shared" si="68"/>
-        <v>793766.89131792006</v>
-      </c>
-      <c r="EX15" s="7">
-        <f t="shared" si="68"/>
-        <v>801704.56023109925</v>
-      </c>
-      <c r="EY15" s="7">
-        <f t="shared" si="68"/>
-        <v>809721.60583341029</v>
-      </c>
-      <c r="EZ15" s="7">
-        <f t="shared" si="68"/>
-        <v>817818.82189174439</v>
-      </c>
-      <c r="FA15" s="7">
-        <f t="shared" si="68"/>
-        <v>825997.01011066185</v>
-      </c>
-      <c r="FB15" s="7">
-        <f t="shared" si="68"/>
-        <v>834256.98021176853</v>
-      </c>
-      <c r="FC15" s="7">
-        <f t="shared" si="68"/>
-        <v>842599.55001388618</v>
-      </c>
-      <c r="FD15" s="7">
-        <f t="shared" si="68"/>
-        <v>851025.54551402503</v>
-      </c>
-      <c r="FE15" s="7">
-        <f t="shared" si="68"/>
-        <v>859535.80096916528</v>
-      </c>
-      <c r="FF15" s="7">
-        <f t="shared" si="68"/>
-        <v>868131.15897885698</v>
-      </c>
-      <c r="FG15" s="7">
-        <f t="shared" si="68"/>
-        <v>876812.47056864551</v>
-      </c>
-      <c r="FH15" s="7">
-        <f t="shared" si="68"/>
-        <v>885580.59527433198</v>
-      </c>
-      <c r="FI15" s="7">
-        <f t="shared" si="68"/>
-        <v>894436.40122707526</v>
-      </c>
-      <c r="FJ15" s="7">
-        <f t="shared" si="68"/>
-        <v>903380.76523934607</v>
-      </c>
-      <c r="FK15" s="7">
-        <f t="shared" si="68"/>
-        <v>912414.57289173955</v>
+        <v>815402.10848966008</v>
       </c>
     </row>
     <row r="16" spans="1:167" x14ac:dyDescent="0.2">
@@ -2287,52 +2287,52 @@
         <v>6.1132073160273928</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" ref="L16:N16" si="69">L15/L17</f>
+        <f t="shared" ref="L16:N16" si="66">L15/L17</f>
         <v>6.1340711462450592</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>6.08355345564995</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="66"/>
         <v>6.8961236306446123</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" ref="O16" si="70">O15/O17</f>
+        <f t="shared" ref="O16" si="67">O15/O17</f>
         <v>7.4533761696359981</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" ref="P16" si="71">P15/P17</f>
+        <f t="shared" ref="P16" si="68">P15/P17</f>
         <v>8.0638920412003507</v>
       </c>
       <c r="Q16" s="3">
-        <f t="shared" ref="Q16" si="72">Q15/Q17</f>
+        <f t="shared" ref="Q16" si="69">Q15/Q17</f>
         <v>8.7334319118908326</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" ref="R16:W16" si="73">R15/R17</f>
+        <f t="shared" ref="R16:W16" si="70">R15/R17</f>
         <v>9.4684008154106341</v>
       </c>
       <c r="S16" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="70"/>
         <v>10.27592063470324</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="73"/>
-        <v>11.163910734964931</v>
+        <f t="shared" si="70"/>
+        <v>10.873062992271416</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="73"/>
-        <v>12.141177663062791</v>
+        <f t="shared" si="70"/>
+        <v>11.503523748158385</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="73"/>
-        <v>13.217514931536627</v>
+        <f t="shared" si="70"/>
+        <v>12.169255472001575</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="73"/>
-        <v>14.403814019565536</v>
+        <f t="shared" si="70"/>
+        <v>12.872328731689622</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -2404,52 +2404,52 @@
         <v>22</v>
       </c>
       <c r="L19" s="9">
-        <f t="shared" ref="L19:R19" si="74">L4/K4-1</f>
+        <f t="shared" ref="L19:R19" si="71">L4/K4-1</f>
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>2.021994077514111E-2</v>
       </c>
       <c r="N19" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>3.2134105642717348E-2</v>
       </c>
       <c r="O19" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>3.3589489073057699E-2</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>3.5105168207190784E-2</v>
       </c>
       <c r="Q19" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>3.6679110370727352E-2</v>
       </c>
       <c r="R19" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="71"/>
         <v>3.8308684060688103E-2</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" ref="S19" si="75">S4/R4-1</f>
+        <f t="shared" ref="S19" si="72">S4/R4-1</f>
         <v>3.9990650126294103E-2</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" ref="T19" si="76">T4/S4-1</f>
-        <v>4.1721165122895254E-2</v>
+        <f t="shared" ref="T19" si="73">T4/S4-1</f>
+        <v>2.4098295610175624E-2</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" ref="U19" si="77">U4/T4-1</f>
-        <v>4.349579791927205E-2</v>
+        <f t="shared" ref="U19" si="74">U4/T4-1</f>
+        <v>2.4454872597815092E-2</v>
       </c>
       <c r="V19" s="9">
-        <f t="shared" ref="V19" si="78">V4/U4-1</f>
-        <v>4.5309560215449629E-2</v>
+        <f t="shared" ref="V19" si="75">V4/U4-1</f>
+        <v>2.4815309716101241E-2</v>
       </c>
       <c r="W19" s="9">
-        <f t="shared" ref="W19" si="79">W4/V4-1</f>
-        <v>4.7156951122678814E-2</v>
+        <f t="shared" ref="W19" si="76">W4/V4-1</f>
+        <v>2.5179393842404529E-2</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>35</v>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="Z21" s="7">
         <f>NPV(Z20,N35:FK35)+Main!P5-Main!P6</f>
-        <v>2892566.0481878971</v>
+        <v>2675215.4920932585</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2483,63 +2483,63 @@
         <v>24</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" ref="K22:W22" si="80">K7/K4</f>
+        <f t="shared" ref="K22:W22" si="77">K7/K4</f>
         <v>0.43309630561360085</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>0.44131129577207562</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>0.46206349815233932</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>0.47130639920321216</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>0.48100870854714056</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>0.49117651548564073</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>0.50181311295600295</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>0.51291875639921802</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>0.52449046647365938</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="80"/>
-        <v>0.53652188579940407</v>
+        <f t="shared" si="77"/>
+        <v>0.5321238955809916</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="80"/>
-        <v>0.54900319880511894</v>
+        <f t="shared" si="77"/>
+        <v>0.53993793134444235</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="80"/>
-        <v>0.56192112203435618</v>
+        <f t="shared" si="77"/>
+        <v>0.54793426489866504</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" si="80"/>
-        <v>0.57525896999229453</v>
+        <f t="shared" si="77"/>
+        <v>0.55611442165881209</v>
       </c>
       <c r="Y22" s="4" t="s">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
         <f>Z21/Main!P3</f>
-        <v>191.36014282437</v>
+        <v>176.9811337492678</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
@@ -2547,63 +2547,63 @@
         <v>25</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" ref="K23:W23" si="81">K11/K4</f>
+        <f t="shared" ref="K23:W23" si="78">K11/K4</f>
         <v>0.30288744395528594</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>0.29821412265024722</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>0.31510222870075566</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>0.32434512975162855</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>0.33404743909555695</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>0.34421524603405712</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>0.3548518435044194</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>0.36595748694763436</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="81"/>
+        <f t="shared" si="78"/>
         <v>0.37752919702207577</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="81"/>
-        <v>0.38956061634782041</v>
+        <f t="shared" si="78"/>
+        <v>0.38516262612940799</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="81"/>
-        <v>0.40204192935353528</v>
+        <f t="shared" si="78"/>
+        <v>0.39297666189285874</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="81"/>
-        <v>0.41495985258277257</v>
+        <f t="shared" si="78"/>
+        <v>0.40097299544708137</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="81"/>
-        <v>0.42829770054071092</v>
+        <f t="shared" si="78"/>
+        <v>0.40915315220722837</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="Z23" s="8">
         <f>Z22/Main!P2-1</f>
-        <v>-4.3199285878150029E-2</v>
+        <v>-0.23051680978579214</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -2611,56 +2611,56 @@
         <v>50</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" ref="K24:W24" si="82">K35/K4</f>
+        <f t="shared" ref="K24:W24" si="79">K35/K4</f>
         <v>0.28261498042238947</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>0.25981710737440805</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>0.27825386474356517</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>0.30993556044864939</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>0.3240942496228203</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>0.33874938295603674</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>0.35389497764598643</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>0.36952141173522007</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="82"/>
+        <f t="shared" si="79"/>
         <v>0.38561532111379476</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="82"/>
-        <v>0.40215956891202276</v>
+        <f t="shared" si="79"/>
+        <v>0.39842244856105974</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="82"/>
-        <v>0.41913329455266607</v>
+        <f t="shared" si="79"/>
+        <v>0.41146221251750303</v>
       </c>
       <c r="V24" s="8">
-        <f t="shared" si="82"/>
-        <v>0.43651204717004566</v>
+        <f t="shared" si="79"/>
+        <v>0.42473443000908923</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="82"/>
-        <v>0.45426800503547243</v>
+        <f t="shared" si="79"/>
+        <v>0.43823868613074746</v>
       </c>
       <c r="Z24" s="8"/>
     </row>
@@ -2685,51 +2685,51 @@
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="8">
-        <f t="shared" ref="L26:W26" si="83">L2/K2-1</f>
+        <f t="shared" ref="L26:W26" si="80">L2/K2-1</f>
         <v>-5.7286708686618226E-2</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>-1.0798933190197424E-2</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="S26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="V26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" si="83"/>
+        <f t="shared" si="80"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -2739,52 +2739,52 @@
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="8">
-        <f t="shared" ref="L27:W27" si="84">L3/K3-1</f>
+        <f t="shared" ref="L27:W27" si="81">L3/K3-1</f>
         <v>9.0504166186691215E-2</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>0.12874413145539898</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S27" s="8">
-        <f t="shared" si="84"/>
+        <f t="shared" si="81"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T27" s="8">
-        <f t="shared" si="84"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="81"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="84"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="81"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="V27" s="8">
-        <f t="shared" si="84"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="81"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="84"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="81"/>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.2">
@@ -2792,15 +2792,15 @@
         <v>44</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" ref="K28:M29" si="85">(K2-K5)/K2</f>
+        <f t="shared" ref="K28:M29" si="82">(K2-K5)/K2</f>
         <v>0.36283479707399452</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>0.36500662562691849</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>0.37180617636485724</v>
       </c>
       <c r="N28" s="8">
@@ -2808,39 +2808,39 @@
         <v>0.37366520724668151</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" ref="O28:W28" si="86">N28*1.005</f>
+        <f t="shared" ref="O28:W28" si="83">N28*1.005</f>
         <v>0.37553353328291489</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>0.37741120094932945</v>
       </c>
       <c r="Q28" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>0.37929825695407604</v>
       </c>
       <c r="R28" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>0.38119474823884636</v>
       </c>
       <c r="S28" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>0.38310072198004053</v>
       </c>
       <c r="T28" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>0.3850162255899407</v>
       </c>
       <c r="U28" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>0.38694130671789034</v>
       </c>
       <c r="V28" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>0.38887601325147975</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" si="86"/>
+        <f t="shared" si="83"/>
         <v>0.3908203933177371</v>
       </c>
     </row>
@@ -2849,15 +2849,15 @@
         <v>45</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>0.71745446633132381</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>0.70827464788732397</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="85"/>
+        <f t="shared" si="82"/>
         <v>0.7388035645582256</v>
       </c>
       <c r="N29" s="8">
@@ -2865,39 +2865,39 @@
         <v>0.74619160020380781</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" ref="O29:R29" si="87">N29*1.01</f>
+        <f t="shared" ref="O29:R29" si="84">N29*1.01</f>
         <v>0.75365351620584586</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>0.7611900513679043</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>0.7688019518815834</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" si="87"/>
+        <f t="shared" si="84"/>
         <v>0.77648997140039921</v>
       </c>
       <c r="S29" s="8">
-        <f t="shared" ref="S29" si="88">R29*1.01</f>
+        <f t="shared" ref="S29" si="85">R29*1.01</f>
         <v>0.78425487111440317</v>
       </c>
       <c r="T29" s="8">
-        <f t="shared" ref="T29" si="89">S29*1.01</f>
+        <f t="shared" ref="T29" si="86">S29*1.01</f>
         <v>0.79209741982554727</v>
       </c>
       <c r="U29" s="8">
-        <f t="shared" ref="U29" si="90">T29*1.01</f>
+        <f t="shared" ref="U29" si="87">T29*1.01</f>
         <v>0.8000183940238027</v>
       </c>
       <c r="V29" s="8">
-        <f t="shared" ref="V29" si="91">U29*1.01</f>
+        <f t="shared" ref="V29" si="88">U29*1.01</f>
         <v>0.80801857796404075</v>
       </c>
       <c r="W29" s="8">
-        <f t="shared" ref="W29" si="92">V29*1.01</f>
+        <f t="shared" ref="W29" si="89">V29*1.01</f>
         <v>0.81609876374368118</v>
       </c>
     </row>
@@ -2906,56 +2906,56 @@
         <v>9</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" ref="K30:W30" si="93">K3/K4</f>
+        <f t="shared" ref="K30:W30" si="90">K3/K4</f>
         <v>0.19813201192915542</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.222288897295746</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.24593450714130449</v>
       </c>
       <c r="N30" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.26210543414508647</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.27894631341323162</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.29643455967474824</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.31454093400764499</v>
       </c>
       <c r="R30" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.33322944584771141</v>
       </c>
       <c r="S30" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="90"/>
         <v>0.35245739025439243</v>
       </c>
       <c r="T30" s="8">
-        <f t="shared" si="93"/>
-        <v>0.37217553243635315</v>
+        <f t="shared" si="90"/>
+        <v>0.36137181494537279</v>
       </c>
       <c r="U30" s="8">
-        <f t="shared" si="93"/>
-        <v>0.39232844683832679</v>
+        <f t="shared" si="90"/>
+        <v>0.37038274290253076</v>
       </c>
       <c r="V30" s="8">
-        <f t="shared" si="93"/>
-        <v>0.41285501247420919</v>
+        <f t="shared" si="90"/>
+        <v>0.37948484606010874</v>
       </c>
       <c r="W30" s="8">
-        <f t="shared" si="93"/>
-        <v>0.43368905992051776</v>
+        <f t="shared" si="90"/>
+        <v>0.38867254917178651</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
@@ -2963,56 +2963,56 @@
         <v>8</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" ref="K31:W31" si="94">K2/K4</f>
+        <f t="shared" ref="K31:W31" si="91">K2/K4</f>
         <v>0.80186798807084458</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>0.77771110270425403</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>0.75406549285869551</v>
       </c>
       <c r="N31" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>0.73789456585491353</v>
       </c>
       <c r="O31" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>0.72105368658676827</v>
       </c>
       <c r="P31" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>0.70356544032525181</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>0.68545906599235507</v>
       </c>
       <c r="R31" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>0.6667705541522887</v>
       </c>
       <c r="S31" s="8">
-        <f t="shared" si="94"/>
+        <f t="shared" si="91"/>
         <v>0.64754260974560751</v>
       </c>
       <c r="T31" s="8">
-        <f t="shared" si="94"/>
-        <v>0.62782446756364685</v>
+        <f t="shared" si="91"/>
+        <v>0.63862818505462726</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" si="94"/>
-        <v>0.60767155316167309</v>
+        <f t="shared" si="91"/>
+        <v>0.62961725709746919</v>
       </c>
       <c r="V31" s="8">
-        <f t="shared" si="94"/>
-        <v>0.5871449875257907</v>
+        <f t="shared" si="91"/>
+        <v>0.62051515393989132</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="94"/>
-        <v>0.56631094007948213</v>
+        <f t="shared" si="91"/>
+        <v>0.61132745082821349</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
@@ -3135,11 +3135,11 @@
         <v>111443</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" ref="L35:M35" si="95">L33-L34</f>
+        <f t="shared" ref="L35:M35" si="92">L33-L34</f>
         <v>99584</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="95"/>
+        <f t="shared" si="92"/>
         <v>108807</v>
       </c>
       <c r="N35" s="7">
@@ -3147,600 +3147,600 @@
         <v>125090.16576098875</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" ref="O35:W35" si="96">O15*1.2</f>
+        <f t="shared" ref="O35:W35" si="93">O15*1.2</f>
         <v>135198.28101626129</v>
       </c>
       <c r="P35" s="7">
+        <f t="shared" si="93"/>
+        <v>146272.55051374141</v>
+      </c>
+      <c r="Q35" s="7">
+        <f t="shared" si="93"/>
+        <v>158417.46813617021</v>
+      </c>
+      <c r="R35" s="7">
+        <f t="shared" si="93"/>
+        <v>171749.21607089657</v>
+      </c>
+      <c r="S35" s="7">
+        <f t="shared" si="93"/>
+        <v>186396.97957700901</v>
+      </c>
+      <c r="T35" s="7">
+        <f t="shared" si="93"/>
+        <v>197228.66422940968</v>
+      </c>
+      <c r="U35" s="7">
+        <f t="shared" si="93"/>
+        <v>208664.71797259458</v>
+      </c>
+      <c r="V35" s="7">
+        <f t="shared" si="93"/>
+        <v>220740.55885773097</v>
+      </c>
+      <c r="W35" s="7">
+        <f t="shared" si="93"/>
+        <v>233493.74532986441</v>
+      </c>
+      <c r="X35" s="7">
+        <f t="shared" ref="X35:BC35" si="94">W35*(1+$Z$19)</f>
+        <v>235828.68278316307</v>
+      </c>
+      <c r="Y35" s="7">
+        <f t="shared" si="94"/>
+        <v>238186.96961099471</v>
+      </c>
+      <c r="Z35" s="7">
+        <f t="shared" si="94"/>
+        <v>240568.83930710467</v>
+      </c>
+      <c r="AA35" s="7">
+        <f t="shared" si="94"/>
+        <v>242974.52770017573</v>
+      </c>
+      <c r="AB35" s="7">
+        <f t="shared" si="94"/>
+        <v>245404.27297717749</v>
+      </c>
+      <c r="AC35" s="7">
+        <f t="shared" si="94"/>
+        <v>247858.31570694927</v>
+      </c>
+      <c r="AD35" s="7">
+        <f t="shared" si="94"/>
+        <v>250336.89886401876</v>
+      </c>
+      <c r="AE35" s="7">
+        <f t="shared" si="94"/>
+        <v>252840.26785265896</v>
+      </c>
+      <c r="AF35" s="7">
+        <f t="shared" si="94"/>
+        <v>255368.67053118555</v>
+      </c>
+      <c r="AG35" s="7">
+        <f t="shared" si="94"/>
+        <v>257922.3572364974</v>
+      </c>
+      <c r="AH35" s="7">
+        <f t="shared" si="94"/>
+        <v>260501.58080886237</v>
+      </c>
+      <c r="AI35" s="7">
+        <f t="shared" si="94"/>
+        <v>263106.59661695099</v>
+      </c>
+      <c r="AJ35" s="7">
+        <f t="shared" si="94"/>
+        <v>265737.66258312052</v>
+      </c>
+      <c r="AK35" s="7">
+        <f t="shared" si="94"/>
+        <v>268395.0392089517</v>
+      </c>
+      <c r="AL35" s="7">
+        <f t="shared" si="94"/>
+        <v>271078.98960104119</v>
+      </c>
+      <c r="AM35" s="7">
+        <f t="shared" si="94"/>
+        <v>273789.77949705161</v>
+      </c>
+      <c r="AN35" s="7">
+        <f t="shared" si="94"/>
+        <v>276527.67729202216</v>
+      </c>
+      <c r="AO35" s="7">
+        <f t="shared" si="94"/>
+        <v>279292.95406494237</v>
+      </c>
+      <c r="AP35" s="7">
+        <f t="shared" si="94"/>
+        <v>282085.88360559178</v>
+      </c>
+      <c r="AQ35" s="7">
+        <f t="shared" si="94"/>
+        <v>284906.74244164769</v>
+      </c>
+      <c r="AR35" s="7">
+        <f t="shared" si="94"/>
+        <v>287755.80986606417</v>
+      </c>
+      <c r="AS35" s="7">
+        <f t="shared" si="94"/>
+        <v>290633.36796472484</v>
+      </c>
+      <c r="AT35" s="7">
+        <f t="shared" si="94"/>
+        <v>293539.70164437208</v>
+      </c>
+      <c r="AU35" s="7">
+        <f t="shared" si="94"/>
+        <v>296475.0986608158</v>
+      </c>
+      <c r="AV35" s="7">
+        <f t="shared" si="94"/>
+        <v>299439.84964742395</v>
+      </c>
+      <c r="AW35" s="7">
+        <f t="shared" si="94"/>
+        <v>302434.24814389821</v>
+      </c>
+      <c r="AX35" s="7">
+        <f t="shared" si="94"/>
+        <v>305458.59062533721</v>
+      </c>
+      <c r="AY35" s="7">
+        <f t="shared" si="94"/>
+        <v>308513.17653159058</v>
+      </c>
+      <c r="AZ35" s="7">
+        <f t="shared" si="94"/>
+        <v>311598.30829690647</v>
+      </c>
+      <c r="BA35" s="7">
+        <f t="shared" si="94"/>
+        <v>314714.29137987556</v>
+      </c>
+      <c r="BB35" s="7">
+        <f t="shared" si="94"/>
+        <v>317861.43429367431</v>
+      </c>
+      <c r="BC35" s="7">
+        <f t="shared" si="94"/>
+        <v>321040.04863661103</v>
+      </c>
+      <c r="BD35" s="7">
+        <f t="shared" ref="BD35:CI35" si="95">BC35*(1+$Z$19)</f>
+        <v>324250.44912297715</v>
+      </c>
+      <c r="BE35" s="7">
+        <f t="shared" si="95"/>
+        <v>327492.95361420693</v>
+      </c>
+      <c r="BF35" s="7">
+        <f t="shared" si="95"/>
+        <v>330767.88315034902</v>
+      </c>
+      <c r="BG35" s="7">
+        <f t="shared" si="95"/>
+        <v>334075.56198185252</v>
+      </c>
+      <c r="BH35" s="7">
+        <f t="shared" si="95"/>
+        <v>337416.31760167103</v>
+      </c>
+      <c r="BI35" s="7">
+        <f t="shared" si="95"/>
+        <v>340790.48077768774</v>
+      </c>
+      <c r="BJ35" s="7">
+        <f t="shared" si="95"/>
+        <v>344198.3855854646</v>
+      </c>
+      <c r="BK35" s="7">
+        <f t="shared" si="95"/>
+        <v>347640.36944131926</v>
+      </c>
+      <c r="BL35" s="7">
+        <f t="shared" si="95"/>
+        <v>351116.77313573245</v>
+      </c>
+      <c r="BM35" s="7">
+        <f t="shared" si="95"/>
+        <v>354627.94086708978</v>
+      </c>
+      <c r="BN35" s="7">
+        <f t="shared" si="95"/>
+        <v>358174.22027576069</v>
+      </c>
+      <c r="BO35" s="7">
+        <f t="shared" si="95"/>
+        <v>361755.96247851831</v>
+      </c>
+      <c r="BP35" s="7">
+        <f t="shared" si="95"/>
+        <v>365373.52210330352</v>
+      </c>
+      <c r="BQ35" s="7">
+        <f t="shared" si="95"/>
+        <v>369027.25732433656</v>
+      </c>
+      <c r="BR35" s="7">
+        <f t="shared" si="95"/>
+        <v>372717.52989757992</v>
+      </c>
+      <c r="BS35" s="7">
+        <f t="shared" si="95"/>
+        <v>376444.7051965557</v>
+      </c>
+      <c r="BT35" s="7">
+        <f t="shared" si="95"/>
+        <v>380209.15224852128</v>
+      </c>
+      <c r="BU35" s="7">
+        <f t="shared" si="95"/>
+        <v>384011.24377100647</v>
+      </c>
+      <c r="BV35" s="7">
+        <f t="shared" si="95"/>
+        <v>387851.35620871652</v>
+      </c>
+      <c r="BW35" s="7">
+        <f t="shared" si="95"/>
+        <v>391729.86977080366</v>
+      </c>
+      <c r="BX35" s="7">
+        <f t="shared" si="95"/>
+        <v>395647.16846851172</v>
+      </c>
+      <c r="BY35" s="7">
+        <f t="shared" si="95"/>
+        <v>399603.64015319681</v>
+      </c>
+      <c r="BZ35" s="7">
+        <f t="shared" si="95"/>
+        <v>403599.67655472877</v>
+      </c>
+      <c r="CA35" s="7">
+        <f t="shared" si="95"/>
+        <v>407635.67332027608</v>
+      </c>
+      <c r="CB35" s="7">
+        <f t="shared" si="95"/>
+        <v>411712.03005347884</v>
+      </c>
+      <c r="CC35" s="7">
+        <f t="shared" si="95"/>
+        <v>415829.1503540136</v>
+      </c>
+      <c r="CD35" s="7">
+        <f t="shared" si="95"/>
+        <v>419987.44185755373</v>
+      </c>
+      <c r="CE35" s="7">
+        <f t="shared" si="95"/>
+        <v>424187.31627612928</v>
+      </c>
+      <c r="CF35" s="7">
+        <f t="shared" si="95"/>
+        <v>428429.18943889055</v>
+      </c>
+      <c r="CG35" s="7">
+        <f t="shared" si="95"/>
+        <v>432713.48133327946</v>
+      </c>
+      <c r="CH35" s="7">
+        <f t="shared" si="95"/>
+        <v>437040.61614661227</v>
+      </c>
+      <c r="CI35" s="7">
+        <f t="shared" si="95"/>
+        <v>441411.02230807842</v>
+      </c>
+      <c r="CJ35" s="7">
+        <f t="shared" ref="CJ35:DO35" si="96">CI35*(1+$Z$19)</f>
+        <v>445825.13253115921</v>
+      </c>
+      <c r="CK35" s="7">
         <f t="shared" si="96"/>
-        <v>146272.55051374141</v>
-      </c>
-      <c r="Q35" s="7">
+        <v>450283.38385647081</v>
+      </c>
+      <c r="CL35" s="7">
         <f t="shared" si="96"/>
-        <v>158417.46813617021</v>
-      </c>
-      <c r="R35" s="7">
+        <v>454786.21769503551</v>
+      </c>
+      <c r="CM35" s="7">
         <f t="shared" si="96"/>
-        <v>171749.21607089657</v>
-      </c>
-      <c r="S35" s="7">
+        <v>459334.07987198589</v>
+      </c>
+      <c r="CN35" s="7">
         <f t="shared" si="96"/>
-        <v>186396.97957700901</v>
-      </c>
-      <c r="T35" s="7">
+        <v>463927.42067070573</v>
+      </c>
+      <c r="CO35" s="7">
         <f t="shared" si="96"/>
-        <v>202504.40960367586</v>
-      </c>
-      <c r="U35" s="7">
+        <v>468566.69487741281</v>
+      </c>
+      <c r="CP35" s="7">
         <f t="shared" si="96"/>
-        <v>220231.24986582858</v>
-      </c>
-      <c r="V35" s="7">
+        <v>473252.36182618694</v>
+      </c>
+      <c r="CQ35" s="7">
         <f t="shared" si="96"/>
-        <v>239755.14684612918</v>
-      </c>
-      <c r="W35" s="7">
+        <v>477984.8854444488</v>
+      </c>
+      <c r="CR35" s="7">
         <f t="shared" si="96"/>
-        <v>261273.66326370314</v>
-      </c>
-      <c r="X35" s="7">
-        <f t="shared" ref="X35:BC35" si="97">W35*(1+$Z$19)</f>
-        <v>263886.39989634015</v>
-      </c>
-      <c r="Y35" s="7">
+        <v>482764.73429889331</v>
+      </c>
+      <c r="CS35" s="7">
+        <f t="shared" si="96"/>
+        <v>487592.38164188224</v>
+      </c>
+      <c r="CT35" s="7">
+        <f t="shared" si="96"/>
+        <v>492468.30545830104</v>
+      </c>
+      <c r="CU35" s="7">
+        <f t="shared" si="96"/>
+        <v>497392.98851288407</v>
+      </c>
+      <c r="CV35" s="7">
+        <f t="shared" si="96"/>
+        <v>502366.91839801293</v>
+      </c>
+      <c r="CW35" s="7">
+        <f t="shared" si="96"/>
+        <v>507390.58758199308</v>
+      </c>
+      <c r="CX35" s="7">
+        <f t="shared" si="96"/>
+        <v>512464.49345781299</v>
+      </c>
+      <c r="CY35" s="7">
+        <f t="shared" si="96"/>
+        <v>517589.13839239115</v>
+      </c>
+      <c r="CZ35" s="7">
+        <f t="shared" si="96"/>
+        <v>522765.02977631509</v>
+      </c>
+      <c r="DA35" s="7">
+        <f t="shared" si="96"/>
+        <v>527992.68007407826</v>
+      </c>
+      <c r="DB35" s="7">
+        <f t="shared" si="96"/>
+        <v>533272.60687481903</v>
+      </c>
+      <c r="DC35" s="7">
+        <f t="shared" si="96"/>
+        <v>538605.33294356719</v>
+      </c>
+      <c r="DD35" s="7">
+        <f t="shared" si="96"/>
+        <v>543991.38627300283</v>
+      </c>
+      <c r="DE35" s="7">
+        <f t="shared" si="96"/>
+        <v>549431.30013573286</v>
+      </c>
+      <c r="DF35" s="7">
+        <f t="shared" si="96"/>
+        <v>554925.61313709023</v>
+      </c>
+      <c r="DG35" s="7">
+        <f t="shared" si="96"/>
+        <v>560474.86926846113</v>
+      </c>
+      <c r="DH35" s="7">
+        <f t="shared" si="96"/>
+        <v>566079.6179611457</v>
+      </c>
+      <c r="DI35" s="7">
+        <f t="shared" si="96"/>
+        <v>571740.41414075717</v>
+      </c>
+      <c r="DJ35" s="7">
+        <f t="shared" si="96"/>
+        <v>577457.81828216475</v>
+      </c>
+      <c r="DK35" s="7">
+        <f t="shared" si="96"/>
+        <v>583232.39646498638</v>
+      </c>
+      <c r="DL35" s="7">
+        <f t="shared" si="96"/>
+        <v>589064.72042963619</v>
+      </c>
+      <c r="DM35" s="7">
+        <f t="shared" si="96"/>
+        <v>594955.3676339325</v>
+      </c>
+      <c r="DN35" s="7">
+        <f t="shared" si="96"/>
+        <v>600904.92131027183</v>
+      </c>
+      <c r="DO35" s="7">
+        <f t="shared" si="96"/>
+        <v>606913.9705233745</v>
+      </c>
+      <c r="DP35" s="7">
+        <f t="shared" ref="DP35:EU35" si="97">DO35*(1+$Z$19)</f>
+        <v>612983.11022860825</v>
+      </c>
+      <c r="DQ35" s="7">
         <f t="shared" si="97"/>
-        <v>266525.26389530353</v>
-      </c>
-      <c r="Z35" s="7">
+        <v>619112.94133089436</v>
+      </c>
+      <c r="DR35" s="7">
         <f t="shared" si="97"/>
-        <v>269190.51653425657</v>
-      </c>
-      <c r="AA35" s="7">
+        <v>625304.07074420329</v>
+      </c>
+      <c r="DS35" s="7">
         <f t="shared" si="97"/>
-        <v>271882.42169959913</v>
-      </c>
-      <c r="AB35" s="7">
+        <v>631557.11145164538</v>
+      </c>
+      <c r="DT35" s="7">
         <f t="shared" si="97"/>
-        <v>274601.2459165951</v>
-      </c>
-      <c r="AC35" s="7">
+        <v>637872.68256616185</v>
+      </c>
+      <c r="DU35" s="7">
         <f t="shared" si="97"/>
-        <v>277347.25837576104</v>
-      </c>
-      <c r="AD35" s="7">
+        <v>644251.40939182346</v>
+      </c>
+      <c r="DV35" s="7">
         <f t="shared" si="97"/>
-        <v>280120.73095951864</v>
-      </c>
-      <c r="AE35" s="7">
+        <v>650693.92348574172</v>
+      </c>
+      <c r="DW35" s="7">
         <f t="shared" si="97"/>
-        <v>282921.93826911383</v>
-      </c>
-      <c r="AF35" s="7">
+        <v>657200.86272059917</v>
+      </c>
+      <c r="DX35" s="7">
         <f t="shared" si="97"/>
-        <v>285751.15765180497</v>
-      </c>
-      <c r="AG35" s="7">
+        <v>663772.87134780514</v>
+      </c>
+      <c r="DY35" s="7">
         <f t="shared" si="97"/>
-        <v>288608.66922832304</v>
-      </c>
-      <c r="AH35" s="7">
+        <v>670410.60006128321</v>
+      </c>
+      <c r="DZ35" s="7">
         <f t="shared" si="97"/>
-        <v>291494.75592060626</v>
-      </c>
-      <c r="AI35" s="7">
+        <v>677114.70606189605</v>
+      </c>
+      <c r="EA35" s="7">
         <f t="shared" si="97"/>
-        <v>294409.70347981231</v>
-      </c>
-      <c r="AJ35" s="7">
+        <v>683885.85312251502</v>
+      </c>
+      <c r="EB35" s="7">
         <f t="shared" si="97"/>
-        <v>297353.80051461043</v>
-      </c>
-      <c r="AK35" s="7">
+        <v>690724.71165374015</v>
+      </c>
+      <c r="EC35" s="7">
         <f t="shared" si="97"/>
-        <v>300327.33851975651</v>
-      </c>
-      <c r="AL35" s="7">
+        <v>697631.95877027756</v>
+      </c>
+      <c r="ED35" s="7">
         <f t="shared" si="97"/>
-        <v>303330.61190495407</v>
-      </c>
-      <c r="AM35" s="7">
+        <v>704608.27835798031</v>
+      </c>
+      <c r="EE35" s="7">
         <f t="shared" si="97"/>
-        <v>306363.91802400362</v>
-      </c>
-      <c r="AN35" s="7">
+        <v>711654.36114156013</v>
+      </c>
+      <c r="EF35" s="7">
         <f t="shared" si="97"/>
-        <v>309427.55720424367</v>
-      </c>
-      <c r="AO35" s="7">
+        <v>718770.9047529758</v>
+      </c>
+      <c r="EG35" s="7">
         <f t="shared" si="97"/>
-        <v>312521.83277628612</v>
-      </c>
-      <c r="AP35" s="7">
+        <v>725958.61380050553</v>
+      </c>
+      <c r="EH35" s="7">
         <f t="shared" si="97"/>
-        <v>315647.05110404897</v>
-      </c>
-      <c r="AQ35" s="7">
+        <v>733218.19993851054</v>
+      </c>
+      <c r="EI35" s="7">
         <f t="shared" si="97"/>
-        <v>318803.52161508944</v>
-      </c>
-      <c r="AR35" s="7">
+        <v>740550.38193789567</v>
+      </c>
+      <c r="EJ35" s="7">
         <f t="shared" si="97"/>
-        <v>321991.55683124036</v>
-      </c>
-      <c r="AS35" s="7">
+        <v>747955.88575727458</v>
+      </c>
+      <c r="EK35" s="7">
         <f t="shared" si="97"/>
-        <v>325211.47239955276</v>
-      </c>
-      <c r="AT35" s="7">
+        <v>755435.44461484731</v>
+      </c>
+      <c r="EL35" s="7">
         <f t="shared" si="97"/>
-        <v>328463.58712354826</v>
-      </c>
-      <c r="AU35" s="7">
+        <v>762989.79906099581</v>
+      </c>
+      <c r="EM35" s="7">
         <f t="shared" si="97"/>
-        <v>331748.22299478378</v>
-      </c>
-      <c r="AV35" s="7">
+        <v>770619.69705160579</v>
+      </c>
+      <c r="EN35" s="7">
         <f t="shared" si="97"/>
-        <v>335065.70522473165</v>
-      </c>
-      <c r="AW35" s="7">
+        <v>778325.89402212191</v>
+      </c>
+      <c r="EO35" s="7">
         <f t="shared" si="97"/>
-        <v>338416.36227697897</v>
-      </c>
-      <c r="AX35" s="7">
+        <v>786109.15296234319</v>
+      </c>
+      <c r="EP35" s="7">
         <f t="shared" si="97"/>
-        <v>341800.52589974878</v>
-      </c>
-      <c r="AY35" s="7">
+        <v>793970.24449196667</v>
+      </c>
+      <c r="EQ35" s="7">
         <f t="shared" si="97"/>
-        <v>345218.53115874628</v>
-      </c>
-      <c r="AZ35" s="7">
+        <v>801909.94693688629</v>
+      </c>
+      <c r="ER35" s="7">
         <f t="shared" si="97"/>
-        <v>348670.71647033375</v>
-      </c>
-      <c r="BA35" s="7">
+        <v>809929.04640625522</v>
+      </c>
+      <c r="ES35" s="7">
         <f t="shared" si="97"/>
-        <v>352157.42363503709</v>
-      </c>
-      <c r="BB35" s="7">
+        <v>818028.33687031781</v>
+      </c>
+      <c r="ET35" s="7">
         <f t="shared" si="97"/>
-        <v>355678.99787138746</v>
-      </c>
-      <c r="BC35" s="7">
+        <v>826208.62023902102</v>
+      </c>
+      <c r="EU35" s="7">
         <f t="shared" si="97"/>
-        <v>359235.78785010136</v>
-      </c>
-      <c r="BD35" s="7">
-        <f t="shared" ref="BD35:CI35" si="98">BC35*(1+$Z$19)</f>
-        <v>362828.14572860237</v>
-      </c>
-      <c r="BE35" s="7">
+        <v>834470.70644141128</v>
+      </c>
+      <c r="EV35" s="7">
+        <f t="shared" ref="EV35:FG35" si="98">EU35*(1+$Z$19)</f>
+        <v>842815.41350582545</v>
+      </c>
+      <c r="EW35" s="7">
         <f t="shared" si="98"/>
-        <v>366456.4271858884</v>
-      </c>
-      <c r="BF35" s="7">
+        <v>851243.56764088373</v>
+      </c>
+      <c r="EX35" s="7">
         <f t="shared" si="98"/>
-        <v>370120.9914577473</v>
-      </c>
-      <c r="BG35" s="7">
+        <v>859756.00331729255</v>
+      </c>
+      <c r="EY35" s="7">
         <f t="shared" si="98"/>
-        <v>373822.20137232478</v>
-      </c>
-      <c r="BH35" s="7">
+        <v>868353.5633504655</v>
+      </c>
+      <c r="EZ35" s="7">
         <f t="shared" si="98"/>
-        <v>377560.42338604806</v>
-      </c>
-      <c r="BI35" s="7">
+        <v>877037.09898397012</v>
+      </c>
+      <c r="FA35" s="7">
         <f t="shared" si="98"/>
-        <v>381336.02761990856</v>
-      </c>
-      <c r="BJ35" s="7">
+        <v>885807.46997380978</v>
+      </c>
+      <c r="FB35" s="7">
         <f t="shared" si="98"/>
-        <v>385149.38789610763</v>
-      </c>
-      <c r="BK35" s="7">
+        <v>894665.54467354785</v>
+      </c>
+      <c r="FC35" s="7">
         <f t="shared" si="98"/>
-        <v>389000.8817750687</v>
-      </c>
-      <c r="BL35" s="7">
+        <v>903612.20012028329</v>
+      </c>
+      <c r="FD35" s="7">
         <f t="shared" si="98"/>
-        <v>392890.89059281937</v>
-      </c>
-      <c r="BM35" s="7">
+        <v>912648.32212148618</v>
+      </c>
+      <c r="FE35" s="7">
         <f t="shared" si="98"/>
-        <v>396819.79949874757</v>
-      </c>
-      <c r="BN35" s="7">
+        <v>921774.80534270103</v>
+      </c>
+      <c r="FF35" s="7">
         <f t="shared" si="98"/>
-        <v>400787.99749373505</v>
-      </c>
-      <c r="BO35" s="7">
+        <v>930992.553396128</v>
+      </c>
+      <c r="FG35" s="7">
         <f t="shared" si="98"/>
-        <v>404795.87746867241</v>
-      </c>
-      <c r="BP35" s="7">
-        <f t="shared" si="98"/>
-        <v>408843.83624335914</v>
-      </c>
-      <c r="BQ35" s="7">
-        <f t="shared" si="98"/>
-        <v>412932.27460579271</v>
-      </c>
-      <c r="BR35" s="7">
-        <f t="shared" si="98"/>
-        <v>417061.59735185065</v>
-      </c>
-      <c r="BS35" s="7">
-        <f t="shared" si="98"/>
-        <v>421232.21332536917</v>
-      </c>
-      <c r="BT35" s="7">
-        <f t="shared" si="98"/>
-        <v>425444.53545862285</v>
-      </c>
-      <c r="BU35" s="7">
-        <f t="shared" si="98"/>
-        <v>429698.98081320908</v>
-      </c>
-      <c r="BV35" s="7">
-        <f t="shared" si="98"/>
-        <v>433995.9706213412</v>
-      </c>
-      <c r="BW35" s="7">
-        <f t="shared" si="98"/>
-        <v>438335.93032755464</v>
-      </c>
-      <c r="BX35" s="7">
-        <f t="shared" si="98"/>
-        <v>442719.28963083017</v>
-      </c>
-      <c r="BY35" s="7">
-        <f t="shared" si="98"/>
-        <v>447146.48252713849</v>
-      </c>
-      <c r="BZ35" s="7">
-        <f t="shared" si="98"/>
-        <v>451617.94735240989</v>
-      </c>
-      <c r="CA35" s="7">
-        <f t="shared" si="98"/>
-        <v>456134.12682593398</v>
-      </c>
-      <c r="CB35" s="7">
-        <f t="shared" si="98"/>
-        <v>460695.46809419332</v>
-      </c>
-      <c r="CC35" s="7">
-        <f t="shared" si="98"/>
-        <v>465302.42277513526</v>
-      </c>
-      <c r="CD35" s="7">
-        <f t="shared" si="98"/>
-        <v>469955.44700288662</v>
-      </c>
-      <c r="CE35" s="7">
-        <f t="shared" si="98"/>
-        <v>474655.00147291546</v>
-      </c>
-      <c r="CF35" s="7">
-        <f t="shared" si="98"/>
-        <v>479401.55148764461</v>
-      </c>
-      <c r="CG35" s="7">
-        <f t="shared" si="98"/>
-        <v>484195.56700252107</v>
-      </c>
-      <c r="CH35" s="7">
-        <f t="shared" si="98"/>
-        <v>489037.52267254627</v>
-      </c>
-      <c r="CI35" s="7">
-        <f t="shared" si="98"/>
-        <v>493927.89789927175</v>
-      </c>
-      <c r="CJ35" s="7">
-        <f t="shared" ref="CJ35:DO35" si="99">CI35*(1+$Z$19)</f>
-        <v>498867.17687826446</v>
-      </c>
-      <c r="CK35" s="7">
-        <f t="shared" si="99"/>
-        <v>503855.84864704713</v>
-      </c>
-      <c r="CL35" s="7">
-        <f t="shared" si="99"/>
-        <v>508894.40713351761</v>
-      </c>
-      <c r="CM35" s="7">
-        <f t="shared" si="99"/>
-        <v>513983.35120485281</v>
-      </c>
-      <c r="CN35" s="7">
-        <f t="shared" si="99"/>
-        <v>519123.18471690133</v>
-      </c>
-      <c r="CO35" s="7">
-        <f t="shared" si="99"/>
-        <v>524314.41656407039</v>
-      </c>
-      <c r="CP35" s="7">
-        <f t="shared" si="99"/>
-        <v>529557.56072971108</v>
-      </c>
-      <c r="CQ35" s="7">
-        <f t="shared" si="99"/>
-        <v>534853.13633700821</v>
-      </c>
-      <c r="CR35" s="7">
-        <f t="shared" si="99"/>
-        <v>540201.66770037834</v>
-      </c>
-      <c r="CS35" s="7">
-        <f t="shared" si="99"/>
-        <v>545603.68437738216</v>
-      </c>
-      <c r="CT35" s="7">
-        <f t="shared" si="99"/>
-        <v>551059.72122115595</v>
-      </c>
-      <c r="CU35" s="7">
-        <f t="shared" si="99"/>
-        <v>556570.31843336753</v>
-      </c>
-      <c r="CV35" s="7">
-        <f t="shared" si="99"/>
-        <v>562136.02161770116</v>
-      </c>
-      <c r="CW35" s="7">
-        <f t="shared" si="99"/>
-        <v>567757.38183387823</v>
-      </c>
-      <c r="CX35" s="7">
-        <f t="shared" si="99"/>
-        <v>573434.95565221703</v>
-      </c>
-      <c r="CY35" s="7">
-        <f t="shared" si="99"/>
-        <v>579169.30520873924</v>
-      </c>
-      <c r="CZ35" s="7">
-        <f t="shared" si="99"/>
-        <v>584960.99826082669</v>
-      </c>
-      <c r="DA35" s="7">
-        <f t="shared" si="99"/>
-        <v>590810.60824343492</v>
-      </c>
-      <c r="DB35" s="7">
-        <f t="shared" si="99"/>
-        <v>596718.71432586922</v>
-      </c>
-      <c r="DC35" s="7">
-        <f t="shared" si="99"/>
-        <v>602685.90146912797</v>
-      </c>
-      <c r="DD35" s="7">
-        <f t="shared" si="99"/>
-        <v>608712.76048381929</v>
-      </c>
-      <c r="DE35" s="7">
-        <f t="shared" si="99"/>
-        <v>614799.88808865752</v>
-      </c>
-      <c r="DF35" s="7">
-        <f t="shared" si="99"/>
-        <v>620947.88696954411</v>
-      </c>
-      <c r="DG35" s="7">
-        <f t="shared" si="99"/>
-        <v>627157.36583923956</v>
-      </c>
-      <c r="DH35" s="7">
-        <f t="shared" si="99"/>
-        <v>633428.93949763197</v>
-      </c>
-      <c r="DI35" s="7">
-        <f t="shared" si="99"/>
-        <v>639763.22889260831</v>
-      </c>
-      <c r="DJ35" s="7">
-        <f t="shared" si="99"/>
-        <v>646160.86118153436</v>
-      </c>
-      <c r="DK35" s="7">
-        <f t="shared" si="99"/>
-        <v>652622.46979334974</v>
-      </c>
-      <c r="DL35" s="7">
-        <f t="shared" si="99"/>
-        <v>659148.69449128327</v>
-      </c>
-      <c r="DM35" s="7">
-        <f t="shared" si="99"/>
-        <v>665740.18143619609</v>
-      </c>
-      <c r="DN35" s="7">
-        <f t="shared" si="99"/>
-        <v>672397.583250558</v>
-      </c>
-      <c r="DO35" s="7">
-        <f t="shared" si="99"/>
-        <v>679121.55908306362</v>
-      </c>
-      <c r="DP35" s="7">
-        <f t="shared" ref="DP35:EU35" si="100">DO35*(1+$Z$19)</f>
-        <v>685912.77467389428</v>
-      </c>
-      <c r="DQ35" s="7">
-        <f t="shared" si="100"/>
-        <v>692771.90242063324</v>
-      </c>
-      <c r="DR35" s="7">
-        <f t="shared" si="100"/>
-        <v>699699.62144483963</v>
-      </c>
-      <c r="DS35" s="7">
-        <f t="shared" si="100"/>
-        <v>706696.61765928799</v>
-      </c>
-      <c r="DT35" s="7">
-        <f t="shared" si="100"/>
-        <v>713763.58383588085</v>
-      </c>
-      <c r="DU35" s="7">
-        <f t="shared" si="100"/>
-        <v>720901.21967423963</v>
-      </c>
-      <c r="DV35" s="7">
-        <f t="shared" si="100"/>
-        <v>728110.23187098198</v>
-      </c>
-      <c r="DW35" s="7">
-        <f t="shared" si="100"/>
-        <v>735391.33418969181</v>
-      </c>
-      <c r="DX35" s="7">
-        <f t="shared" si="100"/>
-        <v>742745.24753158877</v>
-      </c>
-      <c r="DY35" s="7">
-        <f t="shared" si="100"/>
-        <v>750172.70000690466</v>
-      </c>
-      <c r="DZ35" s="7">
-        <f t="shared" si="100"/>
-        <v>757674.42700697377</v>
-      </c>
-      <c r="EA35" s="7">
-        <f t="shared" si="100"/>
-        <v>765251.17127704353</v>
-      </c>
-      <c r="EB35" s="7">
-        <f t="shared" si="100"/>
-        <v>772903.68298981397</v>
-      </c>
-      <c r="EC35" s="7">
-        <f t="shared" si="100"/>
-        <v>780632.7198197121</v>
-      </c>
-      <c r="ED35" s="7">
-        <f t="shared" si="100"/>
-        <v>788439.04701790924</v>
-      </c>
-      <c r="EE35" s="7">
-        <f t="shared" si="100"/>
-        <v>796323.43748808838</v>
-      </c>
-      <c r="EF35" s="7">
-        <f t="shared" si="100"/>
-        <v>804286.67186296929</v>
-      </c>
-      <c r="EG35" s="7">
-        <f t="shared" si="100"/>
-        <v>812329.53858159902</v>
-      </c>
-      <c r="EH35" s="7">
-        <f t="shared" si="100"/>
-        <v>820452.83396741503</v>
-      </c>
-      <c r="EI35" s="7">
-        <f t="shared" si="100"/>
-        <v>828657.36230708915</v>
-      </c>
-      <c r="EJ35" s="7">
-        <f t="shared" si="100"/>
-        <v>836943.93593015999</v>
-      </c>
-      <c r="EK35" s="7">
-        <f t="shared" si="100"/>
-        <v>845313.37528946158</v>
-      </c>
-      <c r="EL35" s="7">
-        <f t="shared" si="100"/>
-        <v>853766.50904235616</v>
-      </c>
-      <c r="EM35" s="7">
-        <f t="shared" si="100"/>
-        <v>862304.17413277971</v>
-      </c>
-      <c r="EN35" s="7">
-        <f t="shared" si="100"/>
-        <v>870927.21587410755</v>
-      </c>
-      <c r="EO35" s="7">
-        <f t="shared" si="100"/>
-        <v>879636.48803284869</v>
-      </c>
-      <c r="EP35" s="7">
-        <f t="shared" si="100"/>
-        <v>888432.85291317722</v>
-      </c>
-      <c r="EQ35" s="7">
-        <f t="shared" si="100"/>
-        <v>897317.18144230905</v>
-      </c>
-      <c r="ER35" s="7">
-        <f t="shared" si="100"/>
-        <v>906290.35325673211</v>
-      </c>
-      <c r="ES35" s="7">
-        <f t="shared" si="100"/>
-        <v>915353.25678929943</v>
-      </c>
-      <c r="ET35" s="7">
-        <f t="shared" si="100"/>
-        <v>924506.78935719247</v>
-      </c>
-      <c r="EU35" s="7">
-        <f t="shared" si="100"/>
-        <v>933751.85725076438</v>
-      </c>
-      <c r="EV35" s="7">
-        <f t="shared" ref="EV35:FG35" si="101">EU35*(1+$Z$19)</f>
-        <v>943089.37582327204</v>
-      </c>
-      <c r="EW35" s="7">
-        <f t="shared" si="101"/>
-        <v>952520.26958150475</v>
-      </c>
-      <c r="EX35" s="7">
-        <f t="shared" si="101"/>
-        <v>962045.47227731976</v>
-      </c>
-      <c r="EY35" s="7">
-        <f t="shared" si="101"/>
-        <v>971665.92700009292</v>
-      </c>
-      <c r="EZ35" s="7">
-        <f t="shared" si="101"/>
-        <v>981382.58627009392</v>
-      </c>
-      <c r="FA35" s="7">
-        <f t="shared" si="101"/>
-        <v>991196.41213279485</v>
-      </c>
-      <c r="FB35" s="7">
-        <f t="shared" si="101"/>
-        <v>1001108.3762541228</v>
-      </c>
-      <c r="FC35" s="7">
-        <f t="shared" si="101"/>
-        <v>1011119.460016664</v>
-      </c>
-      <c r="FD35" s="7">
-        <f t="shared" si="101"/>
-        <v>1021230.6546168306</v>
-      </c>
-      <c r="FE35" s="7">
-        <f t="shared" si="101"/>
-        <v>1031442.9611629989</v>
-      </c>
-      <c r="FF35" s="7">
-        <f t="shared" si="101"/>
-        <v>1041757.390774629</v>
-      </c>
-      <c r="FG35" s="7">
-        <f t="shared" si="101"/>
-        <v>1052174.9646823753</v>
+        <v>940302.47893008927</v>
       </c>
     </row>
     <row r="36" spans="1:163" x14ac:dyDescent="0.2">
@@ -3767,44 +3767,44 @@
         <v>-30181</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" ref="N37:W37" si="102">M37+N15</f>
+        <f t="shared" ref="N37:W37" si="99">M37+N15</f>
         <v>74060.804800823957</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>186726.0389810417</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>308619.83107582619</v>
       </c>
       <c r="Q37" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>440634.38785596803</v>
       </c>
       <c r="R37" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>583758.73458171519</v>
       </c>
       <c r="S37" s="4">
-        <f t="shared" si="102"/>
+        <f t="shared" si="99"/>
         <v>739089.55089588941</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="102"/>
-        <v>907843.2255656193</v>
+        <f t="shared" si="99"/>
+        <v>903446.77108706417</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="102"/>
-        <v>1091369.2671204763</v>
+        <f t="shared" si="99"/>
+        <v>1077334.0360642264</v>
       </c>
       <c r="V37" s="4">
-        <f t="shared" si="102"/>
-        <v>1291165.222825584</v>
+        <f t="shared" si="99"/>
+        <v>1261284.5017790021</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="102"/>
-        <v>1508893.2755453365</v>
+        <f t="shared" si="99"/>
+        <v>1455862.6228872226</v>
       </c>
     </row>
     <row r="39" spans="1:163" x14ac:dyDescent="0.2">
@@ -3824,23 +3824,23 @@
         <v>93736</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" ref="N39:R39" si="103">N15</f>
+        <f t="shared" ref="N39:R39" si="100">N15</f>
         <v>104241.80480082396</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="100"/>
         <v>112665.23418021775</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="100"/>
         <v>121893.79209478451</v>
       </c>
       <c r="Q39" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="100"/>
         <v>132014.55678014184</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="103"/>
+        <f t="shared" si="100"/>
         <v>143124.34672574713</v>
       </c>
     </row>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8CE09A-3825-4A77-8A54-97A9115E3BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEBFF4A-FDCE-459B-95CA-5A355B2E1516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="345" windowWidth="21540" windowHeight="14760" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
+    <workbookView xWindow="1770" yWindow="210" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y24" sqref="Y24"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2395,7 +2395,7 @@
       <c r="Y18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="Z18" s="8">
         <v>0.02</v>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       <c r="Y19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="8">
         <v>0.01</v>
       </c>
     </row>

--- a/AAPL.xlsx
+++ b/AAPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEBFF4A-FDCE-459B-95CA-5A355B2E1516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D4C4F6-4131-4801-814C-B4630D552D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="210" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
+    <workbookView xWindow="2730" yWindow="1665" windowWidth="22200" windowHeight="14535" activeTab="1" xr2:uid="{624EDDA0-A479-489D-B866-645631A924E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
